--- a/data/02_intermediate/cleaned_Elh_Kmer_songs.xlsx
+++ b/data/02_intermediate/cleaned_Elh_Kmer_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Discographie - 40000 Gang Mixtape - 20150629 40000 Gang - Anarchie Single - 20140711 40000 Gang - Sosa - 20141020 40000 Gang - Vrai - 20150428 40000 Gang - César - 20150615 40000 Gang - 40K - 20150629 40000 Gang - Paris m'a tué Featuring - 20150413 Booba - Les meilleurs Discographie complémentaire - Discographie - Alox - Discographie - Benash - Discographie - Braki - Discographie - Darki - Discographie - Elh Kmer - Discographie - VestiYou might also like</t>
+          <t>Discographie - 40000 Gang Mixtape - 20150629 40000 Gang - Anarchie Single - 20140711 40000 Gang - Sosa - 20141020 40000 Gang - Vrai - 20150428 40000 Gang - César - 20150615 40000 Gang - 40K - 20150629 40000 Gang - Paris m'a tué Featuring - 20150413 Booba - Les meilleurs Discographie complémentaire - Discographie - Alox - Discographie - Benash - Discographie - Braki - Discographie - Darki - Discographie - Elh Kmer - Discographie - Vesti</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sarajevo, bande de koufar Monsieur So mon ami Sarajevo, Sarajevo, quel koufar va massiéger ? Millions deuros, millions deuros J'lis vos commentaires, bien sûr que je suis doué Grosse lucarne Yaya Touré Camer légendaire comme Marc-Vivien Foé Ils ont creusé, ils ont creusé ma tombe Jamais vendre la peau de lours sans lavoir bien tué Anarchie, pirates anarchistes Biatch ramène tes copines Bang bang dans vos chattes, crochet Verratti Renoi force tranquille Si jferme ma gueule cest pas preuve de faiblesse Habitués au mal on a traîné dans les hallszer Transporté dla gue-dro en état divresse Dailleurs jattends toujours mon chèque La SACEM mdoit lbiff de Sosa Jai le Glockzer qui caresse ma cuisse Jpeux tallumer, la même soirée jme taperai une lope-sa Renoi, suis-je boycotté ? Seule ta conscience pourra nous le dire Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir You might also like Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Wesh, monsieur So Ya des armes de guerre qui viennent dlEst Jai de plus en plus dfrères en taule Et jai dplus en plus de haine donc ma plume sengraisse Quoi ? Parait qu'j'suis mort Jétais dans lblock à bicrave de lherbe Jsuis dans lstup toi tes au stud Nan nan, javais pas lchoix pour me satisfaire Jconnais la misère mieux qusonne-per Plus de dix piges que jai pas vu mon père Tony my nigga, Tony my nigga Follow me dans les bails noirs quitte à plaider du ferme Koufar, koufar veut la place du boss Jai zéro défaite, sur ma eue-qu leur gloss Arrogance, 'blème gros, arrogance 'blème gros Et jarrêterai lrap quand mes poches seront pleines Le R fait les dièses dans lombre Jai lsilence dune Aventador Jai lsilence dune Aventador Miroir, miroir, dis-moi qui est le plus fort ? Mr So Dis-moi qui est le plus gore ? Mr So Dis-moi qui est le plus gore ? Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Elh Kmer, a.k.a Monsieur Sosa Sarajevo Boulbi Square Bitch6</t>
+          <t>Sarajevo, bande de koufar Monsieur So mon ami Sarajevo, Sarajevo, quel koufar va massiéger ? Millions deuros, millions deuros J'lis vos commentaires, bien sûr que je suis doué Grosse lucarne Yaya Touré Camer légendaire comme Marc-Vivien Foé Ils ont creusé, ils ont creusé ma tombe Jamais vendre la peau de lours sans lavoir bien tué Anarchie, pirates anarchistes Biatch ramène tes copines Bang bang dans vos chattes, crochet Verratti Renoi force tranquille Si jferme ma gueule cest pas preuve de faiblesse Habitués au mal on a traîné dans les hallszer Transporté dla gue-dro en état divresse Dailleurs jattends toujours mon chèque La SACEM mdoit lbiff de Sosa Jai le Glockzer qui caresse ma cuisse Jpeux tallumer, la même soirée jme taperai une lope-sa Renoi, suis-je boycotté ? Seule ta conscience pourra nous le dire Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Wesh, monsieur So Ya des armes de guerre qui viennent dlEst Jai de plus en plus dfrères en taule Et jai dplus en plus de haine donc ma plume sengraisse Quoi ? Parait qu'j'suis mort Jétais dans lblock à bicrave de lherbe Jsuis dans lstup toi tes au stud Nan nan, javais pas lchoix pour me satisfaire Jconnais la misère mieux qusonne-per Plus de dix piges que jai pas vu mon père Tony my nigga, Tony my nigga Follow me dans les bails noirs quitte à plaider du ferme Koufar, koufar veut la place du boss Jai zéro défaite, sur ma eue-qu leur gloss Arrogance, 'blème gros, arrogance 'blème gros Et jarrêterai lrap quand mes poches seront pleines Le R fait les dièses dans lombre Jai lsilence dune Aventador Jai lsilence dune Aventador Miroir, miroir, dis-moi qui est le plus fort ? Mr So Dis-moi qui est le plus gore ? Mr So Dis-moi qui est le plus gore ? Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Elh Kmer, a.k.a Monsieur Sosa Sarajevo Boulbi Square Bitch6</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sarajevo, bande de koufar Monsieur So mon ami Sarajevo, Sarajevo, quel koufar va massiéger ? Millions deuros, millions deuros J'lis vos commentaires, bien sûr que je suis doué Grosse lucarne Yaya Touré Camer légendaire comme Marc-Vivien Foé Ils ont creusé, ils ont creusé ma tombe Jamais vendre la peau de lours sans lavoir bien tué Anarchie, pirates anarchistes Biatch ramène tes copines Bang bang dans vos chattes, crochet Verratti Renoi force tranquille Si jferme ma gueule cest pas preuve de faiblesse Habitués au mal on a traîné dans les hallszer Transporté dla gue-dro en état divresse Dailleurs jattends toujours mon chèque La SACEM mdoit lbiff de Sosa Jai le Glockzer qui caresse ma cuisse Jpeux tallumer, la même soirée jme taperai une lope-sa Renoi, suis-je boycotté ? Seule ta conscience pourra nous le dire Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir You might also like Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Wesh, monsieur So Ya des armes de guerre qui viennent dlEst Jai de plus en plus dfrères en taule Et jai dplus en plus de haine donc ma plume sengraisse Quoi ? Parait qu'j'suis mort Jétais dans lblock à bicrave de lherbe Jsuis dans lstup toi tes au stud Nan nan, javais pas lchoix pour me satisfaire Jconnais la misère mieux qusonne-per Plus de dix piges que jai pas vu mon père Tony my nigga, Tony my nigga Follow me dans les bails noirs quitte à plaider du ferme Koufar, koufar veut la place du boss Jai zéro défaite, sur ma eue-qu leur gloss Arrogance, 'blème gros, arrogance 'blème gros Et jarrêterai lrap quand mes poches seront pleines Le R fait les dièses dans lombre Jai lsilence dune Aventador Jai lsilence dune Aventador Miroir, miroir, dis-moi qui est le plus fort ? Mr So Dis-moi qui est le plus gore ? Mr So Dis-moi qui est le plus gore ? Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Elh Kmer, a.k.a Monsieur Sosa Sarajevo Boulbi Square Bitch6</t>
+          <t>Sarajevo, bande de koufar Monsieur So mon ami Sarajevo, Sarajevo, quel koufar va massiéger ? Millions deuros, millions deuros J'lis vos commentaires, bien sûr que je suis doué Grosse lucarne Yaya Touré Camer légendaire comme Marc-Vivien Foé Ils ont creusé, ils ont creusé ma tombe Jamais vendre la peau de lours sans lavoir bien tué Anarchie, pirates anarchistes Biatch ramène tes copines Bang bang dans vos chattes, crochet Verratti Renoi force tranquille Si jferme ma gueule cest pas preuve de faiblesse Habitués au mal on a traîné dans les hallszer Transporté dla gue-dro en état divresse Dailleurs jattends toujours mon chèque La SACEM mdoit lbiff de Sosa Jai le Glockzer qui caresse ma cuisse Jpeux tallumer, la même soirée jme taperai une lope-sa Renoi, suis-je boycotté ? Seule ta conscience pourra nous le dire Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Wesh, monsieur So Ya des armes de guerre qui viennent dlEst Jai de plus en plus dfrères en taule Et jai dplus en plus de haine donc ma plume sengraisse Quoi ? Parait qu'j'suis mort Jétais dans lblock à bicrave de lherbe Jsuis dans lstup toi tes au stud Nan nan, javais pas lchoix pour me satisfaire Jconnais la misère mieux qusonne-per Plus de dix piges que jai pas vu mon père Tony my nigga, Tony my nigga Follow me dans les bails noirs quitte à plaider du ferme Koufar, koufar veut la place du boss Jai zéro défaite, sur ma eue-qu leur gloss Arrogance, 'blème gros, arrogance 'blème gros Et jarrêterai lrap quand mes poches seront pleines Le R fait les dièses dans lombre Jai lsilence dune Aventador Jai lsilence dune Aventador Miroir, miroir, dis-moi qui est le plus fort ? Mr So Dis-moi qui est le plus gore ? Mr So Dis-moi qui est le plus gore ? Jleur pète la carotide, vision trouble Ton sommeil va sapprofondir Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Mon avenir est tracé, pourquoi sacharner à me mettre des barrières ? Jai tellement souffert, oui mon seigneur jai tellement souffert Jai du dealer pour avoir du khalis Négro, crois-moi sur parole jen suis pas fier Javais pas lchoix car jviens dune famille pauvre Linspi est noire elle vient dSarajevo Javais pas lchoix car jviens dune famille pauvre Jai trop dennemis, sur mes côtes, maman jsais plus quoi faire Elh Kmer, a.k.a Monsieur Sosa Sarajevo Boulbi Square Bitch6</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lil La Fayette Tudom, tudom hogy csak Tudom hogy csak, tudom hogy csak ott van a pult alatt Vedd el de gyorsan, mert nem ezért fogok neked fizetni barátom hogy téged ki oltsalak Jó? Vedd el a rákóczit barátom, most azonnal vágjad fel, ketté Két részre szedjed szét, most azonnal molekulákra fogom felbontani Hogy fel tudjam szippantani az oromba, ya A rákóczinak az orromba van a helye, nincs olyan hogy overdose Mivel már túl vagyok overdose-olva barátom ya! Adj nekem egy egészet, feloldom és belövöm a faszomba, ya! Bele fogom lni, a faszomba, ya! Adj egy tálcával, én felszívom! Lenyelem, elszívom! Olyan vagyok bazdmeg mint egy lamborghini amibe rákóczit kell tölteni Nincsen rákóczi, akkor nincs élet, ya Felvállalom, ya Áll a faszom, ya Rákóczi Levágtam ollóval hogy ne álljon fel rá És azzal egyem meg, ya Kiverem a faszom a rákóczimra Egytl egyig, ya Áll a faszom a rákóczira, ya Lil Triply aC You might also likeJa, rákóczi az élet Nem tudok mást csinálni, csak hogy azzal lövöm magam Csak az az életem, nem volt más hátra Még az osztályfnököm se vágyott másra Kérlek, adjatok még rákóczit, nem bírom ki nélküle Ezzel lövöm magam, éjjel nappal és este Kérlek, segíts, mert enélkül nem tudok mire menni Rákóczi az élet, nem tom ezt hová tenni Kérlek, adj még rákóczit, enélkül nem tok mit csinálni Éjjel, nappal ezt fogyasztom, már a szervezetem el is romlik Kérlek, adj még belle, nem bírom tovább nélküle Gyorsan valahogy adj egy tt hogy be is ljjem magamnak Mert enélkül a szervezetem miharamabb összeomlana Gyorsan kéne még rákóczi, mert még az Angler bedühödik Gyorsan csináljatok rákóczit, mert enélkül az élet semmit sem számít Adjatok még rákóczit, gyorsan, mert különben dühbe gurulok Adjatok egy tt mellé, mivel belövöm magamnak Mert enélkül az Angler dühbe gurul És az élet, egyébként sem számít</t>
+          <t>Lil La Fayette Tudom, tudom hogy csak Tudom hogy csak, tudom hogy csak ott van a pult alatt Vedd el de gyorsan, mert nem ezért fogok neked fizetni barátom hogy téged ki oltsalak Jó? Vedd el a rákóczit barátom, most azonnal vágjad fel, ketté Két részre szedjed szét, most azonnal molekulákra fogom felbontani Hogy fel tudjam szippantani az oromba, ya A rákóczinak az orromba van a helye, nincs olyan hogy overdose Mivel már túl vagyok overdose-olva barátom ya! Adj nekem egy egészet, feloldom és belövöm a faszomba, ya! Bele fogom lni, a faszomba, ya! Adj egy tálcával, én felszívom! Lenyelem, elszívom! Olyan vagyok bazdmeg mint egy lamborghini amibe rákóczit kell tölteni Nincsen rákóczi, akkor nincs élet, ya Felvállalom, ya Áll a faszom, ya Rákóczi Levágtam ollóval hogy ne álljon fel rá És azzal egyem meg, ya Kiverem a faszom a rákóczimra Egytl egyig, ya Áll a faszom a rákóczira, ya Lil Triply aC Ja, rákóczi az élet Nem tudok mást csinálni, csak hogy azzal lövöm magam Csak az az életem, nem volt más hátra Még az osztályfnököm se vágyott másra Kérlek, adjatok még rákóczit, nem bírom ki nélküle Ezzel lövöm magam, éjjel nappal és este Kérlek, segíts, mert enélkül nem tudok mire menni Rákóczi az élet, nem tom ezt hová tenni Kérlek, adj még rákóczit, enélkül nem tok mit csinálni Éjjel, nappal ezt fogyasztom, már a szervezetem el is romlik Kérlek, adj még belle, nem bírom tovább nélküle Gyorsan valahogy adj egy tt hogy be is ljjem magamnak Mert enélkül a szervezetem miharamabb összeomlana Gyorsan kéne még rákóczi, mert még az Angler bedühödik Gyorsan csináljatok rákóczit, mert enélkül az élet semmit sem számít Adjatok még rákóczit, gyorsan, mert különben dühbe gurulok Adjatok egy tt mellé, mivel belövöm magamnak Mert enélkül az Angler dühbe gurul És az élet, egyébként sem számít</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J'suis dans la soucoupe J'suis dans la sou- Derrière les étoiles J'ai rêvé du AMG, pas d'meufs comme dans leur clip nan Chemin de vie, j'ai la boussole, dans 4 saisons chante Vivaldi Vivaldi On s'verra pas d'aussitôt, tu chanteras seul Despacito HLM y a trop de haine, sont remplis de rien en eux j'ai vu l'néant eux j'ai vu nada En toi j'vois l'néant en toi c'est vide, en toi j'vois un traître Des res-frè au trou pour l'terrain, j'ai coupé des curs, le produit comme des makis te-shi J'ferai couler tout ton maquillage bah ouais, car aujourd'hui on a c'qu'on veut bah ouais Si on vint, on achète tes rêves, foll à cette heure qu'elle en perd ses neurones J'ai fait un cauchemar, j'suis tombé love de tout c'qui brillait Elle m'dit qu'c'est la merde, dans sa vie elle m'dit qu'c'est la merde elle m'dit qu'c'est la merde J'aurais pas du m'confier non, toi t'es bon qu'à leaker t'es bon qu'à leaker Nouveau commerce, nouvelle Lyca, démarrage, hold-up, le sale est vital La mélodie m'ensorcelle, j'suis souvent en voyage tout l'temps J'ai cherché une fleur, j'ai cherché une étoile, j'ai trouvé nada nada Perdu j'suis dans la soucoupe perdu, très peu ici sont loyal J'suis avec Lala, j'fais l'tour d'Beriz, j'ai trouvé nada la mélodie m'ensorcelle Je fais le tour de Beriz T'aimes les ténèbres suis-moi, dans l'piège je joue titulaire La roue tourne dans l'sens des hélices Longue est la traversée dans l'couloir La mélodie m'ensorcelle You might also like On a reu-p que du Seigneur Dieu, j'mange les opps saignants, bleus ouais Et comme demain c'est loin, j'vais perdre et retrouver le chemin c'est comment mon vieux ? J'ai roulé genre 32 bouts, tellement en pierre, j'ai dit à mon frère Si j'meurs, tu m'enterres debout ouais, ouais Cette année y en a qui vont perdre leur cou han Très loin d'chez moi frangin, j'ai le génie des gens bénis, ouais S'en fout d'leur plaire, sont claquées leurs paires charbon sa mère Noire est la couverture du roman, j'aime trop le produit qui vient d'Hollande Plus rien dans la 'teille, à mort, au gros ils veuillent nous cueillir J'ai fait un cauchemar, j'suis tombé love de tout c'qui brillait Elle m'dit qu'c'est la merde, dans sa vie elle m'dit qu'c'est la merde elle m'dit qu'c'est la merde J'aurais pas du m'confier non, toi t'es bon qu'à leaker t'es bon qu'à leaker Nouveau commerce, nouvelle Lyca, démarrage, hold-up, le sale est vital La mélodie m'ensorcelle, j'suis souvent en voyage tout l'temps J'ai cherché une fleur, j'ai cherché une étoile, j'ai trouvé nada nada Perdu j'suis dans la soucoupe perdu, très peu ici sont loyal J'suis avec Lala, j'fais l'tour d'Beriz, j'ai trouvé nada la mélodie m'ensorcelle Je fais le tour de Beriz T'aimes les ténèbres suis-moi, dans l'piège je joue titulaire La roue tourne dans l'sens des hélices Longue est la traversée dans l'couloir La mélodie m'ensorcelle</t>
+          <t>J'suis dans la soucoupe J'suis dans la sou- Derrière les étoiles J'ai rêvé du AMG, pas d'meufs comme dans leur clip nan Chemin de vie, j'ai la boussole, dans 4 saisons chante Vivaldi Vivaldi On s'verra pas d'aussitôt, tu chanteras seul Despacito HLM y a trop de haine, sont remplis de rien en eux j'ai vu l'néant eux j'ai vu nada En toi j'vois l'néant en toi c'est vide, en toi j'vois un traître Des res-frè au trou pour l'terrain, j'ai coupé des curs, le produit comme des makis te-shi J'ferai couler tout ton maquillage bah ouais, car aujourd'hui on a c'qu'on veut bah ouais Si on vint, on achète tes rêves, foll à cette heure qu'elle en perd ses neurones J'ai fait un cauchemar, j'suis tombé love de tout c'qui brillait Elle m'dit qu'c'est la merde, dans sa vie elle m'dit qu'c'est la merde elle m'dit qu'c'est la merde J'aurais pas du m'confier non, toi t'es bon qu'à leaker t'es bon qu'à leaker Nouveau commerce, nouvelle Lyca, démarrage, hold-up, le sale est vital La mélodie m'ensorcelle, j'suis souvent en voyage tout l'temps J'ai cherché une fleur, j'ai cherché une étoile, j'ai trouvé nada nada Perdu j'suis dans la soucoupe perdu, très peu ici sont loyal J'suis avec Lala, j'fais l'tour d'Beriz, j'ai trouvé nada la mélodie m'ensorcelle Je fais le tour de Beriz T'aimes les ténèbres suis-moi, dans l'piège je joue titulaire La roue tourne dans l'sens des hélices Longue est la traversée dans l'couloir La mélodie m'ensorcelle On a reu-p que du Seigneur Dieu, j'mange les opps saignants, bleus ouais Et comme demain c'est loin, j'vais perdre et retrouver le chemin c'est comment mon vieux ? J'ai roulé genre 32 bouts, tellement en pierre, j'ai dit à mon frère Si j'meurs, tu m'enterres debout ouais, ouais Cette année y en a qui vont perdre leur cou han Très loin d'chez moi frangin, j'ai le génie des gens bénis, ouais S'en fout d'leur plaire, sont claquées leurs paires charbon sa mère Noire est la couverture du roman, j'aime trop le produit qui vient d'Hollande Plus rien dans la 'teille, à mort, au gros ils veuillent nous cueillir J'ai fait un cauchemar, j'suis tombé love de tout c'qui brillait Elle m'dit qu'c'est la merde, dans sa vie elle m'dit qu'c'est la merde elle m'dit qu'c'est la merde J'aurais pas du m'confier non, toi t'es bon qu'à leaker t'es bon qu'à leaker Nouveau commerce, nouvelle Lyca, démarrage, hold-up, le sale est vital La mélodie m'ensorcelle, j'suis souvent en voyage tout l'temps J'ai cherché une fleur, j'ai cherché une étoile, j'ai trouvé nada nada Perdu j'suis dans la soucoupe perdu, très peu ici sont loyal J'suis avec Lala, j'fais l'tour d'Beriz, j'ai trouvé nada la mélodie m'ensorcelle Je fais le tour de Beriz T'aimes les ténèbres suis-moi, dans l'piège je joue titulaire La roue tourne dans l'sens des hélices Longue est la traversée dans l'couloir La mélodie m'ensorcelle</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Devant le canon, tu bandes mou gros, dis-moi tu baises qui ? Devant le canon, tu bandes mou gros, dis-moi tu baises qui ? Dans les veines, j'ai la Zubrowska, tu dois des euros tu vesqui Tout est gris dans le cendrier, on ramasse tout sans crier Après minuit c'est dans l'Clarion, que les Cendrillons se font griller Tôt ou tard, la moutarde monte au nez Ne joue pas le Montana ou tu verras la mort quand tu vas t'retourner J'suis dans le Audi, quatre boules entre les deux phares Je ne m'répèterai pas deux fois, on t'élimine si tu fais pas d'effort J'ai transpiré pour en arriver là, j'ai eu l'caviar après les raviolis J'suis au comico, t'as tout révélé, ta langue, on va t'la faire avaler Tu préférais faire cavalier seul par peur d'être trahi Tout n'est pas si rose demande aux frères de L'Hay Je sais qu'on m'guette de la haut, faire mes bêtises ici-bas Mais le ble-dia me dit que c'est beau, tout est rouge sous les sabots Finition après le massage, sur mon dos elle met du monoï Car si tu sais c'qu'on a subi, tu nous verras plus jamais du même il Garde tes schneks, donne les chèques, j'préfère la maille que la mouille À tes armes et d'la schnouf, d'la racaille, des cagoules L'ouvreuse a passé la douane, ça r'monte ou ça redescend si ça vient du Nord Pisse dans la bouteille, pas dans ta culotte, si tu carottes, tu finis Moutakala Binks Que dieu me pardonne la droga a était refourgué Mama graille au fouquet's Depuis que le fiston tape des fourgons Depuis que le fiston tape des fourgons Quand sa sera l'heure on leur nique la recette Y'a que mon seigneur qui écoute ma requête J'arrive au monde comme un babylonien Donc ma femme sera surement une petite marocaine Petite marocaine, shit marocain Schmidt arogant, chiffre record Ils ont ciblé le compte, gonflé comme le chibre à Rocco J'ai saisis le coffre, ils ont saisis le code J'pillave des packs de pacardie Visser des clients attarder Les démons me prennent en apparter XXX dans l'appart Tous ce qui est important C'est de ne pas faire de perte De ne pas perdre la partie C'est vrai je parle de Papa partout Ca c'est depuis que maman est partie J'me réveille à 5 heures chaque mardis Haqq rabbi, vous êtes pas a l'abri Bien calibrer on est pas qu'a l'abri XXX Cuits à la braise, rebeu barbecue XXX XXX 3ami j'ai ramé, khalti j'suis cramé J'peux dormir chez toi l'addition est salé J'crois que je vais prendre des années Drogues sous les anneaux Drogues sous les anneaux Khaba de chienne, elle veut que je lui passe l'anneaux de dingue, je fais des XXX toutes l'année J suis à AirBel toute la nuit YL You might also like Bienvenue dans le cercle, bitch Rempli de mauvaise intention Ciroc sans glaçons de toute façon Sale cogno file moi mon pognon Tu me connais tu grimpes sous tes canons Dans le game je score comme aux playoffs J'recule pour mieux défoncer ta te-por Faire du benefs j'ai trop trainer dehors Que dieu m'écarte de tes potos bizarres Ça bicrave grave Le ke-cra j'taff J'cours après s'cash Toujours en mode fuck le système Méchant microbe qui sort son arme Tout cette oseille la rend malfaisante On grandit , crois pas qu'on plaisante Si je te raconte tu vas finir par te pendre On encaisse, on entasse, on est venu tout prendre Guette le , bébé tu vas comprendre J'ai vu ces démons me proposer une danse Aqua dans tshop j'suis stone Rien a changer j'suis dans la zone Capitaine le croque mitaine Allo gent-ar quand le phone sonne Trop de haine donc mon coeur saigne Double binks Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas En cours... En cours... En cours... En cours...1</t>
+          <t>Devant le canon, tu bandes mou gros, dis-moi tu baises qui ? Devant le canon, tu bandes mou gros, dis-moi tu baises qui ? Dans les veines, j'ai la Zubrowska, tu dois des euros tu vesqui Tout est gris dans le cendrier, on ramasse tout sans crier Après minuit c'est dans l'Clarion, que les Cendrillons se font griller Tôt ou tard, la moutarde monte au nez Ne joue pas le Montana ou tu verras la mort quand tu vas t'retourner J'suis dans le Audi, quatre boules entre les deux phares Je ne m'répèterai pas deux fois, on t'élimine si tu fais pas d'effort J'ai transpiré pour en arriver là, j'ai eu l'caviar après les raviolis J'suis au comico, t'as tout révélé, ta langue, on va t'la faire avaler Tu préférais faire cavalier seul par peur d'être trahi Tout n'est pas si rose demande aux frères de L'Hay Je sais qu'on m'guette de la haut, faire mes bêtises ici-bas Mais le ble-dia me dit que c'est beau, tout est rouge sous les sabots Finition après le massage, sur mon dos elle met du monoï Car si tu sais c'qu'on a subi, tu nous verras plus jamais du même il Garde tes schneks, donne les chèques, j'préfère la maille que la mouille À tes armes et d'la schnouf, d'la racaille, des cagoules L'ouvreuse a passé la douane, ça r'monte ou ça redescend si ça vient du Nord Pisse dans la bouteille, pas dans ta culotte, si tu carottes, tu finis Moutakala Binks Que dieu me pardonne la droga a était refourgué Mama graille au fouquet's Depuis que le fiston tape des fourgons Depuis que le fiston tape des fourgons Quand sa sera l'heure on leur nique la recette Y'a que mon seigneur qui écoute ma requête J'arrive au monde comme un babylonien Donc ma femme sera surement une petite marocaine Petite marocaine, shit marocain Schmidt arogant, chiffre record Ils ont ciblé le compte, gonflé comme le chibre à Rocco J'ai saisis le coffre, ils ont saisis le code J'pillave des packs de pacardie Visser des clients attarder Les démons me prennent en apparter XXX dans l'appart Tous ce qui est important C'est de ne pas faire de perte De ne pas perdre la partie C'est vrai je parle de Papa partout Ca c'est depuis que maman est partie J'me réveille à 5 heures chaque mardis Haqq rabbi, vous êtes pas a l'abri Bien calibrer on est pas qu'a l'abri XXX Cuits à la braise, rebeu barbecue XXX XXX 3ami j'ai ramé, khalti j'suis cramé J'peux dormir chez toi l'addition est salé J'crois que je vais prendre des années Drogues sous les anneaux Drogues sous les anneaux Khaba de chienne, elle veut que je lui passe l'anneaux de dingue, je fais des XXX toutes l'année J suis à AirBel toute la nuit YL Bienvenue dans le cercle, bitch Rempli de mauvaise intention Ciroc sans glaçons de toute façon Sale cogno file moi mon pognon Tu me connais tu grimpes sous tes canons Dans le game je score comme aux playoffs J'recule pour mieux défoncer ta te-por Faire du benefs j'ai trop trainer dehors Que dieu m'écarte de tes potos bizarres Ça bicrave grave Le ke-cra j'taff J'cours après s'cash Toujours en mode fuck le système Méchant microbe qui sort son arme Tout cette oseille la rend malfaisante On grandit , crois pas qu'on plaisante Si je te raconte tu vas finir par te pendre On encaisse, on entasse, on est venu tout prendre Guette le , bébé tu vas comprendre J'ai vu ces démons me proposer une danse Aqua dans tshop j'suis stone Rien a changer j'suis dans la zone Capitaine le croque mitaine Allo gent-ar quand le phone sonne Trop de haine donc mon coeur saigne Double binks Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Bienvenue dans le cercle, bitch Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas En cours... En cours... En cours... En cours...1</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enchanté, c'est Monsieur So L'anarchiste Homicide volontaire Paix à nos morts Fuck vos lois, fuck vos droits Promis, juré, craché, tasse-pé va t'habiller Je suis en guerre contre qui, contre toi ? Wesh, t'es même pas armé Ferme ta chatte sale tchoin, on te fera valser comme au Lido Mi amor compte mon biff, si t'es ma Tata je serais ton Pablo Ils font les jnouneys mais sont sympas Je veux une grosse caisse, Panamera noire mate Crachat sur les keufs, normal Qu'est-ce qu'il y a ? Rien ?! Bah, vas-y casse toi Vos bavures créeront des génocides Volontaires, pires que Charlie Charlie, Charlie, miskine Quel destin, pauvre Charlie Je ferais pas d'efforts d'intégration si ce bled ne m'aime pas C'est donnant-donnant, je suis un fils d'immigré pas un fils de Gaulois et ça se voit Les repris de justice, c'est nous Les bavures de merde, c'est vous Libérez la Palestine, Gaza Libérez nos terres en Afrique, So You might also like Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait Des frères qui perdent la vie tous les jours dans le bloc, gros, on les compte plus Mais quelle vie aura mon fils, je me demande tellement, gros, que je ne dors plus Trois chahada avant de partir mais Dieu seul sait ce qu'il m'attend Je compte mes billets verts, sa mère la tain-p' c'est trop excitant Fuck vos préjugés, plus rien ne m'étonne je suis un immigré Héritier d'une vie dans la merde, cette vie de merde l'a-t-on mérité ? Comme Audigier, on t'oubliera six pieds sous terre Numéro 10, gros, je suis légendaire Coup de cross dans ta mère, on te laissera à terre Automatique est l'outil Welcome to the Miami Ça débite sa mère comme pas permis T'as des mes-ar, nous aussi On parle pas nous on agit Bang, bang, bang, adieu l'ami Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait1</t>
+          <t>Enchanté, c'est Monsieur So L'anarchiste Homicide volontaire Paix à nos morts Fuck vos lois, fuck vos droits Promis, juré, craché, tasse-pé va t'habiller Je suis en guerre contre qui, contre toi ? Wesh, t'es même pas armé Ferme ta chatte sale tchoin, on te fera valser comme au Lido Mi amor compte mon biff, si t'es ma Tata je serais ton Pablo Ils font les jnouneys mais sont sympas Je veux une grosse caisse, Panamera noire mate Crachat sur les keufs, normal Qu'est-ce qu'il y a ? Rien ?! Bah, vas-y casse toi Vos bavures créeront des génocides Volontaires, pires que Charlie Charlie, Charlie, miskine Quel destin, pauvre Charlie Je ferais pas d'efforts d'intégration si ce bled ne m'aime pas C'est donnant-donnant, je suis un fils d'immigré pas un fils de Gaulois et ça se voit Les repris de justice, c'est nous Les bavures de merde, c'est vous Libérez la Palestine, Gaza Libérez nos terres en Afrique, So Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait Des frères qui perdent la vie tous les jours dans le bloc, gros, on les compte plus Mais quelle vie aura mon fils, je me demande tellement, gros, que je ne dors plus Trois chahada avant de partir mais Dieu seul sait ce qu'il m'attend Je compte mes billets verts, sa mère la tain-p' c'est trop excitant Fuck vos préjugés, plus rien ne m'étonne je suis un immigré Héritier d'une vie dans la merde, cette vie de merde l'a-t-on mérité ? Comme Audigier, on t'oubliera six pieds sous terre Numéro 10, gros, je suis légendaire Coup de cross dans ta mère, on te laissera à terre Automatique est l'outil Welcome to the Miami Ça débite sa mère comme pas permis T'as des mes-ar, nous aussi On parle pas nous on agit Bang, bang, bang, adieu l'ami Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait Hey, je plaide coupable pour homicide volontaire Madame la juge, ce fils de pute a traité ma mère Je suis dans le bloc, je vends de la drogue et j'en suis fier Allez nique ta mère, c'est pas ton père qui me donne du lait Homicide, homicide volontaire Madame la juge, ce fils de pute a traité ma mère Homicide, homicide volontaire Allez nique ta mère, c'est pas ton père qui me donne du lait1</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino You might also likeALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marche ou crève mon ami Je l'ai appris à mes dépens Ma génération pue sa grand-mère la pute Et moi, dis moi si j'suis meilleur que ces fils de putes Très haut je vais monter, sévère sera ta chute J'suis meilleur que toi négro, le savait-tu ? 90 du rap se prostitue Kalachnikov près de mon cur qui pourra m'arrêter ? Maman j'suis bien équipé, t'inquiète pas pour moi même si j'suis boycotté L'avenir appartient à ceux qui bicravent de la gue-dro 0 taxes, 0 impôts, le seul inconvénient finir au dépôt Mais où sont mes négros ? Tony my nigga, my nigga J'ai bicrave la C quand il y'avait plus de bédo J'ai fumé cette chienne, elle a finit chez l'véto Kalachnikov dans ta chatte, j'parle pas aux biatchs mais au mac J'ai quelques clients qui m'attendent Donc parle de khaliss si c'est rentable Les pertes sont considérables plus dans ton camp que dans le nôtre Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co You might also like T'es pas mon père bâtard j'suis pas ton fils Ferme ta gueule et faisons du khaliss Ferme ta gueule parlons de cannabis Y'a pas d'âge négro pour vous mettre en déficit J'suis navré, sur vos carrières je mets R.I.P. J'ai la mentale de Kounta Kinté 400 ans d'esclavage négro, pas d'jours fériés J'vais te baiser jusqu'à c'que tu n'ait plus tes règles, fuck La manière seul le rendu m'importe, pute Crachat, crachat dans ta chatte, accouchera d'un bâtard J'ai perdu mon frère depuis j'suis plus le même J'observe les étoiles, parmi elle une ébène La vie mord bien sûr qu'elle est très noire Sans ta présence nos projets sont à la poubelle Négro il y'a d'OG Kush, teu-shi et coco Tu payes cash même si t'es nne-bo Faut la chance des cinq chiffres du Loto AK-47 remplace mon kimono J'vais les uét', cette année c'est sûr En un seul couplet le game me plébiscite On sait qui est qui, on sait qui fait quoi Arrêtez vos blehni, vos vies sont des films Les pertes sont considérables Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches Mr Sosa ma monnaie ma monnaie 2016 mon ami mon ami N10 ma monnaie ma monnaie he On le fera pour toi frérot ma monnaie ma monnaie he Hey A.S.K Clik ma monnaie ma monnaie he Boulogne Square ma monnaie ma monnaie Pont de Sèvres mon ami mon ami Ombre et lumière Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he3</t>
+          <t>Marche ou crève mon ami Je l'ai appris à mes dépens Ma génération pue sa grand-mère la pute Et moi, dis moi si j'suis meilleur que ces fils de putes Très haut je vais monter, sévère sera ta chute J'suis meilleur que toi négro, le savait-tu ? 90 du rap se prostitue Kalachnikov près de mon cur qui pourra m'arrêter ? Maman j'suis bien équipé, t'inquiète pas pour moi même si j'suis boycotté L'avenir appartient à ceux qui bicravent de la gue-dro 0 taxes, 0 impôts, le seul inconvénient finir au dépôt Mais où sont mes négros ? Tony my nigga, my nigga J'ai bicrave la C quand il y'avait plus de bédo J'ai fumé cette chienne, elle a finit chez l'véto Kalachnikov dans ta chatte, j'parle pas aux biatchs mais au mac J'ai quelques clients qui m'attendent Donc parle de khaliss si c'est rentable Les pertes sont considérables plus dans ton camp que dans le nôtre Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co T'es pas mon père bâtard j'suis pas ton fils Ferme ta gueule et faisons du khaliss Ferme ta gueule parlons de cannabis Y'a pas d'âge négro pour vous mettre en déficit J'suis navré, sur vos carrières je mets R.I.P. J'ai la mentale de Kounta Kinté 400 ans d'esclavage négro, pas d'jours fériés J'vais te baiser jusqu'à c'que tu n'ait plus tes règles, fuck La manière seul le rendu m'importe, pute Crachat, crachat dans ta chatte, accouchera d'un bâtard J'ai perdu mon frère depuis j'suis plus le même J'observe les étoiles, parmi elle une ébène La vie mord bien sûr qu'elle est très noire Sans ta présence nos projets sont à la poubelle Négro il y'a d'OG Kush, teu-shi et coco Tu payes cash même si t'es nne-bo Faut la chance des cinq chiffres du Loto AK-47 remplace mon kimono J'vais les uét', cette année c'est sûr En un seul couplet le game me plébiscite On sait qui est qui, on sait qui fait quoi Arrêtez vos blehni, vos vies sont des films Les pertes sont considérables Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches Mr Sosa ma monnaie ma monnaie 2016 mon ami mon ami N10 ma monnaie ma monnaie he On le fera pour toi frérot ma monnaie ma monnaie he Hey A.S.K Clik ma monnaie ma monnaie he Boulogne Square ma monnaie ma monnaie Pont de Sèvres mon ami mon ami Ombre et lumière Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he3</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jisan Production Oh-oh Trois fois T'as vu ? Tou-tou-touh-tou-tou-tou-touh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer Han J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Jackson Fiv, Jackson Five, Jackson Five Han, han, han J'suis rentré, ils m'ont pas vu rssortir avec le butin, une putain à côté d'moi Butin, une putain à côté De toute façon, j'compte pas sur toi, le soleil tape, j'décapote le toit Le soleil tape T'as pris des coups, on a tenu le coup Coup, quand je la baise, je la tiens par le cou Cou Magnum, P.38, six coups Tou-tou-touh, be-her, te-shi, en bas de nos tours Oh, oh, oh À qui le tour ? Y aura pas de détour Mmh Quand tu fais la maille, ça crée beaucoup d'ennemis Quand tu fais la maille, ça crée beaucoup d'ennemis, ouh, ouh, ouh, ouh You might also like Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Autodidacte depuis gamin, on fait que s'adapter Noire est la couleur du cur, tu crois qu'c'est la bonne mais y a que des tasses-pé J'achète, je guette pas le prix, avenue des Hommes, j'connais Rivoli J'connais Dieu merci, j'suis toujours en vie, j'aurais pu mourir comme 2Pac et Biggie Biggie Small Bientôt la foudre Biggie folle Biggie, ouh, ouh, ouh Belek aux blues, j'élabore le plan, la pano' est full, full, full Nous, c'est la Ligue 1 Wow, pas d'Ligue 2 Wow, pas d'chagrin, tout pour la plata Ouais Si on veut, on prend, on deal, on vole, on shoote, on touche les legs Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Il n'y a que deux places au volant d'la 'rari Allô maman ? Bobo Tout l'temps, tout l'temp</t>
+          <t>Jisan Production Oh-oh Trois fois T'as vu ? Tou-tou-touh-tou-tou-tou-touh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer Han J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Jackson Fiv, Jackson Five, Jackson Five Han, han, han J'suis rentré, ils m'ont pas vu rssortir avec le butin, une putain à côté d'moi Butin, une putain à côté De toute façon, j'compte pas sur toi, le soleil tape, j'décapote le toit Le soleil tape T'as pris des coups, on a tenu le coup Coup, quand je la baise, je la tiens par le cou Cou Magnum, P.38, six coups Tou-tou-touh, be-her, te-shi, en bas de nos tours Oh, oh, oh À qui le tour ? Y aura pas de détour Mmh Quand tu fais la maille, ça crée beaucoup d'ennemis Quand tu fais la maille, ça crée beaucoup d'ennemis, ouh, ouh, ouh, ouh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Autodidacte depuis gamin, on fait que s'adapter Noire est la couleur du cur, tu crois qu'c'est la bonne mais y a que des tasses-pé J'achète, je guette pas le prix, avenue des Hommes, j'connais Rivoli J'connais Dieu merci, j'suis toujours en vie, j'aurais pu mourir comme 2Pac et Biggie Biggie Small Bientôt la foudre Biggie folle Biggie, ouh, ouh, ouh Belek aux blues, j'élabore le plan, la pano' est full, full, full Nous, c'est la Ligue 1 Wow, pas d'Ligue 2 Wow, pas d'chagrin, tout pour la plata Ouais Si on veut, on prend, on deal, on vole, on shoote, on touche les legs Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Il n'y a que deux places au volant d'la 'rari Allô maman ? Bobo Tout l'temps, tout l'temp</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nakah Hey hey On doit l'écrire lhistoire mon ami 4 saisons, Vivaldi, on y est Mmmh, hey hey Wesh, méfie-toi de cqui brille mon ami Nest pas forcément signe de quali ice Jfais un garrot pour mamputer Jmattache à que dalle, même pas aux amis Faut du pouvoir, faut du prestige Héliport, plusieurs domaines woo woo Simple citoyen, faut pas sapitoyer krr Jdois nettoyer après usage À côté des bombes tu es du côté Jsuis ponctuel comme la faucheuse Jserre la voile pour rouler plus vite Trêve de plaisanterie Boîte auto mérite une gâterie Sois sur tes appuis, gamin Vision laser sur lappuie-tête Nouveau festin, jvais minviter Riche en calcium est ma Vittel whao whao whao You might also like Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu Hey hey hey HLM rempli dcafards Jsuis dans un dix pièces, cest djà pas mal pas mal Faut du savoir pour pratiquer Qui veut la tête du roi se prend un ticket se prend un ticket Jsuis dans la kitchen, jmange des langoustes langoustes Mais je préfère le poulet attiéké hum 400 ans desclavage mais ces connards nont pas abdiqué ah bon ? La substance te fait planer sfff Elle vient de Ketama Ketama Sauce dakatine pour les protéines ouh ouh Jsuis pas un dces rappeurs butés à la codéine On va tcharcler comme à London Rogue one baby I dont know Jaime bien les skinny mais jpréfère les gées-char hum Jvais pas la niquer sans condom Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu, tas vu, tas vu</t>
+          <t>Nakah Hey hey On doit l'écrire lhistoire mon ami 4 saisons, Vivaldi, on y est Mmmh, hey hey Wesh, méfie-toi de cqui brille mon ami Nest pas forcément signe de quali ice Jfais un garrot pour mamputer Jmattache à que dalle, même pas aux amis Faut du pouvoir, faut du prestige Héliport, plusieurs domaines woo woo Simple citoyen, faut pas sapitoyer krr Jdois nettoyer après usage À côté des bombes tu es du côté Jsuis ponctuel comme la faucheuse Jserre la voile pour rouler plus vite Trêve de plaisanterie Boîte auto mérite une gâterie Sois sur tes appuis, gamin Vision laser sur lappuie-tête Nouveau festin, jvais minviter Riche en calcium est ma Vittel whao whao whao Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu Hey hey hey HLM rempli dcafards Jsuis dans un dix pièces, cest djà pas mal pas mal Faut du savoir pour pratiquer Qui veut la tête du roi se prend un ticket se prend un ticket Jsuis dans la kitchen, jmange des langoustes langoustes Mais je préfère le poulet attiéké hum 400 ans desclavage mais ces connards nont pas abdiqué ah bon ? La substance te fait planer sfff Elle vient de Ketama Ketama Sauce dakatine pour les protéines ouh ouh Jsuis pas un dces rappeurs butés à la codéine On va tcharcler comme à London Rogue one baby I dont know Jaime bien les skinny mais jpréfère les gées-char hum Jvais pas la niquer sans condom Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu, tas vu, tas vu</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you Remords Could go I'm sorry But you Faille If I knew that happen, Yo, tell me J'avais quelques remords Is that Traplysse Fouu J'avais quelques remords J't'ai dédié le plus triste des poèmes Le cur se rappelle de nos promesses On avait l'air plus heureux dans la Bohème C'est laborieux Dans la brume de l'automne on s'st perdu J'aurai pas dû te rencontrr J'en veux à Tiffaine d'avoir fait croiser nos âmes ouuh, hein T'aurais pu me dire que t'aimais les femmes Moi j'écoutais tes récits, tes fables Comment te sens-tu après avoir jouer de moi ouuh, hein C'est comme si t'es morte Une partie de moi veut la paix, veut t'oublier Allumons les cierges comme un veillée Sosa You might also like Ton amour moi j'en voulais pas Je voulais juste ta loyauté Utopique était le mauvais A nous d'en former une royauté La nuit je suis comme somnambule han J't'ai dédié un poème J'ai fait le tour, j'ai rangé les armes I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu Tu te donnais des airs innocents Des délires de fille de bonne famille T'as rencontré la mienne, malgré nos différences culturelles J'ai pas eu le temps de réaliser que t'as cassé mes codes, mon bouclier Lien d'âme ou pas c'est plus d'actualité, c'est une réalité ouhh Et dis moi à qui tu te confiais quand c'était froid A qui tu parlais quand fallait pas Et qui te baisait quand j'étais pas là à qui, ouhh Coucou à Tiffaine, toi tu me disais que je faisais une fixette Des années après on se croise, tu m'avoues que t'es lesbienne Ton amour moi j'en voulais pas Je voulais juste ta loyauté ouhh Utopique était le mauvais A nous d'en former une royauté ahh La nuit je suis comme somnambule ouhh han J't'ai dédié un poème ahh J'ai fait le tour, j'ai rangé les armes ahh I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu If I knew that you could go I'm sorry But you If I knew that happen, tell me fouu1</t>
+          <t>I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you Remords Could go I'm sorry But you Faille If I knew that happen, Yo, tell me J'avais quelques remords Is that Traplysse Fouu J'avais quelques remords J't'ai dédié le plus triste des poèmes Le cur se rappelle de nos promesses On avait l'air plus heureux dans la Bohème C'est laborieux Dans la brume de l'automne on s'st perdu J'aurai pas dû te rencontrr J'en veux à Tiffaine d'avoir fait croiser nos âmes ouuh, hein T'aurais pu me dire que t'aimais les femmes Moi j'écoutais tes récits, tes fables Comment te sens-tu après avoir jouer de moi ouuh, hein C'est comme si t'es morte Une partie de moi veut la paix, veut t'oublier Allumons les cierges comme un veillée Sosa Ton amour moi j'en voulais pas Je voulais juste ta loyauté Utopique était le mauvais A nous d'en former une royauté La nuit je suis comme somnambule han J't'ai dédié un poème J'ai fait le tour, j'ai rangé les armes I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu Tu te donnais des airs innocents Des délires de fille de bonne famille T'as rencontré la mienne, malgré nos différences culturelles J'ai pas eu le temps de réaliser que t'as cassé mes codes, mon bouclier Lien d'âme ou pas c'est plus d'actualité, c'est une réalité ouhh Et dis moi à qui tu te confiais quand c'était froid A qui tu parlais quand fallait pas Et qui te baisait quand j'étais pas là à qui, ouhh Coucou à Tiffaine, toi tu me disais que je faisais une fixette Des années après on se croise, tu m'avoues que t'es lesbienne Ton amour moi j'en voulais pas Je voulais juste ta loyauté ouhh Utopique était le mauvais A nous d'en former une royauté ahh La nuit je suis comme somnambule ouhh han J't'ai dédié un poème ahh J'ai fait le tour, j'ai rangé les armes ahh I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu If I knew that you could go I'm sorry But you If I knew that happen, tell me fouu1</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>All day Il suffit d'un rien tu t'couches, carré d'avas tu t'couches So la Lune, so Monsieur Sosa, ils m'disent Tu vient d'où ? Du Minnesota ? Fini l'époque où j'étais trop naïf, les blessures, les peines j'anticipe Le monde est réel et pénible, j'fais passer le temps autour du periph' Un vrai négro j'attrape la fille du shérif Ouais allô ? Et j'ai mis trois bouts dans un bout, gros, c'est terrible T'es pas un cain-ri, t'es un suceur de cain-ris Coup d'vent Veulent cash au Quatar après j'me jette sur Beriz Coup d'vnt Et tout compte fait, j'vais les niquer Yah, ls services sont tarifés Yah J'aime pas la loi, l'autorité, mélange quantité, qualité Yah Bizarre, t'étais pas là, mais c'est toi qu'en a l'plus parlé Biberon, j'suis sous biberon et un jour, gros, on va disparaître Yah, yah Et un jour gros on va disparaître Bizarre t'étais pas là mais c'est toi qu'en a l'plus parlé 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort You might also like Euro, Euro, Euro, Euro, j'investis les idées j'ai laissé de té-cô Maman me voyait avocat, j'ai fini au barreau mais du mauvais côté Bizarre, t'es bizarre à mort, gros, t'es une putain d'pute Sur la prod', j'ai pas tiré à blanc, ça prépare un putain d'truc, Double So So, So ,So, So, j'ai trouvé la faille, c'est mélodie et Vevo Le plan-guan est carré, c'est mort, j'ai signé dans l'vaisseau donc fini de dodo Double So c'est le putain d'plan, j'connais la vie et son putain d'prix Paie moi dans les temps, la putain d'toi, j'ai dents aiguisées, t'es la putain d'proie Comme ton papa j'suis sévère, la concu' sur civière J'ai trouvé une rivière de lovés, j'dois brasser sévère Chez la nourric,e j'ai planqué le pe-pom et de quoi t'couper Faute avouée à moitié pardonnée mais toi t'as snitché 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort1</t>
+          <t>All day Il suffit d'un rien tu t'couches, carré d'avas tu t'couches So la Lune, so Monsieur Sosa, ils m'disent Tu vient d'où ? Du Minnesota ? Fini l'époque où j'étais trop naïf, les blessures, les peines j'anticipe Le monde est réel et pénible, j'fais passer le temps autour du periph' Un vrai négro j'attrape la fille du shérif Ouais allô ? Et j'ai mis trois bouts dans un bout, gros, c'est terrible T'es pas un cain-ri, t'es un suceur de cain-ris Coup d'vent Veulent cash au Quatar après j'me jette sur Beriz Coup d'vnt Et tout compte fait, j'vais les niquer Yah, ls services sont tarifés Yah J'aime pas la loi, l'autorité, mélange quantité, qualité Yah Bizarre, t'étais pas là, mais c'est toi qu'en a l'plus parlé Biberon, j'suis sous biberon et un jour, gros, on va disparaître Yah, yah Et un jour gros on va disparaître Bizarre t'étais pas là mais c'est toi qu'en a l'plus parlé 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort Euro, Euro, Euro, Euro, j'investis les idées j'ai laissé de té-cô Maman me voyait avocat, j'ai fini au barreau mais du mauvais côté Bizarre, t'es bizarre à mort, gros, t'es une putain d'pute Sur la prod', j'ai pas tiré à blanc, ça prépare un putain d'truc, Double So So, So ,So, So, j'ai trouvé la faille, c'est mélodie et Vevo Le plan-guan est carré, c'est mort, j'ai signé dans l'vaisseau donc fini de dodo Double So c'est le putain d'plan, j'connais la vie et son putain d'prix Paie moi dans les temps, la putain d'toi, j'ai dents aiguisées, t'es la putain d'proie Comme ton papa j'suis sévère, la concu' sur civière J'ai trouvé une rivière de lovés, j'dois brasser sévère Chez la nourric,e j'ai planqué le pe-pom et de quoi t'couper Faute avouée à moitié pardonnée mais toi t'as snitché 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I love you Phil J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD Guette nos vies, c'est pas comme dans les films, un reuf est mort, c'est pour de vrai J'le pleure ça fait déjà cinq ans, cinq ans que j'le vois dans mes rêves Ma haine s'étend sur mille hectares, j'ai l'troisième il comme Tenshi Hey, 500 j'ai développé la veille, en deux-deux j'suis dans l'Audi Béni soit le récit, maudits soient nos rêves qui nous poussent à commettre des délits Audemars Piguet, j'suis dans les temps, nan, nan J'ai même plus leur temps, nan, nan, nan D'ailleurs pas fameux, j'rentre en L, c'est meilleur dedans J'ai pas d'limites j'veux le monde, je découpe à l'épée la résine Ça parle de nous vers les sommets, les anges ont pris parti pour nous Et dis-le moi s'il le faut j'te fais disparaître du globe, mon ami, t'as vu Grrrr You might also like J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD Très peu d'issues favorables, so pantins et Sasori Sasori Ouais, quand j'té-cla un J dans la ville, fonscar, mal luné Mal luné Y a plus grand chose à faire vu qu'ils ont déjà tout façonné J'vois que des putes mélangées capables de R à part cé-us Ici-bas, on vit, on saisit, j'rappais mieux qu'eux d'jà à 16 ans J'cumule cent péchés par saison et si tu veux la guerre vaza J'écris comme loin des hommes, j'ai pris sur moi, là j'y vais Et j'prie plus, ça fait longtemps, fissure de-, ça fait rockeur hiyuuuuu J'ai vu la fin des hommes donc bientôt la chute des anges Et l'humain a cent visages, ouais mais, gros, c'est pas si simple Une icône, nique sa mère la pute, des sous, des sous, des sous Des fois j'divague Des fois je J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD</t>
+          <t>I love you Phil J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD Guette nos vies, c'est pas comme dans les films, un reuf est mort, c'est pour de vrai J'le pleure ça fait déjà cinq ans, cinq ans que j'le vois dans mes rêves Ma haine s'étend sur mille hectares, j'ai l'troisième il comme Tenshi Hey, 500 j'ai développé la veille, en deux-deux j'suis dans l'Audi Béni soit le récit, maudits soient nos rêves qui nous poussent à commettre des délits Audemars Piguet, j'suis dans les temps, nan, nan J'ai même plus leur temps, nan, nan, nan D'ailleurs pas fameux, j'rentre en L, c'est meilleur dedans J'ai pas d'limites j'veux le monde, je découpe à l'épée la résine Ça parle de nous vers les sommets, les anges ont pris parti pour nous Et dis-le moi s'il le faut j'te fais disparaître du globe, mon ami, t'as vu Grrrr J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD Très peu d'issues favorables, so pantins et Sasori Sasori Ouais, quand j'té-cla un J dans la ville, fonscar, mal luné Mal luné Y a plus grand chose à faire vu qu'ils ont déjà tout façonné J'vois que des putes mélangées capables de R à part cé-us Ici-bas, on vit, on saisit, j'rappais mieux qu'eux d'jà à 16 ans J'cumule cent péchés par saison et si tu veux la guerre vaza J'écris comme loin des hommes, j'ai pris sur moi, là j'y vais Et j'prie plus, ça fait longtemps, fissure de-, ça fait rockeur hiyuuuuu J'ai vu la fin des hommes donc bientôt la chute des anges Et l'humain a cent visages, ouais mais, gros, c'est pas si simple Une icône, nique sa mère la pute, des sous, des sous, des sous Des fois j'divague Des fois je J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Amor Fati Nakah Amor Fati Y'a comme un air de déjà-vu déjà-vu Aucune offre peut me racheter aucune Dans le précipice on y était, aucun mot ne suffira pour qualifier ta lâcheté qualifier ta lâcheté On pourra pas y rester, sentiment dans le néant, un peu d'amour pour mon destin J'y ai laissé ma santé, mes poumons et mes tripes au fil des saisons fil des saisons Dis moi où t'as mal, je dois compléter mon garage Les blessures c'est un détail, mais pour y arriver faudra les dissiper eh eh Faut une carapac, des VVS, semi-automatique qui m'obéit ic, tou-tou-tou Faut les gravir, les différents steps, faut les gravir Amor Fati Amor Fati Amor Fati Amor Fati Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux pas si fameux Et dehors, on fait partie de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi You might also like Dehors c'est la zizanie dehors, on vient pour tout récupérer tout-tout On se voyait pas finir ici, faudra plus de choses à dire pour remplir le cahier remplir les pages J't'ai vu danser le vendredi, je rigolais en vrai Faut protéger la forteresse, la parure et les bijoux ne finiront pas rouillés On se voyait, finir la story à deux on se voyait Le clan s'est décimé, les plus anciens ont fait le silence silence Touche mes ?, c'est comme si elle tournait sur elle-même Sur un voilier, on prédit la fin du navire maudit Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux si fameux Et dehors, on fait parti de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi1</t>
+          <t>Amor Fati Nakah Amor Fati Y'a comme un air de déjà-vu déjà-vu Aucune offre peut me racheter aucune Dans le précipice on y était, aucun mot ne suffira pour qualifier ta lâcheté qualifier ta lâcheté On pourra pas y rester, sentiment dans le néant, un peu d'amour pour mon destin J'y ai laissé ma santé, mes poumons et mes tripes au fil des saisons fil des saisons Dis moi où t'as mal, je dois compléter mon garage Les blessures c'est un détail, mais pour y arriver faudra les dissiper eh eh Faut une carapac, des VVS, semi-automatique qui m'obéit ic, tou-tou-tou Faut les gravir, les différents steps, faut les gravir Amor Fati Amor Fati Amor Fati Amor Fati Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux pas si fameux Et dehors, on fait partie de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi Dehors c'est la zizanie dehors, on vient pour tout récupérer tout-tout On se voyait pas finir ici, faudra plus de choses à dire pour remplir le cahier remplir les pages J't'ai vu danser le vendredi, je rigolais en vrai Faut protéger la forteresse, la parure et les bijoux ne finiront pas rouillés On se voyait, finir la story à deux on se voyait Le clan s'est décimé, les plus anciens ont fait le silence silence Touche mes ?, c'est comme si elle tournait sur elle-même Sur un voilier, on prédit la fin du navire maudit Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux si fameux Et dehors, on fait parti de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi1</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eh T'as raison d'te méfier Eh That's the tigri 34 pe-pom dans l'fut, les 34 le disent mais l'ont pas 3-3 fois on t'charge pour 6 Grosse caisse tu verra pas chez Sixt deutch Abonné comme les deux reufs des ??? On compte pas s'arrêter à mi-chemin La frappe on la coupe au Michelin Des AR, AR, tous le temps Comme SO tous le temps en coup d'vent Enonce pas mon nom plus de 3 fois J'apparaitrais dans tes rêves et cauchemars Comme Snoopy je suis planqué sur l'toit ZZ sur la plaquette est écrit Récupère et revends la au bon prix C'est d'jà mieux que de taffer au smic You might also likeAR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Grosse prod' je la découpe seul-tout Grosse pute ils la découpent à dix miskine 26, comme ma carte N26 scam Zéro-deux comme numéro fiscal 4X4 comme les voitures au bled Cortège comme un mariage Rebeu ewa Teinté, comme la visière du A Dans les ?? comme si j'étais plusieurs ganté Trop tard s'tu veux faire des aveux Trop tôt pour me parler d'enfant Précoce comme Kylian M'bappé J'y allais en hiver par amour du ballon Haussman, j'connais bien la route tout droit, tout droit J'mets pas si c'est pas un hood' jamais, jamais Dans les temps comme un métronome J'suis un tacticien comme Marcelo Bielsa AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala</t>
+          <t>Eh T'as raison d'te méfier Eh That's the tigri 34 pe-pom dans l'fut, les 34 le disent mais l'ont pas 3-3 fois on t'charge pour 6 Grosse caisse tu verra pas chez Sixt deutch Abonné comme les deux reufs des ??? On compte pas s'arrêter à mi-chemin La frappe on la coupe au Michelin Des AR, AR, tous le temps Comme SO tous le temps en coup d'vent Enonce pas mon nom plus de 3 fois J'apparaitrais dans tes rêves et cauchemars Comme Snoopy je suis planqué sur l'toit ZZ sur la plaquette est écrit Récupère et revends la au bon prix C'est d'jà mieux que de taffer au smic AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Grosse prod' je la découpe seul-tout Grosse pute ils la découpent à dix miskine 26, comme ma carte N26 scam Zéro-deux comme numéro fiscal 4X4 comme les voitures au bled Cortège comme un mariage Rebeu ewa Teinté, comme la visière du A Dans les ?? comme si j'étais plusieurs ganté Trop tard s'tu veux faire des aveux Trop tôt pour me parler d'enfant Précoce comme Kylian M'bappé J'y allais en hiver par amour du ballon Haussman, j'connais bien la route tout droit, tout droit J'mets pas si c'est pas un hood' jamais, jamais Dans les temps comme un métronome J'suis un tacticien comme Marcelo Bielsa AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Drip-drip-drip-drip De Villeneuve à Achères-Ville Tu m'entends dans la sono, j'te raconte ma vie Gros chicken, j'suis pas McFish, moi Même débordé, j'suis focus à fond, j'm'active Les deux mains sur ses fesses, j'appuie salope Grand voleur, j'me dis jamais j'lui rends, miskine Sur l'terrain, j'suis 9 comme Michy yeah Eh, maudis-moi fou, tacticien comme Salomon Leurs rps-co, en deux, j'coupe Les niquer, j'suis toujours pour J'vise Goliath au front, j'move J'pisse, pousse, j'pique, troue Avec leurs res-s, j'couche Grosse kush, j'pèse, touche Puis mets tout dans l'pétou J'suis dans la raquette, McCollum Grand colosse, viens, on t'carotte On veut que l'espèce, pas d'couronne Tout l'pognon, tout l'fourgon Te braquer sans qu'tu sois au courant salope On aime les grosses bitchs, pas collantes, rep' quand j'call On aime les grosses bitchs, pas collantes You might also like Eh, j'suis dans le réseau Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit Minimum 10K pour m'voir, j'ai l'fiston, en FaceTime Le temps passe, quatre piges que j'suis Papa Audemars Piguet, j'les vois plus, nan nan J'démarre comme un deux temps, vroum, ouais ouais Doué comme d'hab', j'ai l'astuce, cachette facile pour les miens 40 degrés dans le hall, démon se manifeste, impatient, j'prendrai mon temps Pour ligoter cinq mille otages avec So La Lune Tu diras à Trolo que j'ai pris des sous dans la rue parce que Dieu m'a béni Jamais j'vais balancer, mauvais bail, j'suis impliqué, le baveux est fe-j', hun ouh T'as vu, j'te rappe, la vie de rue, le ciel, le monde, j'ai pas d'limites J'la oigt-d sur R. Kelly, elle kiffe, là-uic' est bizarre, j'aime pas, ses gimmicks Le terrain, les saisies, le crime nous unit, attitude, j'ai ché-lâ car Dieu, m'a béni Eh, j'suis dans le réseau ouh, ouh, ouh Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit hahaha</t>
+          <t>Drip-drip-drip-drip De Villeneuve à Achères-Ville Tu m'entends dans la sono, j'te raconte ma vie Gros chicken, j'suis pas McFish, moi Même débordé, j'suis focus à fond, j'm'active Les deux mains sur ses fesses, j'appuie salope Grand voleur, j'me dis jamais j'lui rends, miskine Sur l'terrain, j'suis 9 comme Michy yeah Eh, maudis-moi fou, tacticien comme Salomon Leurs rps-co, en deux, j'coupe Les niquer, j'suis toujours pour J'vise Goliath au front, j'move J'pisse, pousse, j'pique, troue Avec leurs res-s, j'couche Grosse kush, j'pèse, touche Puis mets tout dans l'pétou J'suis dans la raquette, McCollum Grand colosse, viens, on t'carotte On veut que l'espèce, pas d'couronne Tout l'pognon, tout l'fourgon Te braquer sans qu'tu sois au courant salope On aime les grosses bitchs, pas collantes, rep' quand j'call On aime les grosses bitchs, pas collantes Eh, j'suis dans le réseau Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit Minimum 10K pour m'voir, j'ai l'fiston, en FaceTime Le temps passe, quatre piges que j'suis Papa Audemars Piguet, j'les vois plus, nan nan J'démarre comme un deux temps, vroum, ouais ouais Doué comme d'hab', j'ai l'astuce, cachette facile pour les miens 40 degrés dans le hall, démon se manifeste, impatient, j'prendrai mon temps Pour ligoter cinq mille otages avec So La Lune Tu diras à Trolo que j'ai pris des sous dans la rue parce que Dieu m'a béni Jamais j'vais balancer, mauvais bail, j'suis impliqué, le baveux est fe-j', hun ouh T'as vu, j'te rappe, la vie de rue, le ciel, le monde, j'ai pas d'limites J'la oigt-d sur R. Kelly, elle kiffe, là-uic' est bizarre, j'aime pas, ses gimmicks Le terrain, les saisies, le crime nous unit, attitude, j'ai ché-lâ car Dieu, m'a béni Eh, j'suis dans le réseau ouh, ouh, ouh Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit hahaha</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Violence Mr So Violence Mr So Violence Wesh J'arrive en balle je suis dans la AMG C'est 4 sorties minimums Poulet au riz dans laluminium Me demande pas combien je veux le maximum donne tout Ma couleur ébène a tant souffert 0 indemnité, c'est vexant Ta grand-mère la pute la proxénète T'iras en enfer comme les présidents Je suis dans l'auto, grosse auto Semi auto j'ai dans la boite à gants Aucun rivaux, aucun niveaux 0 sse-lia c'est affligeant Elle ouvre sa teucha pour avoir des sous Pour mieux supporter elle sniffe de la poudre On est dans des sales histoires Devant les keufs motus et bouche cousue Faut du walli walli walli mucho wesh Se barrer d'ici sur la playa Combien tu mets ? Parlons zeillo Rendez vous 33 rue chez mon gava J'casse dans la démarche dans le tiéquar Qui veut la guerre me la demande Qui veut la guerre me la demande Touché-coulé car You might also like Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla Tu parles fort tu ne mérites pas Je parles peu je vises la cabeza Te caches pas on te retrouvera Paname c'est pas plus grand que Valbuena Si tu dois on te cuisinera La parole de l'homme vaut bien des milliards La parole de l'homme vaut bien des milliards Baisse de 4 tons c'est pas du théâtre Et ferme ta gueule tu vas rien faire Mêle-toi de ton cul pas de nos affaires A travers nos yeux tu peux voir l'enfer Tu crois sauver l'homme mais son univers On mérite mieux que le RSA, RS6 dans le parking comme dans GTA Sa bibi la coca de Medellín dans Paris pour avoir le salaire de Verratti Rohlala je manie les mots même mal-luné Je baise la concu je suis mal aimé Parle pas de la mif j'peux t'allumer, j'peux t'annuler Je suis pas de ceux qui font les mecs sectaires Faisons du biff avec les mecs déter Ouvrons les frontières de tout nos quartiers Et faisons du biff avec les plus déter Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla</t>
+          <t>Violence Mr So Violence Mr So Violence Wesh J'arrive en balle je suis dans la AMG C'est 4 sorties minimums Poulet au riz dans laluminium Me demande pas combien je veux le maximum donne tout Ma couleur ébène a tant souffert 0 indemnité, c'est vexant Ta grand-mère la pute la proxénète T'iras en enfer comme les présidents Je suis dans l'auto, grosse auto Semi auto j'ai dans la boite à gants Aucun rivaux, aucun niveaux 0 sse-lia c'est affligeant Elle ouvre sa teucha pour avoir des sous Pour mieux supporter elle sniffe de la poudre On est dans des sales histoires Devant les keufs motus et bouche cousue Faut du walli walli walli mucho wesh Se barrer d'ici sur la playa Combien tu mets ? Parlons zeillo Rendez vous 33 rue chez mon gava J'casse dans la démarche dans le tiéquar Qui veut la guerre me la demande Qui veut la guerre me la demande Touché-coulé car Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla Tu parles fort tu ne mérites pas Je parles peu je vises la cabeza Te caches pas on te retrouvera Paname c'est pas plus grand que Valbuena Si tu dois on te cuisinera La parole de l'homme vaut bien des milliards La parole de l'homme vaut bien des milliards Baisse de 4 tons c'est pas du théâtre Et ferme ta gueule tu vas rien faire Mêle-toi de ton cul pas de nos affaires A travers nos yeux tu peux voir l'enfer Tu crois sauver l'homme mais son univers On mérite mieux que le RSA, RS6 dans le parking comme dans GTA Sa bibi la coca de Medellín dans Paris pour avoir le salaire de Verratti Rohlala je manie les mots même mal-luné Je baise la concu je suis mal aimé Parle pas de la mif j'peux t'allumer, j'peux t'annuler Je suis pas de ceux qui font les mecs sectaires Faisons du biff avec les mecs déter Ouvrons les frontières de tout nos quartiers Et faisons du biff avec les plus déter Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Enchanté c'est Monsieur So' Ombre et lumière Boulbi Square Ce soir c'est moi qui régale J'suis dans des dièses louches, ouais ouais J'compte mes dollars, ouais ouais Des rappeurs m'envient, c'est vrai J'suis en indépendant, O.L Lion indomptable comme Kemen Ta meuf la pute dans le gamos Petit j'serrais la ceinture, aujourd'hui je serre la Ferragamo Bolide AMG dans l'parking Adepte de carjacking La recette pour faire un tas d'aigris La mala j'me pavane en Gucci J'veux des lovés, pour ça négro j'dois innover Ne compte pas sur l'être humain car il est mauvais J'suis l'capitaine de mon navire j'peux pas couler J'fais cavalier seul mais derrière il y a une armée Allô Jorge Mendes ?, le rap français va mal Transfert moi vers les States Hakarrabi, j'me sens pas à ma place Crochet, Verratti, j'be-tom, pénalty aïe Mon fils, en Gucci, la mala, comme Tony You might also like Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines La concurrence se coupe les veines Oh oui, oh oui, faut que je rentabilise Oh oui, oh oui, faut que je rentabilise Me casser loin d'ici sur une plage au Mexique Les péripéties de la vie sont multiples J'ai perdu mon frérot il s'appelait Tony B.A.S, Brigade Anti Suceuses J'côtoie que vrais bonhommes forts comme Jamie Vardy Me checke pas d'l'épaule, t'as balance Ne tends ni ta joue, ni tes phalanges J'suis Kmer a.k.a. l'avalanche Je milite contre salaire d'esclavage Est-ce normal ce que touche nos parents ? Est-ce normal ce que touche nos parents ? Pour bibi crois moi faut du talent Le produit vient pas par accident Hé tu fais quoi toi ? Tu veux des armes, il y en a Négro bois bois bois, des verres de sky, Jack Da' Les gros culs on aime ça, demande à mes Sosa Gés-char comme Kim K, oh Mamma mia Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines</t>
+          <t>Enchanté c'est Monsieur So' Ombre et lumière Boulbi Square Ce soir c'est moi qui régale J'suis dans des dièses louches, ouais ouais J'compte mes dollars, ouais ouais Des rappeurs m'envient, c'est vrai J'suis en indépendant, O.L Lion indomptable comme Kemen Ta meuf la pute dans le gamos Petit j'serrais la ceinture, aujourd'hui je serre la Ferragamo Bolide AMG dans l'parking Adepte de carjacking La recette pour faire un tas d'aigris La mala j'me pavane en Gucci J'veux des lovés, pour ça négro j'dois innover Ne compte pas sur l'être humain car il est mauvais J'suis l'capitaine de mon navire j'peux pas couler J'fais cavalier seul mais derrière il y a une armée Allô Jorge Mendes ?, le rap français va mal Transfert moi vers les States Hakarrabi, j'me sens pas à ma place Crochet, Verratti, j'be-tom, pénalty aïe Mon fils, en Gucci, la mala, comme Tony Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines La concurrence se coupe les veines Oh oui, oh oui, faut que je rentabilise Oh oui, oh oui, faut que je rentabilise Me casser loin d'ici sur une plage au Mexique Les péripéties de la vie sont multiples J'ai perdu mon frérot il s'appelait Tony B.A.S, Brigade Anti Suceuses J'côtoie que vrais bonhommes forts comme Jamie Vardy Me checke pas d'l'épaule, t'as balance Ne tends ni ta joue, ni tes phalanges J'suis Kmer a.k.a. l'avalanche Je milite contre salaire d'esclavage Est-ce normal ce que touche nos parents ? Est-ce normal ce que touche nos parents ? Pour bibi crois moi faut du talent Le produit vient pas par accident Hé tu fais quoi toi ? Tu veux des armes, il y en a Négro bois bois bois, des verres de sky, Jack Da' Les gros culs on aime ça, demande à mes Sosa Gés-char comme Kim K, oh Mamma mia Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yah, yah yah yah yah Baby baby Yeh J'suis dans l'hood, J'bicrav d'l'OG Kush et c'est normal 500, claqués dans mes souliers c'est normal Elle ouvre sa chatte, 200 la rue c'est normal Maman dort, j'dois m'occuper d'l'allée c'est normal Les dollars les pesos Le nerf de la guerre j'suis en Merco garé vers le mile Les voisins sont péchos Tapage nocturne dans leur mère et ça c'est normal J'paye pas mes impôts J'donne pas de biff à ces fils de pute de l'Etat J'regarde la météo Il pleut des rafales au tié-kar j'enfile mon pare-balles T'as capté The Wave à la comptabilité C'est monsieur So Se vend comme kilo de shit dans toutes les cités Ta racli la folle Kiff l'attitude que j'impose elle envoie sa chatte Ton rappeur préféré, Me lâche pas d'une semelle pour gratter son feat dis lui qu'il nachav Depuis mineur je vous baise, depuis mineur tu régresse Raïaïaï Le projet sale il arrive, et j'nique des mères en indé', Hallelujah Allô le R j'suis à kech-mara Dans rivière de sang je déverse ma rage You might also like J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte On ravitaille On ravitaille, ravis sont les shlags Pablito Pablito, faudrait s'lever tôt Faire d'la maille Mucho maille, remplir le frigo Les keufs barôdent Parce qu'ils barôdent, j'suis caché dans l'hall La peur est jdid mon ami Une BNP j'suis ravi Mettre à l'abri toute la miff, satisfaire leur avenir nan, nan La peur est jdid mon ami, le flow est jdid mon ami La chatte est large comme un puit, la bite est longue je l'épuise Au premier round j'paralyse Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte</t>
+          <t>Yah, yah yah yah yah Baby baby Yeh J'suis dans l'hood, J'bicrav d'l'OG Kush et c'est normal 500, claqués dans mes souliers c'est normal Elle ouvre sa chatte, 200 la rue c'est normal Maman dort, j'dois m'occuper d'l'allée c'est normal Les dollars les pesos Le nerf de la guerre j'suis en Merco garé vers le mile Les voisins sont péchos Tapage nocturne dans leur mère et ça c'est normal J'paye pas mes impôts J'donne pas de biff à ces fils de pute de l'Etat J'regarde la météo Il pleut des rafales au tié-kar j'enfile mon pare-balles T'as capté The Wave à la comptabilité C'est monsieur So Se vend comme kilo de shit dans toutes les cités Ta racli la folle Kiff l'attitude que j'impose elle envoie sa chatte Ton rappeur préféré, Me lâche pas d'une semelle pour gratter son feat dis lui qu'il nachav Depuis mineur je vous baise, depuis mineur tu régresse Raïaïaï Le projet sale il arrive, et j'nique des mères en indé', Hallelujah Allô le R j'suis à kech-mara Dans rivière de sang je déverse ma rage J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte On ravitaille On ravitaille, ravis sont les shlags Pablito Pablito, faudrait s'lever tôt Faire d'la maille Mucho maille, remplir le frigo Les keufs barôdent Parce qu'ils barôdent, j'suis caché dans l'hall La peur est jdid mon ami Une BNP j'suis ravi Mettre à l'abri toute la miff, satisfaire leur avenir nan, nan La peur est jdid mon ami, le flow est jdid mon ami La chatte est large comme un puit, la bite est longue je l'épuise Au premier round j'paralyse Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gang ! Enchanté c'est Monsieur So' Almess Beats Que de la violence, que de la violence ! Wesh ! La zone du crime est maquillée La routine dans le quartier Les balles transpercent ton bouclier J'suis pépère dans le Cadillac Pour 1500 tu perds la vie Tu vaut à peine plus que le SMIC Ah Ah callate, gards à toi si tu réveille mon fils J'arrive en paix qui quiconque veut la guerre qui lève la main que j'lui nique sa mère J'ai connu la zer', des étés passer au tiekar en maison de jeunesse J'suis indépendant, tout c'que j'ai je l'ai mérité négro je l'ai pas voler Donc fermez vos chattes, personne m'a donner du lait quand c'était la chiennetée J'ai rouler ma bosse, vesqui les anciens d'ici qui veulent m'apprendre la vie Je rigole sur eux, 30 ans passé servent à rien, bon qu'a gratter des jeux On a les mains sales, tremper dans l'or Y'a que la mort qui nous arrêtera Remplis la soute vite, SOS dans le cockpit Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks You might also like Fuck ton boumara j'vais tout niquer Ta patte de poulet me fait plus d'effet J'fume un spliff j'suis en Jamaïque Le produit est bon j'parle à Bob Marley Yeux rouge, fonsdé dans la ville La substance m'a l'air corrosive Les plans sales on les récidives Dignité prime devant amitié J'préfére trainer avec dix milles jnouns Que d'avoir un poto hypocrite Ocho sur les dorsaux Passe D comme au Camp Nou Rafale sur ton rainté pour ta recette on vise pas les genoux Et tu me diras que la vie est belle Mais tout dépend de l'angle de vue J'ai fumé le roi et baiser la reine Non je ne finirais pas pendu Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Ouais monsieur So' mon ami La vie noir, Ombre et lumière Boulogne square, à suivre ... Que de la violence, que de la violence</t>
+          <t>Gang ! Enchanté c'est Monsieur So' Almess Beats Que de la violence, que de la violence ! Wesh ! La zone du crime est maquillée La routine dans le quartier Les balles transpercent ton bouclier J'suis pépère dans le Cadillac Pour 1500 tu perds la vie Tu vaut à peine plus que le SMIC Ah Ah callate, gards à toi si tu réveille mon fils J'arrive en paix qui quiconque veut la guerre qui lève la main que j'lui nique sa mère J'ai connu la zer', des étés passer au tiekar en maison de jeunesse J'suis indépendant, tout c'que j'ai je l'ai mérité négro je l'ai pas voler Donc fermez vos chattes, personne m'a donner du lait quand c'était la chiennetée J'ai rouler ma bosse, vesqui les anciens d'ici qui veulent m'apprendre la vie Je rigole sur eux, 30 ans passé servent à rien, bon qu'a gratter des jeux On a les mains sales, tremper dans l'or Y'a que la mort qui nous arrêtera Remplis la soute vite, SOS dans le cockpit Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Fuck ton boumara j'vais tout niquer Ta patte de poulet me fait plus d'effet J'fume un spliff j'suis en Jamaïque Le produit est bon j'parle à Bob Marley Yeux rouge, fonsdé dans la ville La substance m'a l'air corrosive Les plans sales on les récidives Dignité prime devant amitié J'préfére trainer avec dix milles jnouns Que d'avoir un poto hypocrite Ocho sur les dorsaux Passe D comme au Camp Nou Rafale sur ton rainté pour ta recette on vise pas les genoux Et tu me diras que la vie est belle Mais tout dépend de l'angle de vue J'ai fumé le roi et baiser la reine Non je ne finirais pas pendu Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Ouais monsieur So' mon ami La vie noir, Ombre et lumière Boulogne square, à suivre ... Que de la violence, que de la violence</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gang gang gang gang On va t'pull-up, vise la rétine 50k j'signe pas en maison disque T'as vu ? Whou whou whou whou Hey Joue pas au gang gang gang gang On va t'pull-up, vise la rétine Pull-up vise la rétine Pour 50k j'signe pas en maison d'disque Guette la ppe-sa, ouais tout y est Bleu marine on n'aime pas, on fuck Guette pas ppe-sa, ouais tout y est Fuck les cops qui écoutent au phone Méfiant, on y est d'puis tit-pe T'iras pas loin avec 10E Méfiant on est d'puis tit-pe ouais Apparemment j'suis trop nerveux eh Je bousille la prod, c'est everyday Tu suces pas, qu'est-ce tu fous ici ? Complotiste comme franc-maçon Pour t'faire j'ai mille-et-une raisons J'suis à la diet' Bouma au Tiep Volant à droite, c'est la mort qui me guette Metteur en scène, arrête ton sketch Tu descendras, prêteur à diocèse Outillé comme mec qui répare des trucs Fuck le 17, j'attends leur chute 9-2, département des stups 9-2, département des stups J'cuisine la prod, c'est who-who grrr Grand comme joueur d'NBA Éviscère de vie à l'opinel J'ai même pas l'temps de saignerYou might also like</t>
+          <t>Gang gang gang gang On va t'pull-up, vise la rétine 50k j'signe pas en maison disque T'as vu ? Whou whou whou whou Hey Joue pas au gang gang gang gang On va t'pull-up, vise la rétine Pull-up vise la rétine Pour 50k j'signe pas en maison d'disque Guette la ppe-sa, ouais tout y est Bleu marine on n'aime pas, on fuck Guette pas ppe-sa, ouais tout y est Fuck les cops qui écoutent au phone Méfiant, on y est d'puis tit-pe T'iras pas loin avec 10E Méfiant on est d'puis tit-pe ouais Apparemment j'suis trop nerveux eh Je bousille la prod, c'est everyday Tu suces pas, qu'est-ce tu fous ici ? Complotiste comme franc-maçon Pour t'faire j'ai mille-et-une raisons J'suis à la diet' Bouma au Tiep Volant à droite, c'est la mort qui me guette Metteur en scène, arrête ton sketch Tu descendras, prêteur à diocèse Outillé comme mec qui répare des trucs Fuck le 17, j'attends leur chute 9-2, département des stups 9-2, département des stups J'cuisine la prod, c'est who-who grrr Grand comme joueur d'NBA Éviscère de vie à l'opinel J'ai même pas l'temps de saigner</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yeah Ouais J'dois péter un keum Péter un keum Loin des humains Près de la flore Me souris pas Fils de catin J'vais viser ta glotte Tu parleras moins 40 degrés 40 degrés J'suis dans le four Comme filet mignon 40 pêchés 40 degrés Qu'est-ce qu'on ferait pas Pour 40 litrons? Si j'baisse la visière Tu verras 2Pac Et Biggie Désarmé c'est sûr Tu m'verras tout-par MVP Ça visser la drogue Que t'as dans le nez Hein, la coca 100.000 Ce n'est pas assez Nan nan nan, je signe pas Ça fait vroum vroum vroum T-Max GP 800 J'ai la haine à plein-temps J'veux les voir à terre et souffrant J'entends ra ra ra Des balles pleuvent pour la kichta Jamais nous on s'ficha Pour des folles qui puent d'la teucha You might also like J'entends les Bleus J'cours Vite Police Tue Cours Vite J'entends les Bleus J'cours Vite Police Tue Cours Vite</t>
+          <t>Yeah Ouais J'dois péter un keum Péter un keum Loin des humains Près de la flore Me souris pas Fils de catin J'vais viser ta glotte Tu parleras moins 40 degrés 40 degrés J'suis dans le four Comme filet mignon 40 pêchés 40 degrés Qu'est-ce qu'on ferait pas Pour 40 litrons? Si j'baisse la visière Tu verras 2Pac Et Biggie Désarmé c'est sûr Tu m'verras tout-par MVP Ça visser la drogue Que t'as dans le nez Hein, la coca 100.000 Ce n'est pas assez Nan nan nan, je signe pas Ça fait vroum vroum vroum T-Max GP 800 J'ai la haine à plein-temps J'veux les voir à terre et souffrant J'entends ra ra ra Des balles pleuvent pour la kichta Jamais nous on s'ficha Pour des folles qui puent d'la teucha J'entends les Bleus J'cours Vite Police Tue Cours Vite J'entends les Bleus J'cours Vite Police Tue Cours Vite</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ooouh Sont nuls Ouais T'as vu ? Pour leur faire du sale ngro j'ai l'outil wouh Ne commencez pas une guerre si t'es pas sûr de pouvoir la finir Hin hin, nan nan nan Hein ? J'entends des échos sur moi dans la ville ah bon ? Le jour où j'vais t'attraper j'vais t'faire passer l'envie de me salir Tes ngros sont faux et faibles On veut ta recette et la villa de rêve T'as chuté comme le prix d'l'essence Il vaut mieux pour toi ngro que tu signes la trêve J'suis devant depuis tit-pe On déboule à 40 c'est sauve qui peut Je crois pas en la justice mais en Dieu On craint moins les balles que la force du feu T'as pas d'équipe T'es pathétique Tu tailles des pipes C'est véridique Un peu d'estime Quand t'es au taf Ta racli tourne, dans toutes les villes la tchoin Eh eh You might also likeMeilleur du gang, si c'est pas moi c'est qui ? C'est qui ? 5 ans que je leur mets des giffles 5 ans que je bosse en indépendant Si j'blanchis pas ma peau comme Michael La police me tuera comme George Floyd J'ai grandi si près de la merde Je me suis habitué à l'odeur Sal !</t>
+          <t>Ooouh Sont nuls Ouais T'as vu ? Pour leur faire du sale ngro j'ai l'outil wouh Ne commencez pas une guerre si t'es pas sûr de pouvoir la finir Hin hin, nan nan nan Hein ? J'entends des échos sur moi dans la ville ah bon ? Le jour où j'vais t'attraper j'vais t'faire passer l'envie de me salir Tes ngros sont faux et faibles On veut ta recette et la villa de rêve T'as chuté comme le prix d'l'essence Il vaut mieux pour toi ngro que tu signes la trêve J'suis devant depuis tit-pe On déboule à 40 c'est sauve qui peut Je crois pas en la justice mais en Dieu On craint moins les balles que la force du feu T'as pas d'équipe T'es pathétique Tu tailles des pipes C'est véridique Un peu d'estime Quand t'es au taf Ta racli tourne, dans toutes les villes la tchoin Eh eh Meilleur du gang, si c'est pas moi c'est qui ? C'est qui ? 5 ans que je leur mets des giffles 5 ans que je bosse en indépendant Si j'blanchis pas ma peau comme Michael La police me tuera comme George Floyd J'ai grandi si près de la merde Je me suis habitué à l'odeur Sal !</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mmh Tous les jours c'est la même Hey, tous les jours c'est la même tous les jours car mon cur y était ohh On refait nos affaires comme avant un road trip comme avant un road trip Funérailles on y était ohh, y'a pas de quoi sourire ohh Sur la feuille y'a pas un mot, on se disait plein de choses qui ont perdu de leur valeur valeur T'auras beau revenir t'auras beau revenir, je ne veux plus de toi jamais Et j'ai beau souffrir comme à Caracas j'dois faire des lovés de l'argent J'ai un fils, j'ai un daronne daronne Aujourd'hui j'suis un patron patron J'ai des amis solids, pas très recommandables sur qui j'pourrai compter on peut dégainer C'est plus la même mais on fait avec, le décor n'est plus pareil plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné You might also like Cauchemar sur les rideaux, on se connaissait mais pas assez Les balles pleuvent les jours de fête, les jours de fête J'ai commis l'amertume hann solitaire sur une plage solitaire Je prends les clés de la voiture, je vais faire un tour vers le large me retrouver moi-même me retrouver solo C'est pas beau ce qu'ils m'ont fait c'est pas beau Le gilet pare-balle cache d'énormes plaies heinn Aveuglés on était, pour un bout de cratère j'effectuerai la tâche j'effectuerai la mission Je me suis ouvert, une partie de moi est parti en feu parti en feu Parabellum métal, on protège ce qu'on a de plus cher à nos yeux Maquille pas tes défauts nan, je te connais comme si je t'avais fait connais Eprouvé comme un ange, j'ai perdu des manières mania Solitaire près d'un glacier C'est plus la même mais on fait avec, le décor n'est plus pareil n'est plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté j'ai piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné1</t>
+          <t>Mmh Tous les jours c'est la même Hey, tous les jours c'est la même tous les jours car mon cur y était ohh On refait nos affaires comme avant un road trip comme avant un road trip Funérailles on y était ohh, y'a pas de quoi sourire ohh Sur la feuille y'a pas un mot, on se disait plein de choses qui ont perdu de leur valeur valeur T'auras beau revenir t'auras beau revenir, je ne veux plus de toi jamais Et j'ai beau souffrir comme à Caracas j'dois faire des lovés de l'argent J'ai un fils, j'ai un daronne daronne Aujourd'hui j'suis un patron patron J'ai des amis solids, pas très recommandables sur qui j'pourrai compter on peut dégainer C'est plus la même mais on fait avec, le décor n'est plus pareil plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Cauchemar sur les rideaux, on se connaissait mais pas assez Les balles pleuvent les jours de fête, les jours de fête J'ai commis l'amertume hann solitaire sur une plage solitaire Je prends les clés de la voiture, je vais faire un tour vers le large me retrouver moi-même me retrouver solo C'est pas beau ce qu'ils m'ont fait c'est pas beau Le gilet pare-balle cache d'énormes plaies heinn Aveuglés on était, pour un bout de cratère j'effectuerai la tâche j'effectuerai la mission Je me suis ouvert, une partie de moi est parti en feu parti en feu Parabellum métal, on protège ce qu'on a de plus cher à nos yeux Maquille pas tes défauts nan, je te connais comme si je t'avais fait connais Eprouvé comme un ange, j'ai perdu des manières mania Solitaire près d'un glacier C'est plus la même mais on fait avec, le décor n'est plus pareil n'est plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté j'ai piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Piou piou piou Hein Ouais l'ancien Apparemment t'as des couilles Apparemment t'as des douilles Viens donc qu'on verr' qui tient debout Hein Ton marabout N'a pas prédit ton échec, nan Le jour de fête On partage as-p avec les traîtres J'attire l'oseille et toutes les schnecks Depuis mineurs dans les dièses On fait c'que la plupart des grands n'ont pas les couilles de faire Ça vient de Madinina, 0.9 c'est d'la peufra, négocie pas le prix Méchant garçon C'est Dieu qui donne, c'est moi qui récupère J'paye la maison Aux quatre saisons je fâche la fachosphère Hein, grrr You might also like J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre Hey, hey Mec qu'a une visière c'est la mort qui t'appelle Petit cur est cassé, du mal à réparer Ils le font pour le faire, mais par nécessité La roue prendra son temps, mais finit par tourner Mauvais comme le remord, présent comme le passé Dis-le moi, qu'on le fasse, la guerre si nécessaire J'ai les outils, la volonté de te faire du mal La huisse il est bizarre, mais y'a rien à gratter Ouais, okay, okay, ouf Mon bébé veut le dernier Christian Dior, wesh, choqué 3000 E la dote, c'est l'prix du kil' J'vais péter le B22 après le confinement, ouais, choqué choqué 3000 E la dote, c'est l'prix du kil' Méchante gestuelle J'suis enduit comme LVN C'est nous les MVP 2020 ça parle en kil' J'suis dans une allemande Nerveuse comme SS J'fais d'la moula, j'fais de l'espèce Plus jamais j'connais la hess, frère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre</t>
+          <t>Piou piou piou Hein Ouais l'ancien Apparemment t'as des couilles Apparemment t'as des douilles Viens donc qu'on verr' qui tient debout Hein Ton marabout N'a pas prédit ton échec, nan Le jour de fête On partage as-p avec les traîtres J'attire l'oseille et toutes les schnecks Depuis mineurs dans les dièses On fait c'que la plupart des grands n'ont pas les couilles de faire Ça vient de Madinina, 0.9 c'est d'la peufra, négocie pas le prix Méchant garçon C'est Dieu qui donne, c'est moi qui récupère J'paye la maison Aux quatre saisons je fâche la fachosphère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre Hey, hey Mec qu'a une visière c'est la mort qui t'appelle Petit cur est cassé, du mal à réparer Ils le font pour le faire, mais par nécessité La roue prendra son temps, mais finit par tourner Mauvais comme le remord, présent comme le passé Dis-le moi, qu'on le fasse, la guerre si nécessaire J'ai les outils, la volonté de te faire du mal La huisse il est bizarre, mais y'a rien à gratter Ouais, okay, okay, ouf Mon bébé veut le dernier Christian Dior, wesh, choqué 3000 E la dote, c'est l'prix du kil' J'vais péter le B22 après le confinement, ouais, choqué choqué 3000 E la dote, c'est l'prix du kil' Méchante gestuelle J'suis enduit comme LVN C'est nous les MVP 2020 ça parle en kil' J'suis dans une allemande Nerveuse comme SS J'fais d'la moula, j'fais de l'espèce Plus jamais j'connais la hess, frère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dapper, Dapper Dan Yo, nouvel ADN Is that Traplysse Hey Célébration, j'ai mon côté froid comme un glaçon ice Mauvais garçon, des mauvais réflexes que j'ai gardé poh On doit créer, on doit bâtir des édifices plus grands que la Tower Eiffel Dame Nation, donnerais-tu ta vie pour ta nation hein, hein L'impact effraie les femmes, j'habite rue des martyre, près des flammes feu Guten tag, je sais parler allemand comme Beckenbauer gadji La fnêtres est obscure, ls phares sont jaunâtres comme une 4L On traversera vents et marées La nature a horreur du vide, j'vois le verre à moitié plein On maitrise un peu plus ce qu'on fait, j'aime pas la guerre mais en temps de paix les humains se relâchent On maitrise un peu plus ce qu'on fait un peu plus A la santé des miens, à ceux qui acquérissent un savoir pas destiné nan, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m You might also like Nouvel ADN Trop fort trop fort Un peu de shaker, j'augmente fréquence cardiaque J'termine le projet à Reykjavik Sur le recto de la feuille y'a surement mes initiales Pas de rêves érotiques, pas de vue océanique On ressemble à tout ce qu'ils voulaient pas qu'on soit Nouvelle map, je préfère à vos filles de joie Pull en laine pour cacher mes blessures, mes plaies Sur un coup de tête j'peux changer de paysage Vingt-sept bougies, triste anniversaire J'suis mon adversaire, une querelle qui s'finit aux assises poh-poh J'suis pas attaqué, j'conserve le ballon On retient que le gagnant, on retient pas le finaliste finaliste A la santé des miens, à ceux qui acquérissent un savoir pas destiné hann, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m1</t>
+          <t>Dapper, Dapper Dan Yo, nouvel ADN Is that Traplysse Hey Célébration, j'ai mon côté froid comme un glaçon ice Mauvais garçon, des mauvais réflexes que j'ai gardé poh On doit créer, on doit bâtir des édifices plus grands que la Tower Eiffel Dame Nation, donnerais-tu ta vie pour ta nation hein, hein L'impact effraie les femmes, j'habite rue des martyre, près des flammes feu Guten tag, je sais parler allemand comme Beckenbauer gadji La fnêtres est obscure, ls phares sont jaunâtres comme une 4L On traversera vents et marées La nature a horreur du vide, j'vois le verre à moitié plein On maitrise un peu plus ce qu'on fait, j'aime pas la guerre mais en temps de paix les humains se relâchent On maitrise un peu plus ce qu'on fait un peu plus A la santé des miens, à ceux qui acquérissent un savoir pas destiné nan, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m Nouvel ADN Trop fort trop fort Un peu de shaker, j'augmente fréquence cardiaque J'termine le projet à Reykjavik Sur le recto de la feuille y'a surement mes initiales Pas de rêves érotiques, pas de vue océanique On ressemble à tout ce qu'ils voulaient pas qu'on soit Nouvelle map, je préfère à vos filles de joie Pull en laine pour cacher mes blessures, mes plaies Sur un coup de tête j'peux changer de paysage Vingt-sept bougies, triste anniversaire J'suis mon adversaire, une querelle qui s'finit aux assises poh-poh J'suis pas attaqué, j'conserve le ballon On retient que le gagnant, on retient pas le finaliste finaliste A la santé des miens, à ceux qui acquérissent un savoir pas destiné hann, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Egaré, j'suis seul dans la praire Pour faire le nécessaire, nécessaire Les feuilles tombent en automne au dessus du refuge On ne saura même plus à quoi ressemblent nos bâtisses A combien t'estimes le prix de nos vies Combien de jours d'affilés avons nous fait le ventre vide Enchanté je suis la meilleure étoile de l'année Si tu m vois passer dans le ciel fais un vu fais un vu Ds traits comme personne On s'enterre pas seul Ferme les yeux et viens décris moi ce que tu vois On mérite mieux qu'une escale en enfer Tu mérites mieux qu'un semblant de vie ici dans château hanté Chanter ma haine dans amphi rempli Aimer c'est prendre le risque d'en souffrir, en vaut tu la chandelle ohh Dernière page de mon livre Les dernières croutes d'une longue plaie Noir c'est noir et y'a plus d'espoir noir Noir c'est noir et y'a plus d'espoir A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition combien Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain You might also like Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann Suffit il d'une balle, suffit il d'un cauchemar pour revoir ce qu'on a fait de mal Ce qu'on a fait pour en arriver là Pleut il en enfer, petit ange a fini égaré Pleut il en enfer, petit ange a fini égaré A combien t'estimes le prix de nos vies à combien C'est la purge everyday sous le matelas j'ai 22 long rifle D'humeur a séquestrer tout un pays d'humeur D'humeur à réparer l'injustice qu'ils ont D'humeur à mourir jeune, laisser un héritage Faire couler le sang qu'on écrit dans les livres dans les livres Eclaire nous le chemin, toi savant de tout Oh toi, qui a l'air si parfait, éclaire nous la route éclaire nous la route Trafiquant de rêves, eux ne mourront pas innocents Ils m'ont privé de naïveté Sous tutelle, j'ai laissé mon cur ice Ils ont pris tout ce qui brillait, village en feu Nos séquelles sont invisibles, ils nous ont laissé les miettes Sous la veste en jean j'ai un briquet et de quoi faire un feu Oh toi savant de tout indique nous la route si tu sais A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition l'addition Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann1</t>
+          <t>Egaré, j'suis seul dans la praire Pour faire le nécessaire, nécessaire Les feuilles tombent en automne au dessus du refuge On ne saura même plus à quoi ressemblent nos bâtisses A combien t'estimes le prix de nos vies Combien de jours d'affilés avons nous fait le ventre vide Enchanté je suis la meilleure étoile de l'année Si tu m vois passer dans le ciel fais un vu fais un vu Ds traits comme personne On s'enterre pas seul Ferme les yeux et viens décris moi ce que tu vois On mérite mieux qu'une escale en enfer Tu mérites mieux qu'un semblant de vie ici dans château hanté Chanter ma haine dans amphi rempli Aimer c'est prendre le risque d'en souffrir, en vaut tu la chandelle ohh Dernière page de mon livre Les dernières croutes d'une longue plaie Noir c'est noir et y'a plus d'espoir noir Noir c'est noir et y'a plus d'espoir A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition combien Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann Suffit il d'une balle, suffit il d'un cauchemar pour revoir ce qu'on a fait de mal Ce qu'on a fait pour en arriver là Pleut il en enfer, petit ange a fini égaré Pleut il en enfer, petit ange a fini égaré A combien t'estimes le prix de nos vies à combien C'est la purge everyday sous le matelas j'ai 22 long rifle D'humeur a séquestrer tout un pays d'humeur D'humeur à réparer l'injustice qu'ils ont D'humeur à mourir jeune, laisser un héritage Faire couler le sang qu'on écrit dans les livres dans les livres Eclaire nous le chemin, toi savant de tout Oh toi, qui a l'air si parfait, éclaire nous la route éclaire nous la route Trafiquant de rêves, eux ne mourront pas innocents Ils m'ont privé de naïveté Sous tutelle, j'ai laissé mon cur ice Ils ont pris tout ce qui brillait, village en feu Nos séquelles sont invisibles, ils nous ont laissé les miettes Sous la veste en jean j'ai un briquet et de quoi faire un feu Oh toi savant de tout indique nous la route si tu sais A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition l'addition Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pardo Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Jamais d'la vie J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh Mais son cur est en pann, elle appell Sosa, mec canon, j'arrive en balle J'arrive en balle Elle m'dit T'es déjà en bas ?, j'lui réponds Pour toi, j'ferais tout sauf si t'es une pute J'sais qu'tu caches des trucs Et au fait, dis-moi qui t'es ? Dis-moi Dis-moi qui t'as blessé ? Dis-moi pourquoi il a fait ? Tant d'mal J'ai des blessures mais j't'en parle pas, j'préfère les garder pour moi, peut-être un jour, on en parlera Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh You might also like La selha est tellement bonne qu'elle te frappe le crâne Elle te frappe Montre pas ton corps sur Onlyfans Nan J'suis fan de maman, je suis fan de toutes mes surs Fan J'suis pas fan de l'agent et de l'inspecteur Sergio Tacchini je dégaine, j'sais qu't'apprécies Je sais Le ciel est orange, y a du sable qui vient du Sahara C'est chaud T'as bon appétit, t'as trouver l'meilleur des négros C'est bien Bâtis rien d'solide, c'est sûr avec des Lego Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Très souvent Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, oh</t>
+          <t>Pardo Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Jamais d'la vie J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh Mais son cur est en pann, elle appell Sosa, mec canon, j'arrive en balle J'arrive en balle Elle m'dit T'es déjà en bas ?, j'lui réponds Pour toi, j'ferais tout sauf si t'es une pute J'sais qu'tu caches des trucs Et au fait, dis-moi qui t'es ? Dis-moi Dis-moi qui t'as blessé ? Dis-moi pourquoi il a fait ? Tant d'mal J'ai des blessures mais j't'en parle pas, j'préfère les garder pour moi, peut-être un jour, on en parlera Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh La selha est tellement bonne qu'elle te frappe le crâne Elle te frappe Montre pas ton corps sur Onlyfans Nan J'suis fan de maman, je suis fan de toutes mes surs Fan J'suis pas fan de l'agent et de l'inspecteur Sergio Tacchini je dégaine, j'sais qu't'apprécies Je sais Le ciel est orange, y a du sable qui vient du Sahara C'est chaud T'as bon appétit, t'as trouver l'meilleur des négros C'est bien Bâtis rien d'solide, c'est sûr avec des Lego Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Très souvent Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, oh</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hey Benjay C'est vrai quon est vrais, pull up trois fois pour la recette, c'est vrai qu'on est fous, ouh Ouh Les vendeurs de rêve nous ont promis la lune Trois fois on tpull up, on s'empare de tes biens, la férocité de mon camp est réelle Hey, ouh Hey, hey C'est vrai qu'on est vrais, gamin, ouh, beaucoup trop fiers pour demander de l'aide C'est réel L'ambition est grande Ouh, j'ai des res-frè au frais quattendent remise de peine Tas vu, eh Schéma qui m'appelle, lorchestre suit la cadence et la guitariste sèche Brr, mélodie noire, les corbeaux suivent le corbillard Et j'suis dans la surface comme Müller J'tire, pas très raffiné mais j'suis un buteur Ça tire Ça tire de tout-par, han, jai la mélo' qui plairait à 2Pac, han La mélo' On t'fournit la frappe qui t'monte au crâne, j'ai pesé les grammes et tous les risques Vêtu d'or comme Osiris, on échappe aux keufs et au fisc, dans quatre saisons, j'relativise C'est fort J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêves nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré Ça tire You might also like Un véhicule motorisé Ça tire, on shoote, t'arrêteras pas les balles, le chant des corbeaux présage rien de bon Impact de balles, uh Ça tire, on t'monte en l'air, c'est à nos frais La réalité n'a plus d'eux comme mes frais, elle regarde mon visage, fait deux fois mon âge Hey Au son des balles, tu prends la fuite, les p'tits ont grandi, récupèrent le R Été comme hiver, jamais on hiberne, la couleur du sang, la douleur du gang Ne souris pas quand ça pue la merde, le commerce a fait chuter le prix du R Le baril en hausse, les décès aussi, à croire qu'on est bons qu'à faire ça de nos vies Et Dieu merci, je sais rapper, trois quarts du gang est condamné Merci La Poste qui ferme pas le lundi, Dieu merci, je n'fais pas que chanter Et quand c'est mort, j'insiste, j'aime quand le boulot est bien ficelé J'défie le sens du vent, mon destin, le salaire minimum, c'est pas pour nos fils, c'est pas pour nos fils J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêve nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré J'suis dans le Viano Le tireur, épilogue, les deux motos sont synchros J'suis dans la Ciudad, j'compte pas m'arrêter d'aussitôt Le tireur, épilogue, les deux motos sont synchros Tou-tou-tou-touh</t>
+          <t>Hey Benjay C'est vrai quon est vrais, pull up trois fois pour la recette, c'est vrai qu'on est fous, ouh Ouh Les vendeurs de rêve nous ont promis la lune Trois fois on tpull up, on s'empare de tes biens, la férocité de mon camp est réelle Hey, ouh Hey, hey C'est vrai qu'on est vrais, gamin, ouh, beaucoup trop fiers pour demander de l'aide C'est réel L'ambition est grande Ouh, j'ai des res-frè au frais quattendent remise de peine Tas vu, eh Schéma qui m'appelle, lorchestre suit la cadence et la guitariste sèche Brr, mélodie noire, les corbeaux suivent le corbillard Et j'suis dans la surface comme Müller J'tire, pas très raffiné mais j'suis un buteur Ça tire Ça tire de tout-par, han, jai la mélo' qui plairait à 2Pac, han La mélo' On t'fournit la frappe qui t'monte au crâne, j'ai pesé les grammes et tous les risques Vêtu d'or comme Osiris, on échappe aux keufs et au fisc, dans quatre saisons, j'relativise C'est fort J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêves nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré Ça tire Un véhicule motorisé Ça tire, on shoote, t'arrêteras pas les balles, le chant des corbeaux présage rien de bon Impact de balles, uh Ça tire, on t'monte en l'air, c'est à nos frais La réalité n'a plus d'eux comme mes frais, elle regarde mon visage, fait deux fois mon âge Hey Au son des balles, tu prends la fuite, les p'tits ont grandi, récupèrent le R Été comme hiver, jamais on hiberne, la couleur du sang, la douleur du gang Ne souris pas quand ça pue la merde, le commerce a fait chuter le prix du R Le baril en hausse, les décès aussi, à croire qu'on est bons qu'à faire ça de nos vies Et Dieu merci, je sais rapper, trois quarts du gang est condamné Merci La Poste qui ferme pas le lundi, Dieu merci, je n'fais pas que chanter Et quand c'est mort, j'insiste, j'aime quand le boulot est bien ficelé J'défie le sens du vent, mon destin, le salaire minimum, c'est pas pour nos fils, c'est pas pour nos fils J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêve nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré J'suis dans le Viano Le tireur, épilogue, les deux motos sont synchros J'suis dans la Ciudad, j'compte pas m'arrêter d'aussitôt Le tireur, épilogue, les deux motos sont synchros Tou-tou-tou-touh</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baille Broliker Production Jsuis dans les bons bails, jvois tout en 4k Là cest Game Over, 50k Cest Kmer M. Sosa Cest chaud dans la ville mon ami Cheval de Troie je suis Regarde derrière qui me suit La police suit mon train de vie Le baveux me prend 2 SMIC Cur de glace on a, Pas besoin de voir pour croire St Thomas a ses raisons, que la raison veut voir Le dealer charbonne en Quechua Ouai, Ouai, en Quechua Au dessus des lois, le terrain né-tourne alléluia On démarre la caisse pour la mission Le public macclame, jgère la pression Le jaune se vi-ser à bonne cuisson, garçon, 500 cest laddition Jviens pas dune famille aisée Bah elle moblige à tout baiser Jai tout les outils pour voir le monde donc Maman faut pas tinquiéter 400 ans de répression, 4 négros dans la cuisine Liasse de 100 dans le parking, cousin, cest pas les sous de la musique You might also like Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaire Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies Cherche pas à être comme nous On veut plus être ce quon est Men veux pas dêtre moi On devient ce que veut le monde Tout nest quune question de choix Moi juste soit à manger Un drame, des larmes, des bougies Une feuille, une clope, on toublie Jsuis dans la suite, entre ses cuisses, jsuis dans les bails noirs Terrain hostile, souvent habile, on manie bien les armes Jamais déçu, très peu dfissure car jconnais les gens Grandi violemment, enfance brisée dans le bâtiment Ouai, ouai, ouai Dineros mappellent, jarrive Ça grésille jme barre sur une île Tu mverras jamais dans les boîtes et chichas remplies de salope virtuelles qui font tchi Crimes en bande organisée, cest vrai Le procureur confirme les faits Tas vendu la mèche on te kill, kill, kill, kill Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaires Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies</t>
+          <t>Baille Broliker Production Jsuis dans les bons bails, jvois tout en 4k Là cest Game Over, 50k Cest Kmer M. Sosa Cest chaud dans la ville mon ami Cheval de Troie je suis Regarde derrière qui me suit La police suit mon train de vie Le baveux me prend 2 SMIC Cur de glace on a, Pas besoin de voir pour croire St Thomas a ses raisons, que la raison veut voir Le dealer charbonne en Quechua Ouai, Ouai, en Quechua Au dessus des lois, le terrain né-tourne alléluia On démarre la caisse pour la mission Le public macclame, jgère la pression Le jaune se vi-ser à bonne cuisson, garçon, 500 cest laddition Jviens pas dune famille aisée Bah elle moblige à tout baiser Jai tout les outils pour voir le monde donc Maman faut pas tinquiéter 400 ans de répression, 4 négros dans la cuisine Liasse de 100 dans le parking, cousin, cest pas les sous de la musique Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaire Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies Cherche pas à être comme nous On veut plus être ce quon est Men veux pas dêtre moi On devient ce que veut le monde Tout nest quune question de choix Moi juste soit à manger Un drame, des larmes, des bougies Une feuille, une clope, on toublie Jsuis dans la suite, entre ses cuisses, jsuis dans les bails noirs Terrain hostile, souvent habile, on manie bien les armes Jamais déçu, très peu dfissure car jconnais les gens Grandi violemment, enfance brisée dans le bâtiment Ouai, ouai, ouai Dineros mappellent, jarrive Ça grésille jme barre sur une île Tu mverras jamais dans les boîtes et chichas remplies de salope virtuelles qui font tchi Crimes en bande organisée, cest vrai Le procureur confirme les faits Tas vendu la mèche on te kill, kill, kill, kill Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaires Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eh Geo on the track Encore du sale, encore du gras t'as vu t'as vu? 35 balais l'ancien Encore, encore une pige et j'arrête Encore hein, VVS-S Eh J'écris ce texte en m'disant que c'est p't-être ma dernière année Je sors d'une dépression sévère j'ai fait un travail sur moi Le psy n'a pas su trouver les mots, j'me suis confié a Dieu Ce bâtard m'a juste pris des sous, ce bâtard m'a juste plumé J'suis Veni, je dois Vici, jeune négro full Givenchy J'ai full options dans la gova, j'regarde le ciel orageux J'ai pris mon cur en otage, j'calcule même plus ces follasses Tellement de rage j'pourrais pas m'contenir plus longtemps j'le ressens Trop de fils de putains qui attendent ma chute J'investis dans la crypto, bientôt le parachute Mon fils ma seule étoile, on s'capte sans pare-balles Chafik j'ai manqué d'chance mais ça c'était avant eh VVS-S, fuck la hess hess, j'connais ma ville pas d'GPS-S j'ai tous les plans S ouais Comme Okocha-a j'dois marquer l'histoire J'fais autre chose que d'raconter ma vie et celle des mecs au shtar, Hein You might also like Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête Eh Et l'histoire retiendra qu'on n'a jamais sucé d'bite Dans mon équipe y'a 0 fragiles, 0 susceptibles On s'aime de loin, quand faut agir pour l'un des miens, j'le fais Un cur en panne, j'le greffe, j'ai besoin d'v'là les streams Trop d'estime pour leur demander un feat J'avais d'l'amour à donner, trop tard mon fils a tout pris La balistique qui enquête, jamais trop tard j'suis en tête On vit le jour et la nuit, vivement le soleil d'été Ouais, j'pense a Ba, j'pense a LVM, l'époque du square J'rentrais chez moi le soir grâce au TVM Trop de fils de tain'p qu'on aime pas trop, qu'on aime pas trop Ca pue la pisse dans l'Hall, ça pue la beuh dans le Quattro J'suis al ou il faut être, j'suis né ou il faut pas J'mise pas dans l'paraître J'cogite la nuit, j'fais les cent pas Jamais d'prétention pour ceux que j'aime Tu m'as poussé 20e en 2015 j'te rend 1K Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête</t>
+          <t>Eh Geo on the track Encore du sale, encore du gras t'as vu t'as vu? 35 balais l'ancien Encore, encore une pige et j'arrête Encore hein, VVS-S Eh J'écris ce texte en m'disant que c'est p't-être ma dernière année Je sors d'une dépression sévère j'ai fait un travail sur moi Le psy n'a pas su trouver les mots, j'me suis confié a Dieu Ce bâtard m'a juste pris des sous, ce bâtard m'a juste plumé J'suis Veni, je dois Vici, jeune négro full Givenchy J'ai full options dans la gova, j'regarde le ciel orageux J'ai pris mon cur en otage, j'calcule même plus ces follasses Tellement de rage j'pourrais pas m'contenir plus longtemps j'le ressens Trop de fils de putains qui attendent ma chute J'investis dans la crypto, bientôt le parachute Mon fils ma seule étoile, on s'capte sans pare-balles Chafik j'ai manqué d'chance mais ça c'était avant eh VVS-S, fuck la hess hess, j'connais ma ville pas d'GPS-S j'ai tous les plans S ouais Comme Okocha-a j'dois marquer l'histoire J'fais autre chose que d'raconter ma vie et celle des mecs au shtar, Hein Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête Eh Et l'histoire retiendra qu'on n'a jamais sucé d'bite Dans mon équipe y'a 0 fragiles, 0 susceptibles On s'aime de loin, quand faut agir pour l'un des miens, j'le fais Un cur en panne, j'le greffe, j'ai besoin d'v'là les streams Trop d'estime pour leur demander un feat J'avais d'l'amour à donner, trop tard mon fils a tout pris La balistique qui enquête, jamais trop tard j'suis en tête On vit le jour et la nuit, vivement le soleil d'été Ouais, j'pense a Ba, j'pense a LVM, l'époque du square J'rentrais chez moi le soir grâce au TVM Trop de fils de tain'p qu'on aime pas trop, qu'on aime pas trop Ca pue la pisse dans l'Hall, ça pue la beuh dans le Quattro J'suis al ou il faut être, j'suis né ou il faut pas J'mise pas dans l'paraître J'cogite la nuit, j'fais les cent pas Jamais d'prétention pour ceux que j'aime Tu m'as poussé 20e en 2015 j'te rend 1K Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eeeeh Sosa, t'as vu ? Freddy K all day Mes démons m'obéissent et depuis longtemps, ouais, mes démons m'obéissent depuis très longtemps Je fais de la trap depuis qu'j'suis minot, j'frappe fort dans le sac, ouais, depuis longtemps Avec le temps, j'me suis assagi, cur noir brisé comme en Palestine Très peu d'estime pour les suceurs de eh, j'suis dans le binks avec les mecs qui eh Nine four four, j'ai le nine qu'il faut, j'ai la gueule du suspct même quand j'suis dans les normes J'vux le trésor, j'mets pas d'alligator, elle a les yeux bridés, j'lui dis arigatô L'équipe est noire comme N.W.A, t'aimes trop les femmes, tu vas finir dans l'coffre Un, deux, trois, quatre virements par mois, c'est le minimum, fuck, le treizième mois J'suis dans la trap, parfois dans la drill, à mes quinze piges, j'faisais du dirty Maman s'inquiète, n'aime pas l'industrie, j'lui dis T'inquiète, moi non plus, j'les aime pas Les potos me disent Bsahtek, la gova, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Hey, hey, ouh, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier You might also like Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis J'suis dans la Ciudad, j'suis dans le bendo, le carré VIP, c'est pas pour nous À mes trente piges, j'veux rouler en Bentley, Aventador, moi, j'sais pas pour vous J'suis dans le tunnel qui relie Nanterre à l'A86, qu'est-ce qu'il est long Elle me dit Kmer, qui suis-je pour toi ?, j'sais même pas quoi lui dire mais j'ai l'air con Attends, faut qu'j'fasse autre chose, le peu-ra, j'lui mets sa dose, il a une scoliose Tit-peu, j'volais de ouf, j'ai fait la misère aux keufs, aux vigiles de Carrefour Tu parles comme si t'es chaud toi, chez toi, t'es juste un chouf, ici, personne croit Attends deux secondes que j'vois qui est chaud, pas de feinte de shoot, pas d'carré, d'croix Oh, machine à billets machine à lovés, machine à billets machine à lovés Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis Mes démons m'obéissent Vingt, vingt-et-un, c'est moi Ouh</t>
+          <t>Eeeeh Sosa, t'as vu ? Freddy K all day Mes démons m'obéissent et depuis longtemps, ouais, mes démons m'obéissent depuis très longtemps Je fais de la trap depuis qu'j'suis minot, j'frappe fort dans le sac, ouais, depuis longtemps Avec le temps, j'me suis assagi, cur noir brisé comme en Palestine Très peu d'estime pour les suceurs de eh, j'suis dans le binks avec les mecs qui eh Nine four four, j'ai le nine qu'il faut, j'ai la gueule du suspct même quand j'suis dans les normes J'vux le trésor, j'mets pas d'alligator, elle a les yeux bridés, j'lui dis arigatô L'équipe est noire comme N.W.A, t'aimes trop les femmes, tu vas finir dans l'coffre Un, deux, trois, quatre virements par mois, c'est le minimum, fuck, le treizième mois J'suis dans la trap, parfois dans la drill, à mes quinze piges, j'faisais du dirty Maman s'inquiète, n'aime pas l'industrie, j'lui dis T'inquiète, moi non plus, j'les aime pas Les potos me disent Bsahtek, la gova, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Hey, hey, ouh, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis J'suis dans la Ciudad, j'suis dans le bendo, le carré VIP, c'est pas pour nous À mes trente piges, j'veux rouler en Bentley, Aventador, moi, j'sais pas pour vous J'suis dans le tunnel qui relie Nanterre à l'A86, qu'est-ce qu'il est long Elle me dit Kmer, qui suis-je pour toi ?, j'sais même pas quoi lui dire mais j'ai l'air con Attends, faut qu'j'fasse autre chose, le peu-ra, j'lui mets sa dose, il a une scoliose Tit-peu, j'volais de ouf, j'ai fait la misère aux keufs, aux vigiles de Carrefour Tu parles comme si t'es chaud toi, chez toi, t'es juste un chouf, ici, personne croit Attends deux secondes que j'vois qui est chaud, pas de feinte de shoot, pas d'carré, d'croix Oh, machine à billets machine à lovés, machine à billets machine à lovés Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis Mes démons m'obéissent Vingt, vingt-et-un, c'est moi Ouh</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kary on the tracks Oh ohh Hann, hann Seul, dans la cogite, pas bonne pour la santé mentale Hein J'refais le monde à ton image Jrefais Plafond de verre à perforer Il pleut, imperméable me protège des gouttes, j'suis une mauvaise graine Les images qui contredisent tes dires C'est beau de savoir comment ils vont mourir Bosseur et croyant, faut des édifices Jcroyais qu'c'était la bonne technique Non J'éclaire les coins sombres de la city J'me méfie de leurs sourires, d'leurs kalash Jamais trop tard pour ouvrir un livre Non J'suis condamné faut qu'jme livre Eh Jdois contrôler mes pulsions Gamin j'avais un cur plus grand que la maison Bouh Jai l'impression qu'il passe beaucoup plus vite le temps Et toi ? Plus vite qu'hier Plus Plus fort quhier Plus noir qu'hier Encore Espace Temps You might also like Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Y'a pas de fumée sans feu Nan Ça se répète comme dans un mauvais film Repeat Espace temps, j'suis bloqué, j'suis glocké Bou-bouh Ils sont pas aussi méchants qu'ils y paraissent J'sais pas surestimer Faut pas les voir plus grands qu'ils ne paraissent On saura rivaliser Petit cur a trouvé réconfort, dans les bras de Morphée Petite bougie, toutes mes dents, j'souris pas pour autant C'est pas nous les sorciers Un puit sans fin, c'est comme boomerang Raffiné et fin, j'éduque mon palais mais j'm'y ferais jamais au caviar Le pouvoir c'est donner un peu de soi, un peu de nous La lumière n'éclaire pas tout la Ils ont saboté les freins Hein Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Boum boum boum Y'a pas de fumée sans feu KJU Ça se répète comme dans un mauvais film No Espace temps, j'suis bloqué, j'suis glocké Les trois quarts ici sont glockés Hey, hey KJU Boom boom boom</t>
+          <t>Kary on the tracks Oh ohh Hann, hann Seul, dans la cogite, pas bonne pour la santé mentale Hein J'refais le monde à ton image Jrefais Plafond de verre à perforer Il pleut, imperméable me protège des gouttes, j'suis une mauvaise graine Les images qui contredisent tes dires C'est beau de savoir comment ils vont mourir Bosseur et croyant, faut des édifices Jcroyais qu'c'était la bonne technique Non J'éclaire les coins sombres de la city J'me méfie de leurs sourires, d'leurs kalash Jamais trop tard pour ouvrir un livre Non J'suis condamné faut qu'jme livre Eh Jdois contrôler mes pulsions Gamin j'avais un cur plus grand que la maison Bouh Jai l'impression qu'il passe beaucoup plus vite le temps Et toi ? Plus vite qu'hier Plus Plus fort quhier Plus noir qu'hier Encore Espace Temps Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Y'a pas de fumée sans feu Nan Ça se répète comme dans un mauvais film Repeat Espace temps, j'suis bloqué, j'suis glocké Bou-bouh Ils sont pas aussi méchants qu'ils y paraissent J'sais pas surestimer Faut pas les voir plus grands qu'ils ne paraissent On saura rivaliser Petit cur a trouvé réconfort, dans les bras de Morphée Petite bougie, toutes mes dents, j'souris pas pour autant C'est pas nous les sorciers Un puit sans fin, c'est comme boomerang Raffiné et fin, j'éduque mon palais mais j'm'y ferais jamais au caviar Le pouvoir c'est donner un peu de soi, un peu de nous La lumière n'éclaire pas tout la Ils ont saboté les freins Hein Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Boum boum boum Y'a pas de fumée sans feu KJU Ça se répète comme dans un mauvais film No Espace temps, j'suis bloqué, j'suis glocké Les trois quarts ici sont glockés Hey, hey KJU Boom boom boom</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kimo Oh KJU Une moto, un dernier vux Un rafale, une dernière veuve Un buggy, un fils heureux Si tas peur du noir, cest que tes peureux Pas de latence On réagira au quart de tour pour nettoyer nos name Tu racontes ce que tas pas fait Tu vies à peine le premier jfinis le centième De lautre côté de la rue Y a sûrement des mecs qui mattendent en rogne Tu marmonnes On te coupe la langue Jsuis bon quà remonter le score comme Haaland Jsuis habité comme une entité Et lhabitacle, cest pas du cuir de vache Abîmé le foie dun opps Est devenu un sport national ici La vérité, men veux pas davoir fait du mal pour ton bien En vérité, que serait locéan sans le requin blanc ? Jaurais pu, ça aurait pu attendre comme un sniper malgré les orages Jreconnaît un opps un cur sans képi You might also like Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi Pas deux poids deux mesure Cest du pareil au même, jfais pas de distinction extinction Les feux à six accroché au bitume comme paire dAsics La survie de la race humaine dépendra de la récolte dans la rizière Une visière, boom boom boom, semi-automatique y a personne qui réplique Tu disparaîtras comme Kimpembe Jattends pas la pour venir répliquer Quas-tu connu de la guerre si tes pas impliqué ? Et mon cur sremplit de haine de manière progressive Tas voulu refaire le monde mais y a trop à faire Tu te feras voler le terrain comme en Palestine Jai les yeux grands ouverts, il neige comme Vancouver Nouvelle cover dans l'ciel, jles vois de la Tour Eiffel KJU Extinction des feux Tout le monde à la maison Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi boom boom boom</t>
+          <t>Kimo Oh KJU Une moto, un dernier vux Un rafale, une dernière veuve Un buggy, un fils heureux Si tas peur du noir, cest que tes peureux Pas de latence On réagira au quart de tour pour nettoyer nos name Tu racontes ce que tas pas fait Tu vies à peine le premier jfinis le centième De lautre côté de la rue Y a sûrement des mecs qui mattendent en rogne Tu marmonnes On te coupe la langue Jsuis bon quà remonter le score comme Haaland Jsuis habité comme une entité Et lhabitacle, cest pas du cuir de vache Abîmé le foie dun opps Est devenu un sport national ici La vérité, men veux pas davoir fait du mal pour ton bien En vérité, que serait locéan sans le requin blanc ? Jaurais pu, ça aurait pu attendre comme un sniper malgré les orages Jreconnaît un opps un cur sans képi Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi Pas deux poids deux mesure Cest du pareil au même, jfais pas de distinction extinction Les feux à six accroché au bitume comme paire dAsics La survie de la race humaine dépendra de la récolte dans la rizière Une visière, boom boom boom, semi-automatique y a personne qui réplique Tu disparaîtras comme Kimpembe Jattends pas la pour venir répliquer Quas-tu connu de la guerre si tes pas impliqué ? Et mon cur sremplit de haine de manière progressive Tas voulu refaire le monde mais y a trop à faire Tu te feras voler le terrain comme en Palestine Jai les yeux grands ouverts, il neige comme Vancouver Nouvelle cover dans l'ciel, jles vois de la Tour Eiffel KJU Extinction des feux Tout le monde à la maison Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi boom boom boom</t>
         </is>
       </c>
     </row>
@@ -1056,11 +1056,7 @@
           <t>Fais un vœu</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1075,7 +1071,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Oh Baille Broliker Production Trois pièces Hey Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh C'est la Fashion Week, c'est Paname, c'est pas Rio C'est pas Rio J'me rappelle, hier, quand j'avais R, tu riais J'avais la dalle J'envoie mandât cash au poto, j'envoie Ria Oh Po-po-po-po-poh le son d'la Kalash' est bien réel Po-poh À c'qui paraît, les derniers finiront premiers À c'qui paraît Toi, t'es dernier depuis l'départ, t'es un flocko T'es un flocko J'ai investi sur le terrain, sur l'Ethereum Po-poh J'suis un délinquant comme Sosa, j'ai pas mis nez dans la zipette Po-poh C'est nous les jeunes boss, on casse la malédiction Le daron était pauvre, si on meurt pauvre, ça sera de notre faute Avenue des Champs, j'y suis avec des mecs qui puent la tise Je claque de fou un SMIC sur des produits que j'mettrai pas une pige T'as vu You might also like Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Ils m'ont trahi pour des pesos, pour du khaliss Eh J'suis en damier Eh, t'es en échec Eh Bébé veut passer du bon temps, j'suis condamné Hey VV dans la AP Hey, j'm'appelle AG Hey Si t'es ché-lâ, c'est qu'y a plus rien à gratter T'as plus la dalle Tous les jours d'l'année, c'est comme le premier du mois Everyday T'sais pas compter, t'aurais fait un mauvais dealer Que des traîtres T'sais pas viser, t'aurais fait un mauvais tireur Tou-tou-touh On court ni après les tasses-pé, ni le bus On connaît tous la fin du film, le plus gentil se fera dévorer Toh J'envoie des SMS, t'envoies des SOS Dangereux comme R.U.E, y a très longtemps qu'je rappe la rue pour ceux qui guettent Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Re-noi dans l'business Ma tasse-pé fait du fitness Birkin, trois pièces dans l'RR Trois pièces Fitness Birkin</t>
+          <t>Oh Baille Broliker Production Trois pièces Hey Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh C'est la Fashion Week, c'est Paname, c'est pas Rio C'est pas Rio J'me rappelle, hier, quand j'avais R, tu riais J'avais la dalle J'envoie mandât cash au poto, j'envoie Ria Oh Po-po-po-po-poh le son d'la Kalash' est bien réel Po-poh À c'qui paraît, les derniers finiront premiers À c'qui paraît Toi, t'es dernier depuis l'départ, t'es un flocko T'es un flocko J'ai investi sur le terrain, sur l'Ethereum Po-poh J'suis un délinquant comme Sosa, j'ai pas mis nez dans la zipette Po-poh C'est nous les jeunes boss, on casse la malédiction Le daron était pauvre, si on meurt pauvre, ça sera de notre faute Avenue des Champs, j'y suis avec des mecs qui puent la tise Je claque de fou un SMIC sur des produits que j'mettrai pas une pige T'as vu Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Ils m'ont trahi pour des pesos, pour du khaliss Eh J'suis en damier Eh, t'es en échec Eh Bébé veut passer du bon temps, j'suis condamné Hey VV dans la AP Hey, j'm'appelle AG Hey Si t'es ché-lâ, c'est qu'y a plus rien à gratter T'as plus la dalle Tous les jours d'l'année, c'est comme le premier du mois Everyday T'sais pas compter, t'aurais fait un mauvais dealer Que des traîtres T'sais pas viser, t'aurais fait un mauvais tireur Tou-tou-touh On court ni après les tasses-pé, ni le bus On connaît tous la fin du film, le plus gentil se fera dévorer Toh J'envoie des SMS, t'envoies des SOS Dangereux comme R.U.E, y a très longtemps qu'je rappe la rue pour ceux qui guettent Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Re-noi dans l'business Ma tasse-pé fait du fitness Birkin, trois pièces dans l'RR Trois pièces Fitness Birkin</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1088,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>À l'ancienne comme Fila Wesh Heavy Wesh Heavy J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, j'ai bien failli sauter Oh-oh-oh T'as vu ? Oh-oh-oh Ouais J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, tou-tou-touh, han, j'ai bien failli sauter J'ai bien failli y passer, oh-oh-oh On était beaucoup sur la to-ph' Eh, on rêvait d'ballon d'foot, finir comme Joga Bonito Finir comme Joga Bonito Golf GTD, GTI, on avait tout Hey, on voulait le GTR de Need for Speed dans la vraie vie Nion On était con mais peu à peu Hey, on devient des vrais hommes, on a des marmots à faire vivre Oh-oh-oh À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa You might also like Wardo, enlève l'AutoTune Enlève pour qu'ils ressentent le ton d'ma voix quand j'm'exprime Quand je parle Han, on n'a pas guéri de nos blessures, autour, y a que des hyènes et tous nos faits ont fait la une d'hiver Yeah, yeah, yeah Délit de faciès, on s'en bat les c' Quoi ?, on fait dix fois le salaire de l'officier Y a dégun qui m'impressionne, j'ai le pe-pom qui fait des trous Po-poh Un homme averti en vaut deux, ça vaut le double On fait les comptes, avec les tits-pe, on raconte des comptines à nos gosses Oh-oh-oh Comme Balotelli, on était précoces Oh-oh-oh Et nos p'tites surs ne mettent pas de gloss, font pas des TikTok J'empile les briques pour abriter les miens J'ai le grr qui protège les miens À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa À l'ancienne comme Fila Oh-oh, le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa</t>
+          <t>À l'ancienne comme Fila Wesh Heavy Wesh Heavy J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, j'ai bien failli sauter Oh-oh-oh T'as vu ? Oh-oh-oh Ouais J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, tou-tou-touh, han, j'ai bien failli sauter J'ai bien failli y passer, oh-oh-oh On était beaucoup sur la to-ph' Eh, on rêvait d'ballon d'foot, finir comme Joga Bonito Finir comme Joga Bonito Golf GTD, GTI, on avait tout Hey, on voulait le GTR de Need for Speed dans la vraie vie Nion On était con mais peu à peu Hey, on devient des vrais hommes, on a des marmots à faire vivre Oh-oh-oh À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa Wardo, enlève l'AutoTune Enlève pour qu'ils ressentent le ton d'ma voix quand j'm'exprime Quand je parle Han, on n'a pas guéri de nos blessures, autour, y a que des hyènes et tous nos faits ont fait la une d'hiver Yeah, yeah, yeah Délit de faciès, on s'en bat les c' Quoi ?, on fait dix fois le salaire de l'officier Y a dégun qui m'impressionne, j'ai le pe-pom qui fait des trous Po-poh Un homme averti en vaut deux, ça vaut le double On fait les comptes, avec les tits-pe, on raconte des comptines à nos gosses Oh-oh-oh Comme Balotelli, on était précoces Oh-oh-oh Et nos p'tites surs ne mettent pas de gloss, font pas des TikTok J'empile les briques pour abriter les miens J'ai le grr qui protège les miens À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa À l'ancienne comme Fila Oh-oh, le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1122,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J'veux la tête du roi négro, fuck la fève Noël ou pas, sale pute on t'feras ta fête Enchanté, moi c'est Monsieur So Inacceptable que nos têtes soient wanted sur tous les murs des comicos Sur nos côtes y'a la brigade des stups' J'ferais du sale jusqu'à c'qu'ils comprennent que Mr Elh Kmer c'est en majuscule Rien à foutre du game j'suis solo Euro, Dollar donc tôt on arrête nos études Fils de pute, va fan culo, arrivage de drogue par l'Espagne donc faisons nos thunes Sur Boulbi j'suis en terrain conquis Fils de harki veut m'apprendre la vie mais il se prend pour qui ? J'côtoie les mêmes khos depuis tout p'tit Vesti, Braki, Tony, 2016 on niquera des mères même dans l'illicite Braki follow me Vesti follow me Tony my nigga follow me J'suis pas là pour vous plaire allez niquer vos mères les putes Gros j'suis en colère la putain d'vos rs' Vesti va tous vous quer-cho Tu fais le mais renoi tu gagnes que mille euros J'suis en mode kickage tous mes frelons me disent Va-y mollo Paire de Nike Air, cette tasse-pé veut mon pubis Un conseil met pas tes dents, sinon j't'arrache tous tes chicos J'ai frappe d'ici à la rage j'te met ça et le coup d'boule du voisin à On les baise tous ces fils de putes qui jactent sur le trio Si tu m'vois pas c'est qu'j'suis dans l'four j'prépare du lourd pour toi ouais amigo Brigade anti-suceuses c'est comme quoi qu'on nous voit merci les pélos Viens dans mon quartier on est plein Free Badem, Free 2Lat, Free Youston fuego Oh putain les vils-ci veulent me choper j'suis dans le Dans le Sud j'ai caché les cs-tru dans le Renault dans le nord Elle croit me michtonne, comme on dit Trop bonne trop conne Ouais sachez d'la bonne va y viens que j't'en donne Direction sur les quais si tu fais le bonhomme, badaboum, j'te rafale tu pleures comme une folle 2.3.7 Camer' si tu sais dans la schnek de la petite Nicole You might also like Hé wAllah on a trop faim les frères Hé cousin on arrive pour tout baiser Hé dis leur B.R, hé mon gars, c'est chaud dans la ville ou quoi ? Braki follow me Vesti follow me Tony my nigga follow me Encore un fils de pute qui veut pas payer j'vais devoir aller le traquer Ça m'invitait pas à leur soirées parce qu'ils savaient que j'allais tout claquer Dans un traquenard négro tu est tombé, ne te caches plus on t'as localisé Audacieux, jeune et fougueux, tous ces fils de sont des envieux Joue le jeu, j'paye le tel-hô, j'veux tout compris va-y suce moi la queue Quand j'me fais péter par les re-schta, j'deviens amnésique dans tous les cas Amnésique dans tous les cas, ouvre ta gueule et c'est là Ils sont pétés, j'vais pas les savourer, j'vais les grailles d-spee comme j'avale Avec Ombre et Lumière croit moi sur parole j'vais niquer des mères Tu n'es que locataire, moi j'investis pour être propriétaire Je suis frais-ais, oui je suis prêt-êt, sur mon futal y'a mon arme de guerre J'suis déte-er, si tu me cher-erche, avant d'te descendre je vais monter ta mère Braki follow me Vesti follow me Tony my nigga follow me</t>
+          <t>J'veux la tête du roi négro, fuck la fève Noël ou pas, sale pute on t'feras ta fête Enchanté, moi c'est Monsieur So Inacceptable que nos têtes soient wanted sur tous les murs des comicos Sur nos côtes y'a la brigade des stups' J'ferais du sale jusqu'à c'qu'ils comprennent que Mr Elh Kmer c'est en majuscule Rien à foutre du game j'suis solo Euro, Dollar donc tôt on arrête nos études Fils de pute, va fan culo, arrivage de drogue par l'Espagne donc faisons nos thunes Sur Boulbi j'suis en terrain conquis Fils de harki veut m'apprendre la vie mais il se prend pour qui ? J'côtoie les mêmes khos depuis tout p'tit Vesti, Braki, Tony, 2016 on niquera des mères même dans l'illicite Braki follow me Vesti follow me Tony my nigga follow me J'suis pas là pour vous plaire allez niquer vos mères les putes Gros j'suis en colère la putain d'vos rs' Vesti va tous vous quer-cho Tu fais le mais renoi tu gagnes que mille euros J'suis en mode kickage tous mes frelons me disent Va-y mollo Paire de Nike Air, cette tasse-pé veut mon pubis Un conseil met pas tes dents, sinon j't'arrache tous tes chicos J'ai frappe d'ici à la rage j'te met ça et le coup d'boule du voisin à On les baise tous ces fils de putes qui jactent sur le trio Si tu m'vois pas c'est qu'j'suis dans l'four j'prépare du lourd pour toi ouais amigo Brigade anti-suceuses c'est comme quoi qu'on nous voit merci les pélos Viens dans mon quartier on est plein Free Badem, Free 2Lat, Free Youston fuego Oh putain les vils-ci veulent me choper j'suis dans le Dans le Sud j'ai caché les cs-tru dans le Renault dans le nord Elle croit me michtonne, comme on dit Trop bonne trop conne Ouais sachez d'la bonne va y viens que j't'en donne Direction sur les quais si tu fais le bonhomme, badaboum, j'te rafale tu pleures comme une folle 2.3.7 Camer' si tu sais dans la schnek de la petite Nicole Hé wAllah on a trop faim les frères Hé cousin on arrive pour tout baiser Hé dis leur B.R, hé mon gars, c'est chaud dans la ville ou quoi ? Braki follow me Vesti follow me Tony my nigga follow me Encore un fils de pute qui veut pas payer j'vais devoir aller le traquer Ça m'invitait pas à leur soirées parce qu'ils savaient que j'allais tout claquer Dans un traquenard négro tu est tombé, ne te caches plus on t'as localisé Audacieux, jeune et fougueux, tous ces fils de sont des envieux Joue le jeu, j'paye le tel-hô, j'veux tout compris va-y suce moi la queue Quand j'me fais péter par les re-schta, j'deviens amnésique dans tous les cas Amnésique dans tous les cas, ouvre ta gueule et c'est là Ils sont pétés, j'vais pas les savourer, j'vais les grailles d-spee comme j'avale Avec Ombre et Lumière croit moi sur parole j'vais niquer des mères Tu n'es que locataire, moi j'investis pour être propriétaire Je suis frais-ais, oui je suis prêt-êt, sur mon futal y'a mon arme de guerre J'suis déte-er, si tu me cher-erche, avant d'te descendre je vais monter ta mère Braki follow me Vesti follow me Tony my nigga follow me</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1139,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mr. So, ombre et lumière C'est chaud dans la ville, Boulogne Square Pont d'Sèvres, Pharman, les projets avancent Eh B.R, aujourd'hui c'est moi demain c'est toi fréro Ve-Ve, Tony my nigga A.S.K Clik J'veux mon tête à tête avec un Ouzbek Pirate anarchiste comme Poutine Pirate anarchiste comme Poutine Ça fait longtemps qu'la hagra est abolie J'affronte tous mes démons au uzi Kalachnikov dans tes mains négro vas-y Garde tes discours pour un concours de beauté J'ai la mentale et les armes de Tony Oui Tony mon négro, oui Tony mon négro 2016 on va niquer des mères Ils font les voyous mais wAllah vont rien faire J'me pavane à poil dans l'salon de leur mère Au-dessus d'la normale comme un drone dans les airs D'ici peu j'arrêterai des carrières Vos rappeurs, vos rappeurs préférés Plus tôt qu'prévu seront sexagénaires Force et honneur, ombre et lumière On arrive où personne n'nous attend Si seulement vous saviez Tout l'mal que je traîne depuis ma sombre enfance Négro paraît qu'j'suis mort, négro paraît qu'j'suis mort Surtout n'écoutez pas les on dit Surtout n'écoutez pas les on dit Car c'seront les mêmes qui me suceront la bite, So You might also like x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi Fuck tes principes, négro fuck J'vise le million, j'vise ma Porsche J'suis jamais sans mon Glock Revends ta drogue fuck les porcs Revends ta drogue fuck les porcs Si jamais tu ber-tom, faut qu'tu coffres Oh my God J'ai du charbonner pour m'habiller Chaque matin Braki qui m'appelait Ma devise j'ai l'million, t'as l'millier, faut qu'on coffre Tu parles de moi comme si tu m'connais J'suis venu, j'ai vu, j'vais les niquer Capitaliste comme Rothschild j'vais les fumer x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi1</t>
+          <t>Mr. So, ombre et lumière C'est chaud dans la ville, Boulogne Square Pont d'Sèvres, Pharman, les projets avancent Eh B.R, aujourd'hui c'est moi demain c'est toi fréro Ve-Ve, Tony my nigga A.S.K Clik J'veux mon tête à tête avec un Ouzbek Pirate anarchiste comme Poutine Pirate anarchiste comme Poutine Ça fait longtemps qu'la hagra est abolie J'affronte tous mes démons au uzi Kalachnikov dans tes mains négro vas-y Garde tes discours pour un concours de beauté J'ai la mentale et les armes de Tony Oui Tony mon négro, oui Tony mon négro 2016 on va niquer des mères Ils font les voyous mais wAllah vont rien faire J'me pavane à poil dans l'salon de leur mère Au-dessus d'la normale comme un drone dans les airs D'ici peu j'arrêterai des carrières Vos rappeurs, vos rappeurs préférés Plus tôt qu'prévu seront sexagénaires Force et honneur, ombre et lumière On arrive où personne n'nous attend Si seulement vous saviez Tout l'mal que je traîne depuis ma sombre enfance Négro paraît qu'j'suis mort, négro paraît qu'j'suis mort Surtout n'écoutez pas les on dit Surtout n'écoutez pas les on dit Car c'seront les mêmes qui me suceront la bite, So x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi Fuck tes principes, négro fuck J'vise le million, j'vise ma Porsche J'suis jamais sans mon Glock Revends ta drogue fuck les porcs Revends ta drogue fuck les porcs Si jamais tu ber-tom, faut qu'tu coffres Oh my God J'ai du charbonner pour m'habiller Chaque matin Braki qui m'appelait Ma devise j'ai l'million, t'as l'millier, faut qu'on coffre Tu parles de moi comme si tu m'connais J'suis venu, j'ai vu, j'vais les niquer Capitaliste comme Rothschild j'vais les fumer x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi1</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1156,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rolala, le projet est sale c'est en indépendant J'vais niquer des daronnes en indépendant Baiser ta reu-seu en indépendant Ouh, la vie noire, Ombre Lumière, OL ! Gangst Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas Mon choix de vie est vite fait Pourquoi taffer pour un 1200 ? Si un gramme de coc' te fait 80 Un kilo vaudrait 5 années de SMIC Rolala j'suis refait sur Paris pas très loin de Rivalis Macha'Allah mon fils grandis de jour en jour c'est ma plus belle uvre accomplis Fuck la BST de Bobigny, faut les enterrer Les conflits dintérêts profitent aux salopes de la cité Sous le porche ça rabat des clients pour des 10 balles La honte à 30 piges tu ne devrais plus vendre en détail Quelques frérots m'épaulent si tu cherches un truc J'rajoute mon grain de sel comme le boucher Turc J'ai perdu un frère du temps et pas mal de thune 2017 j'annonce j'récupère mon dû Sucer des bites gros ça paye pas Même sur le rain-té paye en PayPal Mauvais payeur donc t'étonne pas Si 2 balles se logent dans ta cabeza Brrrh, brrrh, une balle peut se perdre mais pas la deuxième Brrrh, brrrh, brrrh, une rafale arrosera ton équipageYou might also like</t>
+          <t>Rolala, le projet est sale c'est en indépendant J'vais niquer des daronnes en indépendant Baiser ta reu-seu en indépendant Ouh, la vie noire, Ombre Lumière, OL ! Gangst Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas Mon choix de vie est vite fait Pourquoi taffer pour un 1200 ? Si un gramme de coc' te fait 80 Un kilo vaudrait 5 années de SMIC Rolala j'suis refait sur Paris pas très loin de Rivalis Macha'Allah mon fils grandis de jour en jour c'est ma plus belle uvre accomplis Fuck la BST de Bobigny, faut les enterrer Les conflits dintérêts profitent aux salopes de la cité Sous le porche ça rabat des clients pour des 10 balles La honte à 30 piges tu ne devrais plus vendre en détail Quelques frérots m'épaulent si tu cherches un truc J'rajoute mon grain de sel comme le boucher Turc J'ai perdu un frère du temps et pas mal de thune 2017 j'annonce j'récupère mon dû Sucer des bites gros ça paye pas Même sur le rain-té paye en PayPal Mauvais payeur donc t'étonne pas Si 2 balles se logent dans ta cabeza Brrrh, brrrh, une balle peut se perdre mais pas la deuxième Brrrh, brrrh, brrrh, une rafale arrosera ton équipage</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1173,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O.L Ombre et lumière Yeah, yeah, yeah, yeah Sosa O.L Fuck U Pay Me Enfoiré J'côtoie les mêmes depuis petit Vesti, Braki, Tony, Nassim La vie nous a enlevé le re-frè Marlich, n'est que partie remise Les rappeurs français sont tous consanguins Ils s'la mettent entre eux pires que des tapins Fuck U Pay Me, j'suis pas ton frangin T'attends ton SMIC pour le claquer chez Philipp Plein Monsieur l'Agent, dites à Hollande si ça vend d'la coc' c'est pour quitter le bando Fuck la misère, j'préfère finir au cachot Ya Rabbi s'il te plait j'veux l'salaire d'Eto'o César, ouvre ta te-por, j'veux des lingots d'or On est imprévisibles comme en Tchétchénie Ouvre ta te-cha y a pas de mi amor Ton pare-balles n'arrêtera que des confettis J'suis plus Lumumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? J'suis plus Mulumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? You might also like Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah , c'est pas moi Petit fils de pute, j'suis dans mon D, j'suis à Mia' Fais pas l'blindé, igo, t'as zéro, t'as nada La peufra, elle vient tout droit d'Gwada Midi, minuit, ça vend négro pour la 'lle-ma J'te baise ta mère si tu fais des manières, renoi J'suis Ciro, Gennaro, hassoul, j'suis Gomorra Le kilo' est gé-char comme les sses-fe de rie-Ma Vesti déboule dans l'game à la rez-Mah Tu suces ? Tu peux t'assoir à notre ble-ta Lovés que ça, que ça dans mon ne-crâ Les derniers seront les premiers m'a dit Karaba J'te pull up ton rap, renoi, t'es un peu On a teinturisé la te-tê pour l'España Big up à mes reufs Kmer, Braki et Brigade anti suceuses, c'est comme ça qu'on nous voit Ombre et lumière envahit nos vies comme dans Sosa On a gé-char le glock pour leur faire la re-gue Mes 'lles-cou sont nes-plei Qui veut tester Veve mon pote, j'peux t'faire les deux Si tu touches à la famille, balle dans tes bes-j' Ma belle y a pas d'amour, vas-y suce moi la queue Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah J'rentre dans la cabine, j'assassine, j'fais du sale Tu me critiques petit pd, t'oses dire que Braki n'est pas validé Dans 40K tu m'as vu chanter donc tu t'es dis là-cui' est fragilisé Garçon t'as pas idée, tu sais pas c'qu'il s'passe dans ma te-tê J'suis électrisé, B.R.A Kakashi sensei, je vais tous vous foudroyer J'vais te baiser, te baiser, t'vas saigner Tu vas croire que c'est tes gles-rè Ma monnaie, ma monnaie, demande à ta mère la monnaie, la monnaie J'suis un nègre indomptable pourtant congolais 243, Kinshasa, ma patrie, ma terremère hey na lingi yé Pour avoir du ffe-bi j'ai dû faire le me-cri Au plus profond de elle, elle a senti ma bite Tu sais très bien qui j'suis fait pas blehni tu nies Mon équipe que des vrais, la tienne que des victimes Dans la cité T'as perdu la vie Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah</t>
+          <t>O.L Ombre et lumière Yeah, yeah, yeah, yeah Sosa O.L Fuck U Pay Me Enfoiré J'côtoie les mêmes depuis petit Vesti, Braki, Tony, Nassim La vie nous a enlevé le re-frè Marlich, n'est que partie remise Les rappeurs français sont tous consanguins Ils s'la mettent entre eux pires que des tapins Fuck U Pay Me, j'suis pas ton frangin T'attends ton SMIC pour le claquer chez Philipp Plein Monsieur l'Agent, dites à Hollande si ça vend d'la coc' c'est pour quitter le bando Fuck la misère, j'préfère finir au cachot Ya Rabbi s'il te plait j'veux l'salaire d'Eto'o César, ouvre ta te-por, j'veux des lingots d'or On est imprévisibles comme en Tchétchénie Ouvre ta te-cha y a pas de mi amor Ton pare-balles n'arrêtera que des confettis J'suis plus Lumumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? J'suis plus Mulumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah , c'est pas moi Petit fils de pute, j'suis dans mon D, j'suis à Mia' Fais pas l'blindé, igo, t'as zéro, t'as nada La peufra, elle vient tout droit d'Gwada Midi, minuit, ça vend négro pour la 'lle-ma J'te baise ta mère si tu fais des manières, renoi J'suis Ciro, Gennaro, hassoul, j'suis Gomorra Le kilo' est gé-char comme les sses-fe de rie-Ma Vesti déboule dans l'game à la rez-Mah Tu suces ? Tu peux t'assoir à notre ble-ta Lovés que ça, que ça dans mon ne-crâ Les derniers seront les premiers m'a dit Karaba J'te pull up ton rap, renoi, t'es un peu On a teinturisé la te-tê pour l'España Big up à mes reufs Kmer, Braki et Brigade anti suceuses, c'est comme ça qu'on nous voit Ombre et lumière envahit nos vies comme dans Sosa On a gé-char le glock pour leur faire la re-gue Mes 'lles-cou sont nes-plei Qui veut tester Veve mon pote, j'peux t'faire les deux Si tu touches à la famille, balle dans tes bes-j' Ma belle y a pas d'amour, vas-y suce moi la queue Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah J'rentre dans la cabine, j'assassine, j'fais du sale Tu me critiques petit pd, t'oses dire que Braki n'est pas validé Dans 40K tu m'as vu chanter donc tu t'es dis là-cui' est fragilisé Garçon t'as pas idée, tu sais pas c'qu'il s'passe dans ma te-tê J'suis électrisé, B.R.A Kakashi sensei, je vais tous vous foudroyer J'vais te baiser, te baiser, t'vas saigner Tu vas croire que c'est tes gles-rè Ma monnaie, ma monnaie, demande à ta mère la monnaie, la monnaie J'suis un nègre indomptable pourtant congolais 243, Kinshasa, ma patrie, ma terremère hey na lingi yé Pour avoir du ffe-bi j'ai dû faire le me-cri Au plus profond de elle, elle a senti ma bite Tu sais très bien qui j'suis fait pas blehni tu nies Mon équipe que des vrais, la tienne que des victimes Dans la cité T'as perdu la vie Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1190,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>He-hey Yo, j'voudrai plus Is that Traplysse De pourcentages, j'voudrai plus J'me refais le film, j'aurai pu mieux faire, est-ce que j'aurai voulu So, hey Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius So Et dans nos têtes c'est le froid ice, à l'horizon c'est le brouillard, je ressens plus mes doigts never Han, dieu merci on a un toit, le vent qui tourne, le chasseur qui deviendra la proie Allo maman, Allo papa J'suis quelque part dans ce monde où les humains n'ont pas l'air heureux La symphonie des balles qui les fera tous valser poh Elle veut briser la glace, plus épais qu'un glacier wohh, aurevoir De l'autre côté c'est plus pareil, si jeune pour tuer et pour mourir J'suis ? , ennemis en ville, je vais brader les prix de la han Je bosse ? j'suis dehors comme un hé oh You might also like J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison c'est pas une maison non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius VVS carat, j'ai pas de mentors, pas de garants En face du froid nordique, le troisième de il de Gaara Fils, et ma boy deux-cent carats deux-cent carats Faut du bazin pour la dote, faut des chèvres hehehe La transition est folle, faut aimer cette musique V comme Valkyrie, comme Vivaldi, V comme Valhalla J'avoue, j'y laisse un peu de ma santé, sans lumière du jour on devient fou Mes proches m'appellent akhy, trop souvent j'suis pas là On récolte ce qu'on a semé, t'as de la chance, un cran d'arrêt Le seul chemin duquel on revient pas c'est celui de la mort J'suis à 10K d'un chiffre rond, moi, j'ai pas de syndicat En effet ouh, c'est nous les visages floutés à la télé hein hein J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison non non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité J'suis à l'extrême nord pour ma story, VVS carat, fait moins quarante degrés Celsius So1</t>
+          <t>He-hey Yo, j'voudrai plus Is that Traplysse De pourcentages, j'voudrai plus J'me refais le film, j'aurai pu mieux faire, est-ce que j'aurai voulu So, hey Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius So Et dans nos têtes c'est le froid ice, à l'horizon c'est le brouillard, je ressens plus mes doigts never Han, dieu merci on a un toit, le vent qui tourne, le chasseur qui deviendra la proie Allo maman, Allo papa J'suis quelque part dans ce monde où les humains n'ont pas l'air heureux La symphonie des balles qui les fera tous valser poh Elle veut briser la glace, plus épais qu'un glacier wohh, aurevoir De l'autre côté c'est plus pareil, si jeune pour tuer et pour mourir J'suis ? , ennemis en ville, je vais brader les prix de la han Je bosse ? j'suis dehors comme un hé oh J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison c'est pas une maison non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius VVS carat, j'ai pas de mentors, pas de garants En face du froid nordique, le troisième de il de Gaara Fils, et ma boy deux-cent carats deux-cent carats Faut du bazin pour la dote, faut des chèvres hehehe La transition est folle, faut aimer cette musique V comme Valkyrie, comme Vivaldi, V comme Valhalla J'avoue, j'y laisse un peu de ma santé, sans lumière du jour on devient fou Mes proches m'appellent akhy, trop souvent j'suis pas là On récolte ce qu'on a semé, t'as de la chance, un cran d'arrêt Le seul chemin duquel on revient pas c'est celui de la mort J'suis à 10K d'un chiffre rond, moi, j'ai pas de syndicat En effet ouh, c'est nous les visages floutés à la télé hein hein J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison non non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité J'suis à l'extrême nord pour ma story, VVS carat, fait moins quarante degrés Celsius So1</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1207,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wesh, tu veux qu'on mette du son ou quoi ? Vas-y Okay Grosse Folle Audi Kmer Land Bitch Grosse Folle Bitch Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking ma money, ma money Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle, où sont tes pines-co ? On veut des belles gosses, j'ai ramené des gringos Milles cinq cents la 'teille gros même si j'tise as-p Elles veulent des grosses sommes, des grosses caisses mais ken as-p Audi Audi get la fe-meu c'est d'la folie Charismatique comme une cainri, obliger d'sévir J'suis Maradona soir-ce mes mains vont ssé-gli Paris by night, Monsieur Sosa est d'la partie ! Au fond du club, Veve fait sa mala Deux, trois grosses folles autours Monsieur s'prend pour Sosa Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto You might also like Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Hé, mes objectifs n'ont pas changé ! J'traine toujours dans le block avec mes 100g Hé ! Un million, j'serais dans l'immobilier Fuck faux négro ! J'suis le meilleur y'a pas à douter ! J'suis pas un rappeur, mais un artiste Factices, sont vos armes bande de fils de harki On veut la belle vie, la carrière à Stanfield Elle veulent des Louboutins au pieds, s'casser d'ici Dans l'barrio on ouais j'fait des aigris Minimum trois milles E, si j'suis de la partie Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! x3 Grosse folle veut le million d'euros De la Bentley dans son parking Hein ?! Grosse folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Veut la Bentley dans son parking Grosses fesses, grosses caisses, bref c'est une grosse folle ! Ah laisse tomber Sosa Elles m'prennent la tête les grosses folles Mais c'est pas grave, on les aime bien On les aime bien,</t>
+          <t>Wesh, tu veux qu'on mette du son ou quoi ? Vas-y Okay Grosse Folle Audi Kmer Land Bitch Grosse Folle Bitch Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking ma money, ma money Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle, où sont tes pines-co ? On veut des belles gosses, j'ai ramené des gringos Milles cinq cents la 'teille gros même si j'tise as-p Elles veulent des grosses sommes, des grosses caisses mais ken as-p Audi Audi get la fe-meu c'est d'la folie Charismatique comme une cainri, obliger d'sévir J'suis Maradona soir-ce mes mains vont ssé-gli Paris by night, Monsieur Sosa est d'la partie ! Au fond du club, Veve fait sa mala Deux, trois grosses folles autours Monsieur s'prend pour Sosa Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Hé, mes objectifs n'ont pas changé ! J'traine toujours dans le block avec mes 100g Hé ! Un million, j'serais dans l'immobilier Fuck faux négro ! J'suis le meilleur y'a pas à douter ! J'suis pas un rappeur, mais un artiste Factices, sont vos armes bande de fils de harki On veut la belle vie, la carrière à Stanfield Elle veulent des Louboutins au pieds, s'casser d'ici Dans l'barrio on ouais j'fait des aigris Minimum trois milles E, si j'suis de la partie Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! x3 Grosse folle veut le million d'euros De la Bentley dans son parking Hein ?! Grosse folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Veut la Bentley dans son parking Grosses fesses, grosses caisses, bref c'est une grosse folle ! Ah laisse tomber Sosa Elles m'prennent la tête les grosses folles Mais c'est pas grave, on les aime bien On les aime bien,</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'aperçois le bout du tunnel On reprend tout c'qu'ils ont pris sale Le prix c'est l'prix salope Hey, dans l'bat y'a beaucoup d'zombies J'pense qu'à remplir le frigo oui J'creuserai jusqu'à c'qu'y ait plus d'or Oh baby, c'est nous on l'fait mieux la rime ouais allô Oh baby, j'veux rider dans une Bentley Merci pour tout, le bendo ouais Merci pour tout, j'oublierai pas quand c'était sale sa mère Quitter la rue, mais on y laissera un peu de nous Ma peine parle, je sais ça paie pas J'fais des tours dans la city Lame sous l'béret tah Peaky La suite j'verrai c'est Tsuki Les jours s'répètent, la routine Alcool, sexe, drogue et broutilles Mais j'sais ça paie pas 60 soleils Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais You might also like Mise en orbite réussie Début de l'opération chemin de vie J'suis venu d'en bas C'est Tsuki lala mon vieux C'est comment mon vieux ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois tu vois On est bien loin de Monaco J'les écoute pas quand ils moralisent Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est inné J'cours sur chemin miné Mon verre se vide, j'vois plus les gens Encore une nuit sur ri-pas Mon verre se vide, ouah J'vois plus les gens, ouah J'vois plus les démons, les anges et les humains hey Ça m'fait plus rien, ni la potion, ni l'venin hein Elle est plus très jeune donc j'ai peur de demain Elle est plus très jeune, vide J'dois ramener le trésor, j'vis J'meurs pour le trésor trésor J'me demande pas si c'est une salope J'me demande c'est une salope de quel genre Tsuki, il t'manque vraiment une case Tu fais quoi si ça vire au drame ? Tu sais quoi ? C'est rarement une phase D'exprimer son malheur dans des phrases Ouais, ouais, ouais, ouais Mais c'est tout l'temps la même On fait semblant d'y croire J'suis dans l'fond ça dit quoi ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois On est bien loin de Monaco oui J'les écoute pas quand ils moralisent oui Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est iné J'cours sur chemin miné Allô la Terre ? Ouais allô ? C'est l'double saut là 4 saisons Mais moi j'suis une galère Mais moi j'suis une galère J'suis toujours coffré dans ma tanière Futurista sur la bannière Et nous on l'fait pas pour la hype Reviens on va t'apprendre le rap J'garde le trésor tu peux prendre le reste Depuis l'temps j'aurais pu y rester J'y vais que s'il y a de l'espèce Depuis l'temps on s'est perdus ouais allô Perdus dans l'averse Amnésique mais j'm'en rappelle De nos moments à deux Ton âme, non je n'en veux plus, tu l'as vendue au diable Pour si peu on s'fâche Faudrait qu'on coffre avant que l'on parte Virement instantané on prend c'est comment mon vieux ? Négro virement instantané on prend oui Trop faim d'sous, même si l'plan a foiré on r'tente J'ai brulé mes pétales On l'fait, on t'avait prévenu mais ça t'étonne Un rêve est né dans la lumière on l'éteint Nous on était déjà niqués à l'école Ça coule de source On l'fait depuis qu'on est minots On s'cache pas derrière les rideaux Jamais trahir la honda Pour si peu j'te vois en bizarre Comme Madara J'ai les kata', j'enchaine les cadavres J'suis dans l'bendo avec mes homies 5000 pétales de fleurs ont fané Instantané on prend J'entends parler les gens J'peux pas parler au grand J'l'ai vu parler au banc À contre sens du vent Faut des couilles et du cran Faut du clair et du temps Y'a d'quoi sauter du pont Y'a d'quoi sauter du 45 Dans ma tête on est 45 Mais la go elle suce pour du Balanciaga Y'a les bleus, tout un fourgon d'chaga Hey, ma pétasse veut du Gucci Jamais on s'lèvera à midi Business plan j'ai bien établi Bientôt j'pète la 'rarri Garde tes promesses j'suis pas naïf Garde tes promesses j'suis pas naïf J'fais semblant de vivre OCB, on s'enfume comme des porcs on smoke C'qui nous tuera c'est nos regrets, nos remords J'ai l'feu, j'ai le 45 en or Ma daronne veut une belle vie Ma pétasse veut un Birkin Mais demain c'est si long On attend quoi ? Fuyons J'tends pas l'oreille à l'aboiement des chiots Ma vie en VO Réduit sous célo' Hello, 22 ça s'passe comme aux JO On a fait tout l'hiver tu l'sais Mais toi tu vis pour les autres tu l'sais Ici tu connais c'est toujours la même Mais ça fait longtemps qu'on rappe plus pour le fun bah ouais J'ai la vision comme un Uchiwa Au-dessus comme un Hokage Elle croit qu'on va se fiancer, là Mais l'argent je dois financer, hey Mais toi t'es bizarre T'attends qu'le vent te guide han Hennessy, bas-résilles Parisien comme Verratti J'ai la haine en haut débit tout l'temps Trop de grammes parce que beaucoup de drames Mais j'connais trop les dames pour qu'j'l'appelle baby Mes démons sont réveillés Très souvent obstinés Toute l'année sous amné' J'ai jamais fait semblant L'espoir est né le 26 octobre d'une sombre année Négro c'est tout l'temps pareil tout l'temps On passe en coup d'vent et ça y est J'viens pas à ta fête, j'viendrai à tes obsèques J'veux l'salaire de Offset Khalis m'obsède Ta pute est obscène Fréro on vient d'une autre sphères Boulogne, Haute-Seine La routine les cops J'suis dedans comme Frank Nitti Comme Frank Nitti Salopes nous observent On réessaie Ouais, 200 Attention, prêts ? Ok, rechargez, on recommence Mettez-le sous intra-veineuse Moi j'peux pas changer pour une Tchaga j'peux pas changer pour une Tchaga Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow ouais Boire la concu' comme du Pago Pago Les faire descendre de leur sabots Faire rentrer des kichtas d'sablés Ouais, j't'ai dit Ouais, ça dit quoi gros ? J't'ai dit, han On sourit tout l'temps mais c'est pas drôle Charbon, gros débit C'est la fissure qui précède les débris Tard la nuit dans la ville le diable s'déguise Weighty, weighty, elles s'croisent sur un paquebot Ouais, j't'ai dit Ouais, ça dit quoi gros ? sorcier On touche au but c'est bandant Moi tu m'verras pas faire la mala sorcier Tu m'verras même pas faire la maille ouais Tu verras c'que j'veux que tu voies sorcier La p'tite a fini en tendances C'est la plus technique des nanas Elle fait after dans des manoirs Et elle sait comment les rendre malades Hey, regarde nous bien car bientôt on sera loin Gros, peu d'répit On l'a fait pour la paix et les palaces T'as l'air super méchant dans tes pe-cli Mais c'est comment quand il est fini l'pe-cli ? Ça taffe dur tous les jours depuis petit Donc moi j'peux pas changer pour une Tchaga Moi j'peux pas changer pour une Tchaga ok Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow J'ai fait le tour, ouho nana J'le faisait déjà dans la cour, ouho J'y vois clair même quand c'est noir Si t'y vas pas j'y vais pas, c'est mort Il voulait faire attaquant sur l'terrain Il a fini dans l'milieu carcéral Pendant la nuit L'diable nous analyse ouais allô Danse devant la rive J'fonce et rien ne m'arrêtera Et j'm'allume Ils disent que mon heure arrive ouais C'est ma vie Yoho envoie une Radio futurista C'est comment mon vieux ? C'est la Grünt d'or C'est nous baby Radio Futurista Ouais allô So lala Hey Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle La vie c'est la mort donc prend tout c'qu'il faut Y'a des mélodies qui ressortent du fond La drogue et le vice font parti d'nos vies C'est c'qui y'a dans nos têtes, qui nous rendent si fous J'pourrais aiguiser les sabres woah J'pourrais l'enterrer dans l'sable woah VRSA, La Lune, c'est le sang hey Le combat des mots j'ai les armes moi hey Je erre dans la ville le soir, j'écris, je massoit J'fête quand la nuit se meurt, quand la vie saccroît Tant qu'y a ma pli' j'm'en sors, je parle aux étoiles Essaie de compter tous les curs qui s'accrochent Main sur l'guidon, j'm'arrête que si j'vois le trésor J'roule le bison, j'suis dans la ville j'me sens vivant Dans mon bigo, j'ai d'quoi mettre à l'abri tout l'monde Nous toujours au fourneau Mais c'est les proies qui saignent Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Toute l'année Salut, salut C'est encore moi, La Lune Ils m'voient comme un alien Y'aura pas d'pourparlers Mais négro pourquoi Quand ça parle de biftons Les gens ils sont bizarres ? les gens ils sont bizarres J'vais quitter la zone Coffrer chez la vieille Futurista infernal Si je mens, comment faire ? Après j'suis sur la Terre mais On s'revoit pour la dernière La lutte éternelle On s'détruit de l'intérieur J'sais pas J'sais plus J'm'éloigne, heya Pardonne-moi J'm'éloigne, heya, heya Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon han Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Sans lui, sans elle So lala Ceci n'est pas un test À tous les habitants Veuillez évacuer la zone Ceci n'est pas un test Tsuki lala 60 soleils ça brille pareil Lala deux fois Tsuki quatre fois J'suis c'qu'ils appellent un produit d'en Parle moi de tout, parle moi d'la vie Ouais J'suis c'qu'ils appellent un produit d'en bas qui pimp Malheur m'a pas produit De force on s'introduit Te cambre pas, c'est comme ça qu'on s'fait baiser dans la vie C'est comme ça qu'on l'fait Tsuki tsunami J't'ai déjà raconté Nos problèmes nos manies Tu tapes sur la piste noire Tout va bien tant qu'on m'piste pas Et ton rappeur c'est un fils de lâche sorcier, sorcier 60 soleils, 40 étoiles Ça veut vivre dans 40 hectares oui T'es pas serein quand y'a une bécane Ba-baw, braquage à l'UZI Ils allaient quand même pas t'laisser brasser ouais C'est bizarre le milieu d'la musique c'est bizarre C'est bizarre c'est pas comme dans l'movie c'est bizarre C'est bizarre les gens J'ai un cur toit ouvrant yeah J'ai la tête pas ici yeah J'ai le foie grave en feu Le feu grave enfoui J'croyais grave en toi yeah C'est comme ça qu'on s'fait baiser dans la vie han C'est comme ça qu'on l'fait Tsuki tsunami okok La dure c'est facile d'accès sur Paris okok L'amour c'est facile d'accès sur Bali han Si on finit premier c'est chaud On était vraiment les derniers Et j'écoute plus quand ça part en promesses Et toi j't'aime encore moins que tes collègues La patrouille est elle bonne qu'à s'faire berner Mais négro, si j'fume pas mes yeux vont pas s'fermer Y'a que quand t'es p'tit que la cité c'est chan-mé Y'a que quand t'es p'tit que tu t'contentes de 100e Y'a que quand j'écris que j'suis moi Y'a que quand j'les plie que j'suis bien Faudrait p't'être que je prie car c'est noir Faudrait p't'être que je trie car c'est louche Faudrait p't'être que je pense à la chasser, ma chance Jamais changer de sens, j'en vois beaucoup du sang Y'en a bien plus des faux Tu vas t'y perdre à trop cacher des choses Elle cambre tellement bien qu'j'ai l'impression que son boule il lévite Si tu croises la rue faut qu'tu l'évites ouais Si tu croises la juge faut qu'tu résistes ouais Si tu t'sens chez toi faut qu'tu résides Demain peut-être sera plus paisible J'aurai p't'être ma maison au Brésil Ouais ouais C'est comment mon vieux ?</t>
+          <t>J'aperçois le bout du tunnel On reprend tout c'qu'ils ont pris sale Le prix c'est l'prix salope Hey, dans l'bat y'a beaucoup d'zombies J'pense qu'à remplir le frigo oui J'creuserai jusqu'à c'qu'y ait plus d'or Oh baby, c'est nous on l'fait mieux la rime ouais allô Oh baby, j'veux rider dans une Bentley Merci pour tout, le bendo ouais Merci pour tout, j'oublierai pas quand c'était sale sa mère Quitter la rue, mais on y laissera un peu de nous Ma peine parle, je sais ça paie pas J'fais des tours dans la city Lame sous l'béret tah Peaky La suite j'verrai c'est Tsuki Les jours s'répètent, la routine Alcool, sexe, drogue et broutilles Mais j'sais ça paie pas 60 soleils Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Mise en orbite réussie Début de l'opération chemin de vie J'suis venu d'en bas C'est Tsuki lala mon vieux C'est comment mon vieux ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois tu vois On est bien loin de Monaco J'les écoute pas quand ils moralisent Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est inné J'cours sur chemin miné Mon verre se vide, j'vois plus les gens Encore une nuit sur ri-pas Mon verre se vide, ouah J'vois plus les gens, ouah J'vois plus les démons, les anges et les humains hey Ça m'fait plus rien, ni la potion, ni l'venin hein Elle est plus très jeune donc j'ai peur de demain Elle est plus très jeune, vide J'dois ramener le trésor, j'vis J'meurs pour le trésor trésor J'me demande pas si c'est une salope J'me demande c'est une salope de quel genre Tsuki, il t'manque vraiment une case Tu fais quoi si ça vire au drame ? Tu sais quoi ? C'est rarement une phase D'exprimer son malheur dans des phrases Ouais, ouais, ouais, ouais Mais c'est tout l'temps la même On fait semblant d'y croire J'suis dans l'fond ça dit quoi ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois On est bien loin de Monaco oui J'les écoute pas quand ils moralisent oui Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est iné J'cours sur chemin miné Allô la Terre ? Ouais allô ? C'est l'double saut là 4 saisons Mais moi j'suis une galère Mais moi j'suis une galère J'suis toujours coffré dans ma tanière Futurista sur la bannière Et nous on l'fait pas pour la hype Reviens on va t'apprendre le rap J'garde le trésor tu peux prendre le reste Depuis l'temps j'aurais pu y rester J'y vais que s'il y a de l'espèce Depuis l'temps on s'est perdus ouais allô Perdus dans l'averse Amnésique mais j'm'en rappelle De nos moments à deux Ton âme, non je n'en veux plus, tu l'as vendue au diable Pour si peu on s'fâche Faudrait qu'on coffre avant que l'on parte Virement instantané on prend c'est comment mon vieux ? Négro virement instantané on prend oui Trop faim d'sous, même si l'plan a foiré on r'tente J'ai brulé mes pétales On l'fait, on t'avait prévenu mais ça t'étonne Un rêve est né dans la lumière on l'éteint Nous on était déjà niqués à l'école Ça coule de source On l'fait depuis qu'on est minots On s'cache pas derrière les rideaux Jamais trahir la honda Pour si peu j'te vois en bizarre Comme Madara J'ai les kata', j'enchaine les cadavres J'suis dans l'bendo avec mes homies 5000 pétales de fleurs ont fané Instantané on prend J'entends parler les gens J'peux pas parler au grand J'l'ai vu parler au banc À contre sens du vent Faut des couilles et du cran Faut du clair et du temps Y'a d'quoi sauter du pont Y'a d'quoi sauter du 45 Dans ma tête on est 45 Mais la go elle suce pour du Balanciaga Y'a les bleus, tout un fourgon d'chaga Hey, ma pétasse veut du Gucci Jamais on s'lèvera à midi Business plan j'ai bien établi Bientôt j'pète la 'rarri Garde tes promesses j'suis pas naïf Garde tes promesses j'suis pas naïf J'fais semblant de vivre OCB, on s'enfume comme des porcs on smoke C'qui nous tuera c'est nos regrets, nos remords J'ai l'feu, j'ai le 45 en or Ma daronne veut une belle vie Ma pétasse veut un Birkin Mais demain c'est si long On attend quoi ? Fuyons J'tends pas l'oreille à l'aboiement des chiots Ma vie en VO Réduit sous célo' Hello, 22 ça s'passe comme aux JO On a fait tout l'hiver tu l'sais Mais toi tu vis pour les autres tu l'sais Ici tu connais c'est toujours la même Mais ça fait longtemps qu'on rappe plus pour le fun bah ouais J'ai la vision comme un Uchiwa Au-dessus comme un Hokage Elle croit qu'on va se fiancer, là Mais l'argent je dois financer, hey Mais toi t'es bizarre T'attends qu'le vent te guide han Hennessy, bas-résilles Parisien comme Verratti J'ai la haine en haut débit tout l'temps Trop de grammes parce que beaucoup de drames Mais j'connais trop les dames pour qu'j'l'appelle baby Mes démons sont réveillés Très souvent obstinés Toute l'année sous amné' J'ai jamais fait semblant L'espoir est né le 26 octobre d'une sombre année Négro c'est tout l'temps pareil tout l'temps On passe en coup d'vent et ça y est J'viens pas à ta fête, j'viendrai à tes obsèques J'veux l'salaire de Offset Khalis m'obsède Ta pute est obscène Fréro on vient d'une autre sphères Boulogne, Haute-Seine La routine les cops J'suis dedans comme Frank Nitti Comme Frank Nitti Salopes nous observent On réessaie Ouais, 200 Attention, prêts ? Ok, rechargez, on recommence Mettez-le sous intra-veineuse Moi j'peux pas changer pour une Tchaga j'peux pas changer pour une Tchaga Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow ouais Boire la concu' comme du Pago Pago Les faire descendre de leur sabots Faire rentrer des kichtas d'sablés Ouais, j't'ai dit Ouais, ça dit quoi gros ? J't'ai dit, han On sourit tout l'temps mais c'est pas drôle Charbon, gros débit C'est la fissure qui précède les débris Tard la nuit dans la ville le diable s'déguise Weighty, weighty, elles s'croisent sur un paquebot Ouais, j't'ai dit Ouais, ça dit quoi gros ? sorcier On touche au but c'est bandant Moi tu m'verras pas faire la mala sorcier Tu m'verras même pas faire la maille ouais Tu verras c'que j'veux que tu voies sorcier La p'tite a fini en tendances C'est la plus technique des nanas Elle fait after dans des manoirs Et elle sait comment les rendre malades Hey, regarde nous bien car bientôt on sera loin Gros, peu d'répit On l'a fait pour la paix et les palaces T'as l'air super méchant dans tes pe-cli Mais c'est comment quand il est fini l'pe-cli ? Ça taffe dur tous les jours depuis petit Donc moi j'peux pas changer pour une Tchaga Moi j'peux pas changer pour une Tchaga ok Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow J'ai fait le tour, ouho nana J'le faisait déjà dans la cour, ouho J'y vois clair même quand c'est noir Si t'y vas pas j'y vais pas, c'est mort Il voulait faire attaquant sur l'terrain Il a fini dans l'milieu carcéral Pendant la nuit L'diable nous analyse ouais allô Danse devant la rive J'fonce et rien ne m'arrêtera Et j'm'allume Ils disent que mon heure arrive ouais C'est ma vie Yoho envoie une Radio futurista C'est comment mon vieux ? C'est la Grünt d'or C'est nous baby Radio Futurista Ouais allô So lala Hey Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle La vie c'est la mort donc prend tout c'qu'il faut Y'a des mélodies qui ressortent du fond La drogue et le vice font parti d'nos vies C'est c'qui y'a dans nos têtes, qui nous rendent si fous J'pourrais aiguiser les sabres woah J'pourrais l'enterrer dans l'sable woah VRSA, La Lune, c'est le sang hey Le combat des mots j'ai les armes moi hey Je erre dans la ville le soir, j'écris, je massoit J'fête quand la nuit se meurt, quand la vie saccroît Tant qu'y a ma pli' j'm'en sors, je parle aux étoiles Essaie de compter tous les curs qui s'accrochent Main sur l'guidon, j'm'arrête que si j'vois le trésor J'roule le bison, j'suis dans la ville j'me sens vivant Dans mon bigo, j'ai d'quoi mettre à l'abri tout l'monde Nous toujours au fourneau Mais c'est les proies qui saignent Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Toute l'année Salut, salut C'est encore moi, La Lune Ils m'voient comme un alien Y'aura pas d'pourparlers Mais négro pourquoi Quand ça parle de biftons Les gens ils sont bizarres ? les gens ils sont bizarres J'vais quitter la zone Coffrer chez la vieille Futurista infernal Si je mens, comment faire ? Après j'suis sur la Terre mais On s'revoit pour la dernière La lutte éternelle On s'détruit de l'intérieur J'sais pas J'sais plus J'm'éloigne, heya Pardonne-moi J'm'éloigne, heya, heya Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon han Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Sans lui, sans elle So lala Ceci n'est pas un test À tous les habitants Veuillez évacuer la zone Ceci n'est pas un test Tsuki lala 60 soleils ça brille pareil Lala deux fois Tsuki quatre fois J'suis c'qu'ils appellent un produit d'en Parle moi de tout, parle moi d'la vie Ouais J'suis c'qu'ils appellent un produit d'en bas qui pimp Malheur m'a pas produit De force on s'introduit Te cambre pas, c'est comme ça qu'on s'fait baiser dans la vie C'est comme ça qu'on l'fait Tsuki tsunami J't'ai déjà raconté Nos problèmes nos manies Tu tapes sur la piste noire Tout va bien tant qu'on m'piste pas Et ton rappeur c'est un fils de lâche sorcier, sorcier 60 soleils, 40 étoiles Ça veut vivre dans 40 hectares oui T'es pas serein quand y'a une bécane Ba-baw, braquage à l'UZI Ils allaient quand même pas t'laisser brasser ouais C'est bizarre le milieu d'la musique c'est bizarre C'est bizarre c'est pas comme dans l'movie c'est bizarre C'est bizarre les gens J'ai un cur toit ouvrant yeah J'ai la tête pas ici yeah J'ai le foie grave en feu Le feu grave enfoui J'croyais grave en toi yeah C'est comme ça qu'on s'fait baiser dans la vie han C'est comme ça qu'on l'fait Tsuki tsunami okok La dure c'est facile d'accès sur Paris okok L'amour c'est facile d'accès sur Bali han Si on finit premier c'est chaud On était vraiment les derniers Et j'écoute plus quand ça part en promesses Et toi j't'aime encore moins que tes collègues La patrouille est elle bonne qu'à s'faire berner Mais négro, si j'fume pas mes yeux vont pas s'fermer Y'a que quand t'es p'tit que la cité c'est chan-mé Y'a que quand t'es p'tit que tu t'contentes de 100e Y'a que quand j'écris que j'suis moi Y'a que quand j'les plie que j'suis bien Faudrait p't'être que je prie car c'est noir Faudrait p't'être que je trie car c'est louche Faudrait p't'être que je pense à la chasser, ma chance Jamais changer de sens, j'en vois beaucoup du sang Y'en a bien plus des faux Tu vas t'y perdre à trop cacher des choses Elle cambre tellement bien qu'j'ai l'impression que son boule il lévite Si tu croises la rue faut qu'tu l'évites ouais Si tu croises la juge faut qu'tu résistes ouais Si tu t'sens chez toi faut qu'tu résides Demain peut-être sera plus paisible J'aurai p't'être ma maison au Brésil Ouais ouais C'est comment mon vieux ?</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G.U.S.T.A.V.O Kalashé comme Gustavo Medellín Hey, ma génération pue sa grand-mère la pute Que faire de plus si c'n'est tous les fumer Fort possible que tu m'croises dans le fond du binks Sans lacet car je sors de GÀV Dans ma matrix, négro, je les baise La mentale, celle de Kunta Kinte Faire semblant d'm'affaiblir pour te quen' Fils de pute, si j'recule c'est pour mieux t'enculer Kalashé comme personne, on blague ap' GÀV à Versailles, on parle pas Des frères ont pris des piges mais ne flanchent pas 2-2 convict, gardez la pêche Comme d'hab', soldat, j'suis en 4x4 Hümmel dans le block Le salaire d'un keuf dans l'froc Le pouvoir s'achète, sale con Nombre de victimes que t'ai raison ou tort Silencieux comme sniper, j'attends mon heure La suite de l'histoire rime avec horreur T'as pas donné d'blase, t'auras tous mes honneurs Dans l'cas contraire, une équipe te lève à 6h Allô le R, quelles sont les nouvelles ? Quel rappeur de merde doit finir en civière ? L'objectif tout niquer en indépendant Remplir les caisses Sacem et encaisser ce chèque G.U.S.T.A.V.O Kalashé comme Gustavo, me-ar dans la boîte à gant La guerre, on l'a fait si t'es chaud Négro, c'est chaud dans la ville Boulbi Square c'est Medellín Enchanté c'est Mr So J'me présente plus, j'suis l'anarchiste Mr So You might also like On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo Nique sa mère le Maire et toutes ses réformes Les shlags c'est eux, la rue c'est nous On vi-ser d'la frappe au fils de la juge Mais sans scrupules, elle nous met au trou Il est bientôt minuit, les frérots ont soif 10 balles d'essence, on passe chez l'hanout Se recharger en clopes, feuilles, Poliakov La soirée sera un cocktail Molotov AK dans le Clio, on est khabat La rue a fait de nous des génies à part On fait tomber la neige sous quarante degrés Akha, y a les feus-keu sa mère Poucaves et pointeurs mangent à la même table Désormais les tits-pe n'ont plus d'cartables Ça bibi de la cess' et faut débiter milliers d'euros Euros, dollars, dinars, pesos sous le matelas Génération nueve cinco On s'fait la bise comme les sistes-gros Le patrimoine d'Pascal Obispo métro, boulot, dodo Merco Benz, j'veux une Merco Benz Foutre la de-mer dans les rues du bled V'là les folasses dans le périmètre J't'éclate la te-cha jusqu'au périnée, jusqu'au périnée On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo</t>
+          <t>G.U.S.T.A.V.O Kalashé comme Gustavo Medellín Hey, ma génération pue sa grand-mère la pute Que faire de plus si c'n'est tous les fumer Fort possible que tu m'croises dans le fond du binks Sans lacet car je sors de GÀV Dans ma matrix, négro, je les baise La mentale, celle de Kunta Kinte Faire semblant d'm'affaiblir pour te quen' Fils de pute, si j'recule c'est pour mieux t'enculer Kalashé comme personne, on blague ap' GÀV à Versailles, on parle pas Des frères ont pris des piges mais ne flanchent pas 2-2 convict, gardez la pêche Comme d'hab', soldat, j'suis en 4x4 Hümmel dans le block Le salaire d'un keuf dans l'froc Le pouvoir s'achète, sale con Nombre de victimes que t'ai raison ou tort Silencieux comme sniper, j'attends mon heure La suite de l'histoire rime avec horreur T'as pas donné d'blase, t'auras tous mes honneurs Dans l'cas contraire, une équipe te lève à 6h Allô le R, quelles sont les nouvelles ? Quel rappeur de merde doit finir en civière ? L'objectif tout niquer en indépendant Remplir les caisses Sacem et encaisser ce chèque G.U.S.T.A.V.O Kalashé comme Gustavo, me-ar dans la boîte à gant La guerre, on l'a fait si t'es chaud Négro, c'est chaud dans la ville Boulbi Square c'est Medellín Enchanté c'est Mr So J'me présente plus, j'suis l'anarchiste Mr So On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo Nique sa mère le Maire et toutes ses réformes Les shlags c'est eux, la rue c'est nous On vi-ser d'la frappe au fils de la juge Mais sans scrupules, elle nous met au trou Il est bientôt minuit, les frérots ont soif 10 balles d'essence, on passe chez l'hanout Se recharger en clopes, feuilles, Poliakov La soirée sera un cocktail Molotov AK dans le Clio, on est khabat La rue a fait de nous des génies à part On fait tomber la neige sous quarante degrés Akha, y a les feus-keu sa mère Poucaves et pointeurs mangent à la même table Désormais les tits-pe n'ont plus d'cartables Ça bibi de la cess' et faut débiter milliers d'euros Euros, dollars, dinars, pesos sous le matelas Génération nueve cinco On s'fait la bise comme les sistes-gros Le patrimoine d'Pascal Obispo métro, boulot, dodo Merco Benz, j'veux une Merco Benz Foutre la de-mer dans les rues du bled V'là les folasses dans le périmètre J't'éclate la te-cha jusqu'au périnée, jusqu'au périnée On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1258,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tu veux faire la bringue Hey C'est vrai qu'on est vrai, hein Hey VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ?, hein Et ma baby, elle aime quand j'paye Tout l'temps, on va frimer comme Gucci Mane Gucci Dans la valise, j'veux cinq-cents lles-m Bah ouais, dans son fessier, j'mets cinq-cents grammes Ouh Tout l'temps dans des virées, tout l'temps Tout l'temps, casqué, comme le shooter, ganté Pah, pah Cuir noir comma la Faucheuse hantée Ah, on va brider les prix de différents marchés Ice, ice Hey, j'rentre pas à la maison, bébé s'inquiète et elle a raison C'est noir Tu connais la mission, dans quatre saisons, j'paye la maison Vivaldi Remplis le sac Eastpak, on arrive à plusieurs en balle Ouh Remplis le sac Eastpak, shooter sur la gauche de la vitre Poh, poh, poh VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? You might also like Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs Hey J'mange un grec sur la rue des Batignolles, la rue a ses raisons que le rap ignore Sous la marée des alligators, ma Russe derrière-moi sur l'Raptor C'est la street, mon pote Trois bigos sur la table dans la villa, trop de liquide pour lécher la vitrine Ils ont traqué la SEAT noire comme des vilains Général, général, général Une coupe de campagne quand j'achète mes habits Général, général, général Où sont mes vaillants ? Les voyelles ont prit la ville, ils ont pris la vie J'ai pris le dernier vol Oui, oui, souterraine économie à la surface du sol Parce qu'ils ont fait du sale et non, c'est pas des LOL, au paradis, on va te couper les ailes Général, général, général Trop d'soucis dans la tête Hey, j'ai mon ventre qui se tort Hey Des petits qui se perdent T'as vu ? car ils ont trop le mort Général, général, général Ils ont r'trouvés des empreintes dans la crosse, de la charclée dans la presse Mmh Elh Kmer est dans le Ghost Poh, poh, on se rejoint près du coche VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs C'est la street, mon pote VHR, comptant, j'paye Oh, baby, hologramme sur la veste Oh, baby AMG, gros fer noir, tu parles allemand ? Nous aussi Bah oui VHR, comptant, j'paye Oh, baby, AMG, gros fer noir Parisien Tu parles allemand ? Nous aussi Bah oui, tu parles allemand ? Nous aussi Hey</t>
+          <t>Tu veux faire la bringue Hey C'est vrai qu'on est vrai, hein Hey VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ?, hein Et ma baby, elle aime quand j'paye Tout l'temps, on va frimer comme Gucci Mane Gucci Dans la valise, j'veux cinq-cents lles-m Bah ouais, dans son fessier, j'mets cinq-cents grammes Ouh Tout l'temps dans des virées, tout l'temps Tout l'temps, casqué, comme le shooter, ganté Pah, pah Cuir noir comma la Faucheuse hantée Ah, on va brider les prix de différents marchés Ice, ice Hey, j'rentre pas à la maison, bébé s'inquiète et elle a raison C'est noir Tu connais la mission, dans quatre saisons, j'paye la maison Vivaldi Remplis le sac Eastpak, on arrive à plusieurs en balle Ouh Remplis le sac Eastpak, shooter sur la gauche de la vitre Poh, poh, poh VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs Hey J'mange un grec sur la rue des Batignolles, la rue a ses raisons que le rap ignore Sous la marée des alligators, ma Russe derrière-moi sur l'Raptor C'est la street, mon pote Trois bigos sur la table dans la villa, trop de liquide pour lécher la vitrine Ils ont traqué la SEAT noire comme des vilains Général, général, général Une coupe de campagne quand j'achète mes habits Général, général, général Où sont mes vaillants ? Les voyelles ont prit la ville, ils ont pris la vie J'ai pris le dernier vol Oui, oui, souterraine économie à la surface du sol Parce qu'ils ont fait du sale et non, c'est pas des LOL, au paradis, on va te couper les ailes Général, général, général Trop d'soucis dans la tête Hey, j'ai mon ventre qui se tort Hey Des petits qui se perdent T'as vu ? car ils ont trop le mort Général, général, général Ils ont r'trouvés des empreintes dans la crosse, de la charclée dans la presse Mmh Elh Kmer est dans le Ghost Poh, poh, on se rejoint près du coche VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs C'est la street, mon pote VHR, comptant, j'paye Oh, baby, hologramme sur la veste Oh, baby AMG, gros fer noir, tu parles allemand ? Nous aussi Bah oui VHR, comptant, j'paye Oh, baby, AMG, gros fer noir Parisien Tu parles allemand ? Nous aussi Bah oui, tu parles allemand ? Nous aussi Hey</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1275,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>L'instru m'a sonné gros, fuck ton horloge, 40000 gang L'heure du crime a sonné Pas de pitié pour les traîtres, Elh Kmer défouraille-les Tu parles de guerre, es-tu broliqué ? Force tranquille jamais paniquer, j'entends une voix qui m'dit Boma yé Dans mon cartable je n'ai pas de fourniture Quelques liasses et quelques billets, Madame la prof je ne suis pas écolier La force des miens qui vient m'épauler Ces fils de putes se mettent à couvert, ils savent très bien que ça va canarder Sortez les armes c'est la guerre comme en Irak Click click paw, je t'encule comme Chirac Peur de Dieu, j'ai peur de sonne-per Tu parles beaucoup j't'encule ta mère devant ton beau-père Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne You might also like Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand on est de mauvaise humeur Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand il est est de mauvaise humeur Darki, Vesti, E.L.H, la prod' est trop dangereuse Niquez tous vos mères pour nous le rap n'est pas un jeu Oh merde tu vois flou S.K.S.A, Mams, 2.2, le reste on s'en fout Sortez tous kalashés je vous préviens pas de pitié 40000 G, S.D.H.S, 92i, je t'ai dit gros faut pas rajouter Ferme ta gueule fais tes dièses en masqué et agis pas pour plaire La putain d'mixtape 40000 ouais Boulbi est magique L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné, allons chercher les lovés Biatch j'ai les crocs, soir-ce tel-ho on va pas s'ennuyer J'aime bien les rottes-ca, ces putains de criquets Sang d'escroc j'suis un putain de Bamiléké R.E.K oh mon gars dis-leur Armés de la tête au pied renoi, on va canarder 40000 G, 92i, t'inquiètes pas la relève est assurée Tata Touré s'il te plait un plat de mafé Joints à l'infini, pour ces jaloux c'est fini, trop nombreux comme à raq-Chi Rate-pi faut qu'on pète le milli, WAllaye bibi' c'est la gueri' ÜKT on est izi, charognards comme mes rates-pi, D-A, E.L.H mes deux homies AK-47 tu vas recevoir des missiles L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne1</t>
+          <t>L'instru m'a sonné gros, fuck ton horloge, 40000 gang L'heure du crime a sonné Pas de pitié pour les traîtres, Elh Kmer défouraille-les Tu parles de guerre, es-tu broliqué ? Force tranquille jamais paniquer, j'entends une voix qui m'dit Boma yé Dans mon cartable je n'ai pas de fourniture Quelques liasses et quelques billets, Madame la prof je ne suis pas écolier La force des miens qui vient m'épauler Ces fils de putes se mettent à couvert, ils savent très bien que ça va canarder Sortez les armes c'est la guerre comme en Irak Click click paw, je t'encule comme Chirac Peur de Dieu, j'ai peur de sonne-per Tu parles beaucoup j't'encule ta mère devant ton beau-père Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand on est de mauvaise humeur Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand il est est de mauvaise humeur Darki, Vesti, E.L.H, la prod' est trop dangereuse Niquez tous vos mères pour nous le rap n'est pas un jeu Oh merde tu vois flou S.K.S.A, Mams, 2.2, le reste on s'en fout Sortez tous kalashés je vous préviens pas de pitié 40000 G, S.D.H.S, 92i, je t'ai dit gros faut pas rajouter Ferme ta gueule fais tes dièses en masqué et agis pas pour plaire La putain d'mixtape 40000 ouais Boulbi est magique L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné, allons chercher les lovés Biatch j'ai les crocs, soir-ce tel-ho on va pas s'ennuyer J'aime bien les rottes-ca, ces putains de criquets Sang d'escroc j'suis un putain de Bamiléké R.E.K oh mon gars dis-leur Armés de la tête au pied renoi, on va canarder 40000 G, 92i, t'inquiètes pas la relève est assurée Tata Touré s'il te plait un plat de mafé Joints à l'infini, pour ces jaloux c'est fini, trop nombreux comme à raq-Chi Rate-pi faut qu'on pète le milli, WAllaye bibi' c'est la gueri' ÜKT on est izi, charognards comme mes rates-pi, D-A, E.L.H mes deux homies AK-47 tu vas recevoir des missiles L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1292,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hina', Hina', Balenciaga, Hinata Victory Hina', Hina', Balenciaga, Hinata, Hina' Hina', Hina' Elle ressent les secousses d'en bas D'en bas, la famille, le métal d'abord La famille J'élabore nouveau plavon, j'compte lui voler son petit cur Petit cur Audemars c'est ma définition Audemars de la liberté, all eyes on me Oh non J'ai pas failli à ma mission Ah, j'ai très peu d'amis, d'ennemis beaucoup Beaucoup Trois pièces, paradis, ça l'fait Ça l'fait, c'est violent, c'est pas du solfège Ah Natation synchro', j'brasse J'brasse, fais nous voir c'que tu vaux Fais nous voir c'que tu vaux J'suis dans un mauvais rêve, ffet papillon s'est volatilisé J'suis dans un mauvais rêve, c'st vrai, c'est vrai, effet papillon Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata You might also like Baby boy, je suis son mauvais djo Hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata J'ai le mannequin d'la soirée, ma baby mannequin comme Naomi Campbell Nan J'te ferais visiter toutes les parcelles de moi Toutes, oh, Dieu merci, j'ai un toit On se prend pas au sérieux, c'est le haut du tableau, c'est pas Séville C'est pas Séville J'ai le métal, le fer Le métal, prie Dieu pour que jamais j'm'en sers Près du précipice, ne chance pas d'avis Oh-oh, eh, eh, eh Après l'automne, j'vais chanter Vivaldi Après l'automne, après l'automne, eh, eh Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo Baby boy, baby boy Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata</t>
+          <t>Hina', Hina', Balenciaga, Hinata Victory Hina', Hina', Balenciaga, Hinata, Hina' Hina', Hina' Elle ressent les secousses d'en bas D'en bas, la famille, le métal d'abord La famille J'élabore nouveau plavon, j'compte lui voler son petit cur Petit cur Audemars c'est ma définition Audemars de la liberté, all eyes on me Oh non J'ai pas failli à ma mission Ah, j'ai très peu d'amis, d'ennemis beaucoup Beaucoup Trois pièces, paradis, ça l'fait Ça l'fait, c'est violent, c'est pas du solfège Ah Natation synchro', j'brasse J'brasse, fais nous voir c'que tu vaux Fais nous voir c'que tu vaux J'suis dans un mauvais rêve, ffet papillon s'est volatilisé J'suis dans un mauvais rêve, c'st vrai, c'est vrai, effet papillon Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata J'ai le mannequin d'la soirée, ma baby mannequin comme Naomi Campbell Nan J'te ferais visiter toutes les parcelles de moi Toutes, oh, Dieu merci, j'ai un toit On se prend pas au sérieux, c'est le haut du tableau, c'est pas Séville C'est pas Séville J'ai le métal, le fer Le métal, prie Dieu pour que jamais j'm'en sers Près du précipice, ne chance pas d'avis Oh-oh, eh, eh, eh Après l'automne, j'vais chanter Vivaldi Après l'automne, après l'automne, eh, eh Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo Baby boy, baby boy Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1309,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai souvent peur dfinir seul Jolly Roger J'ai souvent peur d'finir seul, seul Jai souvent peur d'finir seul Ouh J'ai souvent peur d'être seul mais jamais peur d'finir seul J'écris des lignes, toi t'en prends la nuit, tout paraît plus beau la nuit Tu finiras sans doute solo, mon reuf, si tu penses qu'elles sont toutes des De loin, jai réglé la lunette, cest sûr premier qui bouge, je l'éteins Tas vu ? Enfant du binks, j'veux la Ciudad, j'vois pas mon avenir dans l'trafic Jai fait le tour de mes souvenirs, des anciens amis, obligé d'capituler J'arrive d'en bas comme Ethereum, nan, toi t'y croyais pas, c'est trop tard Le médecin dit que j'ai le cur abîmé, à c'qui p', j'ai le cur abîmé On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait You might also like Nos vies sont plus les mêmes, gros Nos vies sont plus les mêmes, gros On a squatté les mêmes halls On a squatté les mêmes halls Nos vies sont plus les mêmes, y a fort longtemps qu'on rêve de quitter le bendo Paraplégique est mon cur, j'ai vu, j'ai souffert mais jamais j'ai bu J'ai vu des amis s'noyer dedans Dedans, j'ai vu des amis mettre des gants Mes démons m'obéissent, tu l'sais Ouh, démons m'obéissent, tu l'sais J'ai craché ma haine dans l'son, au fond, j'suis pas mauvais mais j'suis habitué Mauvaise mentalité, laud-sa un rituel Affamé, j'ai mis les gants, titulaire, pas sur le banc, nan, pas sur l'banc Jamais J'suis tombé, j'me suis relevé, pour gagner une guerre, faut du temps, gros, il faut du temps T'as vu ? J't'attends à la sortie du périph' Vroum, le cur est noir mais Dieu m'a béni Oui J'ai promis un palace à celle qui m'a donné la vie, j'veux pas de leur intérim J'regarde le ciel, le ciel, je compte plus les étoiles, parmi elles, un frérot au ciel L'arc-en-ciel, c'est pas l'marais, nan On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait</t>
+          <t>J'ai souvent peur dfinir seul Jolly Roger J'ai souvent peur d'finir seul, seul Jai souvent peur d'finir seul Ouh J'ai souvent peur d'être seul mais jamais peur d'finir seul J'écris des lignes, toi t'en prends la nuit, tout paraît plus beau la nuit Tu finiras sans doute solo, mon reuf, si tu penses qu'elles sont toutes des De loin, jai réglé la lunette, cest sûr premier qui bouge, je l'éteins Tas vu ? Enfant du binks, j'veux la Ciudad, j'vois pas mon avenir dans l'trafic Jai fait le tour de mes souvenirs, des anciens amis, obligé d'capituler J'arrive d'en bas comme Ethereum, nan, toi t'y croyais pas, c'est trop tard Le médecin dit que j'ai le cur abîmé, à c'qui p', j'ai le cur abîmé On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait Nos vies sont plus les mêmes, gros Nos vies sont plus les mêmes, gros On a squatté les mêmes halls On a squatté les mêmes halls Nos vies sont plus les mêmes, y a fort longtemps qu'on rêve de quitter le bendo Paraplégique est mon cur, j'ai vu, j'ai souffert mais jamais j'ai bu J'ai vu des amis s'noyer dedans Dedans, j'ai vu des amis mettre des gants Mes démons m'obéissent, tu l'sais Ouh, démons m'obéissent, tu l'sais J'ai craché ma haine dans l'son, au fond, j'suis pas mauvais mais j'suis habitué Mauvaise mentalité, laud-sa un rituel Affamé, j'ai mis les gants, titulaire, pas sur le banc, nan, pas sur l'banc Jamais J'suis tombé, j'me suis relevé, pour gagner une guerre, faut du temps, gros, il faut du temps T'as vu ? J't'attends à la sortie du périph' Vroum, le cur est noir mais Dieu m'a béni Oui J'ai promis un palace à celle qui m'a donné la vie, j'veux pas de leur intérim J'regarde le ciel, le ciel, je compte plus les étoiles, parmi elles, un frérot au ciel L'arc-en-ciel, c'est pas l'marais, nan On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1326,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wesh Heavy, amène le scooter, le sin-c' Jactus made this sound Oh-oh Grandi près d'la rivière, j'me suis noyé Noyé, vingt-deux carats, bébé veut juste briller Briller J'ai voulu voir de plus près, j'me suis brûlé, enfant de la Ciudad, depuis l'doré, dés sont pipés Ils diront qu'ils m'ont eu Qu'ils m'ont eu, ils nous ont eu C'est faux Si j'veux, j'finis la course avant eux, mon bébé, j'suis dans la Benz La Benz quand ça rer-ti Rer-ti Quand ça rer-ti, y a des daronnes en pleur Y a des daronnes en pleur, y a des mythos qui parlent de ce qu'ils n'ont jamais fait pour amuser la galerie J'suis aux galeries Lafayette, mon terrain a fait faillite Ils ont que dalle dans les poches, ils sont bons qu'à dire J'ai failli Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre You might also like Sèche tes larmes, on s'verra p't-être si c'est notre destin Au bout du fil Au bout du fil, j'ressens ta peine, je ressens toutes tes larmes T'as vu ? C'est comme si j't'avais dit des vraies choses Comme si C'est comme si mon cur se rappelle de nos mots Comme si À côté d'mes pompes, j'étais un long moment Je revis un moment, j'me rappelle ma maman J'ai grandi ainsi, j'ai souvent la boule au ventre Et derrière mon cur, j'en ai un autre kabout Tu m'diras qu'c'est vrai, j'te dirais que c'est faux J'vais prendre mes distances juste au cas où Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large</t>
+          <t>Wesh Heavy, amène le scooter, le sin-c' Jactus made this sound Oh-oh Grandi près d'la rivière, j'me suis noyé Noyé, vingt-deux carats, bébé veut juste briller Briller J'ai voulu voir de plus près, j'me suis brûlé, enfant de la Ciudad, depuis l'doré, dés sont pipés Ils diront qu'ils m'ont eu Qu'ils m'ont eu, ils nous ont eu C'est faux Si j'veux, j'finis la course avant eux, mon bébé, j'suis dans la Benz La Benz quand ça rer-ti Rer-ti Quand ça rer-ti, y a des daronnes en pleur Y a des daronnes en pleur, y a des mythos qui parlent de ce qu'ils n'ont jamais fait pour amuser la galerie J'suis aux galeries Lafayette, mon terrain a fait faillite Ils ont que dalle dans les poches, ils sont bons qu'à dire J'ai failli Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre Sèche tes larmes, on s'verra p't-être si c'est notre destin Au bout du fil Au bout du fil, j'ressens ta peine, je ressens toutes tes larmes T'as vu ? C'est comme si j't'avais dit des vraies choses Comme si C'est comme si mon cur se rappelle de nos mots Comme si À côté d'mes pompes, j'étais un long moment Je revis un moment, j'me rappelle ma maman J'ai grandi ainsi, j'ai souvent la boule au ventre Et derrière mon cur, j'en ai un autre kabout Tu m'diras qu'c'est vrai, j'te dirais que c'est faux J'vais prendre mes distances juste au cas où Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1343,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>He-hey Un cours d'eau, un sable noir, un semblant de paradis Ils nous ont menti du début à la fin J'aurai pu suivre le plus grand nombre, mais ça m'aurait perdu Les débris parlent d'eux-mêmes Vivre chaque instant car demain est incertain Je dois me laisser du temps pour guérir de mes plaies Les dernières pages d'un livre, comme les dernières croutes d'une plaie EndaYou might also like</t>
+          <t>He-hey Un cours d'eau, un sable noir, un semblant de paradis Ils nous ont menti du début à la fin J'aurai pu suivre le plus grand nombre, mais ça m'aurait perdu Les débris parlent d'eux-mêmes Vivre chaque instant car demain est incertain Je dois me laisser du temps pour guérir de mes plaies Les dernières pages d'un livre, comme les dernières croutes d'une plaie Enda</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1360,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>J'ai l'impression d'avoir pris goût a toute cette détresse L'impression d'aimer le goût de mes larmes, car au fond, je n'ai connu qu'elle J'aurai aimé que les vagues emportent avec elles nos remords Que le soleil éclair nos pardons et la glace gèle encore plus nos sentiments afin de ne plus vivre la séparation de ce que l'on aime Au fond du cur, tu sais que j'ai bobo mais apparmment les hommes n pleurent pas dans le cur tu sais que j'ai bobo mais apparemment les hommes ne pleurent pas JökulYou might also like</t>
+          <t>J'ai l'impression d'avoir pris goût a toute cette détresse L'impression d'aimer le goût de mes larmes, car au fond, je n'ai connu qu'elle J'aurai aimé que les vagues emportent avec elles nos remords Que le soleil éclair nos pardons et la glace gèle encore plus nos sentiments afin de ne plus vivre la séparation de ce que l'on aime Au fond du cur, tu sais que j'ai bobo mais apparmment les hommes n pleurent pas dans le cur tu sais que j'ai bobo mais apparemment les hommes ne pleurent pas Jökul</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1377,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hey, hey. Vivaldi c'est l'histoire d'un gamin qui voyait le monde brûler sous ses yeux. Un gamin qui aurait aimer sauver celui-ci. Protéger le plus grand nom des flammes en vain, la tâche paraissait quasi impossible. Spectateur, jamais acteur, la détresse dans l'regard de l'humanité fût l'élément déclencheur, pour s'offrir de nouvelle map. VatnaYou might also like</t>
+          <t>Hey, hey. Vivaldi c'est l'histoire d'un gamin qui voyait le monde brûler sous ses yeux. Un gamin qui aurait aimer sauver celui-ci. Protéger le plus grand nom des flammes en vain, la tâche paraissait quasi impossible. Spectateur, jamais acteur, la détresse dans l'regard de l'humanité fût l'élément déclencheur, pour s'offrir de nouvelle map. Vatna</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1394,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L'obscurité est peut-être l'élément qui me correspond le mieux, j'ai essayé de fuir mon destin en vain, crier ma peine acquis, la chanter a vous la nation. J'ai réalisé ce chapitre de ma vie dans les quatre coins d'une terre viking, en Islande. Il n'est jamais trop tard pour ouvrir un livre, jamais trop tard pour me streamer. VíkYou might also like</t>
+          <t>L'obscurité est peut-être l'élément qui me correspond le mieux, j'ai essayé de fuir mon destin en vain, crier ma peine acquis, la chanter a vous la nation. J'ai réalisé ce chapitre de ma vie dans les quatre coins d'une terre viking, en Islande. Il n'est jamais trop tard pour ouvrir un livre, jamais trop tard pour me streamer. Vík</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1411,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>He-hey Plus trop de montant, j'ai pas de la Yo J'lui paie trop de montants, j'suis pas esclave Is that Traplysse, hey J'rappe ma vie en mieux, c'est plus les mêmes kalash J'décolle sur un coup de tête, je vais pas m'étaler Tellement de flashbacks, j'ai pas trop de mémoire Elle dit que j'suis un bâtard mais un bel étalon Beaucoup de vols à l'étalage, on se rachète une conduite, c'est plus les mêmes raisons qui m'animent Les plus anciens vont nous maudire parce qu'on a pas su transmettre notre héritage Sur un coup de tête j'réveille les démons, j'ai le mode d'emploi pour la démonter Le polo est taché, la dignité est intacte, faut un gilet pare-balles pour les impacts T'as voulu voir de plus près, tu t'es niqué, j'avais plus de cinq chiffres sur un compte Nickel Ils bâtissent tes rêves sur des bateaux instables, ils disent que c'est l'il des gens pour se rassurer L'inspecteur des fraudes, j'lui dis que t'as été full up de traître Ils attendent que je pop pour s'inviter J'rappe pas pour plaire un tel ou un autre, j'suis impliqué dans tout ce qui fructifie mon bénef Je dois investir beaucoup de mon temps, la sueur a le goût du sang En vrai y'a pas de magie, j'répète la même toutes les saisons, j'fais augmenter l'auditoire You might also like Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Eh Tellement de séquelles dans l'dos, on se méfie de nous-même On partage le trésor qu'avec ceux qui le méritent Dieu m'a pas zappé, il a donné à Trolo, j'ai pas envié Trolo, il m'a donné deux fois plus J'ai aimé une femme qui en aimer une autre, la trahison ne concerne pas que les apôtres Je dois couper la coco plusieurs fois pour le bénef, une fois passé la frontière ça coûte plus cher à Genève J'veux le plan qui ramène le trésor, mon personnage préféré dans GTA c'est Trevor T'as tout d'un bolosse, tu t'es mis à la gonflette, on prenait ton goûter tu disais pas un mot On sait gérer la pharmacie, c'est très méchant comme Figo à l'époque des Galactiques Y'a rien de nouveau, ça tire sur toi, tu feras gonfler que les statistiques statistiques Très méchant, elle veut savoir où j'habite ouh On a fait le tour, y'a personne qui rivalise on a fait le tour, hein Très méchant, elle veut savoir où j'habite ouh J't'emmènerai en Italie, écrit en italique hein Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise en Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Heinn1</t>
+          <t>He-hey Plus trop de montant, j'ai pas de la Yo J'lui paie trop de montants, j'suis pas esclave Is that Traplysse, hey J'rappe ma vie en mieux, c'est plus les mêmes kalash J'décolle sur un coup de tête, je vais pas m'étaler Tellement de flashbacks, j'ai pas trop de mémoire Elle dit que j'suis un bâtard mais un bel étalon Beaucoup de vols à l'étalage, on se rachète une conduite, c'est plus les mêmes raisons qui m'animent Les plus anciens vont nous maudire parce qu'on a pas su transmettre notre héritage Sur un coup de tête j'réveille les démons, j'ai le mode d'emploi pour la démonter Le polo est taché, la dignité est intacte, faut un gilet pare-balles pour les impacts T'as voulu voir de plus près, tu t'es niqué, j'avais plus de cinq chiffres sur un compte Nickel Ils bâtissent tes rêves sur des bateaux instables, ils disent que c'est l'il des gens pour se rassurer L'inspecteur des fraudes, j'lui dis que t'as été full up de traître Ils attendent que je pop pour s'inviter J'rappe pas pour plaire un tel ou un autre, j'suis impliqué dans tout ce qui fructifie mon bénef Je dois investir beaucoup de mon temps, la sueur a le goût du sang En vrai y'a pas de magie, j'répète la même toutes les saisons, j'fais augmenter l'auditoire Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Eh Tellement de séquelles dans l'dos, on se méfie de nous-même On partage le trésor qu'avec ceux qui le méritent Dieu m'a pas zappé, il a donné à Trolo, j'ai pas envié Trolo, il m'a donné deux fois plus J'ai aimé une femme qui en aimer une autre, la trahison ne concerne pas que les apôtres Je dois couper la coco plusieurs fois pour le bénef, une fois passé la frontière ça coûte plus cher à Genève J'veux le plan qui ramène le trésor, mon personnage préféré dans GTA c'est Trevor T'as tout d'un bolosse, tu t'es mis à la gonflette, on prenait ton goûter tu disais pas un mot On sait gérer la pharmacie, c'est très méchant comme Figo à l'époque des Galactiques Y'a rien de nouveau, ça tire sur toi, tu feras gonfler que les statistiques statistiques Très méchant, elle veut savoir où j'habite ouh On a fait le tour, y'a personne qui rivalise on a fait le tour, hein Très méchant, elle veut savoir où j'habite ouh J't'emmènerai en Italie, écrit en italique hein Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise en Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Heinn1</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1428,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Eh, c'est tout pour la famille, rien pour les pétasses J'suis avec H, on parle de liquide La valeur du djé on connait, j'ai péta V2 pour m'acheter des ppes-sa Eh, ne fais pas la mafia Sicilienne, , t'es souvent en PR Parait qu'la misère est plus belle au soleil et ta mère la pute est plus bonne en levrette J'suis dans les gradins eh, hein, ouh, ouh J'suis dans les gradins j'suis dans les putains d'gradins Comme la daronne à Rabiot J'suis dans les gradins, trois fois eh Il pull up pour somme à six chiffres J'suis dans les gradins cher, cher, cher, hein Arsène Wenger J'suis dans les gradins, plus sur le terrain J'revends la drogue que tes darons smoke Vingt-cinq piges, j'ai fait deux fois l'double J'suis au départ du go, à la levée du corps Six cents ch'vaux sur la Côte d'Azur On s'en tape si l'prix du baril est en hausse On dégaine en premier, le premier qui s'oppose hey On découpe comme Z, Z, Z comme Zorro woah Comment tu parles, mon garçon ? Vingt-cinq bougies, je mors plus à l'hameçon eh-eh, eh J'connais mes d'voirs, mes leçons J'répète les gammes la veille, j'gère la pression eh La vérité on la connait tous, j'ai passé , j'me suis pas mis à genoux Ton marabout a floppé, j'ai les blindages, j'suis blindé, gros eh, eh, eh, eh, eh, comme les portes du fourgon woah Mes catas j'les connais, mes récits j'les vomis comme si j'étais boulimique c'est réel Trois fois, trois fois, pull up pour la somme à six chiffres t'as vu J'rentre dedans comme Mahrez, j'ressors balle au pied comme Marco Verratti c'est propre Eh, on va t'cribler de balles comme 50 Cent grrr, woah, woah Eh, le ciel m'a privé d'une enfance radieuse, ouais, le ciel nous a punit Le jour du festin, j'partage avec Benny, Thauvin l'partage sera équitable 5050 Jamais acquitté non, même preuve à l'appui car la juge est mal baisée J'suis avec les requins, dans les eaux profondes eh, eh, eh, eh, eh Libére mes partners, libérez mes bandits You might also like Eh, renard comme Inzaghi, ouais Izanagi pour refaire l'histoire J'ai la trique à trique, j'ai la maitrise du truc Si la courbe est montante, j'mets deux fois la mise Y a pas photo, eux et nous non, non On l'a banni du clan, c'était louche c'était louche J'suis toujours à l'heure pour l'djé pour le saké T'est toujours en retard, comme les keufs, hein? 22, 22, 22 J'ai le Susano'o Full option, j'ai dans l'quatre anneaux J'me rappelle d'hier, quand y avait rien à graille, qu'on pensait qu'à survivre, pas au goût eh, eh Métal froid, j'fais le tour du périph', j'cherche la proie J'me rappelle d'hier, quand y avait rien à graille, on volait au riche, on volait au riche Trois fois Izanagi on a refait l'histoire, eh Refait, refait, refait, refait, refait, refait Les démons m'obéissent T'as vu, t'as vu? Yeah1</t>
+          <t>Eh, c'est tout pour la famille, rien pour les pétasses J'suis avec H, on parle de liquide La valeur du djé on connait, j'ai péta V2 pour m'acheter des ppes-sa Eh, ne fais pas la mafia Sicilienne, , t'es souvent en PR Parait qu'la misère est plus belle au soleil et ta mère la pute est plus bonne en levrette J'suis dans les gradins eh, hein, ouh, ouh J'suis dans les gradins j'suis dans les putains d'gradins Comme la daronne à Rabiot J'suis dans les gradins, trois fois eh Il pull up pour somme à six chiffres J'suis dans les gradins cher, cher, cher, hein Arsène Wenger J'suis dans les gradins, plus sur le terrain J'revends la drogue que tes darons smoke Vingt-cinq piges, j'ai fait deux fois l'double J'suis au départ du go, à la levée du corps Six cents ch'vaux sur la Côte d'Azur On s'en tape si l'prix du baril est en hausse On dégaine en premier, le premier qui s'oppose hey On découpe comme Z, Z, Z comme Zorro woah Comment tu parles, mon garçon ? Vingt-cinq bougies, je mors plus à l'hameçon eh-eh, eh J'connais mes d'voirs, mes leçons J'répète les gammes la veille, j'gère la pression eh La vérité on la connait tous, j'ai passé , j'me suis pas mis à genoux Ton marabout a floppé, j'ai les blindages, j'suis blindé, gros eh, eh, eh, eh, eh, comme les portes du fourgon woah Mes catas j'les connais, mes récits j'les vomis comme si j'étais boulimique c'est réel Trois fois, trois fois, pull up pour la somme à six chiffres t'as vu J'rentre dedans comme Mahrez, j'ressors balle au pied comme Marco Verratti c'est propre Eh, on va t'cribler de balles comme 50 Cent grrr, woah, woah Eh, le ciel m'a privé d'une enfance radieuse, ouais, le ciel nous a punit Le jour du festin, j'partage avec Benny, Thauvin l'partage sera équitable 5050 Jamais acquitté non, même preuve à l'appui car la juge est mal baisée J'suis avec les requins, dans les eaux profondes eh, eh, eh, eh, eh Libére mes partners, libérez mes bandits Eh, renard comme Inzaghi, ouais Izanagi pour refaire l'histoire J'ai la trique à trique, j'ai la maitrise du truc Si la courbe est montante, j'mets deux fois la mise Y a pas photo, eux et nous non, non On l'a banni du clan, c'était louche c'était louche J'suis toujours à l'heure pour l'djé pour le saké T'est toujours en retard, comme les keufs, hein? 22, 22, 22 J'ai le Susano'o Full option, j'ai dans l'quatre anneaux J'me rappelle d'hier, quand y avait rien à graille, qu'on pensait qu'à survivre, pas au goût eh, eh Métal froid, j'fais le tour du périph', j'cherche la proie J'me rappelle d'hier, quand y avait rien à graille, on volait au riche, on volait au riche Trois fois Izanagi on a refait l'histoire, eh Refait, refait, refait, refait, refait, refait Les démons m'obéissent T'as vu, t'as vu? Yeah1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1445,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nanji Eh, t'attends que ça parle pour me faire du lèche J'rappe pas pour les médias hype jamais, j'suis trop crâmé, wouh T'attends que ça parle pour me faire du lèche hein J'rappe pas pour les médias hype hein Au dessus d'la normale comme une antenne 5G Antoine m'appelle pour une livraison d'colis allô Ici on aime pas trop la police, mon fiston m'écoute, donc je resterais poli 2021, l'esclavage pas aboli bah, bah J'suis trop Adama pour une manif' pacifiste, eh bah, bah J'monte sur un plavon à 40k, c'est pas l'argent d'la SACEM ouh Nique sa mère à tout ceux qui blasphème Nique leurs grands-mères à tout les fans de Bassem nique, nique, hein J'ai full up dans l'BM, 4Matic, j'remonte toutes sortes de pentes 4Matic, j'remonte toutes sortes de bords J'entends deux fois Allô, c'est sûrement une CR La taille de la kichta te fait bugger On communique avec des talkies wouh La rue s'apprend pas sur des tutos, le poto est libérable, il m'dit qu'c'est celebrate eh Et toi t'es un faux, j'ai prit mes distances bien avant le Covid stop Deux éléments qui nous divisent, l'argent, les putes, putes, putes, putes You might also like 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël On transmet le savoir aux nes-jeu fort Ça découpe en balles et ça bibi coupe, coupe j'refais les boutiques, coup d'scam de Paris à London scam, scam J'ai pas rêvé d'être connu, j'suis dans l'bando avec des crapules bando Aller-retour, Paris-Rotter', c'est 8h30 pétantes, j''m'arrête pour pisser J'suis la racaille du label, moi, j'leur ai dit j'rappes pas pour les bobos jamais VHR, t'es pas dans l'Viano eh J'ai la guitarre qui grr, grr eh, eh, eh, eh, pas de piano baow, baow J'récupères en USD, j'évite les MST, revends la LSD J'suis dans la cabine, comme Socrates, j'm'occupe de ton cas 2021, tout dans l'USB 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël Izana, mi T'as vu? Trois fois, eh, eh, eh1</t>
+          <t>Nanji Eh, t'attends que ça parle pour me faire du lèche J'rappe pas pour les médias hype jamais, j'suis trop crâmé, wouh T'attends que ça parle pour me faire du lèche hein J'rappe pas pour les médias hype hein Au dessus d'la normale comme une antenne 5G Antoine m'appelle pour une livraison d'colis allô Ici on aime pas trop la police, mon fiston m'écoute, donc je resterais poli 2021, l'esclavage pas aboli bah, bah J'suis trop Adama pour une manif' pacifiste, eh bah, bah J'monte sur un plavon à 40k, c'est pas l'argent d'la SACEM ouh Nique sa mère à tout ceux qui blasphème Nique leurs grands-mères à tout les fans de Bassem nique, nique, hein J'ai full up dans l'BM, 4Matic, j'remonte toutes sortes de pentes 4Matic, j'remonte toutes sortes de bords J'entends deux fois Allô, c'est sûrement une CR La taille de la kichta te fait bugger On communique avec des talkies wouh La rue s'apprend pas sur des tutos, le poto est libérable, il m'dit qu'c'est celebrate eh Et toi t'es un faux, j'ai prit mes distances bien avant le Covid stop Deux éléments qui nous divisent, l'argent, les putes, putes, putes, putes 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël On transmet le savoir aux nes-jeu fort Ça découpe en balles et ça bibi coupe, coupe j'refais les boutiques, coup d'scam de Paris à London scam, scam J'ai pas rêvé d'être connu, j'suis dans l'bando avec des crapules bando Aller-retour, Paris-Rotter', c'est 8h30 pétantes, j''m'arrête pour pisser J'suis la racaille du label, moi, j'leur ai dit j'rappes pas pour les bobos jamais VHR, t'es pas dans l'Viano eh J'ai la guitarre qui grr, grr eh, eh, eh, eh, pas de piano baow, baow J'récupères en USD, j'évite les MST, revends la LSD J'suis dans la cabine, comme Socrates, j'm'occupe de ton cas 2021, tout dans l'USB 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël Izana, mi T'as vu? Trois fois, eh, eh, eh1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1462,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jacques a, Jacques a dit, parlons cash, parlons walli J'veux du benef plein les valises Faut du benef plein les valises J'veux du benef plein les valises Faut du benef plein les valises Jacques a, Jacques a dit parlons cash parlons walli J'suis descendu d'chez moi j'ai attaché mon XXX J'vais faire un tour de vélo Chanter des mélis des mélos Tourner comme ce-ba en action XXX les kryptons Y a cette putain de chienne de guerre Qui me fait du pied Mais Jacques a dit non Qu'elle connaissait tous les filons Quelques garçons voudraient postuler dites leur de s'présenter au K.R.L.O Ya hajah té-mon sur la moto Ou va chercher l'poto dans l'buisson A c'qui parait on est bourré de flow Ca c'est Jack Da qui l'a dit Tu mérites même pas qu'on te touche Jacques a dit lachez les pitts Quoi qu'il en soit si y a des affaires bah c'est l'jour et la nuit On fait du gras, entasse les liasses on s'casse d'ici You might also like Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Frérot mon avenir j'ai put l'imaginer J'en ai marre de m'dire ça ira J'ai souffert comme un talibé Qui m'aime me retienne car ma femme me tuera Tu m'aimes pas gros c'est réciproque J'n'ai aucun remord comme si proc était mort On galère tous en bas du block En attendant qu'un frérot monte J'ai pouvoir d'achat grâce au bédo Tellement d'amour pour mes négros Des heures passées à ne rien faire, à rêver d'une vie qu'on aura pas de si tôt Ma patience atteint ses limites Faudrait le million pour qu'ma mère soit paisible Vue sur mer ouais sur une île, des cocotiers à l'infini Mais, le million c'est d'la merde Jacques a dit faut l'milliard pour ta mère Le mal que j'traine est pire que tout Faudrait que j'm'en aille pour rejoindre mon frère Mais, Tony où es tu frérot ? nahé Tony où es tu frérot ? hmm nahé Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah yeah yeah yeah</t>
+          <t>Jacques a, Jacques a dit, parlons cash, parlons walli J'veux du benef plein les valises Faut du benef plein les valises J'veux du benef plein les valises Faut du benef plein les valises Jacques a, Jacques a dit parlons cash parlons walli J'suis descendu d'chez moi j'ai attaché mon XXX J'vais faire un tour de vélo Chanter des mélis des mélos Tourner comme ce-ba en action XXX les kryptons Y a cette putain de chienne de guerre Qui me fait du pied Mais Jacques a dit non Qu'elle connaissait tous les filons Quelques garçons voudraient postuler dites leur de s'présenter au K.R.L.O Ya hajah té-mon sur la moto Ou va chercher l'poto dans l'buisson A c'qui parait on est bourré de flow Ca c'est Jack Da qui l'a dit Tu mérites même pas qu'on te touche Jacques a dit lachez les pitts Quoi qu'il en soit si y a des affaires bah c'est l'jour et la nuit On fait du gras, entasse les liasses on s'casse d'ici Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Frérot mon avenir j'ai put l'imaginer J'en ai marre de m'dire ça ira J'ai souffert comme un talibé Qui m'aime me retienne car ma femme me tuera Tu m'aimes pas gros c'est réciproque J'n'ai aucun remord comme si proc était mort On galère tous en bas du block En attendant qu'un frérot monte J'ai pouvoir d'achat grâce au bédo Tellement d'amour pour mes négros Des heures passées à ne rien faire, à rêver d'une vie qu'on aura pas de si tôt Ma patience atteint ses limites Faudrait le million pour qu'ma mère soit paisible Vue sur mer ouais sur une île, des cocotiers à l'infini Mais, le million c'est d'la merde Jacques a dit faut l'milliard pour ta mère Le mal que j'traine est pire que tout Faudrait que j'm'en aille pour rejoindre mon frère Mais, Tony où es tu frérot ? nahé Tony où es tu frérot ? hmm nahé Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah yeah yeah yeah</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ouais, han Ouais, ouais G.S got the sauce J'étais tout seul dans la room Dans la room Et ça m'a prit longtemps avant d'voir qu'ils voulaient m'faire les roues Pour l'cash, j'attends pas le 30, allô ? Malheur au tél' J'pète une un peu trop girly, j'ai du mal à dormir Et j'suis plus trop dehors, avant d'dead faut qu'j'fasse encore, encore Dans la 'teille, j'ai d'quoi faire tomber trois-cents corps Toute ma vie mettre la lulu, pourquoi personne regarde ? Dans la rue, j'sors plus tard, t'façon ils ont un train d'retard J'joue pas pour l'maintien, pour l'billet J'ai sorti mon plus beau pinceau pour dessinr un S.O.S Le plan A trouver un plan sous, je pnse qu'à ça et fuck le reste J'avais des failles, j'en ai fait une trilogie parce que c'est la city qu'a prit nos vies J'avais du mal donc j'vais plus revenir J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum You might also like J'abrite des des secrets en moi, dans l'fond, j'attends le retour du dieu Ils me vendraient si j'avais un prix Et combien Les jours de fête, j'repense quand il manquait à boire J'repense quand il manquait à boire J'aurai voulu que s'arrête le monde Ils m'ont pas cru quand j'ai dénoncé leurs méfaits Quand j'ai dénoncé leurs méfaits Si t'as rien fait, c'est comme cautionner Yes sir, j'ai fait des emplettes Ice J'achète tout ce dont je manquais Tout Oh, mama, y a plus d'oiseaux vivants, c'est donc ça la vie Oh, baba, je contrôle mes finances, pourvu qu'tu sois en vie Avant qu'j'finisse le château en ruine, avant qu'arrive le dernier souffle Avant qu's'éteigne la putain d'flamme, avant que coule la dernière larme J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum KJU J'ai caché mes peines dans un jardin secret J'me rappelle plus de leurs visages</t>
+          <t>Ouais, han Ouais, ouais G.S got the sauce J'étais tout seul dans la room Dans la room Et ça m'a prit longtemps avant d'voir qu'ils voulaient m'faire les roues Pour l'cash, j'attends pas le 30, allô ? Malheur au tél' J'pète une un peu trop girly, j'ai du mal à dormir Et j'suis plus trop dehors, avant d'dead faut qu'j'fasse encore, encore Dans la 'teille, j'ai d'quoi faire tomber trois-cents corps Toute ma vie mettre la lulu, pourquoi personne regarde ? Dans la rue, j'sors plus tard, t'façon ils ont un train d'retard J'joue pas pour l'maintien, pour l'billet J'ai sorti mon plus beau pinceau pour dessinr un S.O.S Le plan A trouver un plan sous, je pnse qu'à ça et fuck le reste J'avais des failles, j'en ai fait une trilogie parce que c'est la city qu'a prit nos vies J'avais du mal donc j'vais plus revenir J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum J'abrite des des secrets en moi, dans l'fond, j'attends le retour du dieu Ils me vendraient si j'avais un prix Et combien Les jours de fête, j'repense quand il manquait à boire J'repense quand il manquait à boire J'aurai voulu que s'arrête le monde Ils m'ont pas cru quand j'ai dénoncé leurs méfaits Quand j'ai dénoncé leurs méfaits Si t'as rien fait, c'est comme cautionner Yes sir, j'ai fait des emplettes Ice J'achète tout ce dont je manquais Tout Oh, mama, y a plus d'oiseaux vivants, c'est donc ça la vie Oh, baba, je contrôle mes finances, pourvu qu'tu sois en vie Avant qu'j'finisse le château en ruine, avant qu'arrive le dernier souffle Avant qu's'éteigne la putain d'flamme, avant que coule la dernière larme J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum KJU J'ai caché mes peines dans un jardin secret J'me rappelle plus de leurs visages</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1496,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nekkat on the track J'suis au sommet du K2, des comme moi, y en a pas deux J'dégaine au Long Riffle 22 et j'appellerai jamais les 22, hey C'est d'la frappe qu'on vend, pas de S.A.V, on est sûr d'la came On connaît le produit On divise par quatre, même les chiffres impairs, par de prise de tête Piouh, piouh, piouh En file indienne sur l'avenue Montaigne, on a tout les montants Vroum, vroum Recto, verso, recto, j'remplis le dossir comme un prêteur Scam, scam C'est fatal tout l'tmps, l'espérance de vie n'est pas si haute Pah Je digère à peine l'entrée, le majordome me serre une entrecôte Arigato On duplique Hein ? les donnés Hein ?, je donne pas à tout bout d'champ Jamais T'as beau refaire mais t'es une réplique, faut qu'on s'applique Fake, t'as vu ? VVS, tout l'temps VVS Hey, rebeu, renoi comme Ilyes Hey Tu vas mourir d'une balle, pas de vieillesse Ice, pah, pah Dans les gradins comme Sarko' Quoi ?, le baveux entend, j'mens, stard-co Ouh Et dans la rue, on parle en narco Wesh, wesh, hey Au sommet du K2, j'ai vu les traîtres Hey Ça pue la flicaille, j'suis chez ma baby, y a plus d'étoile GTA Au sommet du K2, j'ai vu les traîtres T'attends que ça pop pour faire du lèche Ta mère la nympho' qui aime pas ton père Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Assourdissant comme le bruit des compét' Hein ? Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Hey Assourdissant comme le bruit des compét' Hein ? You might also like J'suis au sommet du K2 Ouais, des comme moi, y en a pas deux Nada J'dégaine au Long Riffle 22 Pouh et j'appellerai jamais les 22 Jamais, jamais On est plusieurs à faire, plusieurs à dire, plusieurs à vendre Un seul à shooter, plusieurs à table, chacun a son poste dans l'organigramme Wow, la street, c'est moche et réel C'est moche J'pense aux cinq chiffres dès l'réveil Tout l'temps, on va rafler la mise comme Israël Mazel Tov On dégaine en premier, pute Pouh, ça sera pas un prank T'as vu ? Business plan pour la banque, j'suis avec quatre bantous sur un tank Ouh Au sommet du K2, j'ai vu les traîtres Au sommet, au sommet, au sommet S, S, rajoute des S, S Rajoute 22, on blesse, craint comme la mafia napolitaine Eh, vouvoie-nous, bouffon là Attends, on va le prendre comme ça, hein ? Attends, attends, tu rappes pas dans les temps Ça m'saoule Nouvelle épée charcle comme Kisame Coupe, coupe, coupe Des eu', eu', j'convertis en francs Des euros, des eu', eu', j'convertis en francs J'passe la douane, ni vu, ni connu Tchi, on donne du taf aux keufs, au SAMU Bosse Elle fait rentrer une plaque au parlu Dans son cul, dix fois son taro si j'fais d'la plus-value Comme Sosa</t>
+          <t>Nekkat on the track J'suis au sommet du K2, des comme moi, y en a pas deux J'dégaine au Long Riffle 22 et j'appellerai jamais les 22, hey C'est d'la frappe qu'on vend, pas de S.A.V, on est sûr d'la came On connaît le produit On divise par quatre, même les chiffres impairs, par de prise de tête Piouh, piouh, piouh En file indienne sur l'avenue Montaigne, on a tout les montants Vroum, vroum Recto, verso, recto, j'remplis le dossir comme un prêteur Scam, scam C'est fatal tout l'tmps, l'espérance de vie n'est pas si haute Pah Je digère à peine l'entrée, le majordome me serre une entrecôte Arigato On duplique Hein ? les donnés Hein ?, je donne pas à tout bout d'champ Jamais T'as beau refaire mais t'es une réplique, faut qu'on s'applique Fake, t'as vu ? VVS, tout l'temps VVS Hey, rebeu, renoi comme Ilyes Hey Tu vas mourir d'une balle, pas de vieillesse Ice, pah, pah Dans les gradins comme Sarko' Quoi ?, le baveux entend, j'mens, stard-co Ouh Et dans la rue, on parle en narco Wesh, wesh, hey Au sommet du K2, j'ai vu les traîtres Hey Ça pue la flicaille, j'suis chez ma baby, y a plus d'étoile GTA Au sommet du K2, j'ai vu les traîtres T'attends que ça pop pour faire du lèche Ta mère la nympho' qui aime pas ton père Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Assourdissant comme le bruit des compét' Hein ? Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Hey Assourdissant comme le bruit des compét' Hein ? J'suis au sommet du K2 Ouais, des comme moi, y en a pas deux Nada J'dégaine au Long Riffle 22 Pouh et j'appellerai jamais les 22 Jamais, jamais On est plusieurs à faire, plusieurs à dire, plusieurs à vendre Un seul à shooter, plusieurs à table, chacun a son poste dans l'organigramme Wow, la street, c'est moche et réel C'est moche J'pense aux cinq chiffres dès l'réveil Tout l'temps, on va rafler la mise comme Israël Mazel Tov On dégaine en premier, pute Pouh, ça sera pas un prank T'as vu ? Business plan pour la banque, j'suis avec quatre bantous sur un tank Ouh Au sommet du K2, j'ai vu les traîtres Au sommet, au sommet, au sommet S, S, rajoute des S, S Rajoute 22, on blesse, craint comme la mafia napolitaine Eh, vouvoie-nous, bouffon là Attends, on va le prendre comme ça, hein ? Attends, attends, tu rappes pas dans les temps Ça m'saoule Nouvelle épée charcle comme Kisame Coupe, coupe, coupe Des eu', eu', j'convertis en francs Des euros, des eu', eu', j'convertis en francs J'passe la douane, ni vu, ni connu Tchi, on donne du taf aux keufs, au SAMU Bosse Elle fait rentrer une plaque au parlu Dans son cul, dix fois son taro si j'fais d'la plus-value Comme Sosa</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1513,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>mieszy mnie to co nazywacie trapem Kilka butelek i typów na chacie Poow ycia na gap Dzisiaj trzy razy podnosz papugi wypat Dawaj t szklane, nie pytaj czy kapie Zawi t blet, nie pytaj czy kopie Zamykaj szyb, ucieka THC Znowu skocz dzisiaj z czerwonym okiem Duo papieru, a to nie umowy Duo jest gestów , chocia nie ma mowy Due dziury w systemie podatkowym be-beng Due sumy, due fury i domy be-beng Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie You might also like Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie wowo</t>
+          <t>mieszy mnie to co nazywacie trapem Kilka butelek i typów na chacie Poow ycia na gap Dzisiaj trzy razy podnosz papugi wypat Dawaj t szklane, nie pytaj czy kapie Zawi t blet, nie pytaj czy kopie Zamykaj szyb, ucieka THC Znowu skocz dzisiaj z czerwonym okiem Duo papieru, a to nie umowy Duo jest gestów , chocia nie ma mowy Due dziury w systemie podatkowym be-beng Due sumy, due fury i domy be-beng Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie wowo</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1530,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>En mode dictature Yo, Traplysse ? Hey, han Guez Les p'tits ont grandi Ok, hey Les p'tits ont grandi Franchi les étapes et gravi Ici, couleur du ciel est gris Quand y'a du soleil, c'est sûr qu'on est ravi Ah bon ? Petit, j'étais gourmand J'ai toujours laissé un peu d'pourboire J'achète un bijou à madame C'est sûrement de l'or, elle aime bien les gourmettes Elle aime bien les gourm' T'aurais dû patienter Pourquoi la plupart ont douté ? Pourquoi ? BTC, j'regarde les courbes Big H, j'regarde ses formes Heuss, heuss Ici, c'est le foutoir KJU, je mets de l'ordre J'ai pas oublié les mecs au bled J'dois faire un transfert de quelques francs CFA Au pays Ici, y a pas d'goudron Terre battue comme Roland Garros Kalashnikov qui fait grr pendant le sommeil C'est vrai, j'ai l'habitude La tête Il faut de l'attitude Sinon, t'es mort, sinon, c'est fichu Commerçant d'produits illicites Faut pas se louper sur les différentes doses Pourquoi eux, ils titubent ? Yo C'est la vie qui est si dure Oh Le bitume abîme, faut pas se mentir, faut aller étudier Ah no Je connais mon sujet Je connais mes sujets Ils vont pas te louper, s'ils n'ont pas à manger, c'est les règles dans la jungle J'ai le cur abîmé C'est noir comme au Congo, la Crimée KJU, l'effet d'un boum J'essaie un nouveau jouet, j'vais les cribler De balles Petit, j'étais gourmand J'volais l'argent à la kermesse J'voulais l'argent de la caissière J'volais le goûter des enfants les plus aisés Le projet a turni J'enfile mon armure, ma tunique KJU, l'effet d'un boum C'est la troisième guerre, faut choisir ses alliés Stop, attends, je raconte Attends Pour voir si t'as pas, fais un trou Y a de l'or, des bijoux dans la grotte, mais les plus feignants n'auront pas un sou Hey, hey Le matelas c'est l'Mont Blanc Le stylo BIC, c'est sûrement Mont Blanc J'fais du ski sûrement au Mont Blanc J'ai vu un ami parler au banc J'sais pas si on s'aide Peu importe, je dois faire des concerts Le bunker rempli de conserves Bientôt la fin de ce monde KJU Les petits ont grandi Hey Petit, j'étais gourmand Il nous faut des gourmettes VVS, carat, des gourmettes Petit, j'étais gourmand Déso', mais j'ai grandi Désormais, j'ai grandi VVS, carat, des gourmettes OkYou might also like</t>
+          <t>En mode dictature Yo, Traplysse ? Hey, han Guez Les p'tits ont grandi Ok, hey Les p'tits ont grandi Franchi les étapes et gravi Ici, couleur du ciel est gris Quand y'a du soleil, c'est sûr qu'on est ravi Ah bon ? Petit, j'étais gourmand J'ai toujours laissé un peu d'pourboire J'achète un bijou à madame C'est sûrement de l'or, elle aime bien les gourmettes Elle aime bien les gourm' T'aurais dû patienter Pourquoi la plupart ont douté ? Pourquoi ? BTC, j'regarde les courbes Big H, j'regarde ses formes Heuss, heuss Ici, c'est le foutoir KJU, je mets de l'ordre J'ai pas oublié les mecs au bled J'dois faire un transfert de quelques francs CFA Au pays Ici, y a pas d'goudron Terre battue comme Roland Garros Kalashnikov qui fait grr pendant le sommeil C'est vrai, j'ai l'habitude La tête Il faut de l'attitude Sinon, t'es mort, sinon, c'est fichu Commerçant d'produits illicites Faut pas se louper sur les différentes doses Pourquoi eux, ils titubent ? Yo C'est la vie qui est si dure Oh Le bitume abîme, faut pas se mentir, faut aller étudier Ah no Je connais mon sujet Je connais mes sujets Ils vont pas te louper, s'ils n'ont pas à manger, c'est les règles dans la jungle J'ai le cur abîmé C'est noir comme au Congo, la Crimée KJU, l'effet d'un boum J'essaie un nouveau jouet, j'vais les cribler De balles Petit, j'étais gourmand J'volais l'argent à la kermesse J'voulais l'argent de la caissière J'volais le goûter des enfants les plus aisés Le projet a turni J'enfile mon armure, ma tunique KJU, l'effet d'un boum C'est la troisième guerre, faut choisir ses alliés Stop, attends, je raconte Attends Pour voir si t'as pas, fais un trou Y a de l'or, des bijoux dans la grotte, mais les plus feignants n'auront pas un sou Hey, hey Le matelas c'est l'Mont Blanc Le stylo BIC, c'est sûrement Mont Blanc J'fais du ski sûrement au Mont Blanc J'ai vu un ami parler au banc J'sais pas si on s'aide Peu importe, je dois faire des concerts Le bunker rempli de conserves Bientôt la fin de ce monde KJU Les petits ont grandi Hey Petit, j'étais gourmand Il nous faut des gourmettes VVS, carat, des gourmettes Petit, j'étais gourmand Déso', mais j'ai grandi Désormais, j'ai grandi VVS, carat, des gourmettes Ok</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Elh Kmer 24, Opinel 12, 4 fois 4, plaque diplomatique 28 bougies je souffle, j'suis dans la courbe d'après les statistiques On peut s'faire entendre que par la force C'est pas du love si c'est radioactif chimique J'ai la pratique, la théorie les 10 milles heures, donc je l'applique On pouvait s'associer mais t'as pas les plugs J'ai différents montants dans différents logs On pouvait s'associer, mais t'as pas les codes J'aurais fini entre 4 murs, enfermé comme ? En dessous des radars comme sous-marin, spécial coureur de fond comme Eliud Phare éteint comme ?, phare éteint comme ? Au sommet de la tour c'est bestial, rare comme ? Dans la défense comme Paolo Maldini, comme Rio Ferdinand Après le festin faut faire la vaisselle Nouvelle IP, j'vais capter au Tchad T'as 0 buzz donc 0 leaks, après la bombe c'est fantomatique KN-24, légendaire numéro 23 Brouiller les radars en 20k 237 raisons d'finir dans le top 3 Tu vas mourir d'une balle dans la tête Headshot Le pouvoir c'est pas un jeu Comme Compaoré, t'es un traître Au dessus de l'homme, j'ai mon métal et Dieu Fuck ta juridiction J'suis au-d'ssus, plaque diplomatique quand j'drive ? You might also like Dans les abysses, y aura sûrement George Bush Dans une feuille, j'mets différents genres d'kush On est en titu', ils cirent le banc d'touche banc d'touche Concurrence cryogénie Chaque phrase, moi-même j'crie au génie crie au génie Osirus Jack, sur mon cou, rien rien Le Frozen, il sort de mon courrier J'l'attends, j'suis sur l'canapé, j'chill Là si y a une kich' à la clé fils, découpe comme six Anakin J'déambule fons', j'veux le salaire de Haaland ou Jude, 6.6.7, Marathon-jeu science, révise ton karaté jeune Tsar Noir, KGB, dictature comme K.J.U Kim Thomas NKono, Kameni, so tous mes ancêtres tah le Nil Si on élimine, c'est par mille J'fais six tehs, Paris-Lille, killu' jusqu'au Maryland 3 points, swish, Larry Bird, mets trois g d'Cali' pure Haha, 2.3.7, j'ai la mental' Quatre-vingt-dixième minute, j'les vois rater l'immanquable</t>
+          <t>Elh Kmer 24, Opinel 12, 4 fois 4, plaque diplomatique 28 bougies je souffle, j'suis dans la courbe d'après les statistiques On peut s'faire entendre que par la force C'est pas du love si c'est radioactif chimique J'ai la pratique, la théorie les 10 milles heures, donc je l'applique On pouvait s'associer mais t'as pas les plugs J'ai différents montants dans différents logs On pouvait s'associer, mais t'as pas les codes J'aurais fini entre 4 murs, enfermé comme ? En dessous des radars comme sous-marin, spécial coureur de fond comme Eliud Phare éteint comme ?, phare éteint comme ? Au sommet de la tour c'est bestial, rare comme ? Dans la défense comme Paolo Maldini, comme Rio Ferdinand Après le festin faut faire la vaisselle Nouvelle IP, j'vais capter au Tchad T'as 0 buzz donc 0 leaks, après la bombe c'est fantomatique KN-24, légendaire numéro 23 Brouiller les radars en 20k 237 raisons d'finir dans le top 3 Tu vas mourir d'une balle dans la tête Headshot Le pouvoir c'est pas un jeu Comme Compaoré, t'es un traître Au dessus de l'homme, j'ai mon métal et Dieu Fuck ta juridiction J'suis au-d'ssus, plaque diplomatique quand j'drive ? Dans les abysses, y aura sûrement George Bush Dans une feuille, j'mets différents genres d'kush On est en titu', ils cirent le banc d'touche banc d'touche Concurrence cryogénie Chaque phrase, moi-même j'crie au génie crie au génie Osirus Jack, sur mon cou, rien rien Le Frozen, il sort de mon courrier J'l'attends, j'suis sur l'canapé, j'chill Là si y a une kich' à la clé fils, découpe comme six Anakin J'déambule fons', j'veux le salaire de Haaland ou Jude, 6.6.7, Marathon-jeu science, révise ton karaté jeune Tsar Noir, KGB, dictature comme K.J.U Kim Thomas NKono, Kameni, so tous mes ancêtres tah le Nil Si on élimine, c'est par mille J'fais six tehs, Paris-Lille, killu' jusqu'au Maryland 3 points, swish, Larry Bird, mets trois g d'Cali' pure Haha, 2.3.7, j'ai la mental' Quatre-vingt-dixième minute, j'les vois rater l'immanquable</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1564,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>La Vie Est Belle X4 COUPLET 1 J'ai tant donner pour t'avoir près de moi car tu vaut 100 fois plus qu'une silliconé Le coeur à ces raisons que la raison XXX XXX Le mal que j'tai fait bébé m'en veut pas si j'trainais tard dehors c'était pour dealé Enfile ton armure , j'enfile mon pare-balle et Cupidon s'fera enculer XXX XXXX XXXX XXXXX XXXXX XXXXXX XXXX J'ai perdu mon frère il s'appelait Tony Ma money c'est mon ami 1 Millions Cash ne vaut pas sa vie J'suis plus proche d'un mec que d'la terre promise J'dois niquer des mères en toutes gallanteriesYou might also like</t>
+          <t>La Vie Est Belle X4 COUPLET 1 J'ai tant donner pour t'avoir près de moi car tu vaut 100 fois plus qu'une silliconé Le coeur à ces raisons que la raison XXX XXX Le mal que j'tai fait bébé m'en veut pas si j'trainais tard dehors c'était pour dealé Enfile ton armure , j'enfile mon pare-balle et Cupidon s'fera enculer XXX XXXX XXXX XXXXX XXXXX XXXXXX XXXX J'ai perdu mon frère il s'appelait Tony Ma money c'est mon ami 1 Millions Cash ne vaut pas sa vie J'suis plus proche d'un mec que d'la terre promise J'dois niquer des mères en toutes gallanteries</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1581,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fred, what the fuck, bro? Hey, hey Le démon m'appaise Ayo SV, this was still Le putain de démon, le putain de démon Wouh Hey, jfais grossir l'enveloppe Woah Hey J'fais grossir lenveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les , j'suis dans les comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comm un mec de London Hey, hy-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais quune seule parole Mais qu'une seule parole Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui You might also like J'ai passé la douane, renoi Woah La VV t'éblouies, renoi Bling Dieu merci, on manque de rien, mon destin est tracé, renoi Mon destin est tracé Ton boomer a floppé fort Fort On achète tout c'qui coûte cher Cher Tu tagites trop, tu bavardes trop, Opinel te Wah, wah, wah Ça fait, brr, AK rafale, brr, AK, tu connais la musique Sauvé par l'gong, salope, fuck les cops, le 17, j'aime que le brr On fait des dégâts, hey Hey Les vendeurs nous connaissent, hey Woah Mes démons m'obéissent, ton frère m'obéit, ta salope m'obéit fort Hey, hey J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Merci mon destin, merci mon destin Thanks AP, c'est l'heure du festin Bling J'suis dans la gova, les phares sont éteints T'as vu J'la doggy, y a zéros témoins Boom, boom J'maitrise les kata comme Baki j'suis atteint La bagarre Opinel, je refais ton portrait J'ai pas d'grands, moi j'ai pas d'idole, eh J'me suis fais solo dans l'bendo Ça fait vroom AMG 6.3, j'aime bien le bruit, wagwan C'est l'son d'la victoire, mon bébé Bébé Tu sais où on ira cet été Un, dos, tres, quatro Puntos J'entends les gyros, hélico La guardia civile en bateaux La guardia Ça remonte du bled comme les clandos, eh On prend entrée plat et dessert Et l'argent du crime, on sait c'que ça coûte On va générer un max de cash, investir au bled comme Kémi Seba Tou, dou, dou Au dessus d'eux comme un kipa Tout tes renois, fuck une vie d'esclave Palestinien comme d'hab' Woah Palestinien comme d'hab' Woah, d'hab', d'hab', d'hab' J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui1</t>
+          <t>Fred, what the fuck, bro? Hey, hey Le démon m'appaise Ayo SV, this was still Le putain de démon, le putain de démon Wouh Hey, jfais grossir l'enveloppe Woah Hey J'fais grossir lenveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les , j'suis dans les comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comm un mec de London Hey, hy-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais quune seule parole Mais qu'une seule parole Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui J'ai passé la douane, renoi Woah La VV t'éblouies, renoi Bling Dieu merci, on manque de rien, mon destin est tracé, renoi Mon destin est tracé Ton boomer a floppé fort Fort On achète tout c'qui coûte cher Cher Tu tagites trop, tu bavardes trop, Opinel te Wah, wah, wah Ça fait, brr, AK rafale, brr, AK, tu connais la musique Sauvé par l'gong, salope, fuck les cops, le 17, j'aime que le brr On fait des dégâts, hey Hey Les vendeurs nous connaissent, hey Woah Mes démons m'obéissent, ton frère m'obéit, ta salope m'obéit fort Hey, hey J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Merci mon destin, merci mon destin Thanks AP, c'est l'heure du festin Bling J'suis dans la gova, les phares sont éteints T'as vu J'la doggy, y a zéros témoins Boom, boom J'maitrise les kata comme Baki j'suis atteint La bagarre Opinel, je refais ton portrait J'ai pas d'grands, moi j'ai pas d'idole, eh J'me suis fais solo dans l'bendo Ça fait vroom AMG 6.3, j'aime bien le bruit, wagwan C'est l'son d'la victoire, mon bébé Bébé Tu sais où on ira cet été Un, dos, tres, quatro Puntos J'entends les gyros, hélico La guardia civile en bateaux La guardia Ça remonte du bled comme les clandos, eh On prend entrée plat et dessert Et l'argent du crime, on sait c'que ça coûte On va générer un max de cash, investir au bled comme Kémi Seba Tou, dou, dou Au dessus d'eux comme un kipa Tout tes renois, fuck une vie d'esclave Palestinien comme d'hab' Woah Palestinien comme d'hab' Woah, d'hab', d'hab', d'hab' J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1598,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nanji Nanji Hey, woah, hey Grosse vroum, vroum, hey, hey, hey Grosse, grosse, grosse, grosse Grosse folle, grosse 'tasse, grosse liasse T'as pas un dix balles, grosse folle ? T'as pas un dix balles, grosse folle ? Ouh, tas vu, eh Grosse folle, grosse conne, si j'm'arrache de ta vie, t'es raide morte Chien aboie quand la caravane passe, ça débat sur nous, ça rage fort Comme Ace Hood, j'suis une tête cramé, j'suis l'meilleur du gang à ce qu lon dit J'les vois d'un il comme Kakashi-sensei, j'suis KM7, j'suis Rashford Je suis dans la cabine, hey, hey dans la cabine, hey, la cabine, ça s'passe bien Mes démons m'obéissent sept sur sept, le public m'acclame comme à Old Trafford Ma seule faiblesse, c'est ma descendance t'as vu, han, espèce, j'prends les chèques Ouais, espèce, j'prends les chèques, je doogy la prod', j'laisse un héritage Moteur allemand comme d'hab' moteur Sapes italiennes comme d'hab' sapes Des drames et bougies comme d'hab' des drames J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine routine Rouge comme la semelle, comme Munich rouge T'es bonne ni en cuisine, ni au lit sheesh You might also like Cicatrisé, je suis comme Luffy cica' Foule de rappeurs à mon menu foule Entrée, plat, dessert, je suis gourmand hey, hey, hey, hey Encore violent, c'est ta fête, le cour de la street cest comme en Sicile Hat trick, jenchaîne, Lewandowski, F26, j'fais les boutiques Palettes au volant, j'donne la cadence, brr, machine à billets SAS débite, j'ai glow up, ta carte est plafonnée, t'as glow down Grosse pute, grosse tchoin, tu racontes ta vie, on t'écoute pas J'ai pas d'grands, pas d'mentor, personne m'a poussé un kil', nan Mon fils dort, parles moins fort, on impose les taros du marché J'suis instable comme le Dutch Coin, j'suis dans la Tesla comme Elon Musk woah, woah, woah Mon fils dort, parles moins fort, ouais, grosse conne, j'ai brr-brr Tu disparaîtras comme Pop Smoke, mes démons et moi en osmose Brr-brr, seize tales seize, gros cul, grosse conne Jai tous les filons pour l'trois fois filtré t'as vu, fuck Oxford Grosses pièces, grosses liasses, j'suis Mbappé, j'suis Rashford J'arrache tout comme Raptor, YZ, on gué-lar les porcs C'est l'patron qui parle et l'homme s'tait cash, le plein de 95 On niera les faits, même preuves à l'appui preuves à l'appui Hat trick, Lewandowski hey, hey, hey Moteur allemand comme d'hab' Sapes italiennes comme d'hab' Des drames et bougies comme d'hab' J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine Rouge comme la semelle, comme Munich T'es bonne ni en cuisine, ni au lit</t>
+          <t>Nanji Nanji Hey, woah, hey Grosse vroum, vroum, hey, hey, hey Grosse, grosse, grosse, grosse Grosse folle, grosse 'tasse, grosse liasse T'as pas un dix balles, grosse folle ? T'as pas un dix balles, grosse folle ? Ouh, tas vu, eh Grosse folle, grosse conne, si j'm'arrache de ta vie, t'es raide morte Chien aboie quand la caravane passe, ça débat sur nous, ça rage fort Comme Ace Hood, j'suis une tête cramé, j'suis l'meilleur du gang à ce qu lon dit J'les vois d'un il comme Kakashi-sensei, j'suis KM7, j'suis Rashford Je suis dans la cabine, hey, hey dans la cabine, hey, la cabine, ça s'passe bien Mes démons m'obéissent sept sur sept, le public m'acclame comme à Old Trafford Ma seule faiblesse, c'est ma descendance t'as vu, han, espèce, j'prends les chèques Ouais, espèce, j'prends les chèques, je doogy la prod', j'laisse un héritage Moteur allemand comme d'hab' moteur Sapes italiennes comme d'hab' sapes Des drames et bougies comme d'hab' des drames J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine routine Rouge comme la semelle, comme Munich rouge T'es bonne ni en cuisine, ni au lit sheesh Cicatrisé, je suis comme Luffy cica' Foule de rappeurs à mon menu foule Entrée, plat, dessert, je suis gourmand hey, hey, hey, hey Encore violent, c'est ta fête, le cour de la street cest comme en Sicile Hat trick, jenchaîne, Lewandowski, F26, j'fais les boutiques Palettes au volant, j'donne la cadence, brr, machine à billets SAS débite, j'ai glow up, ta carte est plafonnée, t'as glow down Grosse pute, grosse tchoin, tu racontes ta vie, on t'écoute pas J'ai pas d'grands, pas d'mentor, personne m'a poussé un kil', nan Mon fils dort, parles moins fort, on impose les taros du marché J'suis instable comme le Dutch Coin, j'suis dans la Tesla comme Elon Musk woah, woah, woah Mon fils dort, parles moins fort, ouais, grosse conne, j'ai brr-brr Tu disparaîtras comme Pop Smoke, mes démons et moi en osmose Brr-brr, seize tales seize, gros cul, grosse conne Jai tous les filons pour l'trois fois filtré t'as vu, fuck Oxford Grosses pièces, grosses liasses, j'suis Mbappé, j'suis Rashford J'arrache tout comme Raptor, YZ, on gué-lar les porcs C'est l'patron qui parle et l'homme s'tait cash, le plein de 95 On niera les faits, même preuves à l'appui preuves à l'appui Hat trick, Lewandowski hey, hey, hey Moteur allemand comme d'hab' Sapes italiennes comme d'hab' Des drames et bougies comme d'hab' J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine Rouge comme la semelle, comme Munich T'es bonne ni en cuisine, ni au lit</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1615,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ouais ouais C'est Kmer aka Mr So Kmer c'est fait solo Kmer n'a pas d'allié Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel Je suis dans la cabine pas pour RSA Ils racontent nos vies à croire qu'ils aiment ça Quelques kilos dans le RS4 Mon silence fait peur comme le RS6 A côté de la plaque est toute ton équipe On faisait du grammes même étant petit Etant donné qu'on a trop la dalle On prendra de force ce qu'ils nous ont pris gangz Violence verbale devant le procureur Jamais content car jamais d'humeur non On s'invite chez toi peu importe l'heure On t'arrache ta mère devant ta petite soeur Et ta mère la pute ouais, si t'as cassé tu payes Tu khalass, tu payes Ils attendent ma chute qui ?, me voir en échec Maman j'en suis fier j'ai euro dollar dans la boca ouais ouais J'ai visser la frappe de marocco Me barrer d'ici en hélico J'veux J'étais le meilleur du gang, je suis formel ouais En un seul couplet je les ai choqué Ils m'en veulent pourquoi ? Allahou a3lem Le temps nous dira sur qui compter Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut You might also like Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel</t>
+          <t>Ouais ouais C'est Kmer aka Mr So Kmer c'est fait solo Kmer n'a pas d'allié Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel Je suis dans la cabine pas pour RSA Ils racontent nos vies à croire qu'ils aiment ça Quelques kilos dans le RS4 Mon silence fait peur comme le RS6 A côté de la plaque est toute ton équipe On faisait du grammes même étant petit Etant donné qu'on a trop la dalle On prendra de force ce qu'ils nous ont pris gangz Violence verbale devant le procureur Jamais content car jamais d'humeur non On s'invite chez toi peu importe l'heure On t'arrache ta mère devant ta petite soeur Et ta mère la pute ouais, si t'as cassé tu payes Tu khalass, tu payes Ils attendent ma chute qui ?, me voir en échec Maman j'en suis fier j'ai euro dollar dans la boca ouais ouais J'ai visser la frappe de marocco Me barrer d'ici en hélico J'veux J'étais le meilleur du gang, je suis formel ouais En un seul couplet je les ai choqué Ils m'en veulent pourquoi ? Allahou a3lem Le temps nous dira sur qui compter Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1632,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yeah J'ai perdu un frère, pour mon sourire ya Rabbi m'a donné un fils J'compte plus les défaites, les victoires, les coups de crasse m'ont rendu solide Pied au plancher j'accélère toute la nuit pour guer-lar mes soucis J'évacue ma haine sur une tain-p siliconée pas besoin d'un psy Homme de l'ombre fuck tes projecteurs Faisons du biff dan la discrétion Walli walli de toutes la couleurs Sombre négro j'suis pas trop d'humeur A part XXX Vos histoires de rap, crois moi y a bien pire A l'heure où j'te parle ça tire en Syrie Des frères XXX placards, Bois d'Ar ou Mérogis Ce mode de vie nan j'ai pas eu le choix On charbonne dur car faut nourrir la mif Du poids sur le dos comme le Dieu Chronos Chronométrés sur nos actes seront nous bénis Niquez vos mères, vos principes, vos valeurs Pour percer dois-je apprendre à sucer ? Fuck off négro Fuck off, j'suis d'la B.A.S J'préfère mourir en paix Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais You might also like Capuché dans le CLS Sourire moqueur devant CRS Pied au plancher j'ai plus le temps de nahess J'passe les rapports comme un YZ Ien-cli m'appelle gros j'dois m'en aller Fournir sa conso au bout de l'allée Ironie du sors tu te f'ras lever Par ton meilleur client, c'est lui le condé Kalashé, kalashé, kalashé Kalashé, kalashé L'ion indomptable, non j'n'ai qu'très peu d'amour j'ai l'coeur cadenassé Faut charbonné, charbonné, charbonné Charbonné, charbonné Le million d'euros viendra pas devant chez toi faut l'mériter Où sont mes négros Voleurs, dealeurs, braqueurs et tous mes escrocs Numéro 10 a.k.a XXX gros La mala c'est nous laisse ces bouffons jouer les ssiste-gro La mala c'est nous laisse ces bouffons jouer les ssiste-gro Numéro 10 XXX que j't'oublie pas nan Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais</t>
+          <t>Yeah J'ai perdu un frère, pour mon sourire ya Rabbi m'a donné un fils J'compte plus les défaites, les victoires, les coups de crasse m'ont rendu solide Pied au plancher j'accélère toute la nuit pour guer-lar mes soucis J'évacue ma haine sur une tain-p siliconée pas besoin d'un psy Homme de l'ombre fuck tes projecteurs Faisons du biff dan la discrétion Walli walli de toutes la couleurs Sombre négro j'suis pas trop d'humeur A part XXX Vos histoires de rap, crois moi y a bien pire A l'heure où j'te parle ça tire en Syrie Des frères XXX placards, Bois d'Ar ou Mérogis Ce mode de vie nan j'ai pas eu le choix On charbonne dur car faut nourrir la mif Du poids sur le dos comme le Dieu Chronos Chronométrés sur nos actes seront nous bénis Niquez vos mères, vos principes, vos valeurs Pour percer dois-je apprendre à sucer ? Fuck off négro Fuck off, j'suis d'la B.A.S J'préfère mourir en paix Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais Capuché dans le CLS Sourire moqueur devant CRS Pied au plancher j'ai plus le temps de nahess J'passe les rapports comme un YZ Ien-cli m'appelle gros j'dois m'en aller Fournir sa conso au bout de l'allée Ironie du sors tu te f'ras lever Par ton meilleur client, c'est lui le condé Kalashé, kalashé, kalashé Kalashé, kalashé L'ion indomptable, non j'n'ai qu'très peu d'amour j'ai l'coeur cadenassé Faut charbonné, charbonné, charbonné Charbonné, charbonné Le million d'euros viendra pas devant chez toi faut l'mériter Où sont mes négros Voleurs, dealeurs, braqueurs et tous mes escrocs Numéro 10 a.k.a XXX gros La mala c'est nous laisse ces bouffons jouer les ssiste-gro La mala c'est nous laisse ces bouffons jouer les ssiste-gro Numéro 10 XXX que j't'oublie pas nan Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1649,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'ai toutes mes raisons J'ai toutes mes raisons, j'ai pas perdu la tête, nan La conscience tranquille quand j'suis dedans Quand j'suis dedans Hein, hein, hein Veste en cuir comme les Rolling Stones Rockstar, trop caille-ra pour être une icône J'leur mets plus d'dix points au score, c'est pas du loisir, c'est une mise à mort Let's get it Commissariat, on fait les sous 3.5, Qui j'suis pour toi ? elle m'dit là-celle Rajoute du parmesan dans les pates Mmh, lle m'appelle Doctur, j'ai soigné ses plaies Ses bobos La mission, j'la connais, c'est trois fois l'Arcelor, j'suis tellement un haineux que maman m'reconnaît pas Cambelo vite quand papa n'était pas là, j'te montre pas mon cur, il est dans un sale état Vol à l'étalage, j'ai volé à l'étage Hey, j'étale ma pano', c'est beaucoup de détails Ice Avenir en béton, l'évasion sera fiscale, j'ai du nouveau textile qui provient d'Italie T'as vu ? T'as vu ? T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier Pah, pah You might also like Beaucoup de papel, appelle Beaucoup, beaucoup de plata, évite leurs appels Beaucoup La lumière du gamos a fait son effet Vroum, j'ai vue imprenable sur la Tower Eiffel Skyboard En dénivelé, j'fais mes séquences, la fréquence cardiaque n'a pas bougé d'un poil Nos cardios s'mesurent à la taille de la kich', tu contrôles R, je contrôle mes finances Sale con, tu me trouveras pas à la tess, j'fais du golf à Marnes-la-Vallée J'fais des ice 20-22 on resserre l'étau, c'est fissa-fissa, j'suis pas Mère Thérèsa Ah bon ? J'vais m'raser le crâne, pas d'ADN, aller-retour, port de Rotterdam J'ai trop d'amis en CD, j'suis vêtu de CD, quitter l'bendo en vendant des CD T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier C'est pas un boulot</t>
+          <t>J'ai toutes mes raisons J'ai toutes mes raisons, j'ai pas perdu la tête, nan La conscience tranquille quand j'suis dedans Quand j'suis dedans Hein, hein, hein Veste en cuir comme les Rolling Stones Rockstar, trop caille-ra pour être une icône J'leur mets plus d'dix points au score, c'est pas du loisir, c'est une mise à mort Let's get it Commissariat, on fait les sous 3.5, Qui j'suis pour toi ? elle m'dit là-celle Rajoute du parmesan dans les pates Mmh, lle m'appelle Doctur, j'ai soigné ses plaies Ses bobos La mission, j'la connais, c'est trois fois l'Arcelor, j'suis tellement un haineux que maman m'reconnaît pas Cambelo vite quand papa n'était pas là, j'te montre pas mon cur, il est dans un sale état Vol à l'étalage, j'ai volé à l'étage Hey, j'étale ma pano', c'est beaucoup de détails Ice Avenir en béton, l'évasion sera fiscale, j'ai du nouveau textile qui provient d'Italie T'as vu ? T'as vu ? T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier Pah, pah Beaucoup de papel, appelle Beaucoup, beaucoup de plata, évite leurs appels Beaucoup La lumière du gamos a fait son effet Vroum, j'ai vue imprenable sur la Tower Eiffel Skyboard En dénivelé, j'fais mes séquences, la fréquence cardiaque n'a pas bougé d'un poil Nos cardios s'mesurent à la taille de la kich', tu contrôles R, je contrôle mes finances Sale con, tu me trouveras pas à la tess, j'fais du golf à Marnes-la-Vallée J'fais des ice 20-22 on resserre l'étau, c'est fissa-fissa, j'suis pas Mère Thérèsa Ah bon ? J'vais m'raser le crâne, pas d'ADN, aller-retour, port de Rotterdam J'ai trop d'amis en CD, j'suis vêtu de CD, quitter l'bendo en vendant des CD T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier C'est pas un boulot</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1666,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Où tu veux, quand tu veux, quand tu veux, on l'fait Almess, c'est incroyable La douleur du bitume, la douleur La douleur du bitume, la douleur Eh La douleur du bitume, la douleur La douleur, la résine, j'm'en rappelle de l'odeur J'm'en rappelle Le préau, les boloss, les euros Les boloss, le préau, les boloss, les euros Les euros La douleur de maman, j'ai banni J'ai banni, le parlu, les appels, les perquises La police J'ai failli leur donner de l'amour J'ai failli, ces bâtards ne méritent que méprise Sur l'devant de la scène comme Johnny Comme Koffi, on manquait de tout étant minot Étant gamin Les lumières qui scintillent sur Bériz Sur Paname, j'ai plus la boule au ventre devant les gyros J'ai plus la même routine désormais Désormais, on éduque nos gamins, nos palais On éduque Le daron a fait ce qu'il voulait, la daronne a fait ce qu'elle pouvait J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue You might also like À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis Où tu veux, où tu veux, quand tu veux on l'fait Nouvelle victoire, nouvelle célébration, pour nous voir, ils vont à l'affectif Eh L'inspecteur connaît bien mon nom d'famille Eh, t'es à la traîne si tu crois nous avoir Pouvoir d'achat élevé, j'ai la kich' Ouais, ouais, tête de réseau et bientôt, tête d'affiche Ouais, ouais Entouré de gens mauvais et des gens biens Mauvais, j'fais même plus la queue dans les magasins Ça a bien failli nous tuer, bien failli, le ghetto a rempli les corbillards Aucun réseau ne fût infaillible, aucune étoile ne brille toute la nuit AK-47, bobo Bobo, baby mama s'inquiète Han Je surveille ma ligne, j'suis à la diète J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits Où tu veux, où tu veux, quand tu veux on l'fait À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis, on a fait du mal donc on est maudits Où tu veux, quand tu veux, quand tu veux, on l'fait</t>
+          <t>Où tu veux, quand tu veux, quand tu veux, on l'fait Almess, c'est incroyable La douleur du bitume, la douleur La douleur du bitume, la douleur Eh La douleur du bitume, la douleur La douleur, la résine, j'm'en rappelle de l'odeur J'm'en rappelle Le préau, les boloss, les euros Les boloss, le préau, les boloss, les euros Les euros La douleur de maman, j'ai banni J'ai banni, le parlu, les appels, les perquises La police J'ai failli leur donner de l'amour J'ai failli, ces bâtards ne méritent que méprise Sur l'devant de la scène comme Johnny Comme Koffi, on manquait de tout étant minot Étant gamin Les lumières qui scintillent sur Bériz Sur Paname, j'ai plus la boule au ventre devant les gyros J'ai plus la même routine désormais Désormais, on éduque nos gamins, nos palais On éduque Le daron a fait ce qu'il voulait, la daronne a fait ce qu'elle pouvait J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis Où tu veux, où tu veux, quand tu veux on l'fait Nouvelle victoire, nouvelle célébration, pour nous voir, ils vont à l'affectif Eh L'inspecteur connaît bien mon nom d'famille Eh, t'es à la traîne si tu crois nous avoir Pouvoir d'achat élevé, j'ai la kich' Ouais, ouais, tête de réseau et bientôt, tête d'affiche Ouais, ouais Entouré de gens mauvais et des gens biens Mauvais, j'fais même plus la queue dans les magasins Ça a bien failli nous tuer, bien failli, le ghetto a rempli les corbillards Aucun réseau ne fût infaillible, aucune étoile ne brille toute la nuit AK-47, bobo Bobo, baby mama s'inquiète Han Je surveille ma ligne, j'suis à la diète J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits Où tu veux, où tu veux, quand tu veux on l'fait À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis, on a fait du mal donc on est maudits Où tu veux, quand tu veux, quand tu veux, on l'fait</t>
         </is>
       </c>
     </row>
@@ -1685,11 +1681,7 @@
           <t>Mauvaise Idée</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1702,11 +1694,7 @@
           <t>Mea Culpa</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1721,7 +1709,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ah oui el Mundo fais pas comme eux sois pas comme eux la vie Apprends à rapper dans les temps, quatre saisons, quatre saisons, tas vu Eh en noir et blanc jai vu ma vie, en noir et blanc jai créé un fils En noir et blanc des films et récits et peut être quun beau jour on s'arrêtera la nuit Tout ce qui naît finit par mourir tout ce qui est sain finit par pourrir Un matin dhiver jai créé léclipse mes ambitions nuisent à mes ennemis Et quand le ciel gronde gros ranges ton parapluie ranges ton parapluie souvnt je discute avec Bill Qu Dieu bénisse les miens que Dieu bénisse mon avenir Quand je veux je les éteins quand je veux je reste en double file Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais You might also likeCest vrai quon sen remet à Dieu et au armes qui font du bruit Univers parallèle les opposés sattirent à ce que lon dit Que deviendront nos fils, jen sais rien mais sûrement pas comme eux Que deviendront nos fils, meilleurs queux cest sûr Je dois noyer ma peine noyer ma peine incinérer mes peurs incinérer mes peurs Je devrais vendre des grammes, enrichir les miens nest ce pas lessentiel Ma question est pourquoi pourquoi le ciel ne répond pas, la monnaie, le pouvoir, pourquoi le ciel ne réponds pas Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais</t>
+          <t>Ah oui el Mundo fais pas comme eux sois pas comme eux la vie Apprends à rapper dans les temps, quatre saisons, quatre saisons, tas vu Eh en noir et blanc jai vu ma vie, en noir et blanc jai créé un fils En noir et blanc des films et récits et peut être quun beau jour on s'arrêtera la nuit Tout ce qui naît finit par mourir tout ce qui est sain finit par pourrir Un matin dhiver jai créé léclipse mes ambitions nuisent à mes ennemis Et quand le ciel gronde gros ranges ton parapluie ranges ton parapluie souvnt je discute avec Bill Qu Dieu bénisse les miens que Dieu bénisse mon avenir Quand je veux je les éteins quand je veux je reste en double file Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais Cest vrai quon sen remet à Dieu et au armes qui font du bruit Univers parallèle les opposés sattirent à ce que lon dit Que deviendront nos fils, jen sais rien mais sûrement pas comme eux Que deviendront nos fils, meilleurs queux cest sûr Je dois noyer ma peine noyer ma peine incinérer mes peurs incinérer mes peurs Je devrais vendre des grammes, enrichir les miens nest ce pas lessentiel Ma question est pourquoi pourquoi le ciel ne répond pas, la monnaie, le pouvoir, pourquoi le ciel ne réponds pas Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1726,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Miami Ouais, mon ami Ehj Négro, j'fais une guerre que si j'suis rentable Faut rentabiliser le gilet pare-balles Cette vie d'merde l'a-t-on mérité ? Non À qui la faute ? Sûrement pas aux rents-pa À qui la faute si mineur j'étais broliqué ? À qui la faute si j'préfère voler plutôt qu'étudier ? À qui la faute si jeune nègre n'a pas d'quoi manger ? J'ai pas d'réponse et dans les rues, on finira tous kalashés J'regarde mon s-fil, j'envie son innocence Fils dors, ne regarde pas ce monde de lâche Fils dors, vois surtout pas ton père en larmes Car la paix se trouve dans bain de sang Anarchiste comme Arsène Lupin Moi, aussi j'veux ma part du gain Cette année, j'veux en faire plus d'un Je vise pas la relégation mais la montée en Ligue 1 Fatigué d'réver, négro, j'suis HS, HS, HS J'regrette pas le 40K mais SD, HS, HS H24 dans le mal, les démons font du charme à mes anges H24 dans le block, ma folie prend mon cur en otage You might also like Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos, nan Quel virage quel virage J'veux pas de cette vie, j'veux une villa j'veux une villa Elvira C'est triste, on tire, pour des pesos pour des pesos Miracle miracle Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos Quel miracle quel miracle</t>
+          <t>Miami Ouais, mon ami Ehj Négro, j'fais une guerre que si j'suis rentable Faut rentabiliser le gilet pare-balles Cette vie d'merde l'a-t-on mérité ? Non À qui la faute ? Sûrement pas aux rents-pa À qui la faute si mineur j'étais broliqué ? À qui la faute si j'préfère voler plutôt qu'étudier ? À qui la faute si jeune nègre n'a pas d'quoi manger ? J'ai pas d'réponse et dans les rues, on finira tous kalashés J'regarde mon s-fil, j'envie son innocence Fils dors, ne regarde pas ce monde de lâche Fils dors, vois surtout pas ton père en larmes Car la paix se trouve dans bain de sang Anarchiste comme Arsène Lupin Moi, aussi j'veux ma part du gain Cette année, j'veux en faire plus d'un Je vise pas la relégation mais la montée en Ligue 1 Fatigué d'réver, négro, j'suis HS, HS, HS J'regrette pas le 40K mais SD, HS, HS H24 dans le mal, les démons font du charme à mes anges H24 dans le block, ma folie prend mon cur en otage Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos, nan Quel virage quel virage J'veux pas de cette vie, j'veux une villa j'veux une villa Elvira C'est triste, on tire, pour des pesos pour des pesos Miracle miracle Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos Quel miracle quel miracle</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1743,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Au moi d'avant je dirai plein de choses Plein de choses Yo Au moi d'avant je dirai fais attention Is that Traplysse Hein Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses 1, 2, 1, 1, 1, 9, 9, 5 Je viens au mond grâce à dieu et grâc à M.O.M mom Moins de peine dans le regard de ceux qu'j'aime, 50m c'est le prix à payer, fuck fuck Terre battue comme à Roland Garros, ruelle très étroite, j'ai grandis comme à Caracas hum Faut pas titiller mon côté sombre nan Marché de Mokolo, j'ai failli canner avec Saliou hum Gros câlin au doudou, le vendredi le outfit c'était un boubou La lumière s'éteint, les bougies s'allumaient, sûr de moi, j'étais fan du Barca, j'étais fan de Eto'o Samuel You might also like Regarde bien au loin, si l'image est floue c'est que la chaleur est au maximum Sois pas comme toi, , je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses Ils ont menti, ils ont rien dit de bien vrai ohh Pour nous faire croire que la fin est belle heinn J'ai semé un peu de ma haine en chemin hey Un fleuve tranquille qui est détruit par des humains ohh J'ai pris les armes, j'ai fait le tour de l'Atlas j'ai fait le tour J'suis pas mauvais, je suis à leur image c'est vrai Ils chantent des comptines aux enfants qui meurent Ils chantent des comptines aux enfants qui meurent Trouves-tu les réponses à tes M.A.U.X Faut vérifier, ce qu'ils ont dit m'a l'air F.A.U.X ouh Ces fils de lâches n'ont rien de nous nous Sombres sentiments, j'fais primer l'histoire à la rime fort, shadow Regarde bien au loin regarde, si l'image est floue c'est que la chaleur est au maximum mhff Sois pas comme toi, ?, je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses1</t>
+          <t>Au moi d'avant je dirai plein de choses Plein de choses Yo Au moi d'avant je dirai fais attention Is that Traplysse Hein Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses 1, 2, 1, 1, 1, 9, 9, 5 Je viens au mond grâce à dieu et grâc à M.O.M mom Moins de peine dans le regard de ceux qu'j'aime, 50m c'est le prix à payer, fuck fuck Terre battue comme à Roland Garros, ruelle très étroite, j'ai grandis comme à Caracas hum Faut pas titiller mon côté sombre nan Marché de Mokolo, j'ai failli canner avec Saliou hum Gros câlin au doudou, le vendredi le outfit c'était un boubou La lumière s'éteint, les bougies s'allumaient, sûr de moi, j'étais fan du Barca, j'étais fan de Eto'o Samuel Regarde bien au loin, si l'image est floue c'est que la chaleur est au maximum Sois pas comme toi, , je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses Ils ont menti, ils ont rien dit de bien vrai ohh Pour nous faire croire que la fin est belle heinn J'ai semé un peu de ma haine en chemin hey Un fleuve tranquille qui est détruit par des humains ohh J'ai pris les armes, j'ai fait le tour de l'Atlas j'ai fait le tour J'suis pas mauvais, je suis à leur image c'est vrai Ils chantent des comptines aux enfants qui meurent Ils chantent des comptines aux enfants qui meurent Trouves-tu les réponses à tes M.A.U.X Faut vérifier, ce qu'ils ont dit m'a l'air F.A.U.X ouh Ces fils de lâches n'ont rien de nous nous Sombres sentiments, j'fais primer l'histoire à la rime fort, shadow Regarde bien au loin regarde, si l'image est floue c'est que la chaleur est au maximum mhff Sois pas comme toi, ?, je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1760,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Enfant d'la calle J'ai perdu mes cahiers Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Le tir est précis J'arrondis les fin d'mois Adepte de gros bolides J'voulais faire comme Schumacher Ne dis rien à maman, faut protéger son p'tit cur Le vent, il tourne, en bas les 4 saisons, j'ai vu la mort plus d'une fois S'il fallait le refaire j'le referais T'es parti prendre toutes tes affaires T'as vu la ice t'as regretté Au soleil levant je chante la vie J'me remémore le temps passé You might also like Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école T'étais ou ? J'avais pas 1 mais 2-3 ennemis L'obscurité on s'y fait, j'ai les yeux dans l'vide La ce-for du daron on l'a Tu peux tirer, y'a les blindages La boule au ventre j'fais des AR dans l'tieks tout l'temps Dans mon viseur y'a 2-3 traitres, dans mon viseur J'suis comme Freezer car pour m'abattre ils sont plusieurs Je ravive pas la flamme mon reuf, je pisse dessus Et pour nous voir 6 pieds sous terre, faudra y aller Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école</t>
+          <t>Enfant d'la calle J'ai perdu mes cahiers Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Le tir est précis J'arrondis les fin d'mois Adepte de gros bolides J'voulais faire comme Schumacher Ne dis rien à maman, faut protéger son p'tit cur Le vent, il tourne, en bas les 4 saisons, j'ai vu la mort plus d'une fois S'il fallait le refaire j'le referais T'es parti prendre toutes tes affaires T'as vu la ice t'as regretté Au soleil levant je chante la vie J'me remémore le temps passé Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école T'étais ou ? J'avais pas 1 mais 2-3 ennemis L'obscurité on s'y fait, j'ai les yeux dans l'vide La ce-for du daron on l'a Tu peux tirer, y'a les blindages La boule au ventre j'fais des AR dans l'tieks tout l'temps Dans mon viseur y'a 2-3 traitres, dans mon viseur J'suis comme Freezer car pour m'abattre ils sont plusieurs Je ravive pas la flamme mon reuf, je pisse dessus Et pour nous voir 6 pieds sous terre, faudra y aller Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1777,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wesh Heavy Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Trop d'plaisirs Y a plus rien de marrant, j'suis solo dans la fusée Sur l'capot, c'est un hippodrome, pour payer, faut des lauriers, han La concurrence, c'est zéro, au lit, elle fait des folies, elle s'confie comme si j'suis l'curé, han Curé Le partenaire déferré, ma parole vaut de l'or, longtemps qu'j'suis dans mauvais virage Longtemps Trois quart, on aura qu'trois tiers du bâtiment, a fini dans le bâtiment, yeah Sntiments, ils nous auront plus par les sentimnts J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp You might also like Ouh, ouh, j'ai mal, j'ai pas simulé, mes ennemis demandent la VAR Ouh, ouh, j'ai mal Et mon côté animal a pris le dessus sur moi, miroir d'illusions Ouh, ouh Où tu veux, on ira, j'ai des amis aux quatre coins, on s'en va à L.A On s'en va à L.A À Bériz, trop de pollution À L.A, pas bon pour la peau, bébé, on doit s'en aller Des res-frè ont cantiné, trop d'haine, on sait pas aimer, on est trix-ma On est matrixé Cur en miettes, effrité, ils ont fumé tout c'qui restait de ma naïveté Bébé, ils ont fumé Sentiments, ils nous auront plus par les sentiments J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Trop d'blessures qu'on t'raconte pas parce que t'es un fils de Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp</t>
+          <t>Wesh Heavy Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Trop d'plaisirs Y a plus rien de marrant, j'suis solo dans la fusée Sur l'capot, c'est un hippodrome, pour payer, faut des lauriers, han La concurrence, c'est zéro, au lit, elle fait des folies, elle s'confie comme si j'suis l'curé, han Curé Le partenaire déferré, ma parole vaut de l'or, longtemps qu'j'suis dans mauvais virage Longtemps Trois quart, on aura qu'trois tiers du bâtiment, a fini dans le bâtiment, yeah Sntiments, ils nous auront plus par les sentimnts J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Ouh, ouh, j'ai mal, j'ai pas simulé, mes ennemis demandent la VAR Ouh, ouh, j'ai mal Et mon côté animal a pris le dessus sur moi, miroir d'illusions Ouh, ouh Où tu veux, on ira, j'ai des amis aux quatre coins, on s'en va à L.A On s'en va à L.A À Bériz, trop de pollution À L.A, pas bon pour la peau, bébé, on doit s'en aller Des res-frè ont cantiné, trop d'haine, on sait pas aimer, on est trix-ma On est matrixé Cur en miettes, effrité, ils ont fumé tout c'qui restait de ma naïveté Bébé, ils ont fumé Sentiments, ils nous auront plus par les sentiments J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Trop d'blessures qu'on t'raconte pas parce que t'es un fils de Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1794,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LaSource on beat Nouvelle map Yo, is that Traplysse ? Hey, perdu comme une balle, Hey, j'me suis retrouvé à faire le con Maman trouvait que je rentrais tard Tragique était ma story, t'as vu mon cur abimé, t'as rien fait T'as rien fait Nan, t'as vu mon cur abimé, t'as rien fait Hey, j'aurais voulu te donner tant de choses J'aurais voulu te donner Han, j'aurais aimé t'offrir une autre map C'est pas du cinéma, les choix ici sont restreints Les balles sont réelles, ils ont longé le plus gros, ils nous ont laissé leurs rests Han J'dois changer de décor, ell, elle trouve ça exotique Elle trouve ça marrant T'as changé de visage, c'est l'dernier virage de ma vie Dernière story T'as changé de map, tous les jours en vie, tous les jours on meurt Tous les jours, tous les jours, tous les jours, tous les jours Han, han Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place Han, y'a sûrement une place là-bas pour m'accueillir Oh Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place là-bas pour m'accueillir You might also like On veut plus la perdre, on veut gagner la finale On veut gagner la finale On aurait du naître tout près d'une île ouh, Tout près d'une île Un nouveau moteur, nouvelle virée Nouvelle virée Faut une nouvelle map, faut une nouvelle map aah, ah Une nouvelle map Comme les Rolling Stones comme les Rolling Comme les ouais Elle m'a mis sur un piédestal Elle m'a mis sur un pédestal C'est la haine qui prend le d'ssus C'est la haine qui prend le d'ssus Elle me dit Pourquoi t'es noir ? Pourquoi quand j' Ma voix, j'ai rien d'autre à offrir Nada C'est noir, c'est noir Oh oooh Pourquoi ils nous voient comme on était pas ? Ils nous voyaient comme on était pas Pourquoi ils nous toisaient ? Haan Un pare-balles, il faut un pare-balles Yeah Mon papa sera fier de moi Yeah Regarde-moi tout près des étoiles Yeah Enterre-moi tout près des étoiles Yeah Y'a sûrement une place là-bas pour m'accueillir Sûrement une place là-bas pour m'accueillir Han, y'a sûrement une place là-bas pour m'accueillir Un pare-balles, il faut un pare-balles Ouuh Mon papa sera fier de moi Naan Regarde-moi tout près des étoiles Ok Enterre-moi tout près des étoiles Aah ah Y'a sûrement une place là-bas pour m'accueillir Non, non Y'a sûrement une place là-bas pour m'accueillir Faut une nouvelle map</t>
+          <t>LaSource on beat Nouvelle map Yo, is that Traplysse ? Hey, perdu comme une balle, Hey, j'me suis retrouvé à faire le con Maman trouvait que je rentrais tard Tragique était ma story, t'as vu mon cur abimé, t'as rien fait T'as rien fait Nan, t'as vu mon cur abimé, t'as rien fait Hey, j'aurais voulu te donner tant de choses J'aurais voulu te donner Han, j'aurais aimé t'offrir une autre map C'est pas du cinéma, les choix ici sont restreints Les balles sont réelles, ils ont longé le plus gros, ils nous ont laissé leurs rests Han J'dois changer de décor, ell, elle trouve ça exotique Elle trouve ça marrant T'as changé de visage, c'est l'dernier virage de ma vie Dernière story T'as changé de map, tous les jours en vie, tous les jours on meurt Tous les jours, tous les jours, tous les jours, tous les jours Han, han Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place Han, y'a sûrement une place là-bas pour m'accueillir Oh Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place là-bas pour m'accueillir On veut plus la perdre, on veut gagner la finale On veut gagner la finale On aurait du naître tout près d'une île ouh, Tout près d'une île Un nouveau moteur, nouvelle virée Nouvelle virée Faut une nouvelle map, faut une nouvelle map aah, ah Une nouvelle map Comme les Rolling Stones comme les Rolling Comme les ouais Elle m'a mis sur un piédestal Elle m'a mis sur un pédestal C'est la haine qui prend le d'ssus C'est la haine qui prend le d'ssus Elle me dit Pourquoi t'es noir ? Pourquoi quand j' Ma voix, j'ai rien d'autre à offrir Nada C'est noir, c'est noir Oh oooh Pourquoi ils nous voient comme on était pas ? Ils nous voyaient comme on était pas Pourquoi ils nous toisaient ? Haan Un pare-balles, il faut un pare-balles Yeah Mon papa sera fier de moi Yeah Regarde-moi tout près des étoiles Yeah Enterre-moi tout près des étoiles Yeah Y'a sûrement une place là-bas pour m'accueillir Sûrement une place là-bas pour m'accueillir Han, y'a sûrement une place là-bas pour m'accueillir Un pare-balles, il faut un pare-balles Ouuh Mon papa sera fier de moi Naan Regarde-moi tout près des étoiles Ok Enterre-moi tout près des étoiles Aah ah Y'a sûrement une place là-bas pour m'accueillir Non, non Y'a sûrement une place là-bas pour m'accueillir Faut une nouvelle map</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1811,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>On fait couler le sang, hey Bitume, AMG fait couler le sang vrouum Tout le temps on est au front, on verra peut être pas comment grandissent nos mioches jamais C'est pas un essai, si on le fait plus d'une fois c'est pas du hasard Zone 51 c'est pas un mythe, j'ai crashé la soucoupe dans le Nevada T'as l'air con, quand tu fais tout de bon cur t'as l'air con Tout le temps j'suis en weekend, tous les jours de la semaine on dirait que je fais le pont hey hey La rythmique est sal gros, j'aperçois la crête au large Ils ont voulu mangr sans nous On a ouvert des cuisines, désormais ils mangent chez nous ouh Sportback mais j'ai mal au fond OG On prend de l'âge, j'emmène la daronne en croisière la madre Sauvage, elle reveille mon instinct primaire ehhhr AMG Brabus, Sosa Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan You might also like Hey Faut plus de chevaux fiscaux plus Plus de billets de cinq cents plus Pour mieux passer les portiques Tacchini et Tesla Tacchi Son petit cur est cassé bobo Je sais comment le soigner Frisons à la frontière hey En répandant le partage cash Itinéraire est tracé, visière est floutée let go Pas de commanditaire, j'suis mon propre shooter Ils ont menti aux gosses sur la valeur des choses Je dois marquer mon temps comme Federer Fati Funéraire marche on se remémora toutes nos promesses données dans le RER C Y'a fort longtemps qu'on a fédéré hein On lâche pas le steak comme les fédéraux jamais Comme Fidel Castro tu nous verra pas venir Relis bien toutes les mentions légales tout tout Igo C'est chaud dans la ville, il nous faut des parts dans différents domaines c'est chaud dans la ville J'vais ouvrir un commerce au nom de Moussa hein C'est plus tellement les même choses qui m'animent On s'est émancipés, j'le dis pas pour la rime J'ai un grand répertoire Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Tout au long de ma story J'ai perdu un peu de moi A l'intérieur du nuage Tout à l'air un peu flou Si je voulais voir, j'aurai vu Le parchemin pour m'y rendre Si j'connaissais l'épilogue Je n'aurais pas fait en mieux1</t>
+          <t>On fait couler le sang, hey Bitume, AMG fait couler le sang vrouum Tout le temps on est au front, on verra peut être pas comment grandissent nos mioches jamais C'est pas un essai, si on le fait plus d'une fois c'est pas du hasard Zone 51 c'est pas un mythe, j'ai crashé la soucoupe dans le Nevada T'as l'air con, quand tu fais tout de bon cur t'as l'air con Tout le temps j'suis en weekend, tous les jours de la semaine on dirait que je fais le pont hey hey La rythmique est sal gros, j'aperçois la crête au large Ils ont voulu mangr sans nous On a ouvert des cuisines, désormais ils mangent chez nous ouh Sportback mais j'ai mal au fond OG On prend de l'âge, j'emmène la daronne en croisière la madre Sauvage, elle reveille mon instinct primaire ehhhr AMG Brabus, Sosa Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Hey Faut plus de chevaux fiscaux plus Plus de billets de cinq cents plus Pour mieux passer les portiques Tacchini et Tesla Tacchi Son petit cur est cassé bobo Je sais comment le soigner Frisons à la frontière hey En répandant le partage cash Itinéraire est tracé, visière est floutée let go Pas de commanditaire, j'suis mon propre shooter Ils ont menti aux gosses sur la valeur des choses Je dois marquer mon temps comme Federer Fati Funéraire marche on se remémora toutes nos promesses données dans le RER C Y'a fort longtemps qu'on a fédéré hein On lâche pas le steak comme les fédéraux jamais Comme Fidel Castro tu nous verra pas venir Relis bien toutes les mentions légales tout tout Igo C'est chaud dans la ville, il nous faut des parts dans différents domaines c'est chaud dans la ville J'vais ouvrir un commerce au nom de Moussa hein C'est plus tellement les même choses qui m'animent On s'est émancipés, j'le dis pas pour la rime J'ai un grand répertoire Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Tout au long de ma story J'ai perdu un peu de moi A l'intérieur du nuage Tout à l'air un peu flou Si je voulais voir, j'aurai vu Le parchemin pour m'y rendre Si j'connaissais l'épilogue Je n'aurais pas fait en mieux1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1828,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Damn Ney, your keys are fire Nakah Nakah Hey Trop attendu la pénombre T'as vu Hey L'amour du risque a fait de nous des faux, j'compte pas m'arrêter d'chasser Jamais J'ai la vue sur un semblant de vie sur la côte, j'compte pas m'arrêter d'chanter Jamais C'est la loi du talion qui prônera d'abord si jamais y a désaccord Poh, poh, poh Revolver, pas de conflit d'intérêt, on trouve un accord, y a intérêt, hein Quatre sorties, minimum quatre sorties, tu rêves du million mais c'est si peu C'est pas beaucoup On s'voyait footeux, pas en D2, j'aperçois full up de traîtres sur le K2 Poh, poh, poh Agités, les p'tits font la une du JT, mineur, j'avais mon GTI Nion CDI, c'est la mort lente assurée, j'récup' une massa a Suresnes T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête You might also like Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Hey, parabellum, j'ai la côte, je discute plus, je vise la glotte Hey, hey Infrarouge, j'ai toutes les visions, j'recompte la somme, j'ai un toc, fuck Bicrave à perte, c'est une perte de temps, j'suis avec dans un tank Hein J'suis bloqué tout près d'la ville du roi, j'ai chassé pour décompresser, hey Relis le contrat, fais pas le con Hey, instinct de survie, je sors le schlass Convivium, j'y suis avec des convives Mmh, j'm'y habitue bien au chant des mouettes J'me fie à mon instinct et au métal, elle refait pas l'monde, elle refait sa plastique Eh-eh-eh Revoie tes propriétés, j'gagne du temps, j'pense qu'à écrire, Haïti T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Ouverture papillon Ouverture Ma limite n'est pas le ciel N'est pas le ciel Je n'cherche pas ma Cendrillon Je n'cherche pas Juste money chaque fin du mois Ouais</t>
+          <t>Damn Ney, your keys are fire Nakah Nakah Hey Trop attendu la pénombre T'as vu Hey L'amour du risque a fait de nous des faux, j'compte pas m'arrêter d'chasser Jamais J'ai la vue sur un semblant de vie sur la côte, j'compte pas m'arrêter d'chanter Jamais C'est la loi du talion qui prônera d'abord si jamais y a désaccord Poh, poh, poh Revolver, pas de conflit d'intérêt, on trouve un accord, y a intérêt, hein Quatre sorties, minimum quatre sorties, tu rêves du million mais c'est si peu C'est pas beaucoup On s'voyait footeux, pas en D2, j'aperçois full up de traîtres sur le K2 Poh, poh, poh Agités, les p'tits font la une du JT, mineur, j'avais mon GTI Nion CDI, c'est la mort lente assurée, j'récup' une massa a Suresnes T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Hey, parabellum, j'ai la côte, je discute plus, je vise la glotte Hey, hey Infrarouge, j'ai toutes les visions, j'recompte la somme, j'ai un toc, fuck Bicrave à perte, c'est une perte de temps, j'suis avec dans un tank Hein J'suis bloqué tout près d'la ville du roi, j'ai chassé pour décompresser, hey Relis le contrat, fais pas le con Hey, instinct de survie, je sors le schlass Convivium, j'y suis avec des convives Mmh, j'm'y habitue bien au chant des mouettes J'me fie à mon instinct et au métal, elle refait pas l'monde, elle refait sa plastique Eh-eh-eh Revoie tes propriétés, j'gagne du temps, j'pense qu'à écrire, Haïti T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Ouverture papillon Ouverture Ma limite n'est pas le ciel N'est pas le ciel Je n'cherche pas ma Cendrillon Je n'cherche pas Juste money chaque fin du mois Ouais</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1845,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Le rap français, j'vais lui niquer Sa mère la pute jusqu'à ses ancêtres J'ai fais du biff, de toutes les couleurs Violet, vert bref j'en suis pas fier En réalité, la vie est une course Dès la naissance gros c'est l'top départ J'suis dans la rue, et c'est pour de vrai Après mon seize j'retourne à mes ffaire-sa Eh ferme ta gueule, les petits ont grandi Casque Araï direct ça défouraille En tête de réseau c'est la vida loca Normal c'bâtard ne crie pas akha Ma mère a souffert, tellement souffert Dix-sept piges à nettoyer leurs chiottes Elle s'est cassé le dos pour ces fils de porc Il m'faut la clé du succès sinon je casse les portes Gros j'fais des cauchemars eh j'fais des cauchemars J'en dors plus la nuit je leur souhaite le pire Une mort très lente ouais une mort très lente Décapiter leurs membres les envoyer à leurs fils Frérot j'ai trop la flemme pour un mea culpa Tout les jours de la semaine c'est un mardi gras Je répondrai d'mes actes au jugement dernier Et en attendant j'vous baise sur des mélodies grasses So! You might also like On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main Rendez-vous au trente six avenue de la Paix J'aurais AK47 comme seul traducteur Pourquoi t'as peur dis moi pourquoi t'as peur Ce ne sont que des balles voyons rien de méchant Rien de sincère si c'n'est l'amour d'ma mère Personne de sincère à part ya Rabi Rien de sincère si c'n'est l'amour d'mon fils Donc s'teuplait parle moi d'ton hypocrisie J'dois remplir la malette Trois points j'suis MVP Jeune nègre veut s'émanciper Veut voir l'monde jusqu'au Mississippi Les traquenards sont multiples frérot choisis ton camp Y'a ceux qui font la manche y'a ceux qui mettent les gants Y'a ceux qui feront tout pour être en maison de disques y'a ceux qui niquent des daronnes en indépendant Frérot j'veux la villa d'Sosa, caresser la copa On mérite même la hola, parcours mémorable La vie sans finesses à l'Etat français Me barrer en Air France, première classe business J'ai vu la mort plus rien n'm'effraie, j'suis en gardav' je nie les faits J'ai vu la mort plus rien n'm'effraie nan j'suis en gardav' je nie les faits On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main</t>
+          <t>Le rap français, j'vais lui niquer Sa mère la pute jusqu'à ses ancêtres J'ai fais du biff, de toutes les couleurs Violet, vert bref j'en suis pas fier En réalité, la vie est une course Dès la naissance gros c'est l'top départ J'suis dans la rue, et c'est pour de vrai Après mon seize j'retourne à mes ffaire-sa Eh ferme ta gueule, les petits ont grandi Casque Araï direct ça défouraille En tête de réseau c'est la vida loca Normal c'bâtard ne crie pas akha Ma mère a souffert, tellement souffert Dix-sept piges à nettoyer leurs chiottes Elle s'est cassé le dos pour ces fils de porc Il m'faut la clé du succès sinon je casse les portes Gros j'fais des cauchemars eh j'fais des cauchemars J'en dors plus la nuit je leur souhaite le pire Une mort très lente ouais une mort très lente Décapiter leurs membres les envoyer à leurs fils Frérot j'ai trop la flemme pour un mea culpa Tout les jours de la semaine c'est un mardi gras Je répondrai d'mes actes au jugement dernier Et en attendant j'vous baise sur des mélodies grasses So! On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main Rendez-vous au trente six avenue de la Paix J'aurais AK47 comme seul traducteur Pourquoi t'as peur dis moi pourquoi t'as peur Ce ne sont que des balles voyons rien de méchant Rien de sincère si c'n'est l'amour d'ma mère Personne de sincère à part ya Rabi Rien de sincère si c'n'est l'amour d'mon fils Donc s'teuplait parle moi d'ton hypocrisie J'dois remplir la malette Trois points j'suis MVP Jeune nègre veut s'émanciper Veut voir l'monde jusqu'au Mississippi Les traquenards sont multiples frérot choisis ton camp Y'a ceux qui font la manche y'a ceux qui mettent les gants Y'a ceux qui feront tout pour être en maison de disques y'a ceux qui niquent des daronnes en indépendant Frérot j'veux la villa d'Sosa, caresser la copa On mérite même la hola, parcours mémorable La vie sans finesses à l'Etat français Me barrer en Air France, première classe business J'ai vu la mort plus rien n'm'effraie, j'suis en gardav' je nie les faits J'ai vu la mort plus rien n'm'effraie nan j'suis en gardav' je nie les faits On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1862,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>KJU Yo, is that Traplysse ? Ah J'suis à mon prime Prime, j'vais les ken Ken, arme offensive, shuriken Pour faire un feu d'bois, suffit d'un briquet, opinel en guise de cure Nan, faut des ices Ices, faut des diamants, des richesses, de l'or Ouh J'm'en fou si j'ai tort Han Le recul c'est de fermer sa bouche, la soumission c'est d'rester debout Han T'as du mal à joindre les deux bouts, j'l'ai serré si fort, j'lui ai cassé le cou Et le méchant est dans le miroir Ouh, j'suis sûr de moi Moi LOA, faut qu'j'en fasse plus de trois, le culte de la personnalité c'est moi J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil KJU T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mmh, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, hey You might also like Faut un permis A, prendre le large sur un Zodiac en mer Faut pas sourire aux intrus, ça ouvre des portes au manque de respect Jamais Je contrôle le flux Uh, tout c'qui rentre n'est pas sûr de sortir Fuck le muguet, fuck le 1er Mai, mes plantes préférées sont les orties Lucifer ce n'est pas mon ami Pas mon ami, pas mon ami Je connais mes srabs Je connais mes srabs J'ai grandi avec des mecs qui s'fâchent pour un malentendu qui peut s'régler à l'amiable Soviétique comme le TagAZ Aquila, Aurus Senat Le courage c'est de franchir la porte, casser le mythe qui a hanté tout l'village J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mm, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, ouais, ouais1</t>
+          <t>KJU Yo, is that Traplysse ? Ah J'suis à mon prime Prime, j'vais les ken Ken, arme offensive, shuriken Pour faire un feu d'bois, suffit d'un briquet, opinel en guise de cure Nan, faut des ices Ices, faut des diamants, des richesses, de l'or Ouh J'm'en fou si j'ai tort Han Le recul c'est de fermer sa bouche, la soumission c'est d'rester debout Han T'as du mal à joindre les deux bouts, j'l'ai serré si fort, j'lui ai cassé le cou Et le méchant est dans le miroir Ouh, j'suis sûr de moi Moi LOA, faut qu'j'en fasse plus de trois, le culte de la personnalité c'est moi J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil KJU T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mmh, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, hey Faut un permis A, prendre le large sur un Zodiac en mer Faut pas sourire aux intrus, ça ouvre des portes au manque de respect Jamais Je contrôle le flux Uh, tout c'qui rentre n'est pas sûr de sortir Fuck le muguet, fuck le 1er Mai, mes plantes préférées sont les orties Lucifer ce n'est pas mon ami Pas mon ami, pas mon ami Je connais mes srabs Je connais mes srabs J'ai grandi avec des mecs qui s'fâchent pour un malentendu qui peut s'régler à l'amiable Soviétique comme le TagAZ Aquila, Aurus Senat Le courage c'est de franchir la porte, casser le mythe qui a hanté tout l'village J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mm, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, ouais, ouais1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1879,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Hey, hey J'veux des J'veux des parts à Total comme la fa J'veux des parts à Total, richissime comme les Rothschild, achat-revente, sur une boite, c'est la routine Plusieurs issues mais laquelle emprunter ? De mon vivant, j'prendrais jamais la tétine Jamais Glock aussi noir que l'intérieur du rocher, balle n'est pas perdue même après ricochet Grandi dans hall, taux de TH est élevé, ossement humain dans la cage, j'peux témoigner Après le gong, c'est bestial, Middleditch, j'sais pas qui pourrait m'affronter Qui ? Parfum de haine, j'ai la mental', le mental, faut compter de manière équitable De manière équitable On s'est toujours tue devant les faits, fuck le juge, monsieur l'greffier Fuck, fuck, fuck J'fais des allo' pour construire au bled, j'le fais pas pour remplir l'gosier Pour remplir l'gosier Mec du 9.2, nos anciens mettaient du rose, nous on plaisait au blondes On plaisait aux blondes J'allais au school pour mieux connaître mon histoire, pas la préhistoire Pas la préhistoire Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue You might also like Première sommation Un contrôle au faciès, go La police fait plus de victimes que l'cancer, j'ai la haine du bleu comme la plupart d'mes compères Je leur fout les chocottes, la frousse, un arbre qui tombe fait plus de bruit qu'une forêt qui pousse Y a plus d'amour, tout est cassé, j'prends deux fois, l'ami, je vous laisse jacasser Je vous laisse jacasser J'connais pas un mur infranchissable, j'connais pas un putain d'mec immortel J'connais mes skills et mes combos, ils font les aveugles comme au Congo Vont-ils m'enfermer pour mes propos si j'dis qu'l'état Français protège les pédo' ? Innocent comme la plupart au hebs Innocents, fuck Jacques et sa fille Fuck, fuck Fuck Jean-Marc Morandini et Cyril Hanouna, fuck tous leurs contrôles au faciès Fuck J'dirai pas à mon fils d'être keuf parce qu'il n'aime pas c'que représente sa chair Jamais Aime ton prochain comme il t'aime, ne tends pas ta main à celui qui te hais Jamais Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Ramène le briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue1</t>
+          <t>Hey, hey J'veux des J'veux des parts à Total comme la fa J'veux des parts à Total, richissime comme les Rothschild, achat-revente, sur une boite, c'est la routine Plusieurs issues mais laquelle emprunter ? De mon vivant, j'prendrais jamais la tétine Jamais Glock aussi noir que l'intérieur du rocher, balle n'est pas perdue même après ricochet Grandi dans hall, taux de TH est élevé, ossement humain dans la cage, j'peux témoigner Après le gong, c'est bestial, Middleditch, j'sais pas qui pourrait m'affronter Qui ? Parfum de haine, j'ai la mental', le mental, faut compter de manière équitable De manière équitable On s'est toujours tue devant les faits, fuck le juge, monsieur l'greffier Fuck, fuck, fuck J'fais des allo' pour construire au bled, j'le fais pas pour remplir l'gosier Pour remplir l'gosier Mec du 9.2, nos anciens mettaient du rose, nous on plaisait au blondes On plaisait aux blondes J'allais au school pour mieux connaître mon histoire, pas la préhistoire Pas la préhistoire Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue Première sommation Un contrôle au faciès, go La police fait plus de victimes que l'cancer, j'ai la haine du bleu comme la plupart d'mes compères Je leur fout les chocottes, la frousse, un arbre qui tombe fait plus de bruit qu'une forêt qui pousse Y a plus d'amour, tout est cassé, j'prends deux fois, l'ami, je vous laisse jacasser Je vous laisse jacasser J'connais pas un mur infranchissable, j'connais pas un putain d'mec immortel J'connais mes skills et mes combos, ils font les aveugles comme au Congo Vont-ils m'enfermer pour mes propos si j'dis qu'l'état Français protège les pédo' ? Innocent comme la plupart au hebs Innocents, fuck Jacques et sa fille Fuck, fuck Fuck Jean-Marc Morandini et Cyril Hanouna, fuck tous leurs contrôles au faciès Fuck J'dirai pas à mon fils d'être keuf parce qu'il n'aime pas c'que représente sa chair Jamais Aime ton prochain comme il t'aime, ne tends pas ta main à celui qui te hais Jamais Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Ramène le briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue1</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1896,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Porte des étoiles Yo Is that Traplysse Porte des étoiles Porte des étoiles Hann Au crépuscule j'suis dans la fusée dans la soucoupe Après tes promesses c'est le silence Plus de peur que de mal, on recommence on recommence Moins de nous sur les bancs d'accusés moins Un dernier virage pour la finale J'ai rangé le peu d'amour qui restait dans le tiroir mmh Parabellum j'fais la loi parabellum Ell veut savoir où j'habite J'ai cherché la port des étoiles porte des étoiles La porte des étoiles J'voulais, in your life J'voulais, in your life J'voulais une nouvelle vie une nouvelle De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh You might also like Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah Pourquoi j'ai cherché la porte des étoiles en bas de chez moi Je me suis retrouvé dans quelques pépins en bas de chez moi En bas de chez moi, dans le bâtiment En bas de chez moi, ohh bâtiment La routine assombrie nos sentiments Bébé voudrait quitter le continent Entre nous y'aura pas de maladresses Y'a mieux à faire j'dois cracher ma peine seul J'ai pas tout fait en bien car nous deux on nous a trix-ma On s'perdra à vouloir gérer l'destin ohh Sombre festin, elle veut voir le lac d'Annecy Bénédiction, ils sont bons qu'a détester J'voulais une nouvelle vie vie De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh ouhh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah On est trop entêtés, eh C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto1</t>
+          <t>Porte des étoiles Yo Is that Traplysse Porte des étoiles Porte des étoiles Hann Au crépuscule j'suis dans la fusée dans la soucoupe Après tes promesses c'est le silence Plus de peur que de mal, on recommence on recommence Moins de nous sur les bancs d'accusés moins Un dernier virage pour la finale J'ai rangé le peu d'amour qui restait dans le tiroir mmh Parabellum j'fais la loi parabellum Ell veut savoir où j'habite J'ai cherché la port des étoiles porte des étoiles La porte des étoiles J'voulais, in your life J'voulais, in your life J'voulais une nouvelle vie une nouvelle De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah Pourquoi j'ai cherché la porte des étoiles en bas de chez moi Je me suis retrouvé dans quelques pépins en bas de chez moi En bas de chez moi, dans le bâtiment En bas de chez moi, ohh bâtiment La routine assombrie nos sentiments Bébé voudrait quitter le continent Entre nous y'aura pas de maladresses Y'a mieux à faire j'dois cracher ma peine seul J'ai pas tout fait en bien car nous deux on nous a trix-ma On s'perdra à vouloir gérer l'destin ohh Sombre festin, elle veut voir le lac d'Annecy Bénédiction, ils sont bons qu'a détester J'voulais une nouvelle vie vie De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh ouhh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah On est trop entêtés, eh C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto1</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1913,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rires Switch Baby Rires La parole de l'homme vaut plus que des milliards, mais bon, on dirait que très peu le savent Le pouvoir des mots me fera voyager, avoir les deux pieds trempés dans le sable Le malheur des uns fait le bonheur des autres, tu meurs aussitôt, un autre te remplace J'ai perdu mon temps à demander ma route à des nomades qui faisaient du sur-place La nuit n'efface pas nos rancurs, au contraire, détrompe-toi J'suis dans l'mal quotidiennement, j'me sens bien en haut du toit On fait du mal à ceux que l'on aime, ceux qui nous aiment nous feront du bien Quoi qu'il arrive, nous serons bénis par nos daronnes peu importe le crime Loin des humains, j'me sens revivre, j'me sens revivre Si j'fumais, j'aurais pété une garette-ci Je vends la daube, je vends la weed à Miami Mais menotté au radiateur, j'suis amnésique, yeah Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh You might also like Premier janvier, j'suis un miraculé, Ya Rabi m'offre une deuxième chance Ma mélancolie devient étouffante, cimetière vivant quand j'suis sur les Champs J'regarde le ciel, j'me pose la même question Pourquoi mon frérot, pourquoi pas moi ? J'respire un coup et je recommence, niquage des mères comme auparavant Euros, dollars, pesos, net, banks, zéro impôt sur ma came Prolétaire de père en fils, j'dois changer les murs, augmenter les grammes Méfie-toi de moi, négro, t'as raison, je change d'humeur à chaque saison J'suis confiné dans la maison, j'irai prendre l'air après la mousson Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère, gangs Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Pour faire l'amour, nous serons deux, mais pour la guerre, je serai seul J'irai sans toi, j'irai sans vous, j'irai sans eux, j'irai sans nous Perdu dans l'noir, j'ai le cur froid, du mal à voir des jours meilleurs J'commets des actes qui m'ressemblent pas, tous les jours, j'perds un peu d'ma foi, eh J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh</t>
+          <t>Rires Switch Baby Rires La parole de l'homme vaut plus que des milliards, mais bon, on dirait que très peu le savent Le pouvoir des mots me fera voyager, avoir les deux pieds trempés dans le sable Le malheur des uns fait le bonheur des autres, tu meurs aussitôt, un autre te remplace J'ai perdu mon temps à demander ma route à des nomades qui faisaient du sur-place La nuit n'efface pas nos rancurs, au contraire, détrompe-toi J'suis dans l'mal quotidiennement, j'me sens bien en haut du toit On fait du mal à ceux que l'on aime, ceux qui nous aiment nous feront du bien Quoi qu'il arrive, nous serons bénis par nos daronnes peu importe le crime Loin des humains, j'me sens revivre, j'me sens revivre Si j'fumais, j'aurais pété une garette-ci Je vends la daube, je vends la weed à Miami Mais menotté au radiateur, j'suis amnésique, yeah Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Premier janvier, j'suis un miraculé, Ya Rabi m'offre une deuxième chance Ma mélancolie devient étouffante, cimetière vivant quand j'suis sur les Champs J'regarde le ciel, j'me pose la même question Pourquoi mon frérot, pourquoi pas moi ? J'respire un coup et je recommence, niquage des mères comme auparavant Euros, dollars, pesos, net, banks, zéro impôt sur ma came Prolétaire de père en fils, j'dois changer les murs, augmenter les grammes Méfie-toi de moi, négro, t'as raison, je change d'humeur à chaque saison J'suis confiné dans la maison, j'irai prendre l'air après la mousson Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère, gangs Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Pour faire l'amour, nous serons deux, mais pour la guerre, je serai seul J'irai sans toi, j'irai sans vous, j'irai sans eux, j'irai sans nous Perdu dans l'noir, j'ai le cur froid, du mal à voir des jours meilleurs J'commets des actes qui m'ressemblent pas, tous les jours, j'perds un peu d'ma foi, eh J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1930,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Grandi près du four Grandi près des fous, grandi près des Glock Près du four, près des fous Hey, hey Grandi près des fous Hey, grandi près du four Hey La bergerie est vide, autour, y a que des loups Ouh Souvent, j'suis indécis Le soir, des traces indélébiles Ice J'récupère quelques kilos d'frappe qu'on trouve dans les îles Vingt-quatre carats On connait, j'suis dans les parages Han Ça brille de tout-par, hier, tu riais Ice, aujourd'hui, j'fais rien On finira comme Tupac Amaru Eh en Subaru Ring On fait la bringue, mauvais virage Ouais comme Dupont-Moretti Hey La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps You might also like Le jour, la nuit Le jour, la nuit, tout disparaît Tout disparaît Pendant l'averse Pendant l'averse, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais Ouais Quatre saisons, la putain d'ta mère la pute Oh J'attends l'arrivage de coke, on connaît bien les tarots des stup' On connaît, on connaît VVS, j'ai pas trop fait d'études VV, dernier au fond d'la classe, j'ai pris d'la valeur comme un grand cru Wow, AK-47, on défend nos intérêts, le prix de la pierre en chute, la mentalité en hausse J'ai pas trop le cur à faire la fête Nan, c'est réel, pas d'mise en scène C'est réel Et si j'vois, j'prends, j'récupère en PDF La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, la noche, tout disparaît Tout disparaît, comme des fantômes Pendant l'averse Pendant l'averse, pah, pah, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais 4.4.4.4 Et très souvent, j'ai mal au cur, on doit s'gaver, bien ballonner Trois fois Trois fois, hey Hey</t>
+          <t>Grandi près du four Grandi près des fous, grandi près des Glock Près du four, près des fous Hey, hey Grandi près des fous Hey, grandi près du four Hey La bergerie est vide, autour, y a que des loups Ouh Souvent, j'suis indécis Le soir, des traces indélébiles Ice J'récupère quelques kilos d'frappe qu'on trouve dans les îles Vingt-quatre carats On connait, j'suis dans les parages Han Ça brille de tout-par, hier, tu riais Ice, aujourd'hui, j'fais rien On finira comme Tupac Amaru Eh en Subaru Ring On fait la bringue, mauvais virage Ouais comme Dupont-Moretti Hey La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, tout disparaît Tout disparaît Pendant l'averse Pendant l'averse, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais Ouais Quatre saisons, la putain d'ta mère la pute Oh J'attends l'arrivage de coke, on connaît bien les tarots des stup' On connaît, on connaît VVS, j'ai pas trop fait d'études VV, dernier au fond d'la classe, j'ai pris d'la valeur comme un grand cru Wow, AK-47, on défend nos intérêts, le prix de la pierre en chute, la mentalité en hausse J'ai pas trop le cur à faire la fête Nan, c'est réel, pas d'mise en scène C'est réel Et si j'vois, j'prends, j'récupère en PDF La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, la noche, tout disparaît Tout disparaît, comme des fantômes Pendant l'averse Pendant l'averse, pah, pah, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais 4.4.4.4 Et très souvent, j'ai mal au cur, on doit s'gaver, bien ballonner Trois fois Trois fois, hey Hey</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1947,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Puerto rico Ya ya ya, ya ya ya Ya ya ya, ya ya ya Yeah, on quittera lghetto pour un château, kalashé comme Pablo Garo sous la che-dou, l'impression qutout lmonde est chelou Laisser moi jsuis dans mon délire, jaccumule mes péchés Qui pourra mempêcher tfaire du sale et puis mredresser Laisse les parler sont des jaloux, qui ne savent que parler Parler parler parler sort le fer ils vont détaler Dans la rue y faut faire ldétaille, coka marijuana Un pied dans le djinn, un autre pied au Guatemala Cest la rue qui nous a fait Cest la rue qui nous défera Fait pas croire qutes mon fréro Nan, quand ya besoin tes plus la Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico You might also like Elle sdemande qui cest ce négro, attitude de sosa Jsuis pas dans le carré, jsuis dans ltieks avec mes lossa 1 gramme 2 grammes céllophaner, ma haine dans le sachet Toute les fleurs ont fanée range ton coeur je vais tle briser Baby pose pas trop de questions, le pourquoi du comment La juge veux menfermer pour des faits qui datent de 5 ans Jaccumule et jdeviens fou, jsuis perdu dans le trou Cette hiver sera chaud à 2 doigts de reprendre le four Jsuis dans ltieks avec Kayzer Jcompte le bénef de la veille Pour la concu un calvaire Aucun tieks na de barrières Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico</t>
+          <t>Puerto rico Ya ya ya, ya ya ya Ya ya ya, ya ya ya Yeah, on quittera lghetto pour un château, kalashé comme Pablo Garo sous la che-dou, l'impression qutout lmonde est chelou Laisser moi jsuis dans mon délire, jaccumule mes péchés Qui pourra mempêcher tfaire du sale et puis mredresser Laisse les parler sont des jaloux, qui ne savent que parler Parler parler parler sort le fer ils vont détaler Dans la rue y faut faire ldétaille, coka marijuana Un pied dans le djinn, un autre pied au Guatemala Cest la rue qui nous a fait Cest la rue qui nous défera Fait pas croire qutes mon fréro Nan, quand ya besoin tes plus la Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico Elle sdemande qui cest ce négro, attitude de sosa Jsuis pas dans le carré, jsuis dans ltieks avec mes lossa 1 gramme 2 grammes céllophaner, ma haine dans le sachet Toute les fleurs ont fanée range ton coeur je vais tle briser Baby pose pas trop de questions, le pourquoi du comment La juge veux menfermer pour des faits qui datent de 5 ans Jaccumule et jdeviens fou, jsuis perdu dans le trou Cette hiver sera chaud à 2 doigts de reprendre le four Jsuis dans ltieks avec Kayzer Jcompte le bénef de la veille Pour la concu un calvaire Aucun tieks na de barrières Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1964,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ouais BLN J'fais tant de palabres, j'ai trouvé que dalle No, get out Gabbi J'ai trouvé walou J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi Le son du Beretta va causer des pertes, va causer des drames Ça m'dit C'est la merde, tout l'temps, c'est la même tout l'temps On chante nos vies dans nos chansons pour avoir des tales tout l'temps J'ai des res-frè au card-pla, des res-frè au trou Enfermés comme animal en cage, remise de peine, c'est pas pour nous J'vais chanter mes mélodies autotunées, j'ai l'air beaucoup moins triste En full Fendi, on fait la bringue, on cache nos peines On sèche nos larmes Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés Déguste des langoustes C'est pas marrant, la violence du terrain sans fin Hey Les requins ont graille, ils ont faim Hey C'est donc ça la vie, c'est donc ça la vie Vida You might also like J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta Le métal précieux nous protège des ennemis, j'suis dans la ville 3ami, que fais-tu dans la vie ? 3amo, j'suis avec des amis J'suis avec N.A.2S Ouais, Sadio, Kopp, c'est la routine Tout l'temps Champs-Élysées, on connaît les boutiques Tout droit, y a des litrons d'cess à écouler en de-s' J'suis dans la cabine, dans la kitchen J'suis dans la kitchen, là, j'fais des mélo' Eh-eh Sur le qui-vive car j'suis impliqué Car j'suis impliqué, elle dit qu'j'suis paro Il m'faut ma kichta tous les soirs Tout l'temps, un nouveau textile, nouvelle soie J'ai pas d'grands, pas fan des bavons qui grattent, investir au bled, j'veux mon pilotis Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés C'est pas marrant, la violence du terrain sans fin Bendo Les requins ont graille, ils ont faim Bendo C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Plus traîner en bas j'ai fait mon choix La rançon d'la vie j'connais le prix Au son du Beretta, tu détales</t>
+          <t>Ouais BLN J'fais tant de palabres, j'ai trouvé que dalle No, get out Gabbi J'ai trouvé walou J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi Le son du Beretta va causer des pertes, va causer des drames Ça m'dit C'est la merde, tout l'temps, c'est la même tout l'temps On chante nos vies dans nos chansons pour avoir des tales tout l'temps J'ai des res-frè au card-pla, des res-frè au trou Enfermés comme animal en cage, remise de peine, c'est pas pour nous J'vais chanter mes mélodies autotunées, j'ai l'air beaucoup moins triste En full Fendi, on fait la bringue, on cache nos peines On sèche nos larmes Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés Déguste des langoustes C'est pas marrant, la violence du terrain sans fin Hey Les requins ont graille, ils ont faim Hey C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta Le métal précieux nous protège des ennemis, j'suis dans la ville 3ami, que fais-tu dans la vie ? 3amo, j'suis avec des amis J'suis avec N.A.2S Ouais, Sadio, Kopp, c'est la routine Tout l'temps Champs-Élysées, on connaît les boutiques Tout droit, y a des litrons d'cess à écouler en de-s' J'suis dans la cabine, dans la kitchen J'suis dans la kitchen, là, j'fais des mélo' Eh-eh Sur le qui-vive car j'suis impliqué Car j'suis impliqué, elle dit qu'j'suis paro Il m'faut ma kichta tous les soirs Tout l'temps, un nouveau textile, nouvelle soie J'ai pas d'grands, pas fan des bavons qui grattent, investir au bled, j'veux mon pilotis Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés C'est pas marrant, la violence du terrain sans fin Bendo Les requins ont graille, ils ont faim Bendo C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Plus traîner en bas j'ai fait mon choix La rançon d'la vie j'connais le prix Au son du Beretta, tu détales</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1981,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rims à la prod', ma tête tu sais qu'c'est géré, hé hé Rims on the beat Hé Ouais T'es comme obèse Wouh, wouh, wouh, wouh Ouais, t'as vu Hé hé Gang Hé J'arrive allumer Hé Grenade j'dégoupille, ils s'embrouillent pour des broutilles mais sont pas là pour la cotis', c'est pas des sottises J'décale comme Gutti, j'mate encore le cul d'ta rouquine, des calibres tah Poutine Ne fais pas crari, j'sais qu't'as peur Quand y a grave des spectateurs on prend les choses à cur Et ça même si on a tort car chez nous y a pas d'acteurs, ouais ouais Une fois, pas dux, j'me répète, pas Jamais J'suis précis, malhonnête, planqué sur, l'toît Sur l'toît M'arrêtr, t'es trop bête, n'y pense, même pas N'y pense même pas Une instru Ouais, d'la boucherie Ouais obliga' Frérot fais-le vite-vite Sale, sale, sale Les-les teintés sur la vitre-vitre Ouais, de la zone aux quartiers chics Titulaire dans l'équipe type Toujours Ouais ouais frérot fais-le vite-vite Les-les teintés sur la vitre-vitre Vitre-vitre, de la zone aux quartiers chics Chics, chics Titulaire dans l'équipe type Ouais, ouais You might also like Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui J'suis dans le 4×4, au pays j'suis vu comme une star du foot Hé Tous les jours envoie du cash, le daron est fier il a fait les blindages, han J'ai pas d'appartenance, si t'as pas l' c'est l' qui t'auras, fort T'as vu J'suis meilleur sans Hé, askip j'aurais dû rester chez 92i Hé, hé, hé, han C'est marrant, c'est marrant quand j'y pense je rap comme si j'étais en chien Lourd Le chargeur est plus que plein, la météo annonce une averse de blll Piou, piou, piou, piou Derrière la vitre teintée Fort, très tôt l'argent facile nous a tenté Fort Les euros, les dollars, la vie qu'on veut Fort Les euros, les dollars, la vie qu'on veut J'ai payé le AirBnB Woh, j'la tue comme un acteur porno Woh J'ai full Givenchi dans l'dressing Woh, j'suis camer' comme Samuel Eto'o Woh Elle m'dit qu'elle m'aime, j'suis nonchalant comme Riquelme Han J'me casse à huit du mat' Ouais, sans le p'tit-dej' j'suis mal élevé Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui</t>
+          <t>Rims à la prod', ma tête tu sais qu'c'est géré, hé hé Rims on the beat Hé Ouais T'es comme obèse Wouh, wouh, wouh, wouh Ouais, t'as vu Hé hé Gang Hé J'arrive allumer Hé Grenade j'dégoupille, ils s'embrouillent pour des broutilles mais sont pas là pour la cotis', c'est pas des sottises J'décale comme Gutti, j'mate encore le cul d'ta rouquine, des calibres tah Poutine Ne fais pas crari, j'sais qu't'as peur Quand y a grave des spectateurs on prend les choses à cur Et ça même si on a tort car chez nous y a pas d'acteurs, ouais ouais Une fois, pas dux, j'me répète, pas Jamais J'suis précis, malhonnête, planqué sur, l'toît Sur l'toît M'arrêtr, t'es trop bête, n'y pense, même pas N'y pense même pas Une instru Ouais, d'la boucherie Ouais obliga' Frérot fais-le vite-vite Sale, sale, sale Les-les teintés sur la vitre-vitre Ouais, de la zone aux quartiers chics Titulaire dans l'équipe type Toujours Ouais ouais frérot fais-le vite-vite Les-les teintés sur la vitre-vitre Vitre-vitre, de la zone aux quartiers chics Chics, chics Titulaire dans l'équipe type Ouais, ouais Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui J'suis dans le 4×4, au pays j'suis vu comme une star du foot Hé Tous les jours envoie du cash, le daron est fier il a fait les blindages, han J'ai pas d'appartenance, si t'as pas l' c'est l' qui t'auras, fort T'as vu J'suis meilleur sans Hé, askip j'aurais dû rester chez 92i Hé, hé, hé, han C'est marrant, c'est marrant quand j'y pense je rap comme si j'étais en chien Lourd Le chargeur est plus que plein, la météo annonce une averse de blll Piou, piou, piou, piou Derrière la vitre teintée Fort, très tôt l'argent facile nous a tenté Fort Les euros, les dollars, la vie qu'on veut Fort Les euros, les dollars, la vie qu'on veut J'ai payé le AirBnB Woh, j'la tue comme un acteur porno Woh J'ai full Givenchi dans l'dressing Woh, j'suis camer' comme Samuel Eto'o Woh Elle m'dit qu'elle m'aime, j'suis nonchalant comme Riquelme Han J'me casse à huit du mat' Ouais, sans le p'tit-dej' j'suis mal élevé Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui</t>
         </is>
       </c>
     </row>
@@ -2010,7 +1998,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Violence violence Violence violence Ouais Je suis dans le sale frère Dans les sales affaires Parlons de crime Doucement au phone-tel Elle parle d'amour mais J'ai pas que ça à faire Je suis dans le mal mec Le mal mène Je suis dans le mal frère Jenchaîne les crimes fort Je suis dans les faits divers pour le walli Je suis dans la fiesta ford Comment te dire que, t'aura pas de fleur pute T'es pas des nôtres, t'as donné ton cul, évitons les disputes 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale You might also like Evidemment que j'les baise tous Evidemment qu'ils sont faibles frères J'ai le bras long comme Debouze Grosse folle je suis pas ton bestfriend Je suis dans le labo à Pierrefitte Leur faire du sale un récit Tout est réel rien n'est factise J'veux pas la lettre mais la factrice Derrière la vitre teintée Dehors y'a les méchants Range ta cons, contrôle d'identité Relou je trace ma route Je fonce je fonce sur les Champs-Elysée Flow givenchysé, scalp en poche pour les traumatiser Font-ils réalisé ? yeah yeah 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale</t>
+          <t>Violence violence Violence violence Ouais Je suis dans le sale frère Dans les sales affaires Parlons de crime Doucement au phone-tel Elle parle d'amour mais J'ai pas que ça à faire Je suis dans le mal mec Le mal mène Je suis dans le mal frère Jenchaîne les crimes fort Je suis dans les faits divers pour le walli Je suis dans la fiesta ford Comment te dire que, t'aura pas de fleur pute T'es pas des nôtres, t'as donné ton cul, évitons les disputes 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale Evidemment que j'les baise tous Evidemment qu'ils sont faibles frères J'ai le bras long comme Debouze Grosse folle je suis pas ton bestfriend Je suis dans le labo à Pierrefitte Leur faire du sale un récit Tout est réel rien n'est factise J'veux pas la lettre mais la factrice Derrière la vitre teintée Dehors y'a les méchants Range ta cons, contrôle d'identité Relou je trace ma route Je fonce je fonce sur les Champs-Elysée Flow givenchysé, scalp en poche pour les traumatiser Font-ils réalisé ? yeah yeah 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2015,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eh Freddy K Très peu de sentiments, la couleur du ciel nous ment Sans même le vouloir, j'y vais, y a que la mort qui est réelle Complexe d'identité, sont pas nous, j'le vois Ton cur me ment, j'le sais, ta douleur résonne, j'l'entends Y a pas d'à-peu-près, pas d'demi-mesure J'y crois dur comme fer, métal est précieux Agite le drapeau, jeune prince était crapaud J'suis dans la surface, j'contrôle le ballon Le produit est néfaste, noir est le contraste wow Parle et on t'terrasse, eh J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey You might also like On t'pull up si c'est pour l'cash, rajoute le S après le VV On t'pull up si c'est pour l'hasch', j'suis dans la cuisine et j'fais de la musique Jamais d'la vie on donne un reuf pour sortir plus vite de GÀV jamais, jamais Cheveux au vent, j'suis avec ma lady dans un gros bolide Y a qu'dans leurs clips qu'ces bouffons charclent, savent même pas où s'trouvent les points vitaux hey Trop souvent, j'les domine, pas de temps faible, la presta' est niquel hey Il paraît qu'la vie est moche, on l'embellit du mieux qu'on peut AMG, vroum, roomservice, j'suis vers la Grèce, j'parle même pas grec J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey</t>
+          <t>Eh Freddy K Très peu de sentiments, la couleur du ciel nous ment Sans même le vouloir, j'y vais, y a que la mort qui est réelle Complexe d'identité, sont pas nous, j'le vois Ton cur me ment, j'le sais, ta douleur résonne, j'l'entends Y a pas d'à-peu-près, pas d'demi-mesure J'y crois dur comme fer, métal est précieux Agite le drapeau, jeune prince était crapaud J'suis dans la surface, j'contrôle le ballon Le produit est néfaste, noir est le contraste wow Parle et on t'terrasse, eh J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey On t'pull up si c'est pour l'cash, rajoute le S après le VV On t'pull up si c'est pour l'hasch', j'suis dans la cuisine et j'fais de la musique Jamais d'la vie on donne un reuf pour sortir plus vite de GÀV jamais, jamais Cheveux au vent, j'suis avec ma lady dans un gros bolide Y a qu'dans leurs clips qu'ces bouffons charclent, savent même pas où s'trouvent les points vitaux hey Trop souvent, j'les domine, pas de temps faible, la presta' est niquel hey Il paraît qu'la vie est moche, on l'embellit du mieux qu'on peut AMG, vroum, roomservice, j'suis vers la Grèce, j'parle même pas grec J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2032,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J'suis tombé dans le piège de l'am... J'suis tombé dans le piège de l'amour Sorry Eh J'suis tombé dans le piège de l'amour Moi qui croyais que c'était pas vrai pas vrai Moi qui croyais que ça arrive aux autres C'est mon destin c'était écrit écrit Dans les vestiges il reste des larmes C'est un freestyle c'est un cauchemar cauchemar J'aurai pas dû baisser la garde Côté bestial repart en chasse en chasse Cur abimé sur une péninsule C'est pas fatal j'fais d'l'argent argent Et les dictons sont souvent vrais Tu m croirais pas si j'exposais les faits C'est la vi, ma mère t'as pas vu merci A vrai dire j'croyais pas la tienne merci Mes amis, mes habits sont chers Tu verras jamais l'or jalouser le plaqué On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sû Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han You might also like Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors C'est le dehors qui nous a eu en vrai c'est le dehors On respire grâce au peu de souffle, qui reste J'me refais le film, au casting j'en prends une autre J'ai pas prévu de revoir nos photos Dans les flammes reste-t-il un peu de ton visage ? Mauvais présage Le vent souffle les démons fredonnent Si j'habitais, près de toi j'aurai fait pareil J'suis rancunier, comme mes frérots comme mon daddy T'aurais voulu, recoller tous les pots cassés C'est plus pareil, j'ai du love que pour ma famille Les piranhas c'est nous désormais A fleur de peau tu look ma story J'peux te spoiler la fin de ta vie Si j'te voulais j't'aurai pas perdu On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sûr Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors</t>
+          <t>J'suis tombé dans le piège de l'am... J'suis tombé dans le piège de l'amour Sorry Eh J'suis tombé dans le piège de l'amour Moi qui croyais que c'était pas vrai pas vrai Moi qui croyais que ça arrive aux autres C'est mon destin c'était écrit écrit Dans les vestiges il reste des larmes C'est un freestyle c'est un cauchemar cauchemar J'aurai pas dû baisser la garde Côté bestial repart en chasse en chasse Cur abimé sur une péninsule C'est pas fatal j'fais d'l'argent argent Et les dictons sont souvent vrais Tu m croirais pas si j'exposais les faits C'est la vi, ma mère t'as pas vu merci A vrai dire j'croyais pas la tienne merci Mes amis, mes habits sont chers Tu verras jamais l'or jalouser le plaqué On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sû Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors C'est le dehors qui nous a eu en vrai c'est le dehors On respire grâce au peu de souffle, qui reste J'me refais le film, au casting j'en prends une autre J'ai pas prévu de revoir nos photos Dans les flammes reste-t-il un peu de ton visage ? Mauvais présage Le vent souffle les démons fredonnent Si j'habitais, près de toi j'aurai fait pareil J'suis rancunier, comme mes frérots comme mon daddy T'aurais voulu, recoller tous les pots cassés C'est plus pareil, j'ai du love que pour ma famille Les piranhas c'est nous désormais A fleur de peau tu look ma story J'peux te spoiler la fin de ta vie Si j'te voulais j't'aurai pas perdu On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sûr Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2049,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Au fond du cur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Hein J'lai écris au stylo indélébile pour pas oublier On a grandi plus vite que c'que le temps aurait souhaité Au dessus d'la falaise, j'contemple les montagnes Les rivières qui suivent leur cours me ramènent à l'essentiel Trop tôt pour mourir, trop tard pour recommencer J'dois faire un pas vers mon avenir On est venu en paix, on repart torturés tou-tou Ma thérapie c'est de rendre heureux ceux que j'aime J't'offrirai des rosiers pour me faire pardonner De quoi ? J'sais pas mais au fond j'me sens coupable Intérieur en cuir, mais j'suis toujours pauvre broke J'voulais te voir une dernière fois C'est pas une victoire si je brille dans le stade vide c'est pas une victoire C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? You might also like Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo que j'ai mal Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? J'dois signer un traiter de paix avec moi même avec moi-même Je t'aimais comme pas possible, faut qu'j'm'en remette Sombre parcours, nos émotions sont décuplées J'te revois dans mes rêves, je t'entends murmurer j'te vois La vie qui suit son cours, les feuilles qui tombent en automne Impossible que l'ont parte sans finir la mission J'dois bâtir la maison, me protéger d'l'orage Tout c'qui se cache dans l'regard d'une femme Et ma douleur et mon meilleur allié Sur une feuille blanche on reproduit le même schéma qu'avant Un peu de joie, une démarche chaloupée Égayent notre quotidien pas rose, pas très romancé C'est pas une victoire si je brille dans le stade vide C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ?</t>
+          <t>Au fond du cur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Hein J'lai écris au stylo indélébile pour pas oublier On a grandi plus vite que c'que le temps aurait souhaité Au dessus d'la falaise, j'contemple les montagnes Les rivières qui suivent leur cours me ramènent à l'essentiel Trop tôt pour mourir, trop tard pour recommencer J'dois faire un pas vers mon avenir On est venu en paix, on repart torturés tou-tou Ma thérapie c'est de rendre heureux ceux que j'aime J't'offrirai des rosiers pour me faire pardonner De quoi ? J'sais pas mais au fond j'me sens coupable Intérieur en cuir, mais j'suis toujours pauvre broke J'voulais te voir une dernière fois C'est pas une victoire si je brille dans le stade vide c'est pas une victoire C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo que j'ai mal Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? J'dois signer un traiter de paix avec moi même avec moi-même Je t'aimais comme pas possible, faut qu'j'm'en remette Sombre parcours, nos émotions sont décuplées J'te revois dans mes rêves, je t'entends murmurer j'te vois La vie qui suit son cours, les feuilles qui tombent en automne Impossible que l'ont parte sans finir la mission J'dois bâtir la maison, me protéger d'l'orage Tout c'qui se cache dans l'regard d'une femme Et ma douleur et mon meilleur allié Sur une feuille blanche on reproduit le même schéma qu'avant Un peu de joie, une démarche chaloupée Égayent notre quotidien pas rose, pas très romancé C'est pas une victoire si je brille dans le stade vide C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ?</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2066,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler La concurrence sur les quais Négro j'ai un train d'avance J'dors dur comme si j'avais Des coups d'fouets de l'enfer dans ma lancée 9Mili dans le tiek's Broliqué en cas d'attaques Armes de l'est si tu perds le nord Yougo parlons cash ! Papa m'a dit, quand je suis mourant Men bat les couilles d'la mort tant qu'maman dors bien Tacle a la gorge, tu pars en courant Yougo, la mort t'attrape en dormant Même en courant Dale-pé tu pleurs, foire ton plan, représailles Négro fallait pas nous tester Si tu meurs qui sera la pour assurer ta mère ? Cest la question qu'on peut t'poser Poser, tes cojones sur la ble-ta C'est c'que tu ferais si y'a haja, hagra Paris, le A, ramène du liquide et ta mère va t'shooter comme Pogba ! Dans la tess' y'a du Kilos Dans nos poches y'a du liquide Dans l'équipe que des Négros Chargé comme le gros boule a Nicky Double S pour les frères Six Les gangsters ne parlent pas J'arrive droit d'une autre planète De Paris, au pare-balles Ients-cli vi-ser, ients-cli qui revient Parce qu'il y à d'la ppe-fra Ya draaahh, ya draaahh S.D.H.S You might also like En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler Soldats certifiés ! Soldats certifiés ! Je saurais sur qui compter x4 On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma Marche qu'avec des marabouts Tête mé-cra comme Abou Les personnes qui veulent s'mesurer à nous Aller, ils sont morts dans la série Bouse J'baise le game avec mes Youv' Trop de tapettes qui puent d'la shnoun S.D.H floqué sur les gros pecs Tu verras ça sur Abou Jaloux, j'encule ton arrière-grand-mère Demande au frelon Elh-Kamer Trop de rappeurs qui puent la de-mer Leurs flows tout droit sorti d'une poubelle Wallay jveux péter le million Mais pour l'instant rien que ça charbonne Gang-bang dans les chattes de vos re-soeu Garde la Che-pè, le frôle en 2.2 Phrase en sénégalais Billay le Rap game est a nous Charognard à la mort, avec le pack S Cojones certifié S.D.H.S Que des bonhommes dans mon tier-quar Viens surtout pas tester mon clan Ya drah, ya drah Y'a pas d'petits, y'a pas d'grands 1</t>
+          <t>En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler La concurrence sur les quais Négro j'ai un train d'avance J'dors dur comme si j'avais Des coups d'fouets de l'enfer dans ma lancée 9Mili dans le tiek's Broliqué en cas d'attaques Armes de l'est si tu perds le nord Yougo parlons cash ! Papa m'a dit, quand je suis mourant Men bat les couilles d'la mort tant qu'maman dors bien Tacle a la gorge, tu pars en courant Yougo, la mort t'attrape en dormant Même en courant Dale-pé tu pleurs, foire ton plan, représailles Négro fallait pas nous tester Si tu meurs qui sera la pour assurer ta mère ? Cest la question qu'on peut t'poser Poser, tes cojones sur la ble-ta C'est c'que tu ferais si y'a haja, hagra Paris, le A, ramène du liquide et ta mère va t'shooter comme Pogba ! Dans la tess' y'a du Kilos Dans nos poches y'a du liquide Dans l'équipe que des Négros Chargé comme le gros boule a Nicky Double S pour les frères Six Les gangsters ne parlent pas J'arrive droit d'une autre planète De Paris, au pare-balles Ients-cli vi-ser, ients-cli qui revient Parce qu'il y à d'la ppe-fra Ya draaahh, ya draaahh S.D.H.S En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler Soldats certifiés ! Soldats certifiés ! Je saurais sur qui compter x4 On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma Marche qu'avec des marabouts Tête mé-cra comme Abou Les personnes qui veulent s'mesurer à nous Aller, ils sont morts dans la série Bouse J'baise le game avec mes Youv' Trop de tapettes qui puent d'la shnoun S.D.H floqué sur les gros pecs Tu verras ça sur Abou Jaloux, j'encule ton arrière-grand-mère Demande au frelon Elh-Kamer Trop de rappeurs qui puent la de-mer Leurs flows tout droit sorti d'une poubelle Wallay jveux péter le million Mais pour l'instant rien que ça charbonne Gang-bang dans les chattes de vos re-soeu Garde la Che-pè, le frôle en 2.2 Phrase en sénégalais Billay le Rap game est a nous Charognard à la mort, avec le pack S Cojones certifié S.D.H.S Que des bonhommes dans mon tier-quar Viens surtout pas tester mon clan Ya drah, ya drah Y'a pas d'petits, y'a pas d'grands 1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2083,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>La vision du monde La vision du monde Hey Hey Go, go Go, go Ils m'ont jeté aux lions, j'suis devenu un fauve Ils savaient pas, miskine J'attendrai pas qu'tu m'baises pour savoir qu't'es un faux Jamais d'la vie Démarrage, Tesla, vitesse électrique Elon Musk, démarrage, Tesla, vitesse électrique Elon Musk J'démarre la caisse, la plus bonne elle monte Fort, j'vais changer ta vision du monde Fort On a grandi tout près des cafards, j'connais la valeur du tieb et caviar C'est vrai, c'est vrai On casse, on démonte, on répar, casse ton p'tit cur, je répare pas J'attnds pas le go pour le départ, j'suis dans les hauts gradins avec les hauts gradés Ouh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Dis-moi Je sais c'que veulent les plus p'tits, c'est fumer la daronne du gérant Go, go, go Et depuis la primaire, on bricole Pah, absent à toutes les heures de colle C'est vrai C'est pas demain la veille qu'tu nous verras quémander, la tata qu'j'préfère, c'est Nicole Merci Nicole Et toi, tu veux pas nous donner la balle, t'as perdu ta place, on sait faire les jongles Tu kleh, l'tour du monde, j'le fais comme R9 Nazario On commet des crimes tous les jours, si j'ai plus un, négro, j'irais voler QCM, j'remplis la case, le dossier Pah, pah, pah, pah, QCM, j'remplis la case Ma bite, mon couteau, j'fais le job Bah ouais, parti de rien, on prendra tout Bah ouais Belek au crochet et au jab Beh, ils m'ont jeté aux lions, j'deviens un fauve Erh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Jamais d'la vie Pah, pah, pah, pah On enchaîne les délits, on enchaîne Ouais, t'es piqué par une pute que je baise Ouais On va t'niquer jusqu'à l'agonie Nan, nouvelles pes-sa, nouvelles panoplies Oh Ici, on n'aime tellement pas la police qu'on préfère crever d'la vendetta Ouais Nouveaux jouets, j'suis comme un gamin, j'vais dégainer sur toi pour voir s'il marche Go, go, go, go You might also like Tellement mauvais qu'on est vrais J'avoue, j'ai grandi entouré de fauves Ice La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tellement mauvais qu'on est vrais, j'ai grandi entouré de fauves La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tesla, Tesla</t>
+          <t>La vision du monde La vision du monde Hey Hey Go, go Go, go Ils m'ont jeté aux lions, j'suis devenu un fauve Ils savaient pas, miskine J'attendrai pas qu'tu m'baises pour savoir qu't'es un faux Jamais d'la vie Démarrage, Tesla, vitesse électrique Elon Musk, démarrage, Tesla, vitesse électrique Elon Musk J'démarre la caisse, la plus bonne elle monte Fort, j'vais changer ta vision du monde Fort On a grandi tout près des cafards, j'connais la valeur du tieb et caviar C'est vrai, c'est vrai On casse, on démonte, on répar, casse ton p'tit cur, je répare pas J'attnds pas le go pour le départ, j'suis dans les hauts gradins avec les hauts gradés Ouh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Dis-moi Je sais c'que veulent les plus p'tits, c'est fumer la daronne du gérant Go, go, go Et depuis la primaire, on bricole Pah, absent à toutes les heures de colle C'est vrai C'est pas demain la veille qu'tu nous verras quémander, la tata qu'j'préfère, c'est Nicole Merci Nicole Et toi, tu veux pas nous donner la balle, t'as perdu ta place, on sait faire les jongles Tu kleh, l'tour du monde, j'le fais comme R9 Nazario On commet des crimes tous les jours, si j'ai plus un, négro, j'irais voler QCM, j'remplis la case, le dossier Pah, pah, pah, pah, QCM, j'remplis la case Ma bite, mon couteau, j'fais le job Bah ouais, parti de rien, on prendra tout Bah ouais Belek au crochet et au jab Beh, ils m'ont jeté aux lions, j'deviens un fauve Erh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Jamais d'la vie Pah, pah, pah, pah On enchaîne les délits, on enchaîne Ouais, t'es piqué par une pute que je baise Ouais On va t'niquer jusqu'à l'agonie Nan, nouvelles pes-sa, nouvelles panoplies Oh Ici, on n'aime tellement pas la police qu'on préfère crever d'la vendetta Ouais Nouveaux jouets, j'suis comme un gamin, j'vais dégainer sur toi pour voir s'il marche Go, go, go, go Tellement mauvais qu'on est vrais J'avoue, j'ai grandi entouré de fauves Ice La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tellement mauvais qu'on est vrais, j'ai grandi entouré de fauves La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tesla, Tesla</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2100,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Beretta J'ai le cur dans sale état Yo, hey Traplysse Sale état Yeah Y a une seule place malgré c'que je fais Bah ouais, malgré c'que je vis Je sais qu'toi, t'es la seule Mmh qui m'aimera pour c'que j'suis C'est vrai J'vis d'un soi éternel C'est vrai, les autres, j'les cala as-p Ces tchoins Elles s'montrent sur Onlyfans, elles font les tains-p' sur Onlyfans Ouais Et tous les jours, je pense à nous, on s'imaginera sur la côte D'Azur J'appell pas trop la daronne, j'ai pris les mauvais côtés du daron Daddy Bien-bintôt, j'achète tous les hectares de ton cur Tout J'envoie tout, rien ne leak, t'es le plus précieux de mes ice Ice Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état You might also like Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de J'ai même pas pop, j'fais plus d'argent qu'une star d'la pop Qu'une star d'la pop Antigone, elle veut qu'j'en achète deux, elle le vaut bien Ses cent G Derrière la vitre, y a plusieurs témoins, plusieurs boloss Plusieurs ients-cli Derrière les rideaux, on ne montre pas aux plus naïfs On ne montre pas Faut qu'je passe le cap, que j'aille voir celle qui la mise au monde Sa maman Des-des curs, j'en ai sept comme Méliodas, Seven Deadly Sins Hey J'meurs pas dans mon film Jamais, j'écris le scénar' Tarantino Une putain d'life, j'suis avec des loups au fond d'la prairie, eh-eh Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de Oh-oh-oh-oh Oh-oh-oh-oh</t>
+          <t>Beretta J'ai le cur dans sale état Yo, hey Traplysse Sale état Yeah Y a une seule place malgré c'que je fais Bah ouais, malgré c'que je vis Je sais qu'toi, t'es la seule Mmh qui m'aimera pour c'que j'suis C'est vrai J'vis d'un soi éternel C'est vrai, les autres, j'les cala as-p Ces tchoins Elles s'montrent sur Onlyfans, elles font les tains-p' sur Onlyfans Ouais Et tous les jours, je pense à nous, on s'imaginera sur la côte D'Azur J'appell pas trop la daronne, j'ai pris les mauvais côtés du daron Daddy Bien-bintôt, j'achète tous les hectares de ton cur Tout J'envoie tout, rien ne leak, t'es le plus précieux de mes ice Ice Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de J'ai même pas pop, j'fais plus d'argent qu'une star d'la pop Qu'une star d'la pop Antigone, elle veut qu'j'en achète deux, elle le vaut bien Ses cent G Derrière la vitre, y a plusieurs témoins, plusieurs boloss Plusieurs ients-cli Derrière les rideaux, on ne montre pas aux plus naïfs On ne montre pas Faut qu'je passe le cap, que j'aille voir celle qui la mise au monde Sa maman Des-des curs, j'en ai sept comme Méliodas, Seven Deadly Sins Hey J'meurs pas dans mon film Jamais, j'écris le scénar' Tarantino Une putain d'life, j'suis avec des loups au fond d'la prairie, eh-eh Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de Oh-oh-oh-oh Oh-oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2117,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ss souliers J'suis au studio, elle au shopping Loin d ma salope et bas resille Parisien ambitieux, j'suis pas un paresseux Elle me raconte ses blessures sous hennessy Maman me félicite, me plébiscite Je dois contrôler le réseau, le réseau J'parle à la lune avec So le Monde, avec So la Lune Tu m'diras c'que t'as dit à l'autre Je ferai semblant de te croire Je ferai semblant de te voir Le moteur est allemand, j'passe les rapports On verra le ciel et ses continents J'la oigte c'est élégant Gaulé comme éléphant Tranquillement j'bâtis empire et bâtiments Au ciel, le monde et tous ses éléments You might also like J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Yah, Yah J'ai comme un doute j'ai comme un doute Mais rien à foutre mais rien à foutre Le jour où tu fautes le jour où tu fautes T'iras te faire foutre Fume sur ma niaks fume sur ma niaks Sers toi dans ma liasse sers toi dans ma liasse Prends les clés d'la wouh Et va claquer ce cash J'suis au studio j'suis au studio Dans la cabine dans la cabine Sous gelato sous gela, hm Et grenadine eh, eh Tu fais quoi ce soir ? tu fais quoi ce soir ? Viens rejoins moi viens rejoins moi Ramène ton pét- hein, hein J'ai des idées noires oh J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping</t>
+          <t>J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ss souliers J'suis au studio, elle au shopping Loin d ma salope et bas resille Parisien ambitieux, j'suis pas un paresseux Elle me raconte ses blessures sous hennessy Maman me félicite, me plébiscite Je dois contrôler le réseau, le réseau J'parle à la lune avec So le Monde, avec So la Lune Tu m'diras c'que t'as dit à l'autre Je ferai semblant de te croire Je ferai semblant de te voir Le moteur est allemand, j'passe les rapports On verra le ciel et ses continents J'la oigte c'est élégant Gaulé comme éléphant Tranquillement j'bâtis empire et bâtiments Au ciel, le monde et tous ses éléments J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Yah, Yah J'ai comme un doute j'ai comme un doute Mais rien à foutre mais rien à foutre Le jour où tu fautes le jour où tu fautes T'iras te faire foutre Fume sur ma niaks fume sur ma niaks Sers toi dans ma liasse sers toi dans ma liasse Prends les clés d'la wouh Et va claquer ce cash J'suis au studio j'suis au studio Dans la cabine dans la cabine Sous gelato sous gela, hm Et grenadine eh, eh Tu fais quoi ce soir ? tu fais quoi ce soir ? Viens rejoins moi viens rejoins moi Ramène ton pét- hein, hein J'ai des idées noires oh J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2134,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wesh Ils parlent tous d'bitcoin Pour eux c'est la hess à vie Miskine Profitez l'équipe, pour de vrai Mes démons m'obéissent J'ai liquidité comme un paki hey Plus jamais je n'me fait trahir hey J'suis dans la surface comme un renard Extérieur du pied, j'ai pas failli Esh Thierry Henry Fuck le plus fort de ta city fuck J'ai passé l'âge de faire la bagarre fuck Business illégaux, j'suis impliqué cash Hein ? Et pendant qu'Sarko baise Carla Et pendant qu'Sarko baise Carla Le pays va mal, d'ici peut le rain-té ouvre en carrelage Guette la perf', j'enchaine que des hat-tricks Précis, j'livre au gramme près Au délibéré, y'aura aucun suspense J'coupe et décale comme au pays J'fais rentrer l'argent comme un brouteur Ici c'est Paname c'est pas L.A Ici c'est chaud comme au hammam Mon nom affiché dans l'journal J'ai fouetté la Dans le dos j'ai Ocho, au tiekar j'fais des passes comme Iniesta Ouais, j'passe à table même si j'ai pas faim J'ai connu la hess, les jours difficiles, fait pas le difficile Hein ? puto 2021 c'est sûr que j'les choque J'connais ma ce-for, j'connais mon jab Plus jamais j'roule en loc' C'est nous les meilleurs du périmètre 92100 les autres c'est d'la merde J'suis d'Boulogne comme Salif, cousin Mais ??? n'est pas de chez nous J'cuisine fort comme A.J cookin' La gov' qui passe c'est un AMG-G JJ, ramène des tasspé, j'ai plusieurs fonctions, plusieurs casquettes Et celui qui casse il va casquer il va khalass Wow, Hein A l'ancienne t'es comme un Shamballah J'suis Sané toi t'es Zabaleta soupape Y'a pas wari igo j'suis pas là 24 Carats, 24 Carats j'veux fort ! Rolex, AP, j'achète, ensuite je détaxe Dans la tanière, y'a des serpents, y'a des serpents Python, full croco, j'fais la mala comme un boug antillais boug an mwen J'crois en Dieu, j'suis un musulman Le rap c'est haram mais j'dois manger Le rap c'est haram mais j'dois manger ouais, bigo A la base j'le fais pour passer l'temps J'ai plus l'âge de prouver à quelqu'un Igo j'dois manger J'récupère j'investis direct, j'multiplie par 3 pour avoir un salaire correct Les trader sont des fils de putes Les bouts-mara, des fils de pute Président, fils de pute J'opère la nuit de noir, vêtu La dalle comme à mes débuts, comme si j'étais en chien Fumer ton salaire à l'année J'ai même pas reçu mon avance j'attends rien du per-a J'ai voulu voir, j'ai vu J'ai voulu boire, j'ai bu J'ai voulu graille, j'ai graillé J'ai voulu ken, j'les ai ken hein Ils diront qu'c'est nous les faux Ils diront qu'c'est eux les vrais Vu qu'tout est relatif Igo c'est qui les vrais ? You might also likeSOSA Mes démons m'obéissent C'tout c'que j'avais</t>
+          <t>Wesh Ils parlent tous d'bitcoin Pour eux c'est la hess à vie Miskine Profitez l'équipe, pour de vrai Mes démons m'obéissent J'ai liquidité comme un paki hey Plus jamais je n'me fait trahir hey J'suis dans la surface comme un renard Extérieur du pied, j'ai pas failli Esh Thierry Henry Fuck le plus fort de ta city fuck J'ai passé l'âge de faire la bagarre fuck Business illégaux, j'suis impliqué cash Hein ? Et pendant qu'Sarko baise Carla Et pendant qu'Sarko baise Carla Le pays va mal, d'ici peut le rain-té ouvre en carrelage Guette la perf', j'enchaine que des hat-tricks Précis, j'livre au gramme près Au délibéré, y'aura aucun suspense J'coupe et décale comme au pays J'fais rentrer l'argent comme un brouteur Ici c'est Paname c'est pas L.A Ici c'est chaud comme au hammam Mon nom affiché dans l'journal J'ai fouetté la Dans le dos j'ai Ocho, au tiekar j'fais des passes comme Iniesta Ouais, j'passe à table même si j'ai pas faim J'ai connu la hess, les jours difficiles, fait pas le difficile Hein ? puto 2021 c'est sûr que j'les choque J'connais ma ce-for, j'connais mon jab Plus jamais j'roule en loc' C'est nous les meilleurs du périmètre 92100 les autres c'est d'la merde J'suis d'Boulogne comme Salif, cousin Mais ??? n'est pas de chez nous J'cuisine fort comme A.J cookin' La gov' qui passe c'est un AMG-G JJ, ramène des tasspé, j'ai plusieurs fonctions, plusieurs casquettes Et celui qui casse il va casquer il va khalass Wow, Hein A l'ancienne t'es comme un Shamballah J'suis Sané toi t'es Zabaleta soupape Y'a pas wari igo j'suis pas là 24 Carats, 24 Carats j'veux fort ! Rolex, AP, j'achète, ensuite je détaxe Dans la tanière, y'a des serpents, y'a des serpents Python, full croco, j'fais la mala comme un boug antillais boug an mwen J'crois en Dieu, j'suis un musulman Le rap c'est haram mais j'dois manger Le rap c'est haram mais j'dois manger ouais, bigo A la base j'le fais pour passer l'temps J'ai plus l'âge de prouver à quelqu'un Igo j'dois manger J'récupère j'investis direct, j'multiplie par 3 pour avoir un salaire correct Les trader sont des fils de putes Les bouts-mara, des fils de pute Président, fils de pute J'opère la nuit de noir, vêtu La dalle comme à mes débuts, comme si j'étais en chien Fumer ton salaire à l'année J'ai même pas reçu mon avance j'attends rien du per-a J'ai voulu voir, j'ai vu J'ai voulu boire, j'ai bu J'ai voulu graille, j'ai graillé J'ai voulu ken, j'les ai ken hein Ils diront qu'c'est nous les faux Ils diront qu'c'est eux les vrais Vu qu'tout est relatif Igo c'est qui les vrais ? SOSA Mes démons m'obéissent C'tout c'que j'avais</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2151,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Trop nerveux pour l'Etat français Jeune africain dans les tranchés J'arrive bouillant dans ma lancée Vouloir nous teste c'est pas censé Semi-auto te fera danser Manigancées sont nos idées J't'ai vu venir comme un crochet Après minuit on est ganté Récidiviste mais pas teu-bé Les frérots sont blasés mais platrés Tu verras que la vie est belle, si t'as connu la hess tu ne pourras pas flamber J'suis au entre quatre tours, ça sent la perquisition je vais m'planquer Des aller-retours en détention, certains n'ont connu que la prison Renoi bre-som comme Chief Keef C'est donnant-donnant c'est kiff-kiff wesh Tout est réel rien n'est fictif C'est nous les méchants, vous les chics types Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white You might also like Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Merci seigneur j'vais enfin m'venger De ceux qui m'voyaient manger Le reste de leur assiette j'suis pas venu sympathiser Nouvelle dégaine nouveaux souliers Ton meilleur shab a parlé Cassage de porte coup d'bélier 6 du mat' en train d'roupiller Ouais ma gueule fais pas la morale Nos grands frères sont dépassés Nos daronnes le sont aussi, majeur avant dix-huit balais Allô papa comment tu vas ? Un nouveau soucis d'famille Un et des CD j'm'en veux de pas être millionaire Un SMIC par jour j'ai le bon tempo Violent comme Crespo, j'suis dans la cabine j'veux RS4 jantes chromes, braqué place Vendôme Ils m'disaient c'est mort aujourd'hui j'les baise tous, aujourd'hui j'les baise tous J'ai vidé leur poche j'ai vidé ma cartouche, j'ai vidé ma cartouche Partouze ! Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Violence, Kmer a.k.a Monsieur So Commence à comprendre le délire là</t>
+          <t>Trop nerveux pour l'Etat français Jeune africain dans les tranchés J'arrive bouillant dans ma lancée Vouloir nous teste c'est pas censé Semi-auto te fera danser Manigancées sont nos idées J't'ai vu venir comme un crochet Après minuit on est ganté Récidiviste mais pas teu-bé Les frérots sont blasés mais platrés Tu verras que la vie est belle, si t'as connu la hess tu ne pourras pas flamber J'suis au entre quatre tours, ça sent la perquisition je vais m'planquer Des aller-retours en détention, certains n'ont connu que la prison Renoi bre-som comme Chief Keef C'est donnant-donnant c'est kiff-kiff wesh Tout est réel rien n'est fictif C'est nous les méchants, vous les chics types Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Merci seigneur j'vais enfin m'venger De ceux qui m'voyaient manger Le reste de leur assiette j'suis pas venu sympathiser Nouvelle dégaine nouveaux souliers Ton meilleur shab a parlé Cassage de porte coup d'bélier 6 du mat' en train d'roupiller Ouais ma gueule fais pas la morale Nos grands frères sont dépassés Nos daronnes le sont aussi, majeur avant dix-huit balais Allô papa comment tu vas ? Un nouveau soucis d'famille Un et des CD j'm'en veux de pas être millionaire Un SMIC par jour j'ai le bon tempo Violent comme Crespo, j'suis dans la cabine j'veux RS4 jantes chromes, braqué place Vendôme Ils m'disaient c'est mort aujourd'hui j'les baise tous, aujourd'hui j'les baise tous J'ai vidé leur poche j'ai vidé ma cartouche, j'ai vidé ma cartouche Partouze ! Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Violence, Kmer a.k.a Monsieur So Commence à comprendre le délire là</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2168,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Han, han, ouais, ouais, ouais, ouais Ouais, ouais, ouais Que de la violence C'est violant Ouais ouais ouais Eh Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Quelques kilos dans l'appartement Euros dollars dans le chargement Les voisins nous prennent pour des garnements On fait plus de sous que le Parlement Elle connaît la valeur du vêtement Tu crois nous aimer mais laisse faire le temps J'ai souris la veille du crime, le temps n'efface pas les séquelles de nos châtiments Je bibi la daube dans le binks' Un gramme, deux grammes dans les fesses En Vespa j'vais livrer dans l'sei-ze J'suis ravis frérot quand j'encai-sse Même en liberté j'me sens menotté Les salopes diront qu'ils nous ont aidé La plupart en pp sont endettés L'union fait la force des plus fatigués Les anciens du tié-kar sont épuisés La douleur est telle qu'elle me dit d'arrêter J'suis dans son vagin comme à la cité J'fais des va-et-viens pour me soulager You might also like Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Wesh ? OL sur le maillot BAS c'est la mentale On gère toutes sortes de créneaux J'suis partout où c'est rentable En temps de guerre pas de repos On fera la guerre à l'équipe d'en face J'ai grandi dans les ortilles Les blessures sont mon pare-balles Ces temps-ci mon bigo grésille La brigade financière à nos trousses Pour finir à Bois d'Ar' ou Fleury C'est ca d'être un loup parmi les loups Tu nous verras jamais à genou Qui prétend au règne reste debout Ta dégaine me dira qu't'es chelou On fait pas crédit comme les pakatou Ouais mon gars, tout est carré tout est sale Wesh, j'suis africain, rien à foutre des USA Ouais mon gars, tout est carré tout est sale Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Yeah... Yeah... Gangz!</t>
+          <t>Han, han, ouais, ouais, ouais, ouais Ouais, ouais, ouais Que de la violence C'est violant Ouais ouais ouais Eh Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Quelques kilos dans l'appartement Euros dollars dans le chargement Les voisins nous prennent pour des garnements On fait plus de sous que le Parlement Elle connaît la valeur du vêtement Tu crois nous aimer mais laisse faire le temps J'ai souris la veille du crime, le temps n'efface pas les séquelles de nos châtiments Je bibi la daube dans le binks' Un gramme, deux grammes dans les fesses En Vespa j'vais livrer dans l'sei-ze J'suis ravis frérot quand j'encai-sse Même en liberté j'me sens menotté Les salopes diront qu'ils nous ont aidé La plupart en pp sont endettés L'union fait la force des plus fatigués Les anciens du tié-kar sont épuisés La douleur est telle qu'elle me dit d'arrêter J'suis dans son vagin comme à la cité J'fais des va-et-viens pour me soulager Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Wesh ? OL sur le maillot BAS c'est la mentale On gère toutes sortes de créneaux J'suis partout où c'est rentable En temps de guerre pas de repos On fera la guerre à l'équipe d'en face J'ai grandi dans les ortilles Les blessures sont mon pare-balles Ces temps-ci mon bigo grésille La brigade financière à nos trousses Pour finir à Bois d'Ar' ou Fleury C'est ca d'être un loup parmi les loups Tu nous verras jamais à genou Qui prétend au règne reste debout Ta dégaine me dira qu't'es chelou On fait pas crédit comme les pakatou Ouais mon gars, tout est carré tout est sale Wesh, j'suis africain, rien à foutre des USA Ouais mon gars, tout est carré tout est sale Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Yeah... Yeah... Gangz!</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2185,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>T'as vu La faune, la flore, j'ai bibi tous mes rêves Dans l'hall, il fait noir On s'fie à l'odorat, le parfum de Tanger Eh, e flair, il est bon, j'ai trouvé la faille trouvé la faille, j'ai trouvé la faille trouvé la faille Ouais, ouais Terrain glissant pour les mômes, terrain glissant pour les mômes La plupart n'ont pas eu le bac nan, savent pas lire mais savent faire les comptes, ouais Plus rien à fêter depuis l'premier janvier, j'suis pas dans la bringue j'suis dans l'binks J'vais pas rapper jusqu'à mes 40 balais si ça marche pas j'vais taper un brinks Une cagoule un T-Max ca fait rla, tu payes pas dans ls temps tu verras ouais, ouais La gloire j'n veux pas j'me fais rare des années que je rappe mais je garde la même rage Eh, j'suis dans les wayes wayes, trois quarts du tie-quar finit incarcéré Pour trois quarts la raison c'est la précarité, paro' comme d'hab je me fie qu'à mes idées J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis You might also like VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS Trau-le m'a tej' pour des mots, que j'pensais même pas, c'est d'la faute à nous deux Mon cri résonne dans la pénombre, vaincu ma haine dans les sonorités Il paraît qu'j'suis mauvais, qu'à faute avoué j'ai pardonné On a c'que l'on mérite c'est faux, proverbe qui nous aide à être moins malheureux Stop, mon cur j'te l'avais loué, t'en a fais c'que tu veux, m'le rends abîmé Grandi près du feu donc nos curs sont froids C'est ça moi j'continue à bibi la Plus parlé depuis longtemps ouais, plus parlé depuis longtemps, ça whippin', ça whippin' Un te-traî en cache p'tet un autre, un cauchemar en précède un autre Ca s'répète toute l'année Le soleil se lève sur la ville, il éclaire nos péchés en vain L'humain est si moche de près, Dieu créa la terre et l'Homme l'armé de poings J'ai mal au cur everyday, j'ai mal au cur everyday Quand j'pense à la ronne-da, ce pays lui a fait du mal, ce pays lui a fait du mal J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS</t>
+          <t>T'as vu La faune, la flore, j'ai bibi tous mes rêves Dans l'hall, il fait noir On s'fie à l'odorat, le parfum de Tanger Eh, e flair, il est bon, j'ai trouvé la faille trouvé la faille, j'ai trouvé la faille trouvé la faille Ouais, ouais Terrain glissant pour les mômes, terrain glissant pour les mômes La plupart n'ont pas eu le bac nan, savent pas lire mais savent faire les comptes, ouais Plus rien à fêter depuis l'premier janvier, j'suis pas dans la bringue j'suis dans l'binks J'vais pas rapper jusqu'à mes 40 balais si ça marche pas j'vais taper un brinks Une cagoule un T-Max ca fait rla, tu payes pas dans ls temps tu verras ouais, ouais La gloire j'n veux pas j'me fais rare des années que je rappe mais je garde la même rage Eh, j'suis dans les wayes wayes, trois quarts du tie-quar finit incarcéré Pour trois quarts la raison c'est la précarité, paro' comme d'hab je me fie qu'à mes idées J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS Trau-le m'a tej' pour des mots, que j'pensais même pas, c'est d'la faute à nous deux Mon cri résonne dans la pénombre, vaincu ma haine dans les sonorités Il paraît qu'j'suis mauvais, qu'à faute avoué j'ai pardonné On a c'que l'on mérite c'est faux, proverbe qui nous aide à être moins malheureux Stop, mon cur j'te l'avais loué, t'en a fais c'que tu veux, m'le rends abîmé Grandi près du feu donc nos curs sont froids C'est ça moi j'continue à bibi la Plus parlé depuis longtemps ouais, plus parlé depuis longtemps, ça whippin', ça whippin' Un te-traî en cache p'tet un autre, un cauchemar en précède un autre Ca s'répète toute l'année Le soleil se lève sur la ville, il éclaire nos péchés en vain L'humain est si moche de près, Dieu créa la terre et l'Homme l'armé de poings J'ai mal au cur everyday, j'ai mal au cur everyday Quand j'pense à la ronne-da, ce pays lui a fait du mal, ce pays lui a fait du mal J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Elh_Kmer_songs.xlsx
+++ b/data/02_intermediate/cleaned_Elh_Kmer_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mula</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>Marche ou crève mon ami Je l'ai appris à mes dépens Ma génération pue sa grand-mère la pute Et moi, dis moi si j'suis meilleur que ces fils de putes Très haut je vais monter, sévère sera ta chute J'suis meilleur que toi négro, le savait-tu ? 90 du rap se prostitue Kalachnikov près de mon cur qui pourra m'arrêter ? Maman j'suis bien équipé, t'inquiète pas pour moi même si j'suis boycotté L'avenir appartient à ceux qui bicravent de la gue-dro 0 taxes, 0 impôts, le seul inconvénient finir au dépôt Mais où sont mes négros ? Tony my nigga, my nigga J'ai bicrave la C quand il y'avait plus de bédo J'ai fumé cette chienne, elle a finit chez l'véto Kalachnikov dans ta chatte, j'parle pas aux biatchs mais au mac J'ai quelques clients qui m'attendent Donc parle de khaliss si c'est rentable Les pertes sont considérables plus dans ton camp que dans le nôtre Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co T'es pas mon père bâtard j'suis pas ton fils Ferme ta gueule et faisons du khaliss Ferme ta gueule parlons de cannabis Y'a pas d'âge négro pour vous mettre en déficit J'suis navré, sur vos carrières je mets R.I.P. J'ai la mentale de Kounta Kinté 400 ans d'esclavage négro, pas d'jours fériés J'vais te baiser jusqu'à c'que tu n'ait plus tes règles, fuck La manière seul le rendu m'importe, pute Crachat, crachat dans ta chatte, accouchera d'un bâtard J'ai perdu mon frère depuis j'suis plus le même J'observe les étoiles, parmi elle une ébène La vie mord bien sûr qu'elle est très noire Sans ta présence nos projets sont à la poubelle Négro il y'a d'OG Kush, teu-shi et coco Tu payes cash même si t'es nne-bo Faut la chance des cinq chiffres du Loto AK-47 remplace mon kimono J'vais les uét', cette année c'est sûr En un seul couplet le game me plébiscite On sait qui est qui, on sait qui fait quoi Arrêtez vos blehni, vos vies sont des films Les pertes sont considérables Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches Mr Sosa ma monnaie ma monnaie 2016 mon ami mon ami N10 ma monnaie ma monnaie he On le fera pour toi frérot ma monnaie ma monnaie he Hey A.S.K Clik ma monnaie ma monnaie he Boulogne Square ma monnaie ma monnaie Pont de Sèvres mon ami mon ami Ombre et lumière Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he3</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>2 places</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marche ou crève mon ami Je l'ai appris à mes dépens Ma génération pue sa grand-mère la pute Et moi, dis moi si j'suis meilleur que ces fils de putes Très haut je vais monter, sévère sera ta chute J'suis meilleur que toi négro, le savait-tu ? 90 du rap se prostitue Kalachnikov près de mon cur qui pourra m'arrêter ? Maman j'suis bien équipé, t'inquiète pas pour moi même si j'suis boycotté L'avenir appartient à ceux qui bicravent de la gue-dro 0 taxes, 0 impôts, le seul inconvénient finir au dépôt Mais où sont mes négros ? Tony my nigga, my nigga J'ai bicrave la C quand il y'avait plus de bédo J'ai fumé cette chienne, elle a finit chez l'véto Kalachnikov dans ta chatte, j'parle pas aux biatchs mais au mac J'ai quelques clients qui m'attendent Donc parle de khaliss si c'est rentable Les pertes sont considérables plus dans ton camp que dans le nôtre Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co T'es pas mon père bâtard j'suis pas ton fils Ferme ta gueule et faisons du khaliss Ferme ta gueule parlons de cannabis Y'a pas d'âge négro pour vous mettre en déficit J'suis navré, sur vos carrières je mets R.I.P. J'ai la mentale de Kounta Kinté 400 ans d'esclavage négro, pas d'jours fériés J'vais te baiser jusqu'à c'que tu n'ait plus tes règles, fuck La manière seul le rendu m'importe, pute Crachat, crachat dans ta chatte, accouchera d'un bâtard J'ai perdu mon frère depuis j'suis plus le même J'observe les étoiles, parmi elle une ébène La vie mord bien sûr qu'elle est très noire Sans ta présence nos projets sont à la poubelle Négro il y'a d'OG Kush, teu-shi et coco Tu payes cash même si t'es nne-bo Faut la chance des cinq chiffres du Loto AK-47 remplace mon kimono J'vais les uét', cette année c'est sûr En un seul couplet le game me plébiscite On sait qui est qui, on sait qui fait quoi Arrêtez vos blehni, vos vies sont des films Les pertes sont considérables Négro, est-ce de ma faute si l'ange de la mort a préféré le vôtre ? J'suis dans la rue, j'vis dans le block et je compte mes euros Wesh, grosse folle, passe au tier-quar avec toutes tes pines-co J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches J'suis dans le block, renoi, j'suis dans le block Dollars, dollars, j'veux des dollars Nique sa mère l'école ça remplit pas les poches Mr Sosa ma monnaie ma monnaie 2016 mon ami mon ami N10 ma monnaie ma monnaie he On le fera pour toi frérot ma monnaie ma monnaie he Hey A.S.K Clik ma monnaie ma monnaie he Boulogne Square ma monnaie ma monnaie Pont de Sèvres mon ami mon ami Ombre et lumière Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony he Mon ami c'est Tony Mon ami c'est Tony Mon ami c'est Tony he3</t>
+          <t>Jisan Production Oh-oh Trois fois T'as vu ? Tou-tou-touh-tou-tou-tou-touh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer Han J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Jackson Fiv, Jackson Five, Jackson Five Han, han, han J'suis rentré, ils m'ont pas vu rssortir avec le butin, une putain à côté d'moi Butin, une putain à côté De toute façon, j'compte pas sur toi, le soleil tape, j'décapote le toit Le soleil tape T'as pris des coups, on a tenu le coup Coup, quand je la baise, je la tiens par le cou Cou Magnum, P.38, six coups Tou-tou-touh, be-her, te-shi, en bas de nos tours Oh, oh, oh À qui le tour ? Y aura pas de détour Mmh Quand tu fais la maille, ça crée beaucoup d'ennemis Quand tu fais la maille, ça crée beaucoup d'ennemis, ouh, ouh, ouh, ouh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Autodidacte depuis gamin, on fait que s'adapter Noire est la couleur du cur, tu crois qu'c'est la bonne mais y a que des tasses-pé J'achète, je guette pas le prix, avenue des Hommes, j'connais Rivoli J'connais Dieu merci, j'suis toujours en vie, j'aurais pu mourir comme 2Pac et Biggie Biggie Small Bientôt la foudre Biggie folle Biggie, ouh, ouh, ouh Belek aux blues, j'élabore le plan, la pano' est full, full, full Nous, c'est la Ligue 1 Wow, pas d'Ligue 2 Wow, pas d'chagrin, tout pour la plata Ouais Si on veut, on prend, on deal, on vole, on shoote, on touche les legs Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Il n'y a que deux places au volant d'la 'rari Allô maman ? Bobo Tout l'temps, tout l'temp</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2 places</t>
+          <t>400m²</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jisan Production Oh-oh Trois fois T'as vu ? Tou-tou-touh-tou-tou-tou-touh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer Han J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Jackson Fiv, Jackson Five, Jackson Five Han, han, han J'suis rentré, ils m'ont pas vu rssortir avec le butin, une putain à côté d'moi Butin, une putain à côté De toute façon, j'compte pas sur toi, le soleil tape, j'décapote le toit Le soleil tape T'as pris des coups, on a tenu le coup Coup, quand je la baise, je la tiens par le cou Cou Magnum, P.38, six coups Tou-tou-touh, be-her, te-shi, en bas de nos tours Oh, oh, oh À qui le tour ? Y aura pas de détour Mmh Quand tu fais la maille, ça crée beaucoup d'ennemis Quand tu fais la maille, ça crée beaucoup d'ennemis, ouh, ouh, ouh, ouh Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Autodidacte depuis gamin, on fait que s'adapter Noire est la couleur du cur, tu crois qu'c'est la bonne mais y a que des tasses-pé J'achète, je guette pas le prix, avenue des Hommes, j'connais Rivoli J'connais Dieu merci, j'suis toujours en vie, j'aurais pu mourir comme 2Pac et Biggie Biggie Small Bientôt la foudre Biggie folle Biggie, ouh, ouh, ouh Belek aux blues, j'élabore le plan, la pano' est full, full, full Nous, c'est la Ligue 1 Wow, pas d'Ligue 2 Wow, pas d'chagrin, tout pour la plata Ouais Si on veut, on prend, on deal, on vole, on shoote, on touche les legs Au volant d'la 'rari Au volant, il n'y a que deux places Deux places J'ai charclé mes ennemis dans l'tas, dans l'tas Tou-tou-tou-tou-tou-tou-touh La rue m'a laissé des séquelles La rue m'a laissé, allô maman ? Bobo Allô maman ? J'dois compter le papel tout l'temps Oh, oh, tout l'temps Oh, oh Tu peux mourir en bas comme Tupac Amaru Shakur C'est mon cur qui crie Au secours mais les billets, ça m'apaise toujours Plein de billets, plein de billets On fait que d'chiffrer, chiffrer, chiffrer, chiffrer On fait que d'chiffrer J'suis pas venu pour jouer Han, taku, takuta, c'est terminé Han Il n'y a que deux places au volant d'la 'rari Allô maman ? Bobo Tout l'temps, tout l'temp</t>
+          <t>Nakah Hey hey On doit l'écrire lhistoire mon ami 4 saisons, Vivaldi, on y est Mmmh, hey hey Wesh, méfie-toi de cqui brille mon ami Nest pas forcément signe de quali ice Jfais un garrot pour mamputer Jmattache à que dalle, même pas aux amis Faut du pouvoir, faut du prestige Héliport, plusieurs domaines woo woo Simple citoyen, faut pas sapitoyer krr Jdois nettoyer après usage À côté des bombes tu es du côté Jsuis ponctuel comme la faucheuse Jserre la voile pour rouler plus vite Trêve de plaisanterie Boîte auto mérite une gâterie Sois sur tes appuis, gamin Vision laser sur lappuie-tête Nouveau festin, jvais minviter Riche en calcium est ma Vittel whao whao whao Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu Hey hey hey HLM rempli dcafards Jsuis dans un dix pièces, cest djà pas mal pas mal Faut du savoir pour pratiquer Qui veut la tête du roi se prend un ticket se prend un ticket Jsuis dans la kitchen, jmange des langoustes langoustes Mais je préfère le poulet attiéké hum 400 ans desclavage mais ces connards nont pas abdiqué ah bon ? La substance te fait planer sfff Elle vient de Ketama Ketama Sauce dakatine pour les protéines ouh ouh Jsuis pas un dces rappeurs butés à la codéine On va tcharcler comme à London Rogue one baby I dont know Jaime bien les skinny mais jpréfère les gées-char hum Jvais pas la niquer sans condom Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu, tas vu, tas vu</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400m²</t>
+          <t>404</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nakah Hey hey On doit l'écrire lhistoire mon ami 4 saisons, Vivaldi, on y est Mmmh, hey hey Wesh, méfie-toi de cqui brille mon ami Nest pas forcément signe de quali ice Jfais un garrot pour mamputer Jmattache à que dalle, même pas aux amis Faut du pouvoir, faut du prestige Héliport, plusieurs domaines woo woo Simple citoyen, faut pas sapitoyer krr Jdois nettoyer après usage À côté des bombes tu es du côté Jsuis ponctuel comme la faucheuse Jserre la voile pour rouler plus vite Trêve de plaisanterie Boîte auto mérite une gâterie Sois sur tes appuis, gamin Vision laser sur lappuie-tête Nouveau festin, jvais minviter Riche en calcium est ma Vittel whao whao whao Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu Hey hey hey HLM rempli dcafards Jsuis dans un dix pièces, cest djà pas mal pas mal Faut du savoir pour pratiquer Qui veut la tête du roi se prend un ticket se prend un ticket Jsuis dans la kitchen, jmange des langoustes langoustes Mais je préfère le poulet attiéké hum 400 ans desclavage mais ces connards nont pas abdiqué ah bon ? La substance te fait planer sfff Elle vient de Ketama Ketama Sauce dakatine pour les protéines ouh ouh Jsuis pas un dces rappeurs butés à la codéine On va tcharcler comme à London Rogue one baby I dont know Jaime bien les skinny mais jpréfère les gées-char hum Jvais pas la niquer sans condom Jrentre à la maison ouh Sac dans le Phantom ouh Baby est loyale baby Jai pas trop damis nada On connait les failles du jeu ice Le salon est marbré 400m habitable ouh Shooter sur le rooftop piouff piouff Jrentre à la maison ouh Sac dans le Phantom ice Baby est loyale baby Jai pas trop damis no On connait les failles du jeu on connaît Le salon est marbré 400m habitable tas vu, tas vu, tas vu, tas vu, tas vu</t>
+          <t>I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you Remords Could go I'm sorry But you Faille If I knew that happen, Yo, tell me J'avais quelques remords Is that Traplysse Fouu J'avais quelques remords J't'ai dédié le plus triste des poèmes Le cur se rappelle de nos promesses On avait l'air plus heureux dans la Bohème C'est laborieux Dans la brume de l'automne on s'st perdu J'aurai pas dû te rencontrr J'en veux à Tiffaine d'avoir fait croiser nos âmes ouuh, hein T'aurais pu me dire que t'aimais les femmes Moi j'écoutais tes récits, tes fables Comment te sens-tu après avoir jouer de moi ouuh, hein C'est comme si t'es morte Une partie de moi veut la paix, veut t'oublier Allumons les cierges comme un veillée Sosa Ton amour moi j'en voulais pas Je voulais juste ta loyauté Utopique était le mauvais A nous d'en former une royauté La nuit je suis comme somnambule han J't'ai dédié un poème J'ai fait le tour, j'ai rangé les armes I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu Tu te donnais des airs innocents Des délires de fille de bonne famille T'as rencontré la mienne, malgré nos différences culturelles J'ai pas eu le temps de réaliser que t'as cassé mes codes, mon bouclier Lien d'âme ou pas c'est plus d'actualité, c'est une réalité ouhh Et dis moi à qui tu te confiais quand c'était froid A qui tu parlais quand fallait pas Et qui te baisait quand j'étais pas là à qui, ouhh Coucou à Tiffaine, toi tu me disais que je faisais une fixette Des années après on se croise, tu m'avoues que t'es lesbienne Ton amour moi j'en voulais pas Je voulais juste ta loyauté ouhh Utopique était le mauvais A nous d'en former une royauté ahh La nuit je suis comme somnambule ouhh han J't'ai dédié un poème ahh J'ai fait le tour, j'ai rangé les armes ahh I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu If I knew that you could go I'm sorry But you If I knew that happen, tell me fouu1</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>5000 Otages</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you Remords Could go I'm sorry But you Faille If I knew that happen, Yo, tell me J'avais quelques remords Is that Traplysse Fouu J'avais quelques remords J't'ai dédié le plus triste des poèmes Le cur se rappelle de nos promesses On avait l'air plus heureux dans la Bohème C'est laborieux Dans la brume de l'automne on s'st perdu J'aurai pas dû te rencontrr J'en veux à Tiffaine d'avoir fait croiser nos âmes ouuh, hein T'aurais pu me dire que t'aimais les femmes Moi j'écoutais tes récits, tes fables Comment te sens-tu après avoir jouer de moi ouuh, hein C'est comme si t'es morte Une partie de moi veut la paix, veut t'oublier Allumons les cierges comme un veillée Sosa Ton amour moi j'en voulais pas Je voulais juste ta loyauté Utopique était le mauvais A nous d'en former une royauté La nuit je suis comme somnambule han J't'ai dédié un poème J'ai fait le tour, j'ai rangé les armes I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu Tu te donnais des airs innocents Des délires de fille de bonne famille T'as rencontré la mienne, malgré nos différences culturelles J'ai pas eu le temps de réaliser que t'as cassé mes codes, mon bouclier Lien d'âme ou pas c'est plus d'actualité, c'est une réalité ouhh Et dis moi à qui tu te confiais quand c'était froid A qui tu parlais quand fallait pas Et qui te baisait quand j'étais pas là à qui, ouhh Coucou à Tiffaine, toi tu me disais que je faisais une fixette Des années après on se croise, tu m'avoues que t'es lesbienne Ton amour moi j'en voulais pas Je voulais juste ta loyauté ouhh Utopique était le mauvais A nous d'en former une royauté ahh La nuit je suis comme somnambule ouhh han J't'ai dédié un poème ahh J'ai fait le tour, j'ai rangé les armes ahh I know that you warned me Just from me I knew that you put me in the coldest place could be If I knew that you could go I'm sorry But you If I knew that happen, tell me Fouu If I knew that you could go I'm sorry But you If I knew that happen, tell me fouu1</t>
+          <t>All day Il suffit d'un rien tu t'couches, carré d'avas tu t'couches So la Lune, so Monsieur Sosa, ils m'disent Tu vient d'où ? Du Minnesota ? Fini l'époque où j'étais trop naïf, les blessures, les peines j'anticipe Le monde est réel et pénible, j'fais passer le temps autour du periph' Un vrai négro j'attrape la fille du shérif Ouais allô ? Et j'ai mis trois bouts dans un bout, gros, c'est terrible T'es pas un cain-ri, t'es un suceur de cain-ris Coup d'vent Veulent cash au Quatar après j'me jette sur Beriz Coup d'vnt Et tout compte fait, j'vais les niquer Yah, ls services sont tarifés Yah J'aime pas la loi, l'autorité, mélange quantité, qualité Yah Bizarre, t'étais pas là, mais c'est toi qu'en a l'plus parlé Biberon, j'suis sous biberon et un jour, gros, on va disparaître Yah, yah Et un jour gros on va disparaître Bizarre t'étais pas là mais c'est toi qu'en a l'plus parlé 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort Euro, Euro, Euro, Euro, j'investis les idées j'ai laissé de té-cô Maman me voyait avocat, j'ai fini au barreau mais du mauvais côté Bizarre, t'es bizarre à mort, gros, t'es une putain d'pute Sur la prod', j'ai pas tiré à blanc, ça prépare un putain d'truc, Double So So, So ,So, So, j'ai trouvé la faille, c'est mélodie et Vevo Le plan-guan est carré, c'est mort, j'ai signé dans l'vaisseau donc fini de dodo Double So c'est le putain d'plan, j'connais la vie et son putain d'prix Paie moi dans les temps, la putain d'toi, j'ai dents aiguisées, t'es la putain d'proie Comme ton papa j'suis sévère, la concu' sur civière J'ai trouvé une rivière de lovés, j'dois brasser sévère Chez la nourric,e j'ai planqué le pe-pom et de quoi t'couper Faute avouée à moitié pardonnée mais toi t'as snitché 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort1</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5000 Otages</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>All day Il suffit d'un rien tu t'couches, carré d'avas tu t'couches So la Lune, so Monsieur Sosa, ils m'disent Tu vient d'où ? Du Minnesota ? Fini l'époque où j'étais trop naïf, les blessures, les peines j'anticipe Le monde est réel et pénible, j'fais passer le temps autour du periph' Un vrai négro j'attrape la fille du shérif Ouais allô ? Et j'ai mis trois bouts dans un bout, gros, c'est terrible T'es pas un cain-ri, t'es un suceur de cain-ris Coup d'vent Veulent cash au Quatar après j'me jette sur Beriz Coup d'vnt Et tout compte fait, j'vais les niquer Yah, ls services sont tarifés Yah J'aime pas la loi, l'autorité, mélange quantité, qualité Yah Bizarre, t'étais pas là, mais c'est toi qu'en a l'plus parlé Biberon, j'suis sous biberon et un jour, gros, on va disparaître Yah, yah Et un jour gros on va disparaître Bizarre t'étais pas là mais c'est toi qu'en a l'plus parlé 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort Euro, Euro, Euro, Euro, j'investis les idées j'ai laissé de té-cô Maman me voyait avocat, j'ai fini au barreau mais du mauvais côté Bizarre, t'es bizarre à mort, gros, t'es une putain d'pute Sur la prod', j'ai pas tiré à blanc, ça prépare un putain d'truc, Double So So, So ,So, So, j'ai trouvé la faille, c'est mélodie et Vevo Le plan-guan est carré, c'est mort, j'ai signé dans l'vaisseau donc fini de dodo Double So c'est le putain d'plan, j'connais la vie et son putain d'prix Paie moi dans les temps, la putain d'toi, j'ai dents aiguisées, t'es la putain d'proie Comme ton papa j'suis sévère, la concu' sur civière J'ai trouvé une rivière de lovés, j'dois brasser sévère Chez la nourric,e j'ai planqué le pe-pom et de quoi t'couper Faute avouée à moitié pardonnée mais toi t'as snitché 5000 otages igo, igo, igo Vrm, vrm, vrm J'entends le bruit des gyrophares si tôt, si tôt, très tôt Gyrophares La patience est morte c'est vrai, c'est vrai, c'est vrai Mort, mort J'ai perdu mon âme dans un kil' de C, igo, bigo Brr T'as parlé, c'est bon, on va t'faire danser, c'est mort C'est mort Demain c'est nous, en di-di du cratère ça dit quoi ? C'est carré sa mère C'est carré, le teuh-teuh est calé sa mère T'as parlé c'est bon C'est carré, on va t'faire danser, c'est mort1</t>
+          <t>I love you Phil J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD Guette nos vies, c'est pas comme dans les films, un reuf est mort, c'est pour de vrai J'le pleure ça fait déjà cinq ans, cinq ans que j'le vois dans mes rêves Ma haine s'étend sur mille hectares, j'ai l'troisième il comme Tenshi Hey, 500 j'ai développé la veille, en deux-deux j'suis dans l'Audi Béni soit le récit, maudits soient nos rêves qui nous poussent à commettre des délits Audemars Piguet, j'suis dans les temps, nan, nan J'ai même plus leur temps, nan, nan, nan D'ailleurs pas fameux, j'rentre en L, c'est meilleur dedans J'ai pas d'limites j'veux le monde, je découpe à l'épée la résine Ça parle de nous vers les sommets, les anges ont pris parti pour nous Et dis-le moi s'il le faut j'te fais disparaître du globe, mon ami, t'as vu Grrrr J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD Très peu d'issues favorables, so pantins et Sasori Sasori Ouais, quand j'té-cla un J dans la ville, fonscar, mal luné Mal luné Y a plus grand chose à faire vu qu'ils ont déjà tout façonné J'vois que des putes mélangées capables de R à part cé-us Ici-bas, on vit, on saisit, j'rappais mieux qu'eux d'jà à 16 ans J'cumule cent péchés par saison et si tu veux la guerre vaza J'écris comme loin des hommes, j'ai pris sur moi, là j'y vais Et j'prie plus, ça fait longtemps, fissure de-, ça fait rockeur hiyuuuuu J'ai vu la fin des hommes donc bientôt la chute des anges Et l'humain a cent visages, ouais mais, gros, c'est pas si simple Une icône, nique sa mère la pute, des sous, des sous, des sous Des fois j'divague Des fois je J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alicante</t>
+          <t>Amor Fati</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I love you Phil J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain, té-ma j'suis en full HD Full HD Guette nos vies, c'est pas comme dans les films, un reuf est mort, c'est pour de vrai J'le pleure ça fait déjà cinq ans, cinq ans que j'le vois dans mes rêves Ma haine s'étend sur mille hectares, j'ai l'troisième il comme Tenshi Hey, 500 j'ai développé la veille, en deux-deux j'suis dans l'Audi Béni soit le récit, maudits soient nos rêves qui nous poussent à commettre des délits Audemars Piguet, j'suis dans les temps, nan, nan J'ai même plus leur temps, nan, nan, nan D'ailleurs pas fameux, j'rentre en L, c'est meilleur dedans J'ai pas d'limites j'veux le monde, je découpe à l'épée la résine Ça parle de nous vers les sommets, les anges ont pris parti pour nous Et dis-le moi s'il le faut j'te fais disparaître du globe, mon ami, t'as vu Grrrr J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD Full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD Très peu d'issues favorables, so pantins et Sasori Sasori Ouais, quand j'té-cla un J dans la ville, fonscar, mal luné Mal luné Y a plus grand chose à faire vu qu'ils ont déjà tout façonné J'vois que des putes mélangées capables de R à part cé-us Ici-bas, on vit, on saisit, j'rappais mieux qu'eux d'jà à 16 ans J'cumule cent péchés par saison et si tu veux la guerre vaza J'écris comme loin des hommes, j'ai pris sur moi, là j'y vais Et j'prie plus, ça fait longtemps, fissure de-, ça fait rockeur hiyuuuuu J'ai vu la fin des hommes donc bientôt la chute des anges Et l'humain a cent visages, ouais mais, gros, c'est pas si simple Une icône, nique sa mère la pute, des sous, des sous, des sous Des fois j'divague Des fois je J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD J'crois qu'elle vient d'Alicante Alicante J'suis avec H le sang, sous pillave Ginger B Ginger B C'est ma putain d'vie Putain d'vie et bah putain té-ma j'suis en full HD full HD</t>
+          <t>Amor Fati Nakah Amor Fati Y'a comme un air de déjà-vu déjà-vu Aucune offre peut me racheter aucune Dans le précipice on y était, aucun mot ne suffira pour qualifier ta lâcheté qualifier ta lâcheté On pourra pas y rester, sentiment dans le néant, un peu d'amour pour mon destin J'y ai laissé ma santé, mes poumons et mes tripes au fil des saisons fil des saisons Dis moi où t'as mal, je dois compléter mon garage Les blessures c'est un détail, mais pour y arriver faudra les dissiper eh eh Faut une carapac, des VVS, semi-automatique qui m'obéit ic, tou-tou-tou Faut les gravir, les différents steps, faut les gravir Amor Fati Amor Fati Amor Fati Amor Fati Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux pas si fameux Et dehors, on fait partie de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi Dehors c'est la zizanie dehors, on vient pour tout récupérer tout-tout On se voyait pas finir ici, faudra plus de choses à dire pour remplir le cahier remplir les pages J't'ai vu danser le vendredi, je rigolais en vrai Faut protéger la forteresse, la parure et les bijoux ne finiront pas rouillés On se voyait, finir la story à deux on se voyait Le clan s'est décimé, les plus anciens ont fait le silence silence Touche mes ?, c'est comme si elle tournait sur elle-même Sur un voilier, on prédit la fin du navire maudit Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux si fameux Et dehors, on fait parti de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi1</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amor Fati</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Amor Fati Nakah Amor Fati Y'a comme un air de déjà-vu déjà-vu Aucune offre peut me racheter aucune Dans le précipice on y était, aucun mot ne suffira pour qualifier ta lâcheté qualifier ta lâcheté On pourra pas y rester, sentiment dans le néant, un peu d'amour pour mon destin J'y ai laissé ma santé, mes poumons et mes tripes au fil des saisons fil des saisons Dis moi où t'as mal, je dois compléter mon garage Les blessures c'est un détail, mais pour y arriver faudra les dissiper eh eh Faut une carapac, des VVS, semi-automatique qui m'obéit ic, tou-tou-tou Faut les gravir, les différents steps, faut les gravir Amor Fati Amor Fati Amor Fati Amor Fati Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux pas si fameux Et dehors, on fait partie de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi Dehors c'est la zizanie dehors, on vient pour tout récupérer tout-tout On se voyait pas finir ici, faudra plus de choses à dire pour remplir le cahier remplir les pages J't'ai vu danser le vendredi, je rigolais en vrai Faut protéger la forteresse, la parure et les bijoux ne finiront pas rouillés On se voyait, finir la story à deux on se voyait Le clan s'est décimé, les plus anciens ont fait le silence silence Touche mes ?, c'est comme si elle tournait sur elle-même Sur un voilier, on prédit la fin du navire maudit Ma destinée c'est de mourir au front J'ai vu l'envers du décor, il est pas si fameux si fameux Et dehors, on fait parti de la pire espèce, qu'avons nous pas fait pour un peu de respect de respect Amor Fati, j'ai de l'amour pour ma destinée de l'amour J'regarde le monde s'effondrer pendant que je construis Vivaldi1</t>
+          <t>Eh T'as raison d'te méfier Eh That's the tigri 34 pe-pom dans l'fut, les 34 le disent mais l'ont pas 3-3 fois on t'charge pour 6 Grosse caisse tu verra pas chez Sixt deutch Abonné comme les deux reufs des ??? On compte pas s'arrêter à mi-chemin La frappe on la coupe au Michelin Des AR, AR, tous le temps Comme SO tous le temps en coup d'vent Enonce pas mon nom plus de 3 fois J'apparaitrais dans tes rêves et cauchemars Comme Snoopy je suis planqué sur l'toit ZZ sur la plaquette est écrit Récupère et revends la au bon prix C'est d'jà mieux que de taffer au smic AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Grosse prod' je la découpe seul-tout Grosse pute ils la découpent à dix miskine 26, comme ma carte N26 scam Zéro-deux comme numéro fiscal 4X4 comme les voitures au bled Cortège comme un mariage Rebeu ewa Teinté, comme la visière du A Dans les ?? comme si j'étais plusieurs ganté Trop tard s'tu veux faire des aveux Trop tôt pour me parler d'enfant Précoce comme Kylian M'bappé J'y allais en hiver par amour du ballon Haussman, j'connais bien la route tout droit, tout droit J'mets pas si c'est pas un hood' jamais, jamais Dans les temps comme un métronome J'suis un tacticien comme Marcelo Bielsa AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Béni</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eh T'as raison d'te méfier Eh That's the tigri 34 pe-pom dans l'fut, les 34 le disent mais l'ont pas 3-3 fois on t'charge pour 6 Grosse caisse tu verra pas chez Sixt deutch Abonné comme les deux reufs des ??? On compte pas s'arrêter à mi-chemin La frappe on la coupe au Michelin Des AR, AR, tous le temps Comme SO tous le temps en coup d'vent Enonce pas mon nom plus de 3 fois J'apparaitrais dans tes rêves et cauchemars Comme Snoopy je suis planqué sur l'toit ZZ sur la plaquette est écrit Récupère et revends la au bon prix C'est d'jà mieux que de taffer au smic AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Grosse prod' je la découpe seul-tout Grosse pute ils la découpent à dix miskine 26, comme ma carte N26 scam Zéro-deux comme numéro fiscal 4X4 comme les voitures au bled Cortège comme un mariage Rebeu ewa Teinté, comme la visière du A Dans les ?? comme si j'étais plusieurs ganté Trop tard s'tu veux faire des aveux Trop tôt pour me parler d'enfant Précoce comme Kylian M'bappé J'y allais en hiver par amour du ballon Haussman, j'connais bien la route tout droit, tout droit J'mets pas si c'est pas un hood' jamais, jamais Dans les temps comme un métronome J'suis un tacticien comme Marcelo Bielsa AR, AR, tous le temps, AR, AR, tous le temps J'ai perdu la notion du temps comme un gitan C'est tout pour la rue, pour la plata J'ai perdu la notion du temps comme un gitan Après ton clip, tes potes et toi, vous enlevez la cagoule Après ton clip, tes potes et toi, vous enlevez la cagoule Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala Bolide noir mat, faut qu'je ramasse T'es à la ramasse depuis l'départ J'suis avec dhi-gan vers les montagnes, on te sens pas J'suis pas aux brigands J'ai mis la 5ème, direction Roter' J'm'arrête à Roubaix, oulala oulala Beaucoup de papel, j'envoie au pays, enfant du pays oulala oulala</t>
+          <t>Drip-drip-drip-drip De Villeneuve à Achères-Ville Tu m'entends dans la sono, j'te raconte ma vie Gros chicken, j'suis pas McFish, moi Même débordé, j'suis focus à fond, j'm'active Les deux mains sur ses fesses, j'appuie salope Grand voleur, j'me dis jamais j'lui rends, miskine Sur l'terrain, j'suis 9 comme Michy yeah Eh, maudis-moi fou, tacticien comme Salomon Leurs rps-co, en deux, j'coupe Les niquer, j'suis toujours pour J'vise Goliath au front, j'move J'pisse, pousse, j'pique, troue Avec leurs res-s, j'couche Grosse kush, j'pèse, touche Puis mets tout dans l'pétou J'suis dans la raquette, McCollum Grand colosse, viens, on t'carotte On veut que l'espèce, pas d'couronne Tout l'pognon, tout l'fourgon Te braquer sans qu'tu sois au courant salope On aime les grosses bitchs, pas collantes, rep' quand j'call On aime les grosses bitchs, pas collantes Eh, j'suis dans le réseau Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit Minimum 10K pour m'voir, j'ai l'fiston, en FaceTime Le temps passe, quatre piges que j'suis Papa Audemars Piguet, j'les vois plus, nan nan J'démarre comme un deux temps, vroum, ouais ouais Doué comme d'hab', j'ai l'astuce, cachette facile pour les miens 40 degrés dans le hall, démon se manifeste, impatient, j'prendrai mon temps Pour ligoter cinq mille otages avec So La Lune Tu diras à Trolo que j'ai pris des sous dans la rue parce que Dieu m'a béni Jamais j'vais balancer, mauvais bail, j'suis impliqué, le baveux est fe-j', hun ouh T'as vu, j'te rappe, la vie de rue, le ciel, le monde, j'ai pas d'limites J'la oigt-d sur R. Kelly, elle kiffe, là-uic' est bizarre, j'aime pas, ses gimmicks Le terrain, les saisies, le crime nous unit, attitude, j'ai ché-lâ car Dieu, m'a béni Eh, j'suis dans le réseau ouh, ouh, ouh Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit hahaha</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Béni</t>
+          <t>Biff</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Drip-drip-drip-drip De Villeneuve à Achères-Ville Tu m'entends dans la sono, j'te raconte ma vie Gros chicken, j'suis pas McFish, moi Même débordé, j'suis focus à fond, j'm'active Les deux mains sur ses fesses, j'appuie salope Grand voleur, j'me dis jamais j'lui rends, miskine Sur l'terrain, j'suis 9 comme Michy yeah Eh, maudis-moi fou, tacticien comme Salomon Leurs rps-co, en deux, j'coupe Les niquer, j'suis toujours pour J'vise Goliath au front, j'move J'pisse, pousse, j'pique, troue Avec leurs res-s, j'couche Grosse kush, j'pèse, touche Puis mets tout dans l'pétou J'suis dans la raquette, McCollum Grand colosse, viens, on t'carotte On veut que l'espèce, pas d'couronne Tout l'pognon, tout l'fourgon Te braquer sans qu'tu sois au courant salope On aime les grosses bitchs, pas collantes, rep' quand j'call On aime les grosses bitchs, pas collantes Eh, j'suis dans le réseau Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit Minimum 10K pour m'voir, j'ai l'fiston, en FaceTime Le temps passe, quatre piges que j'suis Papa Audemars Piguet, j'les vois plus, nan nan J'démarre comme un deux temps, vroum, ouais ouais Doué comme d'hab', j'ai l'astuce, cachette facile pour les miens 40 degrés dans le hall, démon se manifeste, impatient, j'prendrai mon temps Pour ligoter cinq mille otages avec So La Lune Tu diras à Trolo que j'ai pris des sous dans la rue parce que Dieu m'a béni Jamais j'vais balancer, mauvais bail, j'suis impliqué, le baveux est fe-j', hun ouh T'as vu, j'te rappe, la vie de rue, le ciel, le monde, j'ai pas d'limites J'la oigt-d sur R. Kelly, elle kiffe, là-uic' est bizarre, j'aime pas, ses gimmicks Le terrain, les saisies, le crime nous unit, attitude, j'ai ché-lâ car Dieu, m'a béni Eh, j'suis dans le réseau ouh, ouh, ouh Mes démons me posent trop de questions Eh, eh, ben moi, j'ai raison Dans quatre saisons, c'est la récession Les hommes nous maudissent t'as vu ? Tranquille tant qu'le ciel nous bénit, bénit Les hommes nous maudissent Tranquille tant qu'le ciel nous bénit, bénit hahaha</t>
+          <t>Violence Mr So Violence Mr So Violence Wesh J'arrive en balle je suis dans la AMG C'est 4 sorties minimums Poulet au riz dans laluminium Me demande pas combien je veux le maximum donne tout Ma couleur ébène a tant souffert 0 indemnité, c'est vexant Ta grand-mère la pute la proxénète T'iras en enfer comme les présidents Je suis dans l'auto, grosse auto Semi auto j'ai dans la boite à gants Aucun rivaux, aucun niveaux 0 sse-lia c'est affligeant Elle ouvre sa teucha pour avoir des sous Pour mieux supporter elle sniffe de la poudre On est dans des sales histoires Devant les keufs motus et bouche cousue Faut du walli walli walli mucho wesh Se barrer d'ici sur la playa Combien tu mets ? Parlons zeillo Rendez vous 33 rue chez mon gava J'casse dans la démarche dans le tiéquar Qui veut la guerre me la demande Qui veut la guerre me la demande Touché-coulé car Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla Tu parles fort tu ne mérites pas Je parles peu je vises la cabeza Te caches pas on te retrouvera Paname c'est pas plus grand que Valbuena Si tu dois on te cuisinera La parole de l'homme vaut bien des milliards La parole de l'homme vaut bien des milliards Baisse de 4 tons c'est pas du théâtre Et ferme ta gueule tu vas rien faire Mêle-toi de ton cul pas de nos affaires A travers nos yeux tu peux voir l'enfer Tu crois sauver l'homme mais son univers On mérite mieux que le RSA, RS6 dans le parking comme dans GTA Sa bibi la coca de Medellín dans Paris pour avoir le salaire de Verratti Rohlala je manie les mots même mal-luné Je baise la concu je suis mal aimé Parle pas de la mif j'peux t'allumer, j'peux t'annuler Je suis pas de ceux qui font les mecs sectaires Faisons du biff avec les mecs déter Ouvrons les frontières de tout nos quartiers Et faisons du biff avec les plus déter Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Biff</t>
+          <t>Bois</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Violence Mr So Violence Mr So Violence Wesh J'arrive en balle je suis dans la AMG C'est 4 sorties minimums Poulet au riz dans laluminium Me demande pas combien je veux le maximum donne tout Ma couleur ébène a tant souffert 0 indemnité, c'est vexant Ta grand-mère la pute la proxénète T'iras en enfer comme les présidents Je suis dans l'auto, grosse auto Semi auto j'ai dans la boite à gants Aucun rivaux, aucun niveaux 0 sse-lia c'est affligeant Elle ouvre sa teucha pour avoir des sous Pour mieux supporter elle sniffe de la poudre On est dans des sales histoires Devant les keufs motus et bouche cousue Faut du walli walli walli mucho wesh Se barrer d'ici sur la playa Combien tu mets ? Parlons zeillo Rendez vous 33 rue chez mon gava J'casse dans la démarche dans le tiéquar Qui veut la guerre me la demande Qui veut la guerre me la demande Touché-coulé car Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla Tu parles fort tu ne mérites pas Je parles peu je vises la cabeza Te caches pas on te retrouvera Paname c'est pas plus grand que Valbuena Si tu dois on te cuisinera La parole de l'homme vaut bien des milliards La parole de l'homme vaut bien des milliards Baisse de 4 tons c'est pas du théâtre Et ferme ta gueule tu vas rien faire Mêle-toi de ton cul pas de nos affaires A travers nos yeux tu peux voir l'enfer Tu crois sauver l'homme mais son univers On mérite mieux que le RSA, RS6 dans le parking comme dans GTA Sa bibi la coca de Medellín dans Paris pour avoir le salaire de Verratti Rohlala je manie les mots même mal-luné Je baise la concu je suis mal aimé Parle pas de la mif j'peux t'allumer, j'peux t'annuler Je suis pas de ceux qui font les mecs sectaires Faisons du biff avec les mecs déter Ouvrons les frontières de tout nos quartiers Et faisons du biff avec les plus déter Ouais l'ami de mon ami y sort haja Mais mon ami, mais l'ennemi de mon ami sera toujours mon ennemi Je suis dans la ville très tard la nuit Je récidive dans l'illicite Elle veut savoir ce que je fais dans la vie Et je lui réponds que je fais du Biff biff biff biff biff Biff biff biff biff biff Biff biff biff biff biff Et elle kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Kiff kiff kiff kiff kiff Ohla ohla</t>
+          <t>Enchanté c'est Monsieur So' Ombre et lumière Boulbi Square Ce soir c'est moi qui régale J'suis dans des dièses louches, ouais ouais J'compte mes dollars, ouais ouais Des rappeurs m'envient, c'est vrai J'suis en indépendant, O.L Lion indomptable comme Kemen Ta meuf la pute dans le gamos Petit j'serrais la ceinture, aujourd'hui je serre la Ferragamo Bolide AMG dans l'parking Adepte de carjacking La recette pour faire un tas d'aigris La mala j'me pavane en Gucci J'veux des lovés, pour ça négro j'dois innover Ne compte pas sur l'être humain car il est mauvais J'suis l'capitaine de mon navire j'peux pas couler J'fais cavalier seul mais derrière il y a une armée Allô Jorge Mendes ?, le rap français va mal Transfert moi vers les States Hakarrabi, j'me sens pas à ma place Crochet, Verratti, j'be-tom, pénalty aïe Mon fils, en Gucci, la mala, comme Tony Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines La concurrence se coupe les veines Oh oui, oh oui, faut que je rentabilise Oh oui, oh oui, faut que je rentabilise Me casser loin d'ici sur une plage au Mexique Les péripéties de la vie sont multiples J'ai perdu mon frérot il s'appelait Tony B.A.S, Brigade Anti Suceuses J'côtoie que vrais bonhommes forts comme Jamie Vardy Me checke pas d'l'épaule, t'as balance Ne tends ni ta joue, ni tes phalanges J'suis Kmer a.k.a. l'avalanche Je milite contre salaire d'esclavage Est-ce normal ce que touche nos parents ? Est-ce normal ce que touche nos parents ? Pour bibi crois moi faut du talent Le produit vient pas par accident Hé tu fais quoi toi ? Tu veux des armes, il y en a Négro bois bois bois, des verres de sky, Jack Da' Les gros culs on aime ça, demande à mes Sosa Gés-char comme Kim K, oh Mamma mia Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bois</t>
+          <t>Bonaparte</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Enchanté c'est Monsieur So' Ombre et lumière Boulbi Square Ce soir c'est moi qui régale J'suis dans des dièses louches, ouais ouais J'compte mes dollars, ouais ouais Des rappeurs m'envient, c'est vrai J'suis en indépendant, O.L Lion indomptable comme Kemen Ta meuf la pute dans le gamos Petit j'serrais la ceinture, aujourd'hui je serre la Ferragamo Bolide AMG dans l'parking Adepte de carjacking La recette pour faire un tas d'aigris La mala j'me pavane en Gucci J'veux des lovés, pour ça négro j'dois innover Ne compte pas sur l'être humain car il est mauvais J'suis l'capitaine de mon navire j'peux pas couler J'fais cavalier seul mais derrière il y a une armée Allô Jorge Mendes ?, le rap français va mal Transfert moi vers les States Hakarrabi, j'me sens pas à ma place Crochet, Verratti, j'be-tom, pénalty aïe Mon fils, en Gucci, la mala, comme Tony Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines La concurrence se coupe les veines Oh oui, oh oui, faut que je rentabilise Oh oui, oh oui, faut que je rentabilise Me casser loin d'ici sur une plage au Mexique Les péripéties de la vie sont multiples J'ai perdu mon frérot il s'appelait Tony B.A.S, Brigade Anti Suceuses J'côtoie que vrais bonhommes forts comme Jamie Vardy Me checke pas d'l'épaule, t'as balance Ne tends ni ta joue, ni tes phalanges J'suis Kmer a.k.a. l'avalanche Je milite contre salaire d'esclavage Est-ce normal ce que touche nos parents ? Est-ce normal ce que touche nos parents ? Pour bibi crois moi faut du talent Le produit vient pas par accident Hé tu fais quoi toi ? Tu veux des armes, il y en a Négro bois bois bois, des verres de sky, Jack Da' Les gros culs on aime ça, demande à mes Sosa Gés-char comme Kim K, oh Mamma mia Bois, bois, bois, bois Ce soir c'est moi qui paye Bois, bois, bois, bois J'ai assez mis d'côté pour dix bouteilles Bois, bois, bois, bois J'vais mettre l'autotune mais j'suis pas T-Pain Bois, bois, bois, bois Bois, bois, bois, bois La concurrence se coupe les veines</t>
+          <t>Yah, yah yah yah yah Baby baby Yeh J'suis dans l'hood, J'bicrav d'l'OG Kush et c'est normal 500, claqués dans mes souliers c'est normal Elle ouvre sa chatte, 200 la rue c'est normal Maman dort, j'dois m'occuper d'l'allée c'est normal Les dollars les pesos Le nerf de la guerre j'suis en Merco garé vers le mile Les voisins sont péchos Tapage nocturne dans leur mère et ça c'est normal J'paye pas mes impôts J'donne pas de biff à ces fils de pute de l'Etat J'regarde la météo Il pleut des rafales au tié-kar j'enfile mon pare-balles T'as capté The Wave à la comptabilité C'est monsieur So Se vend comme kilo de shit dans toutes les cités Ta racli la folle Kiff l'attitude que j'impose elle envoie sa chatte Ton rappeur préféré, Me lâche pas d'une semelle pour gratter son feat dis lui qu'il nachav Depuis mineur je vous baise, depuis mineur tu régresse Raïaïaï Le projet sale il arrive, et j'nique des mères en indé', Hallelujah Allô le R j'suis à kech-mara Dans rivière de sang je déverse ma rage J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte On ravitaille On ravitaille, ravis sont les shlags Pablito Pablito, faudrait s'lever tôt Faire d'la maille Mucho maille, remplir le frigo Les keufs barôdent Parce qu'ils barôdent, j'suis caché dans l'hall La peur est jdid mon ami Une BNP j'suis ravi Mettre à l'abri toute la miff, satisfaire leur avenir nan, nan La peur est jdid mon ami, le flow est jdid mon ami La chatte est large comme un puit, la bite est longue je l'épuise Au premier round j'paralyse Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bonaparte</t>
+          <t>Boumara</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yah, yah yah yah yah Baby baby Yeh J'suis dans l'hood, J'bicrav d'l'OG Kush et c'est normal 500, claqués dans mes souliers c'est normal Elle ouvre sa chatte, 200 la rue c'est normal Maman dort, j'dois m'occuper d'l'allée c'est normal Les dollars les pesos Le nerf de la guerre j'suis en Merco garé vers le mile Les voisins sont péchos Tapage nocturne dans leur mère et ça c'est normal J'paye pas mes impôts J'donne pas de biff à ces fils de pute de l'Etat J'regarde la météo Il pleut des rafales au tié-kar j'enfile mon pare-balles T'as capté The Wave à la comptabilité C'est monsieur So Se vend comme kilo de shit dans toutes les cités Ta racli la folle Kiff l'attitude que j'impose elle envoie sa chatte Ton rappeur préféré, Me lâche pas d'une semelle pour gratter son feat dis lui qu'il nachav Depuis mineur je vous baise, depuis mineur tu régresse Raïaïaï Le projet sale il arrive, et j'nique des mères en indé', Hallelujah Allô le R j'suis à kech-mara Dans rivière de sang je déverse ma rage J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte On ravitaille On ravitaille, ravis sont les shlags Pablito Pablito, faudrait s'lever tôt Faire d'la maille Mucho maille, remplir le frigo Les keufs barôdent Parce qu'ils barôdent, j'suis caché dans l'hall La peur est jdid mon ami Une BNP j'suis ravi Mettre à l'abri toute la miff, satisfaire leur avenir nan, nan La peur est jdid mon ami, le flow est jdid mon ami La chatte est large comme un puit, la bite est longue je l'épuise Au premier round j'paralyse Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS Paris Ouest sur le GPS, parlons peu t'as l'adresse Pas d'maladresses sinon tu finiras, ligoté dans le CLS J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte J'suis dans l'four pour l'cannabais J'fume un splif, j'relativise Tout les jours, rentabilise Bona-Bona-Bonaparte Ennemis veulent m'enlever la vie Par jalousie ils veulent nous voir à terre Kalashé comme en Palestine Bona-Bona-Bonaparte Aucun effet n'auront tes grigris On te soulèvera devant ta racli Un fuck pour eux pas de pré-avis J'pars en guerre comme Bonaparte</t>
+          <t>Gang ! Enchanté c'est Monsieur So' Almess Beats Que de la violence, que de la violence ! Wesh ! La zone du crime est maquillée La routine dans le quartier Les balles transpercent ton bouclier J'suis pépère dans le Cadillac Pour 1500 tu perds la vie Tu vaut à peine plus que le SMIC Ah Ah callate, gards à toi si tu réveille mon fils J'arrive en paix qui quiconque veut la guerre qui lève la main que j'lui nique sa mère J'ai connu la zer', des étés passer au tiekar en maison de jeunesse J'suis indépendant, tout c'que j'ai je l'ai mérité négro je l'ai pas voler Donc fermez vos chattes, personne m'a donner du lait quand c'était la chiennetée J'ai rouler ma bosse, vesqui les anciens d'ici qui veulent m'apprendre la vie Je rigole sur eux, 30 ans passé servent à rien, bon qu'a gratter des jeux On a les mains sales, tremper dans l'or Y'a que la mort qui nous arrêtera Remplis la soute vite, SOS dans le cockpit Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Fuck ton boumara j'vais tout niquer Ta patte de poulet me fait plus d'effet J'fume un spliff j'suis en Jamaïque Le produit est bon j'parle à Bob Marley Yeux rouge, fonsdé dans la ville La substance m'a l'air corrosive Les plans sales on les récidives Dignité prime devant amitié J'préfére trainer avec dix milles jnouns Que d'avoir un poto hypocrite Ocho sur les dorsaux Passe D comme au Camp Nou Rafale sur ton rainté pour ta recette on vise pas les genoux Et tu me diras que la vie est belle Mais tout dépend de l'angle de vue J'ai fumé le roi et baiser la reine Non je ne finirais pas pendu Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Ouais monsieur So' mon ami La vie noir, Ombre et lumière Boulogne square, à suivre ... Que de la violence, que de la violence</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Boumara</t>
+          <t>#CeciNestPasUnClip 1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gang ! Enchanté c'est Monsieur So' Almess Beats Que de la violence, que de la violence ! Wesh ! La zone du crime est maquillée La routine dans le quartier Les balles transpercent ton bouclier J'suis pépère dans le Cadillac Pour 1500 tu perds la vie Tu vaut à peine plus que le SMIC Ah Ah callate, gards à toi si tu réveille mon fils J'arrive en paix qui quiconque veut la guerre qui lève la main que j'lui nique sa mère J'ai connu la zer', des étés passer au tiekar en maison de jeunesse J'suis indépendant, tout c'que j'ai je l'ai mérité négro je l'ai pas voler Donc fermez vos chattes, personne m'a donner du lait quand c'était la chiennetée J'ai rouler ma bosse, vesqui les anciens d'ici qui veulent m'apprendre la vie Je rigole sur eux, 30 ans passé servent à rien, bon qu'a gratter des jeux On a les mains sales, tremper dans l'or Y'a que la mort qui nous arrêtera Remplis la soute vite, SOS dans le cockpit Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Fuck ton boumara j'vais tout niquer Ta patte de poulet me fait plus d'effet J'fume un spliff j'suis en Jamaïque Le produit est bon j'parle à Bob Marley Yeux rouge, fonsdé dans la ville La substance m'a l'air corrosive Les plans sales on les récidives Dignité prime devant amitié J'préfére trainer avec dix milles jnouns Que d'avoir un poto hypocrite Ocho sur les dorsaux Passe D comme au Camp Nou Rafale sur ton rainté pour ta recette on vise pas les genoux Et tu me diras que la vie est belle Mais tout dépend de l'angle de vue J'ai fumé le roi et baiser la reine Non je ne finirais pas pendu Fuck ton boumara j'vais tout niquer Fuck ton boumara j'vais tout niquer Jamais je n'oublierai les coups de fouet J'vais tout baiser comme un antillais J'cuisine la dope dope dope dope dope dans l'binks J'cuisine la dope dope dope dope dope dans l'binks Ouais monsieur So' mon ami La vie noir, Ombre et lumière Boulogne square, à suivre ... Que de la violence, que de la violence</t>
+          <t>Gang gang gang gang On va t'pull-up, vise la rétine 50k j'signe pas en maison disque T'as vu ? Whou whou whou whou Hey Joue pas au gang gang gang gang On va t'pull-up, vise la rétine Pull-up vise la rétine Pour 50k j'signe pas en maison d'disque Guette la ppe-sa, ouais tout y est Bleu marine on n'aime pas, on fuck Guette pas ppe-sa, ouais tout y est Fuck les cops qui écoutent au phone Méfiant, on y est d'puis tit-pe T'iras pas loin avec 10E Méfiant on est d'puis tit-pe ouais Apparemment j'suis trop nerveux eh Je bousille la prod, c'est everyday Tu suces pas, qu'est-ce tu fous ici ? Complotiste comme franc-maçon Pour t'faire j'ai mille-et-une raisons J'suis à la diet' Bouma au Tiep Volant à droite, c'est la mort qui me guette Metteur en scène, arrête ton sketch Tu descendras, prêteur à diocèse Outillé comme mec qui répare des trucs Fuck le 17, j'attends leur chute 9-2, département des stups 9-2, département des stups J'cuisine la prod, c'est who-who grrr Grand comme joueur d'NBA Éviscère de vie à l'opinel J'ai même pas l'temps de saigner</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#CeciNestPasUnClip 1</t>
+          <t>#CeciNestPasUnClip 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gang gang gang gang On va t'pull-up, vise la rétine 50k j'signe pas en maison disque T'as vu ? Whou whou whou whou Hey Joue pas au gang gang gang gang On va t'pull-up, vise la rétine Pull-up vise la rétine Pour 50k j'signe pas en maison d'disque Guette la ppe-sa, ouais tout y est Bleu marine on n'aime pas, on fuck Guette pas ppe-sa, ouais tout y est Fuck les cops qui écoutent au phone Méfiant, on y est d'puis tit-pe T'iras pas loin avec 10E Méfiant on est d'puis tit-pe ouais Apparemment j'suis trop nerveux eh Je bousille la prod, c'est everyday Tu suces pas, qu'est-ce tu fous ici ? Complotiste comme franc-maçon Pour t'faire j'ai mille-et-une raisons J'suis à la diet' Bouma au Tiep Volant à droite, c'est la mort qui me guette Metteur en scène, arrête ton sketch Tu descendras, prêteur à diocèse Outillé comme mec qui répare des trucs Fuck le 17, j'attends leur chute 9-2, département des stups 9-2, département des stups J'cuisine la prod, c'est who-who grrr Grand comme joueur d'NBA Éviscère de vie à l'opinel J'ai même pas l'temps de saigner</t>
+          <t>Yeah Ouais J'dois péter un keum Péter un keum Loin des humains Près de la flore Me souris pas Fils de catin J'vais viser ta glotte Tu parleras moins 40 degrés 40 degrés J'suis dans le four Comme filet mignon 40 pêchés 40 degrés Qu'est-ce qu'on ferait pas Pour 40 litrons? Si j'baisse la visière Tu verras 2Pac Et Biggie Désarmé c'est sûr Tu m'verras tout-par MVP Ça visser la drogue Que t'as dans le nez Hein, la coca 100.000 Ce n'est pas assez Nan nan nan, je signe pas Ça fait vroum vroum vroum T-Max GP 800 J'ai la haine à plein-temps J'veux les voir à terre et souffrant J'entends ra ra ra Des balles pleuvent pour la kichta Jamais nous on s'ficha Pour des folles qui puent d'la teucha J'entends les Bleus J'cours Vite Police Tue Cours Vite J'entends les Bleus J'cours Vite Police Tue Cours Vite</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#CeciNestPasUnClip 2</t>
+          <t>#CeciNestPasUnClip 6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yeah Ouais J'dois péter un keum Péter un keum Loin des humains Près de la flore Me souris pas Fils de catin J'vais viser ta glotte Tu parleras moins 40 degrés 40 degrés J'suis dans le four Comme filet mignon 40 pêchés 40 degrés Qu'est-ce qu'on ferait pas Pour 40 litrons? Si j'baisse la visière Tu verras 2Pac Et Biggie Désarmé c'est sûr Tu m'verras tout-par MVP Ça visser la drogue Que t'as dans le nez Hein, la coca 100.000 Ce n'est pas assez Nan nan nan, je signe pas Ça fait vroum vroum vroum T-Max GP 800 J'ai la haine à plein-temps J'veux les voir à terre et souffrant J'entends ra ra ra Des balles pleuvent pour la kichta Jamais nous on s'ficha Pour des folles qui puent d'la teucha J'entends les Bleus J'cours Vite Police Tue Cours Vite J'entends les Bleus J'cours Vite Police Tue Cours Vite</t>
+          <t>Ooouh Sont nuls Ouais T'as vu ? Pour leur faire du sale ngro j'ai l'outil wouh Ne commencez pas une guerre si t'es pas sûr de pouvoir la finir Hin hin, nan nan nan Hein ? J'entends des échos sur moi dans la ville ah bon ? Le jour où j'vais t'attraper j'vais t'faire passer l'envie de me salir Tes ngros sont faux et faibles On veut ta recette et la villa de rêve T'as chuté comme le prix d'l'essence Il vaut mieux pour toi ngro que tu signes la trêve J'suis devant depuis tit-pe On déboule à 40 c'est sauve qui peut Je crois pas en la justice mais en Dieu On craint moins les balles que la force du feu T'as pas d'équipe T'es pathétique Tu tailles des pipes C'est véridique Un peu d'estime Quand t'es au taf Ta racli tourne, dans toutes les villes la tchoin Eh eh Meilleur du gang, si c'est pas moi c'est qui ? C'est qui ? 5 ans que je leur mets des giffles 5 ans que je bosse en indépendant Si j'blanchis pas ma peau comme Michael La police me tuera comme George Floyd J'ai grandi si près de la merde Je me suis habitué à l'odeur Sal !</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#CeciNestPasUnClip 6</t>
+          <t>Coeur Flottant</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ooouh Sont nuls Ouais T'as vu ? Pour leur faire du sale ngro j'ai l'outil wouh Ne commencez pas une guerre si t'es pas sûr de pouvoir la finir Hin hin, nan nan nan Hein ? J'entends des échos sur moi dans la ville ah bon ? Le jour où j'vais t'attraper j'vais t'faire passer l'envie de me salir Tes ngros sont faux et faibles On veut ta recette et la villa de rêve T'as chuté comme le prix d'l'essence Il vaut mieux pour toi ngro que tu signes la trêve J'suis devant depuis tit-pe On déboule à 40 c'est sauve qui peut Je crois pas en la justice mais en Dieu On craint moins les balles que la force du feu T'as pas d'équipe T'es pathétique Tu tailles des pipes C'est véridique Un peu d'estime Quand t'es au taf Ta racli tourne, dans toutes les villes la tchoin Eh eh Meilleur du gang, si c'est pas moi c'est qui ? C'est qui ? 5 ans que je leur mets des giffles 5 ans que je bosse en indépendant Si j'blanchis pas ma peau comme Michael La police me tuera comme George Floyd J'ai grandi si près de la merde Je me suis habitué à l'odeur Sal !</t>
+          <t>Mmh Tous les jours c'est la même Hey, tous les jours c'est la même tous les jours car mon cur y était ohh On refait nos affaires comme avant un road trip comme avant un road trip Funérailles on y était ohh, y'a pas de quoi sourire ohh Sur la feuille y'a pas un mot, on se disait plein de choses qui ont perdu de leur valeur valeur T'auras beau revenir t'auras beau revenir, je ne veux plus de toi jamais Et j'ai beau souffrir comme à Caracas j'dois faire des lovés de l'argent J'ai un fils, j'ai un daronne daronne Aujourd'hui j'suis un patron patron J'ai des amis solids, pas très recommandables sur qui j'pourrai compter on peut dégainer C'est plus la même mais on fait avec, le décor n'est plus pareil plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Cauchemar sur les rideaux, on se connaissait mais pas assez Les balles pleuvent les jours de fête, les jours de fête J'ai commis l'amertume hann solitaire sur une plage solitaire Je prends les clés de la voiture, je vais faire un tour vers le large me retrouver moi-même me retrouver solo C'est pas beau ce qu'ils m'ont fait c'est pas beau Le gilet pare-balle cache d'énormes plaies heinn Aveuglés on était, pour un bout de cratère j'effectuerai la tâche j'effectuerai la mission Je me suis ouvert, une partie de moi est parti en feu parti en feu Parabellum métal, on protège ce qu'on a de plus cher à nos yeux Maquille pas tes défauts nan, je te connais comme si je t'avais fait connais Eprouvé comme un ange, j'ai perdu des manières mania Solitaire près d'un glacier C'est plus la même mais on fait avec, le décor n'est plus pareil n'est plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté j'ai piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné1</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coeur Flottant</t>
+          <t>Cours</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mmh Tous les jours c'est la même Hey, tous les jours c'est la même tous les jours car mon cur y était ohh On refait nos affaires comme avant un road trip comme avant un road trip Funérailles on y était ohh, y'a pas de quoi sourire ohh Sur la feuille y'a pas un mot, on se disait plein de choses qui ont perdu de leur valeur valeur T'auras beau revenir t'auras beau revenir, je ne veux plus de toi jamais Et j'ai beau souffrir comme à Caracas j'dois faire des lovés de l'argent J'ai un fils, j'ai un daronne daronne Aujourd'hui j'suis un patron patron J'ai des amis solids, pas très recommandables sur qui j'pourrai compter on peut dégainer C'est plus la même mais on fait avec, le décor n'est plus pareil plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Cauchemar sur les rideaux, on se connaissait mais pas assez Les balles pleuvent les jours de fête, les jours de fête J'ai commis l'amertume hann solitaire sur une plage solitaire Je prends les clés de la voiture, je vais faire un tour vers le large me retrouver moi-même me retrouver solo C'est pas beau ce qu'ils m'ont fait c'est pas beau Le gilet pare-balle cache d'énormes plaies heinn Aveuglés on était, pour un bout de cratère j'effectuerai la tâche j'effectuerai la mission Je me suis ouvert, une partie de moi est parti en feu parti en feu Parabellum métal, on protège ce qu'on a de plus cher à nos yeux Maquille pas tes défauts nan, je te connais comme si je t'avais fait connais Eprouvé comme un ange, j'ai perdu des manières mania Solitaire près d'un glacier C'est plus la même mais on fait avec, le décor n'est plus pareil n'est plus pareil Sur le divan divan, j'ai joué avec mes limites j'ai piloté j'ai piloté Et demain m'a l'air loin et demain, j't'ai deviné derrière le brouillard le brouillard Sur un navire fantôme, j'ai largué les amarres, redessiné la carte let go Cur flottant mmh tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné Et au final on s'est perdu, perdu dans la vallée Sur nos visages y'a des blessures grandes, que le temps pourra effacer eh Au bout du compte, mais à qui, j'fais confiance au ciel et à mon beretta Mais à qui, j'fais confiance au ciel et à mon beretta Cur flottant cur tu veux voyager On est mauvais donc on mérite surement ce que le ciel nous a donné1</t>
+          <t>Piou piou piou Hein Ouais l'ancien Apparemment t'as des couilles Apparemment t'as des douilles Viens donc qu'on verr' qui tient debout Hein Ton marabout N'a pas prédit ton échec, nan Le jour de fête On partage as-p avec les traîtres J'attire l'oseille et toutes les schnecks Depuis mineurs dans les dièses On fait c'que la plupart des grands n'ont pas les couilles de faire Ça vient de Madinina, 0.9 c'est d'la peufra, négocie pas le prix Méchant garçon C'est Dieu qui donne, c'est moi qui récupère J'paye la maison Aux quatre saisons je fâche la fachosphère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre Hey, hey Mec qu'a une visière c'est la mort qui t'appelle Petit cur est cassé, du mal à réparer Ils le font pour le faire, mais par nécessité La roue prendra son temps, mais finit par tourner Mauvais comme le remord, présent comme le passé Dis-le moi, qu'on le fasse, la guerre si nécessaire J'ai les outils, la volonté de te faire du mal La huisse il est bizarre, mais y'a rien à gratter Ouais, okay, okay, ouf Mon bébé veut le dernier Christian Dior, wesh, choqué 3000 E la dote, c'est l'prix du kil' J'vais péter le B22 après le confinement, ouais, choqué choqué 3000 E la dote, c'est l'prix du kil' Méchante gestuelle J'suis enduit comme LVN C'est nous les MVP 2020 ça parle en kil' J'suis dans une allemande Nerveuse comme SS J'fais d'la moula, j'fais de l'espèce Plus jamais j'connais la hess, frère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cours</t>
+          <t>Dapper Dan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Piou piou piou Hein Ouais l'ancien Apparemment t'as des couilles Apparemment t'as des douilles Viens donc qu'on verr' qui tient debout Hein Ton marabout N'a pas prédit ton échec, nan Le jour de fête On partage as-p avec les traîtres J'attire l'oseille et toutes les schnecks Depuis mineurs dans les dièses On fait c'que la plupart des grands n'ont pas les couilles de faire Ça vient de Madinina, 0.9 c'est d'la peufra, négocie pas le prix Méchant garçon C'est Dieu qui donne, c'est moi qui récupère J'paye la maison Aux quatre saisons je fâche la fachosphère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre Hey, hey Mec qu'a une visière c'est la mort qui t'appelle Petit cur est cassé, du mal à réparer Ils le font pour le faire, mais par nécessité La roue prendra son temps, mais finit par tourner Mauvais comme le remord, présent comme le passé Dis-le moi, qu'on le fasse, la guerre si nécessaire J'ai les outils, la volonté de te faire du mal La huisse il est bizarre, mais y'a rien à gratter Ouais, okay, okay, ouf Mon bébé veut le dernier Christian Dior, wesh, choqué 3000 E la dote, c'est l'prix du kil' J'vais péter le B22 après le confinement, ouais, choqué choqué 3000 E la dote, c'est l'prix du kil' Méchante gestuelle J'suis enduit comme LVN C'est nous les MVP 2020 ça parle en kil' J'suis dans une allemande Nerveuse comme SS J'fais d'la moula, j'fais de l'espèce Plus jamais j'connais la hess, frère Hein, grrr J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Hein, jamais J'ai la dext' à Pop Smoke Façon Dior Dior, j'mets pas les sapes d'hier-d'hier Mon frérot cours Y'a les schmits En bas d'la tour Ça revend produit illicite 20 E le gramme Le confinement augmente les prix De zéro à cent en même pas 3 secondes 8 J'suis du bon côté d'ta keh, j'suce pas de bite J'ai full option, dans l'RS3, elle est ravie Et si on s'déplace chez toi, ça sera pour un crime J'ai full option, dans l'RS3, je baisse la vitre</t>
+          <t>Dapper, Dapper Dan Yo, nouvel ADN Is that Traplysse Hey Célébration, j'ai mon côté froid comme un glaçon ice Mauvais garçon, des mauvais réflexes que j'ai gardé poh On doit créer, on doit bâtir des édifices plus grands que la Tower Eiffel Dame Nation, donnerais-tu ta vie pour ta nation hein, hein L'impact effraie les femmes, j'habite rue des martyre, près des flammes feu Guten tag, je sais parler allemand comme Beckenbauer gadji La fnêtres est obscure, ls phares sont jaunâtres comme une 4L On traversera vents et marées La nature a horreur du vide, j'vois le verre à moitié plein On maitrise un peu plus ce qu'on fait, j'aime pas la guerre mais en temps de paix les humains se relâchent On maitrise un peu plus ce qu'on fait un peu plus A la santé des miens, à ceux qui acquérissent un savoir pas destiné nan, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m Nouvel ADN Trop fort trop fort Un peu de shaker, j'augmente fréquence cardiaque J'termine le projet à Reykjavik Sur le recto de la feuille y'a surement mes initiales Pas de rêves érotiques, pas de vue océanique On ressemble à tout ce qu'ils voulaient pas qu'on soit Nouvelle map, je préfère à vos filles de joie Pull en laine pour cacher mes blessures, mes plaies Sur un coup de tête j'peux changer de paysage Vingt-sept bougies, triste anniversaire J'suis mon adversaire, une querelle qui s'finit aux assises poh-poh J'suis pas attaqué, j'conserve le ballon On retient que le gagnant, on retient pas le finaliste finaliste A la santé des miens, à ceux qui acquérissent un savoir pas destiné hann, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m1</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dapper Dan</t>
+          <t>Dernière page</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dapper, Dapper Dan Yo, nouvel ADN Is that Traplysse Hey Célébration, j'ai mon côté froid comme un glaçon ice Mauvais garçon, des mauvais réflexes que j'ai gardé poh On doit créer, on doit bâtir des édifices plus grands que la Tower Eiffel Dame Nation, donnerais-tu ta vie pour ta nation hein, hein L'impact effraie les femmes, j'habite rue des martyre, près des flammes feu Guten tag, je sais parler allemand comme Beckenbauer gadji La fnêtres est obscure, ls phares sont jaunâtres comme une 4L On traversera vents et marées La nature a horreur du vide, j'vois le verre à moitié plein On maitrise un peu plus ce qu'on fait, j'aime pas la guerre mais en temps de paix les humains se relâchent On maitrise un peu plus ce qu'on fait un peu plus A la santé des miens, à ceux qui acquérissent un savoir pas destiné nan, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m Nouvel ADN Trop fort trop fort Un peu de shaker, j'augmente fréquence cardiaque J'termine le projet à Reykjavik Sur le recto de la feuille y'a surement mes initiales Pas de rêves érotiques, pas de vue océanique On ressemble à tout ce qu'ils voulaient pas qu'on soit Nouvelle map, je préfère à vos filles de joie Pull en laine pour cacher mes blessures, mes plaies Sur un coup de tête j'peux changer de paysage Vingt-sept bougies, triste anniversaire J'suis mon adversaire, une querelle qui s'finit aux assises poh-poh J'suis pas attaqué, j'conserve le ballon On retient que le gagnant, on retient pas le finaliste finaliste A la santé des miens, à ceux qui acquérissent un savoir pas destiné hann, pas destiné Homie, promis Juré craché Mon polo est taché, j'suis fâché, j'ai perdu du sang dans les tranchées tranchées Homie, promis Juré craché Mon polo est taché, j'suis fâché fâché Homie, on s'appréciait de loin s'appréciait de loin on le fait en mieux La vision de Dapper Dan Dapper Dan Est-ce qu'il en restera, de l'autre côté du périph' c'est noir noir J'suis enfermé dans 400m1</t>
+          <t>Egaré, j'suis seul dans la praire Pour faire le nécessaire, nécessaire Les feuilles tombent en automne au dessus du refuge On ne saura même plus à quoi ressemblent nos bâtisses A combien t'estimes le prix de nos vies Combien de jours d'affilés avons nous fait le ventre vide Enchanté je suis la meilleure étoile de l'année Si tu m vois passer dans le ciel fais un vu fais un vu Ds traits comme personne On s'enterre pas seul Ferme les yeux et viens décris moi ce que tu vois On mérite mieux qu'une escale en enfer Tu mérites mieux qu'un semblant de vie ici dans château hanté Chanter ma haine dans amphi rempli Aimer c'est prendre le risque d'en souffrir, en vaut tu la chandelle ohh Dernière page de mon livre Les dernières croutes d'une longue plaie Noir c'est noir et y'a plus d'espoir noir Noir c'est noir et y'a plus d'espoir A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition combien Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann Suffit il d'une balle, suffit il d'un cauchemar pour revoir ce qu'on a fait de mal Ce qu'on a fait pour en arriver là Pleut il en enfer, petit ange a fini égaré Pleut il en enfer, petit ange a fini égaré A combien t'estimes le prix de nos vies à combien C'est la purge everyday sous le matelas j'ai 22 long rifle D'humeur a séquestrer tout un pays d'humeur D'humeur à réparer l'injustice qu'ils ont D'humeur à mourir jeune, laisser un héritage Faire couler le sang qu'on écrit dans les livres dans les livres Eclaire nous le chemin, toi savant de tout Oh toi, qui a l'air si parfait, éclaire nous la route éclaire nous la route Trafiquant de rêves, eux ne mourront pas innocents Ils m'ont privé de naïveté Sous tutelle, j'ai laissé mon cur ice Ils ont pris tout ce qui brillait, village en feu Nos séquelles sont invisibles, ils nous ont laissé les miettes Sous la veste en jean j'ai un briquet et de quoi faire un feu Oh toi savant de tout indique nous la route si tu sais A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition l'addition Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann1</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dernière page</t>
+          <t>Docteur</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Egaré, j'suis seul dans la praire Pour faire le nécessaire, nécessaire Les feuilles tombent en automne au dessus du refuge On ne saura même plus à quoi ressemblent nos bâtisses A combien t'estimes le prix de nos vies Combien de jours d'affilés avons nous fait le ventre vide Enchanté je suis la meilleure étoile de l'année Si tu m vois passer dans le ciel fais un vu fais un vu Ds traits comme personne On s'enterre pas seul Ferme les yeux et viens décris moi ce que tu vois On mérite mieux qu'une escale en enfer Tu mérites mieux qu'un semblant de vie ici dans château hanté Chanter ma haine dans amphi rempli Aimer c'est prendre le risque d'en souffrir, en vaut tu la chandelle ohh Dernière page de mon livre Les dernières croutes d'une longue plaie Noir c'est noir et y'a plus d'espoir noir Noir c'est noir et y'a plus d'espoir A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition combien Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann Suffit il d'une balle, suffit il d'un cauchemar pour revoir ce qu'on a fait de mal Ce qu'on a fait pour en arriver là Pleut il en enfer, petit ange a fini égaré Pleut il en enfer, petit ange a fini égaré A combien t'estimes le prix de nos vies à combien C'est la purge everyday sous le matelas j'ai 22 long rifle D'humeur a séquestrer tout un pays d'humeur D'humeur à réparer l'injustice qu'ils ont D'humeur à mourir jeune, laisser un héritage Faire couler le sang qu'on écrit dans les livres dans les livres Eclaire nous le chemin, toi savant de tout Oh toi, qui a l'air si parfait, éclaire nous la route éclaire nous la route Trafiquant de rêves, eux ne mourront pas innocents Ils m'ont privé de naïveté Sous tutelle, j'ai laissé mon cur ice Ils ont pris tout ce qui brillait, village en feu Nos séquelles sont invisibles, ils nous ont laissé les miettes Sous la veste en jean j'ai un briquet et de quoi faire un feu Oh toi savant de tout indique nous la route si tu sais A quel point c'est loin A quelle distance m'entends tu si je crie mayday A quel point j'ai mal A quelle distance m'entends tu si je crie mayday Et combien coûte l'addition l'addition Si tu vois un navire dis le nous dis le nous Et demain n'est pas certain Hey, les dernières pages du livre c'est comme guérir d'une plaie Et peu importe la distance, on le fera d'un trait D'un trait, j't'ai rayé de la liste Zone de turbulences mais jamais j'suis fataliste Montre moi où tu t'abrites quand la foudre s'abat montre Dis moi ce que tu vois quand tu fermes les yeux montre Où tu t'abrites quand la foudre s'abat Hann1</t>
+          <t>Pardo Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Jamais d'la vie J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh Mais son cur est en pann, elle appell Sosa, mec canon, j'arrive en balle J'arrive en balle Elle m'dit T'es déjà en bas ?, j'lui réponds Pour toi, j'ferais tout sauf si t'es une pute J'sais qu'tu caches des trucs Et au fait, dis-moi qui t'es ? Dis-moi Dis-moi qui t'as blessé ? Dis-moi pourquoi il a fait ? Tant d'mal J'ai des blessures mais j't'en parle pas, j'préfère les garder pour moi, peut-être un jour, on en parlera Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh La selha est tellement bonne qu'elle te frappe le crâne Elle te frappe Montre pas ton corps sur Onlyfans Nan J'suis fan de maman, je suis fan de toutes mes surs Fan J'suis pas fan de l'agent et de l'inspecteur Sergio Tacchini je dégaine, j'sais qu't'apprécies Je sais Le ciel est orange, y a du sable qui vient du Sahara C'est chaud T'as bon appétit, t'as trouver l'meilleur des négros C'est bien Bâtis rien d'solide, c'est sûr avec des Lego Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Très souvent Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, oh</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Docteur</t>
+          <t>Douleur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pardo Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Jamais d'la vie J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh Mais son cur est en pann, elle appell Sosa, mec canon, j'arrive en balle J'arrive en balle Elle m'dit T'es déjà en bas ?, j'lui réponds Pour toi, j'ferais tout sauf si t'es une pute J'sais qu'tu caches des trucs Et au fait, dis-moi qui t'es ? Dis-moi Dis-moi qui t'as blessé ? Dis-moi pourquoi il a fait ? Tant d'mal J'ai des blessures mais j't'en parle pas, j'préfère les garder pour moi, peut-être un jour, on en parlera Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Rarement Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, eh La selha est tellement bonne qu'elle te frappe le crâne Elle te frappe Montre pas ton corps sur Onlyfans Nan J'suis fan de maman, je suis fan de toutes mes surs Fan J'suis pas fan de l'agent et de l'inspecteur Sergio Tacchini je dégaine, j'sais qu't'apprécies Je sais Le ciel est orange, y a du sable qui vient du Sahara C'est chaud T'as bon appétit, t'as trouver l'meilleur des négros C'est bien Bâtis rien d'solide, c'est sûr avec des Lego Jamais T'as dépensé ton bonheur, personne te l'a volé, ça sert à rien d'souhaiter le malheur Aux autres Bientôt la fin d'la noyade, j'aurais cru aux étoiles si l'univers était loyal, bae Très souvent, j'traînais en bas, rarement à la son-mai Très souvent Elle écoute du 2Pac, All Eyez On Me Tout l'temps Google Map, très souvent, le soir, j'l'ai localisé Géolocalisé J'arrive tard, elle m'appelle démon d'minuit Wow Et les grands d'chez moi m'ont pas poussé d'affaires Et les frérots ont poussé J'connais bien l'chemin de Rotter' J'connais Son cur est mort, elle m'dit Sosa, t'es mon docteur Son cur en panne Elle écoute du 2Pac, All Eyez On Me Tout l'temps, oh</t>
+          <t>Hey Benjay C'est vrai quon est vrais, pull up trois fois pour la recette, c'est vrai qu'on est fous, ouh Ouh Les vendeurs de rêve nous ont promis la lune Trois fois on tpull up, on s'empare de tes biens, la férocité de mon camp est réelle Hey, ouh Hey, hey C'est vrai qu'on est vrais, gamin, ouh, beaucoup trop fiers pour demander de l'aide C'est réel L'ambition est grande Ouh, j'ai des res-frè au frais quattendent remise de peine Tas vu, eh Schéma qui m'appelle, lorchestre suit la cadence et la guitariste sèche Brr, mélodie noire, les corbeaux suivent le corbillard Et j'suis dans la surface comme Müller J'tire, pas très raffiné mais j'suis un buteur Ça tire Ça tire de tout-par, han, jai la mélo' qui plairait à 2Pac, han La mélo' On t'fournit la frappe qui t'monte au crâne, j'ai pesé les grammes et tous les risques Vêtu d'or comme Osiris, on échappe aux keufs et au fisc, dans quatre saisons, j'relativise C'est fort J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêves nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré Ça tire Un véhicule motorisé Ça tire, on shoote, t'arrêteras pas les balles, le chant des corbeaux présage rien de bon Impact de balles, uh Ça tire, on t'monte en l'air, c'est à nos frais La réalité n'a plus d'eux comme mes frais, elle regarde mon visage, fait deux fois mon âge Hey Au son des balles, tu prends la fuite, les p'tits ont grandi, récupèrent le R Été comme hiver, jamais on hiberne, la couleur du sang, la douleur du gang Ne souris pas quand ça pue la merde, le commerce a fait chuter le prix du R Le baril en hausse, les décès aussi, à croire qu'on est bons qu'à faire ça de nos vies Et Dieu merci, je sais rapper, trois quarts du gang est condamné Merci La Poste qui ferme pas le lundi, Dieu merci, je n'fais pas que chanter Et quand c'est mort, j'insiste, j'aime quand le boulot est bien ficelé J'défie le sens du vent, mon destin, le salaire minimum, c'est pas pour nos fils, c'est pas pour nos fils J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêve nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré J'suis dans le Viano Le tireur, épilogue, les deux motos sont synchros J'suis dans la Ciudad, j'compte pas m'arrêter d'aussitôt Le tireur, épilogue, les deux motos sont synchros Tou-tou-tou-touh</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Douleur</t>
+          <t>Drames &amp; bougies</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hey Benjay C'est vrai quon est vrais, pull up trois fois pour la recette, c'est vrai qu'on est fous, ouh Ouh Les vendeurs de rêve nous ont promis la lune Trois fois on tpull up, on s'empare de tes biens, la férocité de mon camp est réelle Hey, ouh Hey, hey C'est vrai qu'on est vrais, gamin, ouh, beaucoup trop fiers pour demander de l'aide C'est réel L'ambition est grande Ouh, j'ai des res-frè au frais quattendent remise de peine Tas vu, eh Schéma qui m'appelle, lorchestre suit la cadence et la guitariste sèche Brr, mélodie noire, les corbeaux suivent le corbillard Et j'suis dans la surface comme Müller J'tire, pas très raffiné mais j'suis un buteur Ça tire Ça tire de tout-par, han, jai la mélo' qui plairait à 2Pac, han La mélo' On t'fournit la frappe qui t'monte au crâne, j'ai pesé les grammes et tous les risques Vêtu d'or comme Osiris, on échappe aux keufs et au fisc, dans quatre saisons, j'relativise C'est fort J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêves nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré Ça tire Un véhicule motorisé Ça tire, on shoote, t'arrêteras pas les balles, le chant des corbeaux présage rien de bon Impact de balles, uh Ça tire, on t'monte en l'air, c'est à nos frais La réalité n'a plus d'eux comme mes frais, elle regarde mon visage, fait deux fois mon âge Hey Au son des balles, tu prends la fuite, les p'tits ont grandi, récupèrent le R Été comme hiver, jamais on hiberne, la couleur du sang, la douleur du gang Ne souris pas quand ça pue la merde, le commerce a fait chuter le prix du R Le baril en hausse, les décès aussi, à croire qu'on est bons qu'à faire ça de nos vies Et Dieu merci, je sais rapper, trois quarts du gang est condamné Merci La Poste qui ferme pas le lundi, Dieu merci, je n'fais pas que chanter Et quand c'est mort, j'insiste, j'aime quand le boulot est bien ficelé J'défie le sens du vent, mon destin, le salaire minimum, c'est pas pour nos fils, c'est pas pour nos fils J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur Ouh, ouh J'suis sur le terrain, agile comme buteur Touh, les vendeurs de rêve nous ont tué Tou-tou-tou-touh Ça tire de tout-par comme Gérard Piqué Racks, la cité est devenue un guêpier Hey Ravitaille le produit, bien trois fois filtré Hey, hey, hey, on défendra nos intérêts Tou-tou-tou-touh J'maquille ma douleur, rarement d'bonne humeur Wari, maman sait qui j'suis, fuck une rumeur J'suis sur le terrain, agile comme buteur Wari, les vendeurs de rêve nous ont tué Hey Ça tire de tout-par comme Gérard Piqué Tou-tou-tou-touh, wari, la cité est devenue un guêpier Hey, hey, hey Ravitaille le produit, bien trois fois filtré J'suis dans le Viano Le tireur, épilogue, les deux motos sont synchros J'suis dans la Ciudad, j'compte pas m'arrêter d'aussitôt Le tireur, épilogue, les deux motos sont synchros Tou-tou-tou-touh</t>
+          <t>Baille Broliker Production Jsuis dans les bons bails, jvois tout en 4k Là cest Game Over, 50k Cest Kmer M. Sosa Cest chaud dans la ville mon ami Cheval de Troie je suis Regarde derrière qui me suit La police suit mon train de vie Le baveux me prend 2 SMIC Cur de glace on a, Pas besoin de voir pour croire St Thomas a ses raisons, que la raison veut voir Le dealer charbonne en Quechua Ouai, Ouai, en Quechua Au dessus des lois, le terrain né-tourne alléluia On démarre la caisse pour la mission Le public macclame, jgère la pression Le jaune se vi-ser à bonne cuisson, garçon, 500 cest laddition Jviens pas dune famille aisée Bah elle moblige à tout baiser Jai tout les outils pour voir le monde donc Maman faut pas tinquiéter 400 ans de répression, 4 négros dans la cuisine Liasse de 100 dans le parking, cousin, cest pas les sous de la musique Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaire Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies Cherche pas à être comme nous On veut plus être ce quon est Men veux pas dêtre moi On devient ce que veut le monde Tout nest quune question de choix Moi juste soit à manger Un drame, des larmes, des bougies Une feuille, une clope, on toublie Jsuis dans la suite, entre ses cuisses, jsuis dans les bails noirs Terrain hostile, souvent habile, on manie bien les armes Jamais déçu, très peu dfissure car jconnais les gens Grandi violemment, enfance brisée dans le bâtiment Ouai, ouai, ouai Dineros mappellent, jarrive Ça grésille jme barre sur une île Tu mverras jamais dans les boîtes et chichas remplies de salope virtuelles qui font tchi Crimes en bande organisée, cest vrai Le procureur confirme les faits Tas vendu la mèche on te kill, kill, kill, kill Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaires Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Drames &amp; bougies</t>
+          <t>Encore</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baille Broliker Production Jsuis dans les bons bails, jvois tout en 4k Là cest Game Over, 50k Cest Kmer M. Sosa Cest chaud dans la ville mon ami Cheval de Troie je suis Regarde derrière qui me suit La police suit mon train de vie Le baveux me prend 2 SMIC Cur de glace on a, Pas besoin de voir pour croire St Thomas a ses raisons, que la raison veut voir Le dealer charbonne en Quechua Ouai, Ouai, en Quechua Au dessus des lois, le terrain né-tourne alléluia On démarre la caisse pour la mission Le public macclame, jgère la pression Le jaune se vi-ser à bonne cuisson, garçon, 500 cest laddition Jviens pas dune famille aisée Bah elle moblige à tout baiser Jai tout les outils pour voir le monde donc Maman faut pas tinquiéter 400 ans de répression, 4 négros dans la cuisine Liasse de 100 dans le parking, cousin, cest pas les sous de la musique Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaire Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies Cherche pas à être comme nous On veut plus être ce quon est Men veux pas dêtre moi On devient ce que veut le monde Tout nest quune question de choix Moi juste soit à manger Un drame, des larmes, des bougies Une feuille, une clope, on toublie Jsuis dans la suite, entre ses cuisses, jsuis dans les bails noirs Terrain hostile, souvent habile, on manie bien les armes Jamais déçu, très peu dfissure car jconnais les gens Grandi violemment, enfance brisée dans le bâtiment Ouai, ouai, ouai Dineros mappellent, jarrive Ça grésille jme barre sur une île Tu mverras jamais dans les boîtes et chichas remplies de salope virtuelles qui font tchi Crimes en bande organisée, cest vrai Le procureur confirme les faits Tas vendu la mèche on te kill, kill, kill, kill Mauvais garçon dans les mauvais dièses Jsuis bête et méchant donc jai plein dadresses La police enquête sur pas mal daffaires Donc maman sinquiète pour la prison ferme Des drames, des larmes, des bougies Drames, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, larmes, des bougies Un drame, des larmes, des larmes, des bougies Un drame, des larmes, des bougies Drame, des larmes, des bougies</t>
+          <t>Eh Geo on the track Encore du sale, encore du gras t'as vu t'as vu? 35 balais l'ancien Encore, encore une pige et j'arrête Encore hein, VVS-S Eh J'écris ce texte en m'disant que c'est p't-être ma dernière année Je sors d'une dépression sévère j'ai fait un travail sur moi Le psy n'a pas su trouver les mots, j'me suis confié a Dieu Ce bâtard m'a juste pris des sous, ce bâtard m'a juste plumé J'suis Veni, je dois Vici, jeune négro full Givenchy J'ai full options dans la gova, j'regarde le ciel orageux J'ai pris mon cur en otage, j'calcule même plus ces follasses Tellement de rage j'pourrais pas m'contenir plus longtemps j'le ressens Trop de fils de putains qui attendent ma chute J'investis dans la crypto, bientôt le parachute Mon fils ma seule étoile, on s'capte sans pare-balles Chafik j'ai manqué d'chance mais ça c'était avant eh VVS-S, fuck la hess hess, j'connais ma ville pas d'GPS-S j'ai tous les plans S ouais Comme Okocha-a j'dois marquer l'histoire J'fais autre chose que d'raconter ma vie et celle des mecs au shtar, Hein Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête Eh Et l'histoire retiendra qu'on n'a jamais sucé d'bite Dans mon équipe y'a 0 fragiles, 0 susceptibles On s'aime de loin, quand faut agir pour l'un des miens, j'le fais Un cur en panne, j'le greffe, j'ai besoin d'v'là les streams Trop d'estime pour leur demander un feat J'avais d'l'amour à donner, trop tard mon fils a tout pris La balistique qui enquête, jamais trop tard j'suis en tête On vit le jour et la nuit, vivement le soleil d'été Ouais, j'pense a Ba, j'pense a LVM, l'époque du square J'rentrais chez moi le soir grâce au TVM Trop de fils de tain'p qu'on aime pas trop, qu'on aime pas trop Ca pue la pisse dans l'Hall, ça pue la beuh dans le Quattro J'suis al ou il faut être, j'suis né ou il faut pas J'mise pas dans l'paraître J'cogite la nuit, j'fais les cent pas Jamais d'prétention pour ceux que j'aime Tu m'as poussé 20e en 2015 j'te rend 1K Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Encore</t>
+          <t>Ennemis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eh Geo on the track Encore du sale, encore du gras t'as vu t'as vu? 35 balais l'ancien Encore, encore une pige et j'arrête Encore hein, VVS-S Eh J'écris ce texte en m'disant que c'est p't-être ma dernière année Je sors d'une dépression sévère j'ai fait un travail sur moi Le psy n'a pas su trouver les mots, j'me suis confié a Dieu Ce bâtard m'a juste pris des sous, ce bâtard m'a juste plumé J'suis Veni, je dois Vici, jeune négro full Givenchy J'ai full options dans la gova, j'regarde le ciel orageux J'ai pris mon cur en otage, j'calcule même plus ces follasses Tellement de rage j'pourrais pas m'contenir plus longtemps j'le ressens Trop de fils de putains qui attendent ma chute J'investis dans la crypto, bientôt le parachute Mon fils ma seule étoile, on s'capte sans pare-balles Chafik j'ai manqué d'chance mais ça c'était avant eh VVS-S, fuck la hess hess, j'connais ma ville pas d'GPS-S j'ai tous les plans S ouais Comme Okocha-a j'dois marquer l'histoire J'fais autre chose que d'raconter ma vie et celle des mecs au shtar, Hein Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête Eh Et l'histoire retiendra qu'on n'a jamais sucé d'bite Dans mon équipe y'a 0 fragiles, 0 susceptibles On s'aime de loin, quand faut agir pour l'un des miens, j'le fais Un cur en panne, j'le greffe, j'ai besoin d'v'là les streams Trop d'estime pour leur demander un feat J'avais d'l'amour à donner, trop tard mon fils a tout pris La balistique qui enquête, jamais trop tard j'suis en tête On vit le jour et la nuit, vivement le soleil d'été Ouais, j'pense a Ba, j'pense a LVM, l'époque du square J'rentrais chez moi le soir grâce au TVM Trop de fils de tain'p qu'on aime pas trop, qu'on aime pas trop Ca pue la pisse dans l'Hall, ça pue la beuh dans le Quattro J'suis al ou il faut être, j'suis né ou il faut pas J'mise pas dans l'paraître J'cogite la nuit, j'fais les cent pas Jamais d'prétention pour ceux que j'aime Tu m'as poussé 20e en 2015 j'te rend 1K Guette ma paire de shoes, elle vaut 1K 1K Jeune négro qui mène une vie très instable J'suis pas d'ceux qui vendent du rêve sur Insta jamais Jeune négro qui mène une vie très instable Encore, encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore une année de plus, encore une année de sale Encore une année j'm'arrête, ça marche pas, j'vends des barrettes La vie c'est pas internet, j'pense à ouvrir un commerce La boule au ventre, trop souvent, quand j'pense à SDHS Encore, encore une année j'm'arrête, ouais, profitez hein Encore une année j'm'arrête</t>
+          <t>Eeeeh Sosa, t'as vu ? Freddy K all day Mes démons m'obéissent et depuis longtemps, ouais, mes démons m'obéissent depuis très longtemps Je fais de la trap depuis qu'j'suis minot, j'frappe fort dans le sac, ouais, depuis longtemps Avec le temps, j'me suis assagi, cur noir brisé comme en Palestine Très peu d'estime pour les suceurs de eh, j'suis dans le binks avec les mecs qui eh Nine four four, j'ai le nine qu'il faut, j'ai la gueule du suspct même quand j'suis dans les normes J'vux le trésor, j'mets pas d'alligator, elle a les yeux bridés, j'lui dis arigatô L'équipe est noire comme N.W.A, t'aimes trop les femmes, tu vas finir dans l'coffre Un, deux, trois, quatre virements par mois, c'est le minimum, fuck, le treizième mois J'suis dans la trap, parfois dans la drill, à mes quinze piges, j'faisais du dirty Maman s'inquiète, n'aime pas l'industrie, j'lui dis T'inquiète, moi non plus, j'les aime pas Les potos me disent Bsahtek, la gova, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Hey, hey, ouh, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis J'suis dans la Ciudad, j'suis dans le bendo, le carré VIP, c'est pas pour nous À mes trente piges, j'veux rouler en Bentley, Aventador, moi, j'sais pas pour vous J'suis dans le tunnel qui relie Nanterre à l'A86, qu'est-ce qu'il est long Elle me dit Kmer, qui suis-je pour toi ?, j'sais même pas quoi lui dire mais j'ai l'air con Attends, faut qu'j'fasse autre chose, le peu-ra, j'lui mets sa dose, il a une scoliose Tit-peu, j'volais de ouf, j'ai fait la misère aux keufs, aux vigiles de Carrefour Tu parles comme si t'es chaud toi, chez toi, t'es juste un chouf, ici, personne croit Attends deux secondes que j'vois qui est chaud, pas de feinte de shoot, pas d'carré, d'croix Oh, machine à billets machine à lovés, machine à billets machine à lovés Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis Mes démons m'obéissent Vingt, vingt-et-un, c'est moi Ouh</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ennemis</t>
+          <t>Espace Temps</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eeeeh Sosa, t'as vu ? Freddy K all day Mes démons m'obéissent et depuis longtemps, ouais, mes démons m'obéissent depuis très longtemps Je fais de la trap depuis qu'j'suis minot, j'frappe fort dans le sac, ouais, depuis longtemps Avec le temps, j'me suis assagi, cur noir brisé comme en Palestine Très peu d'estime pour les suceurs de eh, j'suis dans le binks avec les mecs qui eh Nine four four, j'ai le nine qu'il faut, j'ai la gueule du suspct même quand j'suis dans les normes J'vux le trésor, j'mets pas d'alligator, elle a les yeux bridés, j'lui dis arigatô L'équipe est noire comme N.W.A, t'aimes trop les femmes, tu vas finir dans l'coffre Un, deux, trois, quatre virements par mois, c'est le minimum, fuck, le treizième mois J'suis dans la trap, parfois dans la drill, à mes quinze piges, j'faisais du dirty Maman s'inquiète, n'aime pas l'industrie, j'lui dis T'inquiète, moi non plus, j'les aime pas Les potos me disent Bsahtek, la gova, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Hey, hey, ouh, j'lui réponds C'est l'mekt,' c'est le Très-Haut qui donne Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis J'suis dans la Ciudad, j'suis dans le bendo, le carré VIP, c'est pas pour nous À mes trente piges, j'veux rouler en Bentley, Aventador, moi, j'sais pas pour vous J'suis dans le tunnel qui relie Nanterre à l'A86, qu'est-ce qu'il est long Elle me dit Kmer, qui suis-je pour toi ?, j'sais même pas quoi lui dire mais j'ai l'air con Attends, faut qu'j'fasse autre chose, le peu-ra, j'lui mets sa dose, il a une scoliose Tit-peu, j'volais de ouf, j'ai fait la misère aux keufs, aux vigiles de Carrefour Tu parles comme si t'es chaud toi, chez toi, t'es juste un chouf, ici, personne croit Attends deux secondes que j'vois qui est chaud, pas de feinte de shoot, pas d'carré, d'croix Oh, machine à billets machine à lovés, machine à billets machine à lovés Pour ça, j'dois prier pour ça, j'dois prier Oh, machine à billets machine à billets, machine à billets Pour ça, j'dois prier Ennemis, ennemis, ennemis, ennemis, rat de ville, j'ai largué ennemis, ennemis Fais du biff, fais du biff, fais du biff, fais du biff, droit devant, j'ai toute la panoplie, panoplie J'ai la shoe, j'ai la shoe, j'ai le nine, j'ai le nine, à qui l'honneur, à qui l'honneur, j'vous en prie, j'vous en prie Ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis, ennemis Mes démons m'obéissent Vingt, vingt-et-un, c'est moi Ouh</t>
+          <t>Kary on the tracks Oh ohh Hann, hann Seul, dans la cogite, pas bonne pour la santé mentale Hein J'refais le monde à ton image Jrefais Plafond de verre à perforer Il pleut, imperméable me protège des gouttes, j'suis une mauvaise graine Les images qui contredisent tes dires C'est beau de savoir comment ils vont mourir Bosseur et croyant, faut des édifices Jcroyais qu'c'était la bonne technique Non J'éclaire les coins sombres de la city J'me méfie de leurs sourires, d'leurs kalash Jamais trop tard pour ouvrir un livre Non J'suis condamné faut qu'jme livre Eh Jdois contrôler mes pulsions Gamin j'avais un cur plus grand que la maison Bouh Jai l'impression qu'il passe beaucoup plus vite le temps Et toi ? Plus vite qu'hier Plus Plus fort quhier Plus noir qu'hier Encore Espace Temps Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Y'a pas de fumée sans feu Nan Ça se répète comme dans un mauvais film Repeat Espace temps, j'suis bloqué, j'suis glocké Bou-bouh Ils sont pas aussi méchants qu'ils y paraissent J'sais pas surestimer Faut pas les voir plus grands qu'ils ne paraissent On saura rivaliser Petit cur a trouvé réconfort, dans les bras de Morphée Petite bougie, toutes mes dents, j'souris pas pour autant C'est pas nous les sorciers Un puit sans fin, c'est comme boomerang Raffiné et fin, j'éduque mon palais mais j'm'y ferais jamais au caviar Le pouvoir c'est donner un peu de soi, un peu de nous La lumière n'éclaire pas tout la Ils ont saboté les freins Hein Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Boum boum boum Y'a pas de fumée sans feu KJU Ça se répète comme dans un mauvais film No Espace temps, j'suis bloqué, j'suis glocké Les trois quarts ici sont glockés Hey, hey KJU Boom boom boom</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Espace Temps</t>
+          <t>Extinction</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kary on the tracks Oh ohh Hann, hann Seul, dans la cogite, pas bonne pour la santé mentale Hein J'refais le monde à ton image Jrefais Plafond de verre à perforer Il pleut, imperméable me protège des gouttes, j'suis une mauvaise graine Les images qui contredisent tes dires C'est beau de savoir comment ils vont mourir Bosseur et croyant, faut des édifices Jcroyais qu'c'était la bonne technique Non J'éclaire les coins sombres de la city J'me méfie de leurs sourires, d'leurs kalash Jamais trop tard pour ouvrir un livre Non J'suis condamné faut qu'jme livre Eh Jdois contrôler mes pulsions Gamin j'avais un cur plus grand que la maison Bouh Jai l'impression qu'il passe beaucoup plus vite le temps Et toi ? Plus vite qu'hier Plus Plus fort quhier Plus noir qu'hier Encore Espace Temps Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Y'a pas de fumée sans feu Nan Ça se répète comme dans un mauvais film Repeat Espace temps, j'suis bloqué, j'suis glocké Bou-bouh Ils sont pas aussi méchants qu'ils y paraissent J'sais pas surestimer Faut pas les voir plus grands qu'ils ne paraissent On saura rivaliser Petit cur a trouvé réconfort, dans les bras de Morphée Petite bougie, toutes mes dents, j'souris pas pour autant C'est pas nous les sorciers Un puit sans fin, c'est comme boomerang Raffiné et fin, j'éduque mon palais mais j'm'y ferais jamais au caviar Le pouvoir c'est donner un peu de soi, un peu de nous La lumière n'éclaire pas tout la Ils ont saboté les freins Hein Mauvais film, seul dans le noir Même dans le noir, je touche de peu mes rêves Le clan d'en face a perdu toute notion des choses Victime des mauvais choix, bloqué dans l'espace temps Les trois quarts ici sont glockés Boum boum boum Y'a pas de fumée sans feu KJU Ça se répète comme dans un mauvais film No Espace temps, j'suis bloqué, j'suis glocké Les trois quarts ici sont glockés Hey, hey KJU Boom boom boom</t>
+          <t>Kimo Oh KJU Une moto, un dernier vux Un rafale, une dernière veuve Un buggy, un fils heureux Si tas peur du noir, cest que tes peureux Pas de latence On réagira au quart de tour pour nettoyer nos name Tu racontes ce que tas pas fait Tu vies à peine le premier jfinis le centième De lautre côté de la rue Y a sûrement des mecs qui mattendent en rogne Tu marmonnes On te coupe la langue Jsuis bon quà remonter le score comme Haaland Jsuis habité comme une entité Et lhabitacle, cest pas du cuir de vache Abîmé le foie dun opps Est devenu un sport national ici La vérité, men veux pas davoir fait du mal pour ton bien En vérité, que serait locéan sans le requin blanc ? Jaurais pu, ça aurait pu attendre comme un sniper malgré les orages Jreconnaît un opps un cur sans képi Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi Pas deux poids deux mesure Cest du pareil au même, jfais pas de distinction extinction Les feux à six accroché au bitume comme paire dAsics La survie de la race humaine dépendra de la récolte dans la rizière Une visière, boom boom boom, semi-automatique y a personne qui réplique Tu disparaîtras comme Kimpembe Jattends pas la pour venir répliquer Quas-tu connu de la guerre si tes pas impliqué ? Et mon cur sremplit de haine de manière progressive Tas voulu refaire le monde mais y a trop à faire Tu te feras voler le terrain comme en Palestine Jai les yeux grands ouverts, il neige comme Vancouver Nouvelle cover dans l'ciel, jles vois de la Tour Eiffel KJU Extinction des feux Tout le monde à la maison Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi boom boom boom</t>
         </is>
       </c>
     </row>
@@ -1036,14 +1036,10 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extinction</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Kimo Oh KJU Une moto, un dernier vux Un rafale, une dernière veuve Un buggy, un fils heureux Si tas peur du noir, cest que tes peureux Pas de latence On réagira au quart de tour pour nettoyer nos name Tu racontes ce que tas pas fait Tu vies à peine le premier jfinis le centième De lautre côté de la rue Y a sûrement des mecs qui mattendent en rogne Tu marmonnes On te coupe la langue Jsuis bon quà remonter le score comme Haaland Jsuis habité comme une entité Et lhabitacle, cest pas du cuir de vache Abîmé le foie dun opps Est devenu un sport national ici La vérité, men veux pas davoir fait du mal pour ton bien En vérité, que serait locéan sans le requin blanc ? Jaurais pu, ça aurait pu attendre comme un sniper malgré les orages Jreconnaît un opps un cur sans képi Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi Pas deux poids deux mesure Cest du pareil au même, jfais pas de distinction extinction Les feux à six accroché au bitume comme paire dAsics La survie de la race humaine dépendra de la récolte dans la rizière Une visière, boom boom boom, semi-automatique y a personne qui réplique Tu disparaîtras comme Kimpembe Jattends pas la pour venir répliquer Quas-tu connu de la guerre si tes pas impliqué ? Et mon cur sremplit de haine de manière progressive Tas voulu refaire le monde mais y a trop à faire Tu te feras voler le terrain comme en Palestine Jai les yeux grands ouverts, il neige comme Vancouver Nouvelle cover dans l'ciel, jles vois de la Tour Eiffel KJU Extinction des feux Tout le monde à la maison Mon ami, mon ennemi Mon ami, mon ennemi Mes ennemis, les amis Mes ennemis, les amis Ma baby, ma chérie Ma baby, ma chérie Le AK, un uzi Le AK, un uzi boom boom boom</t>
-        </is>
-      </c>
+          <t>Fais un vœu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1053,10 +1049,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fais un vœu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Fashion Week</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Oh Baille Broliker Production Trois pièces Hey Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh C'est la Fashion Week, c'est Paname, c'est pas Rio C'est pas Rio J'me rappelle, hier, quand j'avais R, tu riais J'avais la dalle J'envoie mandât cash au poto, j'envoie Ria Oh Po-po-po-po-poh le son d'la Kalash' est bien réel Po-poh À c'qui paraît, les derniers finiront premiers À c'qui paraît Toi, t'es dernier depuis l'départ, t'es un flocko T'es un flocko J'ai investi sur le terrain, sur l'Ethereum Po-poh J'suis un délinquant comme Sosa, j'ai pas mis nez dans la zipette Po-poh C'est nous les jeunes boss, on casse la malédiction Le daron était pauvre, si on meurt pauvre, ça sera de notre faute Avenue des Champs, j'y suis avec des mecs qui puent la tise Je claque de fou un SMIC sur des produits que j'mettrai pas une pige T'as vu Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Ils m'ont trahi pour des pesos, pour du khaliss Eh J'suis en damier Eh, t'es en échec Eh Bébé veut passer du bon temps, j'suis condamné Hey VV dans la AP Hey, j'm'appelle AG Hey Si t'es ché-lâ, c'est qu'y a plus rien à gratter T'as plus la dalle Tous les jours d'l'année, c'est comme le premier du mois Everyday T'sais pas compter, t'aurais fait un mauvais dealer Que des traîtres T'sais pas viser, t'aurais fait un mauvais tireur Tou-tou-touh On court ni après les tasses-pé, ni le bus On connaît tous la fin du film, le plus gentil se fera dévorer Toh J'envoie des SMS, t'envoies des SOS Dangereux comme R.U.E, y a très longtemps qu'je rappe la rue pour ceux qui guettent Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Re-noi dans l'business Ma tasse-pé fait du fitness Birkin, trois pièces dans l'RR Trois pièces Fitness Birkin</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fashion Week</t>
+          <t>Fila</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Oh Baille Broliker Production Trois pièces Hey Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh C'est la Fashion Week, c'est Paname, c'est pas Rio C'est pas Rio J'me rappelle, hier, quand j'avais R, tu riais J'avais la dalle J'envoie mandât cash au poto, j'envoie Ria Oh Po-po-po-po-poh le son d'la Kalash' est bien réel Po-poh À c'qui paraît, les derniers finiront premiers À c'qui paraît Toi, t'es dernier depuis l'départ, t'es un flocko T'es un flocko J'ai investi sur le terrain, sur l'Ethereum Po-poh J'suis un délinquant comme Sosa, j'ai pas mis nez dans la zipette Po-poh C'est nous les jeunes boss, on casse la malédiction Le daron était pauvre, si on meurt pauvre, ça sera de notre faute Avenue des Champs, j'y suis avec des mecs qui puent la tise Je claque de fou un SMIC sur des produits que j'mettrai pas une pige T'as vu Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Ils m'ont trahi pour des pesos, pour du khaliss Eh J'suis en damier Eh, t'es en échec Eh Bébé veut passer du bon temps, j'suis condamné Hey VV dans la AP Hey, j'm'appelle AG Hey Si t'es ché-lâ, c'est qu'y a plus rien à gratter T'as plus la dalle Tous les jours d'l'année, c'est comme le premier du mois Everyday T'sais pas compter, t'aurais fait un mauvais dealer Que des traîtres T'sais pas viser, t'aurais fait un mauvais tireur Tou-tou-touh On court ni après les tasses-pé, ni le bus On connaît tous la fin du film, le plus gentil se fera dévorer Toh J'envoie des SMS, t'envoies des SOS Dangereux comme R.U.E, y a très longtemps qu'je rappe la rue pour ceux qui guettent Re-noi dans l'business, eh 'ness, 'ness, 'ness, ma tasse-pé fait du fitness, eh Fit, fit, fit Elle veut son sac Hermès Wow, Birkin, trois pièces dans l'RR Trois pièces Re-noi dans l'business, eh Business, ma tasse-pé fait du fitness, eh Fitness Elle veut son sac Hermès Hermès, Birkin, trois pièces, minimum RR Eh, eh Re-noi dans l'business Ma tasse-pé fait du fitness Birkin, trois pièces dans l'RR Trois pièces Fitness Birkin</t>
+          <t>À l'ancienne comme Fila Wesh Heavy Wesh Heavy J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, j'ai bien failli sauter Oh-oh-oh T'as vu ? Oh-oh-oh Ouais J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, tou-tou-touh, han, j'ai bien failli sauter J'ai bien failli y passer, oh-oh-oh On était beaucoup sur la to-ph' Eh, on rêvait d'ballon d'foot, finir comme Joga Bonito Finir comme Joga Bonito Golf GTD, GTI, on avait tout Hey, on voulait le GTR de Need for Speed dans la vraie vie Nion On était con mais peu à peu Hey, on devient des vrais hommes, on a des marmots à faire vivre Oh-oh-oh À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa Wardo, enlève l'AutoTune Enlève pour qu'ils ressentent le ton d'ma voix quand j'm'exprime Quand je parle Han, on n'a pas guéri de nos blessures, autour, y a que des hyènes et tous nos faits ont fait la une d'hiver Yeah, yeah, yeah Délit de faciès, on s'en bat les c' Quoi ?, on fait dix fois le salaire de l'officier Y a dégun qui m'impressionne, j'ai le pe-pom qui fait des trous Po-poh Un homme averti en vaut deux, ça vaut le double On fait les comptes, avec les tits-pe, on raconte des comptines à nos gosses Oh-oh-oh Comme Balotelli, on était précoces Oh-oh-oh Et nos p'tites surs ne mettent pas de gloss, font pas des TikTok J'empile les briques pour abriter les miens J'ai le grr qui protège les miens À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa À l'ancienne comme Fila Oh-oh, le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fila</t>
+          <t>Freestyle de l’Ombre (#2016 Follow Me)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>À l'ancienne comme Fila Wesh Heavy Wesh Heavy J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, j'ai bien failli sauter Oh-oh-oh T'as vu ? Oh-oh-oh Ouais J'ai un côté bestial, j'ai grandi près du gouffre Oh-oh-oh, tou-tou-touh, han, j'ai bien failli sauter J'ai bien failli y passer, oh-oh-oh On était beaucoup sur la to-ph' Eh, on rêvait d'ballon d'foot, finir comme Joga Bonito Finir comme Joga Bonito Golf GTD, GTI, on avait tout Hey, on voulait le GTR de Need for Speed dans la vraie vie Nion On était con mais peu à peu Hey, on devient des vrais hommes, on a des marmots à faire vivre Oh-oh-oh À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa Wardo, enlève l'AutoTune Enlève pour qu'ils ressentent le ton d'ma voix quand j'm'exprime Quand je parle Han, on n'a pas guéri de nos blessures, autour, y a que des hyènes et tous nos faits ont fait la une d'hiver Yeah, yeah, yeah Délit de faciès, on s'en bat les c' Quoi ?, on fait dix fois le salaire de l'officier Y a dégun qui m'impressionne, j'ai le pe-pom qui fait des trous Po-poh Un homme averti en vaut deux, ça vaut le double On fait les comptes, avec les tits-pe, on raconte des comptines à nos gosses Oh-oh-oh Comme Balotelli, on était précoces Oh-oh-oh Et nos p'tites surs ne mettent pas de gloss, font pas des TikTok J'empile les briques pour abriter les miens J'ai le grr qui protège les miens À tout vouloir, on prend rien au final, ça se joue pas une finale Ça se gagne Y a un plavon à 20K, viens sur Signal Fort, oh-oh-oh Ce qu'ils m'ont fait, je m'en rappelle, y a rien d'plus important qu'la mif' Nada, nada, nada On pleure même plus nos défunts, on fêtera nos gloires à Kribi Le tier-quar nous a eu, c'est pas la faute des darons si on finit comme des bandits On finit comme des bandits On fait plus les cent pas, on s'est retrouvé dehors, pour s'enrichir, on a vendu On a bibi sa mère À l'ancienne comme Fila À l'ancienne, mauvais virage, j'ai le cur dans sale état J'ai le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa Que la famille dans la villa À l'ancienne comme Fila Oh-oh, le cur abîmé À l'ancienne comme Fila, j'dois empiler les briques, que la famille dans la villa</t>
+          <t>J'veux la tête du roi négro, fuck la fève Noël ou pas, sale pute on t'feras ta fête Enchanté, moi c'est Monsieur So Inacceptable que nos têtes soient wanted sur tous les murs des comicos Sur nos côtes y'a la brigade des stups' J'ferais du sale jusqu'à c'qu'ils comprennent que Mr Elh Kmer c'est en majuscule Rien à foutre du game j'suis solo Euro, Dollar donc tôt on arrête nos études Fils de pute, va fan culo, arrivage de drogue par l'Espagne donc faisons nos thunes Sur Boulbi j'suis en terrain conquis Fils de harki veut m'apprendre la vie mais il se prend pour qui ? J'côtoie les mêmes khos depuis tout p'tit Vesti, Braki, Tony, 2016 on niquera des mères même dans l'illicite Braki follow me Vesti follow me Tony my nigga follow me J'suis pas là pour vous plaire allez niquer vos mères les putes Gros j'suis en colère la putain d'vos rs' Vesti va tous vous quer-cho Tu fais le mais renoi tu gagnes que mille euros J'suis en mode kickage tous mes frelons me disent Va-y mollo Paire de Nike Air, cette tasse-pé veut mon pubis Un conseil met pas tes dents, sinon j't'arrache tous tes chicos J'ai frappe d'ici à la rage j'te met ça et le coup d'boule du voisin à On les baise tous ces fils de putes qui jactent sur le trio Si tu m'vois pas c'est qu'j'suis dans l'four j'prépare du lourd pour toi ouais amigo Brigade anti-suceuses c'est comme quoi qu'on nous voit merci les pélos Viens dans mon quartier on est plein Free Badem, Free 2Lat, Free Youston fuego Oh putain les vils-ci veulent me choper j'suis dans le Dans le Sud j'ai caché les cs-tru dans le Renault dans le nord Elle croit me michtonne, comme on dit Trop bonne trop conne Ouais sachez d'la bonne va y viens que j't'en donne Direction sur les quais si tu fais le bonhomme, badaboum, j'te rafale tu pleures comme une folle 2.3.7 Camer' si tu sais dans la schnek de la petite Nicole Hé wAllah on a trop faim les frères Hé cousin on arrive pour tout baiser Hé dis leur B.R, hé mon gars, c'est chaud dans la ville ou quoi ? Braki follow me Vesti follow me Tony my nigga follow me Encore un fils de pute qui veut pas payer j'vais devoir aller le traquer Ça m'invitait pas à leur soirées parce qu'ils savaient que j'allais tout claquer Dans un traquenard négro tu est tombé, ne te caches plus on t'as localisé Audacieux, jeune et fougueux, tous ces fils de sont des envieux Joue le jeu, j'paye le tel-hô, j'veux tout compris va-y suce moi la queue Quand j'me fais péter par les re-schta, j'deviens amnésique dans tous les cas Amnésique dans tous les cas, ouvre ta gueule et c'est là Ils sont pétés, j'vais pas les savourer, j'vais les grailles d-spee comme j'avale Avec Ombre et Lumière croit moi sur parole j'vais niquer des mères Tu n'es que locataire, moi j'investis pour être propriétaire Je suis frais-ais, oui je suis prêt-êt, sur mon futal y'a mon arme de guerre J'suis déte-er, si tu me cher-erche, avant d'te descendre je vais monter ta mère Braki follow me Vesti follow me Tony my nigga follow me</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Free O.G</t>
+          <t>Freestyle De L’ombre (Audi)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier - 0101 Bavaz - Kim Jong Playlist 0301 Yuri J - Noyade - 0401 Zeu - BOSS'S ORDERS - 0701 1PLIKÉ140 - ARRÊTEZ-LE ! Vol.2 - 0701 ÆV - IMMERSION - 0701 Insa - Hendrix - 0701 Jayden - AMOUR ET PAIX - 0701 Stutt - On m'appelle STUTT Vol.3 0701 Yan - Upsilon II 1101 Scott South - 16 Bars Unrealeased Tape - 1201 Sto - EP REMIX DELUXE - 1301 Gama Boonta - KARIT3 - 1301 Okis - OK - 1401 Artistes divers - Connexion part. 1 - 1401 Ashh - OPIUM - 1401 Huntrill Hologram Lo' - REPLICA - 1401 Lucio Bukowski Oster Lapwass - Les Dieux ne jouent plus au billard électrique 1401 Persia Beats - Noir et blanc 1401 Senyss - Tout va bien, Part. 2 1401 TK - Dossier TK - 1701 ihatemed - 15 1901 Canardo - Automeris 2001 Batboy - Naufragé - 2001 Bavaz - Kim Jong Playlist II - 2101 Azaria nwtn - EDEN - 2101 Chad de la Cour - PUNK ENCORE part 2.5 - 2101 Diddi Trix - Dope Boyz 2101 Grödash - Monnaie Time - 2101 H JeuneCrack - 2nd Cycle - 2101 Jazzy Bazz - Memoria - 2101 L2B Gang - 94 Bois, vol. 2 - 2101 Moha MMZ - EUPHORIA - 2101 Prototype - EXTRA - 2101 Rémy - Renaissance - 2101 Rvhim - Oud Mina 2101 VHS - Nique le système Vol. 1 2101 Waïv - Don d Dieu 2201 22Cozz - Sleepin Tape - 2401 Dosseh - Yuri Negrowski - 2601 Dinos - Aquanaute 2601 GR OMEGA - Clairobscur 1 - 2701 Maka - Sortez les couverts, vol. 1 - 2801 Atro Boi - Minuit 60 Deluxe - 2801 Benjamin Epps - VOUS ÊTES PAS CONTENTS ? TRIPLÉ ! 2801 Blaiz - ZIMA - 2801 Chanceko - R 3 P L A Y 2801 Fanny Polly - ReBELLE - 2801 Kaaris Kalash Criminel - SVR 2801 Kaki Santana - Planete OBS 2801 Kaneki - Ce que je vis 2801 La Smala - hors du temps - 2801 Luni - XX7 - 2801 OELEY - YELEO - 2801 Skia - Sensible 2801 Walter - VAGUES - 2901 Dmh - Quartiers Nord 2901 Pico - Better Alone 3001 Rifa Samb - Demain, c'est loin Février - 0202 B.B. Jacques - Poésie d'une pulsion 0302 Guapo Cartel - HOT WATER GWAP 0402 Alvin Chris - Après vous - 0402 Cinco - Sacrifices 0402 DOR - La Receta - 0402 Gemen - STELE 1ère Partie - 0402 Kaeles - Kaelum - 0402 Kaza - TOXIC Winter Édition - 0402 Vald - V 0402 Vicky R - RHC Extension - 1102 J9ueve - Illusions - 1102 Le Juiice - ICONIQUE - 1102 Leo Roi - Autotune Tristesse 1102 Rethno - Aveux sur écoutes - 1102 SOPA - Peiné II - Deuil - 1102 roseboy666 - Prettiest loser 1302 Anton Serra Goomar - Pardon Madame - 1402 Yunodji - STOCK - 1802 23wa - 3 - 1802 BabySolo33, Bricksy 3G - Stress Paillettes 1802 Carson - FALCONIA III - 1802 Croma619 - NO SKIP - 1802 Disiz - L'Amour Prélude - 1802 Don Max FullBaz - COBRAM - 1802 Jewel Usain - SEASON PASS - 1802 Kpri - Kpri Tape, vol. 3 - 1802 Leto - 17 Extension - 1802 Limsa - Logique, Pt. 3 - 1802 MadeInParis - Voulez-vous coucher avec moi 1802 Santo - Santorama - 1802 Tovaritch - Mikhailov - 1802 winnterzuko Skuna - deepstar - 1802 Yvnnis Lil Chick - PARHELIA - 1802 YUNG POOR ALO - JEUNE PAUVRE - 2202 Osirus Jack - Nouvelle Ère 2202 Zamo x Itam - Opaque 2302 Six - SIXM16 - 2502 Asinine - C'est les autres - 2502 Bludelta - Blu Fiction vol. 1 - 2502 Bolémvn - Vol 169 Atterrissage - 2502 BUHI - Bushi Tape 2 2502 Cyrious - Crépuscule - 2502 GRËJ - PIXELTAPE2 - 2502 Leone - POLYGONIA - 2502 Lujipeka - Lujradio Vol. 1 - 2502 Nanek - Absent 100 toi - 2502 Paco - Bérézina - 2502 Slkrack - JUAN COCA - 2502 thaHomey - RAREFILES II 2502 Theodore - Romance Rodéo - 2502 Tyranik - Momemtum - 2502 YL - YAMINE - 2502 Zamdane - Couleur de ma peine 2502 Zouz - Pour le meilleur et pour le pire 2702 LELEEE - Le Trou de Ver Mars - 0103 Petit Voyou - Mars 0103 Radmo, Boulos Kreg - Mazoutés - 0103 yswanj - OPÉRA - 0103 YEND - Soliloquy TOME 1 - 0203 Fresh la Douille - Sur écoute 2.0 - 0303 Neop0p - O B E D I E N C E - 0403 Abou Tall - FUTURA - 0403 Freeze Corleone Ashe 22 - RIYAD SADIO - 0403 Juice - PAS DE FLEURS SANS PLUIE 0403 Kalmas - DLF - 0403 Leonis - Sherhood Part. 2 - 0403 Maska - Étoile de Jour, Pt. 3 0403 Mehdi YZ - Dans ma tête - 0403 Noname - Trap FR 1 0403 Ron Brice - CÔTE EST 0403 Sultan - Kikazaru 0403 Yassin - Vue d'en bas - 0403 ZKR - Caméléon - 0603 6rano - 33 - 0903 i300 - 200ml - 1103 Achile - Pas si simple - 1103 Bupropion - Saisons Pourpres 1103 Gotti Maras - Instinct de survie - 1103 Jey Brownie - EXORDE - 1103 Jwles - Parizin - 1103 Lamatrix - Rookie - 1103 Lefa - DÉMIEUR - 1103 Nahir - Rihan - 1103 Realo Zoomy - SEXY TURBO SPEED - 1103 Rimkus - Boîte noire - 1103 Simony - Vortex - 1503 K.S.A Selman Faris - Monaco 1603 Janis - So Fresh 1603 Mess 2T - Freestyle Insta 1703 Lasco - La foudre Vol. 3 - 1703 Thaubi - STRAYDOG.1 - 1703 Toam - Dans les flammes 1 - 1803 528Ron Lovarran - DESDB 1803 Alkakris - Comète 1803 Black D - Majin Black - 1803 Chanje - ADN - 1803 Disiz - L'Amour 1803 Elh Kmer - 4SAISONS 'HIVER' - 1803 Gambino LaMG - Gambinerie 1803 Golgoth - CHRYSALIDE - 1803 Josman - M.A.N Black Roses Lost Feelings 1803 Joysad - Espace Temps Réédition 1803 Kima - La Cour des Grands 1803 Moka Boka - 9k - Jamais 1803 Moubarak - Principes - 1803 Squall p - STR - 1803 Veerus - Post Scriptum 2003 H La Drogue - Beretta - 2103 AnNie .Adaa - QANMJ 2303 Cacahouete - Boulevard de la Gratte - 2303 Dinos - NAUTILUS - 2303 Tejdeen - PLATINUM TEJ - 2403 AnNie .Adaa - QU'AUJOURD'HUI NE MEURE JAMAIS - 2403 Double Zulu - KAIJU - 2503 A2H - Une rose et une lame 2503 Brvmsoo - Mentalité Pt.1 2503 Davinhor - Indomptable 2503 Dehmo - LVDK - 2503 DNDX - VIEWS FROM VLB 2 - 2503 Empty7 - 2ON 2503 Falcko - Black Code Tome 2 - 2503 Kikesa - Rubi 2503 HIM - Trapstar, vol. 3 - 2503 H JeuneCrack Beamer - Mauvaise Musique 2503 James Digger - Badaboombap Volume 2 2503 KR Malsain - Paris Sud - 2503 Luv Resval - Etoile Noire 2.0 ZLM - 2503 MLKWAV - MOJO SOUND - 2503 Nessbeal - Zonard des étoiles - 2503 Rvhim - Sonak 2503 Sadandsolo Skuna - 360 2503 SAF - AU PIED DU MUR, PT. 1 - 2503 Scor Novy - Lotus NOIR - 2503 SONBEST - IMMERSION II 2503 Still Fresh - AMOUR NOIR 4 SAISONS - 2503 Voquab - Veine - 2503 Yaro - Tout Droit 2603 ouley - TYPE 993 2703 BEN plg - Rap Réalité 0.5 - 2903 Gianni - EXGZ - 3003 Henri Bleu - FéérieMusic 3003 JMK - BAD BOY ROMANCE 3103 Noma - Jsdqo - 3103 TLZ Clan - Cocon Avril 0104 99 Wolfkid - Grand Casino Deluxe - 0104 BEN plg - Réalité Rap Musique, Vol. 1 0104 Bigor - R.A.P. Rien à perdre 0104 Danzo - Larmes de joie - 0104 DA Uzi - Le chemin des braves 0104 Hooss - Les bonus de Woodstock - 0104 Lesram - Wesh Enfoiré - 0104 Petit Voyou - Avril - 0104 Makala - Chaos Kiss 0104 Nefaste - 480p - 0104 NeS - CQSS - 0104 Rouge Carmin - Radio Futurista, Vol. 1 0104 YNG Trvpboy - Mafia - 0404 Mafia K'1 Fry - Réédition Jusqu'à La Mort. - 0804 Ajna - LHERMITE - 0804 Araujo - EROSE - 0804 Bekar - Mirasierra 0804 Biffty - La Bête - 0804 Bludelta - Blu Fiction Vol. 2 - 0804 Caballero - OSITO - 0804 eden dillinger - SAUDADE Partie. 1 - 0804 Frenetik - Mouvement historique - 0804 Genezio - Vibestars Saison 1 - 0804 nelick - OCEANS 0804 Popey - Palette - 0804 Rozzy - avant VIRGÖ - 0804 Sally - PRISONNIÈRE - 0804 Sinik - Niksi - 0804 T.I.S Kaer MKS - Matières divines chaotiques - 0804 Youssoupha - NEPTUNE TERMINUS ORIGINES - 1304 L'Hexaler Melan - Solaire - 1504 100 Blaze - Blow 1504 13Mini - Mauvaise réputation 1504 Artistes divers - SEGPA B.O 1504 Benzizou - Radio Benz - 1504 CUL7URE - Seta - 1504 Damlif - Marcelle - 1504 Gambino - La fusée Réédition - 1504 Green Montana - NOSTALGIA - 1504 ISHA - Labrador bleu - 1504 Jwles, Mad Rey V900 - Juste un Moment - 1504 Noname - Trap FR 2 - 1504 sean - Restez Prince - 1904 HZY - La Moitié Dun Coeur 2004 Gaz120 - Gaz120 - 2004 So La Lune - 27.05.22 2204 Antes Madzes - En vrai - 2204 Captaine Roshi - Larosh 2204 Kanis - REFLEXION Deluxe 2204 Moha La Squale - L'Appache - 2204 Princesse - Jessie Alain 2704 Lasco - La Foudre, Vol. 3 Bonus - 2704 YUNG POOR ALO - JEUNE PAUVRE 2 - 2804 Loto - SLJA - 2904 Artistes divers - Agis ou rêve, Vol. 1 - 2904 Celestino - Dans ma tête - 2904 Coelho - Un jour de moins - 2904 Kalash - Tombolo - 2904 Kyo Itachi - Solide - 2904 Kobo - ANAGENESE 2904 Maska - Étoile de jour - 2904 Nyluu - uu Symphonie - 2904 Primero - Fragments part. 1 - 2904 Routs Wayne - NIRVANA 2904 STU - LOCHNESS - 2904 Vegedream - La Boîte de Pandore - 3004 Implaccable - So Vladdy - 3004 Lyre - JEUNES INSOLENTS Mai - 0105 Petit Voyou - Mai - 0105 YEND - Soliloquy TOME 2 - 0305 La Fève - EMPTY THE BIN VOL.3 - 0505 Ucyll - REP BEUNI - 0605 8Ruki - PoweredByRuki - 0605 Abou Tall - YAKUZA - 0605 Dabs - Mode S II 0605 Demi Portion - Mots croisés 0605 DIL - Dystopie - 0605 Furax Barbarossa - Uragano - 0605 Grems - Futura - 0605 Gros Mo - GROZO Social Club 0605 Laeti - Un jour avec, un jour sans - 0605 Lascaar - Pourquoi tes trop bouillant ? - 0605 LIM - BRUTALE - 0605 Luther - ALPHA - 0605 Rounhaa - MÖBIUS - 0605 Solray - Udaya - 0605 Tomàs V - Cinq Étoiles - 0805 Urde - Pépins - 1105 1863 - Teahupoo - 1105 Amine Farsi - FARSI - 1105 Realo Recklessboise - INFECTÉ - 1305 Dadju - Cullinan - 1305 Driver - Pour toujours - 1305 KOB - KEMET, Vol. 1 - 1305 Médine - Médine France 1305 Nakry - Côte d'Azur - 1305 Sasso L'Allemand - 2 lions 1305 Squadra - Cité Rose - 1305 Yaro - Tout Droit Deluxe - 1705 Gianni - EXGZ 2 1805 Fary - Le stand up m'a tué.e - 1805 Jeune Loup - SLIME CONTRE LE MONDE - 2005 Alonzo - Quartiers Nord - 2005 Ashh - OPIUM Réédition - 2005 B.B. Jacques - Poésie d'une pulsion Part. II 2005 Ben C - Bronze Boy - 2005 Coyote Jo Bastard - CNLPG 2005 Junior Bvndo - Sur mes côtes - 2005 KESPAR - FLEX 2 - 2005 La Cour - SORRY MOM 2005 L'Amerigo - Pause Clope 2005 Lemon Haze - QUOTIDIEN - 2005 Loud - Aucune promesse 2005 Maydo - Atlas 2005 Nicholas Craven Akhenaton - Latin Quarter part 1 - 2005 Timéa - CHRYSALIS - 2005 yung g - pétales de mon imagination - 2105 Femtogo - BRAVO-6 2305 Fiji God - Fully Focus 2305 Snakes Crew - Venin Ne Meurt Jamais - 2505 Lapostroz - ROUGE - 2505 Dinos - Sea Dweller - 2505 Zoomy - POWER UP! - 2605 Kamanugue, Arsaphe, Gorjuice SSOLOGOD - REVELATION 6 - 2705 AMK - 15 - 2705 AM La Scampia - Triste fête - 2705 C.Sen Le Chimiste - Confidentiel 2705 DJ Leska - You Know My Name - 2705 F430 - São Paulo 2705 Friz - Paradoxe 2705 Hunter - 222 - 2705 Jeune Ras - JUICE N12 - 2705 Menavor - Remède - 2705 Niaks - Comparution immédiate 2705 O.D Bussy - NEW SEASON 2705 OMR - Feat Tape - 2705 Pollux - PSLP - 2705 Quadracup Badmninto - BONCUPBADCUP! 2705 Roméo Elvis - TOUT PEUR ARRIVER 2705 Roro La Meute - La Meute - 2705 So La Lune - Fissure de vie - 2705 Soolking - Sans Visa - 2705 Tiakola - Mélo - 2705 TIF - HOUMA SWEET HOUMA - 2705 Verso - Au revoir, mon amour - 2705 Waltmann - Expressionnisme allemand - 2705 Yvnnis - ETERNAL YOUTH 2705 Zaky - Sentiments 2805 Beny - DORA - 2904 Lucio Bukowski Tcheep - Asadachi Tape Volume II - 3105 Didi B - History - 3105 H JeuneCrack, Bricksy 3G - Cactus Musique 3105 Kodgy - GVO Vol.2 Juin 0106 Michel - Turbo Club 0106 Petit Voyou - Juin 0106 Tito Prince - URDUR LES PRÉMICES - 0206 JuL - Live au Vélodrome - Deezer Originals 0206 L'enfant - Dans ma tête - 0306 Absolem - Leur dire 0306 Barack - Black house - 0306 Chester - WISTERIA 0306 Dehmo - PTIC BENDO II - 0306 Gemen - STELE 2ème Partie - 0306 i300 - 300ml - 0306 ISK - Racines - 0306 Jeune Morty - WAR - 0306 JuL - Extraterrestre 0306 La Hyène - Déconseillé aux moins de 16 ans - 0306 Luther - GARÇON - 0306 Nunca bupropion - LAG 0306 Seth Gueko - Mange tes morts - 0306 Shien - NEIGE - 0306 SOPA - Peiné III - Aube 0306 Soprano - Chasseur détoiles Stadium Édition 0306 SYDS - DEUS EX PRECIOSA - 0306 Thaubi - STRAYDOG.2 - 0306 Theodore - TCHA TCHO - 0306 WeRenoi - Telegram - 0406 Serane - Prise World 0606 Neo'saka - Projet Calypso - 0806 La Pépite - CITÉS DOR 0806 Nixon - J-30 - 1006 Arsaphe - PATIENCEBLOOD 1006 Artistes divers - Fils de 1006 Artistes divers - VAL DE RAP - 1006 Béles - Noirceur, Vol. 2 - 1006 Chiloo - Genèse 1006 Djeiz - PTDJ - 1006 Furlax - Ad Astra - 1006 Kaba - Long Story Short - 1006 Kai du M - SHOOTER CLAN - 1006 Meel B Irko - Dirty Synths and Nice Bars 1006 Mini - Mini Tape 4 - 1006 S-Crew - SZR 2001 - 1006 Soso Maness - À laube - 1006 Veust - Ce bon vieux Veuveu 1006 Youssef Swatts - Pour que les étoiles brillent - 1306 Balafré - ASKARI 1406 Yassin - V1 - 1506 eden dillinger - SAUDADE - 1506 PRIME - RE. 1506 rad cartier - EXTENSION DU TERRITOIRE 1506 Sean James - Vertigo 1506 Tyro - PATIENT 1706 313 - RVMA - 1706 6osy - Yuma - 1706 Beendo Z - L'Élu 1706 Dinero - OG LIFE - 1706 Elh Kmer - 4SAISONS 'PRINTEMPS' 1706 Eloquence - Maison suave - 1706 FullBaz - AZERTY - 1706 Greenfinch - Sublimes défaillances 1706 Harley - Fragrance - 1706 HIBA - sédentarisée musique 1706 HIM - Trapstar, Vol. 3 Deluxe - 1706 JeanJass - Doudoune en été 1706 Koffi Lossa Paris C'est Magique - 1706 Krono Muzik, Pandrezz Ronare - ZZCCMXTP 1706 Le Collectif - LE COLLECTIF 4 1706 Lord Gasmique - Résilience - 1706 MadeInParis - Sensationnel 1706 Mapess - DOUBLE 7 VOL.2 - 1706 Naps - La TN Team Naps 1706 Still Fresh - RELATIONS SAISON 1 - 1706 Swan - 0303 - 1706 Vink - Plan B - 1706 Walk in Paris - Walk Tape Vol. 01 - 1706 winnterzuko - VON - 2106 Eric Eract - Frustration Ambition - 2106 Juice - Floraison - 2106 NKP - LOVIAH - 2206 Hyacinthe - Tout ce qui brûle - 2206 Slkrack - Thug Life 2306 Esmo - VEGA MISSYL - 2306 Sheldon - Spectre Live Session - 2406 BEN plg - Réalité Rap Musique, Vol. 2 - 2406 Bigflo Oli - Les autres c'est nous 2406 BLK 140 - LOADING... 2406 Calbo - Quelques gouttes de plus - 2406 Chad de la Cour - punkencor3 - 2406 HAKAI - AKUMA 2406 H-LO - PAS ENCORE UNE STAR 2406 Houari - En Tchoutchou - 2406 Huntrill - BigSTRaat - 2406 Jason Voriz - Va en enfer - 2406 Jeune Austin - DSORDREBLSSURES. - 2406 Jeune Ras Djeemy Reduzi - wardrop - 2406 Jwles - Le Zin errant - 2406 La F - King of Drill - 2406 Luni Sacks - SELTANA GENE - 2406 Malo - 4X4 2406 Naza - BIG Daddy, Vol. 1 2406 Nicholas Craven Akhenaton - Latin Quarter part 2 2406 Palas - Le jour d'avant 2406 Phénomène Bizness - XCIV 2406 Pix'L - Empreinte 2406 Seven Binks - Monument 2406 Sheng - Enfant Terrible - 2406 S-Tee - BLACK DURAG 2 2406 Swift Guad Grödash - 1981 2406 Sysa - Nueve - 2406 thaHomey Skuna - HEAT 2406 Tiitof - Young Drug Dealers 2 - 2406 Uzi - Meilleur quhier 2406 Worms-T - Matière noire - 2606 Beeby - GAIA 2906 K.R.K - SALE TYPE 2906 Yara - DESCENTE RADIO 3006 Di-Meh - OV3 3006 Gianni - EXGZ 3 - 3006 Heskis - Holla - 3006 Sneazzy - Archives pt1 Juillet - 0107 Allebou - Esquisse 0107 D6 - MVTQJ 0107 Dala - MLJ HILLS - 0107 Fresh Lapeufra - Bientôt à l'abri - 0107 Gazo - KMT 0107 LaCraps Mehsah - Classic Part.2 0107 La Famax - Tout pour la mif - 0107 Moyà - Sweven 0107 N'seven7 - OTT Objectif Tout Tordre 0107 Petit Voyou - Juillet - 0107 OldPee - WSHHH - 0107 Primero - Fragments part. 2 - 0107 Ruff, OELEY BDH KURAMA - X3 - 0107 Shaga - Rien à fêter 0107 SKB - Z 0107 TK - Avant la fête 0107 Vadim - Force à nous - 0607 DOC OVG - T.R.A.P - 0807 50k Editions - Game Over 3 - Terminal 1 - 0807 Celestino - dimanche pyromane. 0807 Chily - Van Bommel - 0807 Croma619 - CR6 0807 DerK16 - TPLG - 0807 Dina - Bossy 2.0 - 0807 Furax Barbarossa - Caravelle 0807 Gueule d'Ange - Train de vie - 0807 Keroué - Eckmühl - 0807 Lyre Dofla - INTUITION - 0807 Rozzy - VIRGÖ! - 0807 Rsko - LMDB 0807 T Kimp Gee - cur de pirate - 0807 TripleGo - En attendant Gibraltar - 0807 Zuukou Mayzie - Le Film Bande annonce - 1207 Cellu - HIVER EN JUILLET 1307 KeBlack - Ma lady - 1307 Kenyon - AMAPIALOVE AAP - 1307 Lucio Bukowski Nestor Kéa - Matériel Boréal - 1307 Marty de Lutece - 2504 - 1407 Nixy Rose - SOUTHYSTAN - 1507 Abou Tall - ÉNERGIE - 1507 Arsaphe Izen - Z-SAFE 1507 Artistes divers - 91 ALL STARS 1507 Artistes divers - CDL - 1507 D. Ace - NAKAMA 1507 Denzo - La rue en V.O - 1507 Drismer PCN - Sang 9 - 1507 EDGE Ratu - EN LESSGUILL 1507 FXLL - GAUCHO PACK II - 1507 J9ueve - Le plan 1507 Le Club - Sans rancune 1507 Swan - 0606 - 1507 Théodore - ASWAD - 1507 TripleGo - En attendant Gibraltar Part II - 1507 Zoomy abel31 - OBLiV!ON - 1807 Agent J - UTOPIA - 2007 Palmae - LOVESICK 2007 Todd - Funky Trap - 2207 Abdxxl - cah sx drug 2 - 2207 Jayel - C'est la vie - 2207 Lala ce - SunSystem 2207 MPR - SESESEKO - 2207 Zuukou Mayzie - Le Film Le Commencement - 2407 Théodort - On arrive - 2907 A2H - Porn Summer - 2907 DMS - YEYEYE - 2907 Gen - Dog Day 2907 MHR Koalaa - Nés dans lombre - 2907 Mussy - JIG II 2907 Nixon - sans titre 2907 Nopya - Arrière Boutique 2907 SPECTRE - SUMMER SPECTRE - 2907 Suzuya - BloodyLeslie - 2907 Wallace Cleaver - 41BORO - 3107 akkai - FB!1 Août 0108 Petit Voyou - Août - 0208 Faelix - Chat de gouttière 0208 Rekma ft. Manny Skrt - Zaza, vol. 1 - 0508 Bambino47 - PROTOTYP4 - 0508 Houdi - WOKA 0508 Mini RTTCLAN Zaky - SUNSIDE vol.1 0708 Sanka - GT.R - 1008 Realo - EMOTION 1208 DJ Flextouch - Touch Play - 1208 LIGNE 1 - LIGNE 1 - 1208 MSA - MEHARI - 1208 Sokuu - PLZ LOVE ME - 1208 Tocny - Eleutheria - 1608 Nunca - OLEADA - 1708 Ocho Wallace Cleaver - 41BORO Chopped crewed - 1808 Jwles - 00Zin - 1908 khazy - sunrain - 1908 Marka - KUSS 1908 Yassin - V2 - 1908 Zeusé - Horizons - 2008 Caballero JeanJass - Zushiboyz, volume 2 - 2508 LEIB - LUkY - 2608 Ajna - LE HOMA 2608 Carson - Concentré Vol. 1 - 2608 Doums - Pull à capuche et billets mauves - 2608 Enima - MMS 2.0 2608 Krilino - Évasion - 2608 Leith - août 22 - 2608 Sasso - Enfant2LaRue, Vol. 3 Septembre - 0109 Luni - HORTENSIA - 0109 Petit Voyou - Septembre - 0109 Sopico - NuagesOrages 0209 Dibson - En route vers l'horizon 0209 Skaodi - Ma vision 0209 YPN - Le peuple - 0909 8Ruki - PoweredByRuki - 0909 Jeune Observateur - FATZERRR 0909 La Peee - Le Phénomène - 0909 Lycos - ALCAN CITY - 0909 Max D. Carter - Merry EP - 0909 NeS - LA COURSE - 0909 Tyngaa - Summer Memories - 0909 Wood - Mayday - 0909 Zed - SOIXVNT3 - Part. 3 - 1409 Squidji - Recommence - 1509 Jeune LC - Anthologie Haussmannienne 2013 - 2017 1509 RAS - Les princes de la drill, vol. 3 - 1609 Binks Beatz - Drip Music 2 1609 Chris Da Vinci - BRUT 1609 Elh Kmer - 4SAISONS ÉTÉ - 1609 Grems - Dipro 1609 Juss - Pas comme eux - 1609 Lomepal - Mauvais Ordre - 1609 Mantisse - Colin-Maillard - 1609 Sonny Rave - Journal Therapy - 1609 Stupeflip - Stup Forever 2009 Tiemoko - TIEMOKOSPHERE - 2209 Niska - Commando - Face B - 2309 Abel - RETRO FUTUR - 2309 ÆV - ÉVASION - 2309 Bazoo - Chargeurs Infinis - 2309 Beamer Mindthegap - Ligne Rouge 2309 Duke Mobb - La cassette - 2309 Frenetik - Rose noire - 2309 Lotus - Moneymachine 2309 Slimka - 6KLOP EP 2309 Mous-K - La Quicka Volume 2 2309 Paco x Sarbacane - Désuvrés 2309 Rousnam - Je mattache à la vie - 2309 Yuzmv - La fin de la nuit - 2309 Zéphir - ZOR - 2809 Empty7 - Invictus 2809 Zokush - Zo 2909 Chad de la Cour Badème - punkencor3 digital blend 3009 Blasko - Carré blanc 3009 Buds - DYSTOPIA - 3009 Carbozo - CARBOZO CROSSOVER 1 3009 Dgeogo - Outrenoir - 3009 Dosseh - Trop tôt pour mourir 3009 Emkal - Cur ouvert 3009 Hache-P - GROS GAMIN - 3009 JeanJass - Doudoune en été - Temps additionnel - 3009 Jeune Mort - MORTUUS 3009 Kemmler - MOI 3009 La Formule BlackTria - 46.96. - 3009 MIG - Toujours 3009 Mini - Mini Kit, vol. 2 3009 Petit Voyou - Octobre - 3009 Prince Waly - Moussa - 3009 sely - Connecté 2 3009 Vissel - Geenius 3009 Yhra - Luxuria 3009 YZLA - Sous la mer 3009 Zikxo - INTEMPOREL Octobre - 0410 Loto - Tout le monde déteste Loto - 0510 Prinzly - ACTE I PROPULSION 0610 Beny - SUIS-JE BENY 0710 Binks Beatz - Drip Music 2 Deluxe 0710 Compilation Bendo - Bendo X Vol. 3 0710 Gutti - NEW STATE 2 0710 HIM - RIDE OR DIE VOL 1 - 0710 RK - Mentalité Pt.1 - 0710 Rouge Carmin - Radio Futurista, Vol. 2 0710 Sale Époque - SALE EPOQUE 0710 San-Nom - Silence 0710 Shtar Academy - Shtar Academy Saison 2 - 0710 Squidji - Jusqu'à l'aube 0710 Younès - IDENTITÉ REMARQUABLE 0810 Hunam - SEVESO - 1010 Sto - Jersey Love Archive 01 1210 Afro S - Bleu Magik - 1210 Bakari Junio Beats - Hybrid Live Sessions - 1210 Yannou JR - MELODY SAISON 1 - 1310 Blue Sky Publishing - COOTB - 1310 Tizzy Miller - La Saudade - 1310 Vink - Démocratie - 1410 404Billy - BLKKKK VAN GOGH - 1410 bgl - Pavillon Bleu - 1410 CLB Diabolo - Na Wari Bana - 1410 Gio - KISS FLY 3 - 1410 Femtogo - One Man Army - 1410 Kayna Samet - Altaïr, Pt. 1 - 1410 LauCarré - En bas de chez moi - 1410 Smahlo - Horizon - 1410 Souffrance - Tour de magie - 1710 T.I.S J.Crown - Sunday Made Session SMS - 1810 Okis - Rappeur de Lyon - 1910 SSOLOGOD - FREE FOULAMOR 2010 BEN plg - Rap Réalité 2.5 - 2010 Eline - 335 - 2010 H JeuneCrack - 3ème Cycle - 2110 Chilla - EGO - 2110 joysad - TRANSPARENT 2110 Marou Chenko - Mais Nan. - 2110 Raplume - Le soleil se lèvera à lOuest 2110 REDVOLUTION - REDVOLUTION Vol.1 - 2110 Saboteur - Saboteur Mixtape Vol. 1 - 2410 Grems RROBIN - OUTRAGE - 2510 Grems - 10PKHO - 2810 8ruki - PoweredByRuki HD - 2810 CYCLOP - Incassable - 2810 Franglish - Glish - 2810 Fresh - À l'abri - 2810 Hippocampe Fou - L'Odyssée d'Hippo - 2810 Jetpacc - Panorama 2810 La Kadrilla - 3131 - 2810 Lala ce Low Jack - Baiser mortel - 2810 MadeInParis - Comme vous voulez - 2810 Magnar - Les Humains - 2810 Oklmava - La zone - 2810 OrelSan - Civilisation Edition Ultime - 2810 Sirap - No More Love 2810 Skydd - Prélude of Late Nights - 2810 So La Lune - Kenna - 2810 Zed - SOIXVNT3 - Part. 2 Novembre 0411 Abi2spee Yung Tarpei - Nouveau Monde - 0411 BEN plg - Réalité Rap Musique, Vol. 3 - 0411 Black Crystal - 2 issues 0411 Bricksy 3G - TANGERINE 0411 DA Uzi - Le chemin des braves - 0411 Dinos - Hiver à Paris - 0411 Farlot - Road Rage - 0411 Furax Barbarossa - Caravelle Réedition - 0411 GRËJ - CUISINE 0411 ICO - 111 - 0411 Kerchak - Confiance 0411 Petit Voyou - Novembre - 0411 Primero - Fragments part. 3 - 0411 SSOLOGOD - DOCTEUR FOULAMOR 0411 Squadra - Entre les deux, Vol. 1 0411 Yassin - V3 - 0511 PHLP - MERCI - 0911 Scylla - PREMONITIONS - 1011 Blaz Pit - Aprèsminuit - 1011 Lujipeka - Montagnes Russes Extended 1111 Daba - Moments de vie - 1111 Dadju - Cullinan Gelée Royale, Pt.1 1111 DRK2BINKS - Maintenant ou jamais 1111 Dryssco - Glow Down 1111 Gandhi - Germinal - 1111 Hash 24 - 0.24 - 1111 Houdi - LA BÊTE - 1111 Jeune Austin - 512 33 - 1111 L'Allemand - État d'âme - 1111 Les Grands Enfants - REMINISCE - 1111 Leto Guy2Bezbar - Jusqu'aux étoiles - 1111 Lous and The Yakuza - IOTA - 1111 Prinzly - ACTE II CIEL - 1111 Scotta - MNEMOSYNE 1111 Soleil Noir - Jour de Nuit - 1111 Stavo - TVX - 1111 S.Téban - HYPERLOOP - 1711 AAMO - Sur Ma Lancée - 1811 BabySolo33 - SadBaby Confessions 1811 Douma - Acquitté - 1811 Euphonik - Antidote 1811 Graya - Réincarnation - 1811 Jonny Vegas - Hortensia - 1811 Jwles - Le zin les autres 1811 Kali - Voir 1811 KT Gorique - New Babylon 1811 Maka - Sortez les couverts, vol. 2 1811 Mehdi YZ - Les Affamés - 1811 Moïse The Dude Roro - Da Croona - 1811 robdbloc - Rien ne change 1811 S-Pion - Solide - 1811 SCH - Autobahn 1811 Sky - Soza - 1811 SOPA - GODOT 1811 Squadra - Entre les deux, Vol. 2 - 1811 Wood - Pas stable 2111 Kosei - Spooky Season 2 2311 Esmo - SVAV - 2311 Ry's - LUMINO RESELLER - 2411 Nero Dee - Massassy - 2511 7ETH - .DOE 2511 ALP - Yarga - 2511 BEN plg - Trilogie Rap Réalité Musique - 2511 Doria - MDP 2 2511 Dwen - Dope Boy 2511 Elh Kmer - 4 SAISONS 'AUTOMNE' 2511 FREAKEY! - 3050 DEGREEZ Condamné à lexcellence - 2511 Jeune Ras - JUICE N22 2511 Kalash - Tombolo Réédition 2511 Key Largo - Winter Key - 2511 Khali - IL ME RESSEMBLE PAS NON PLUS 2511 Kims La Rafale - Dans lanonymat 2511 Le 3ème Oeil - Renaissance - 2511 Niska - Le monde est méchant V2 - 2511 Selug enar - Éternel retour - 2511 So La Lune - Wilma - 2511 Soprano - Chasseur détoiles Multiverse Edition - 2511 Sto - Time Out Vol. 1 2511 Totoche - E.S.L - 2711 Bob Marlich - Triple-double 2711 Cheu-B - 27 - 3011 JMJ MLKWAV - SÉRUM 3011 Malcolm - or du soir 3011 Tejdeen - DAMAA Décembre - 0112 Keroué - 100K GRANIT 0112 Lasco - PENSÉE - 0212 B.B. Jacques - NEW BLUES, OLD WINE - 0212 Bluume - BLUUMADJIN - 0212 Gims - LES DERNIÈRES VOLONTÉS DE MOZART SYMPHONY 0212 Grizzly 942 - VGDS - 0212 Jeune Mort - Avant l'Aube - 0212 Lim - Bad Boy - 0212 Lorenzo - Légende Vivante 0212 Loveni - Late Night - 0212 Petit Voyou - Décembre - 0212 Scylla - ÉTERNEL - 0212 SDM - Liens du 100 0212 ZalbecinO - Deuxième Flamme 0212 Zonart - Diaphane - 0712 H'Trip - THE GLEAM 0712 Tovaritch - Kak Drilla - 0912 34Murphy - 34 0912 Arma Jackson - 5050 0912 B-NØM - District 12 0912 Bosh - Algorithme 0912 Chanje - INJECT.8 0912 Dibson - HORIZON 0912 Douma Kalash - C.D.G Chef de guerre, Vol. 1 - 0912 Gemen - STELE 3ème Partie - 0912 Gen - Dog Day Everyday - 0912 Ghost Killer Track - Que de l'amour - 0912 JuL - Cur blanc 0912 Kohndo - Plus haut que la Tour Eiffel - 0912 leith - LA NUIT J'AI PEUR 0912 Megaski - DLK 3 - 0912 OldPee - SDK 0912 Pins Dimeh - Nindo III 0912 RK - Mentalité Pt.2 - 0912 Slkrack - SL500 dit Juan Coca 0912 Smily - HPLANDIA 0912 Yanns - Partir loin 1112 Keurta - 7K8 2 1112 Mini - Avant Noël - 1412 6maz - 6EME ETAGE - 1412 Aketo - Zone bleue - 1412 Yuz Boy - ZAZGA 1512 Daba - Moments de vie 2 - 1612 abel31 - 200 - 1612 Ajna - SHERPA 1612 Alvin Chris - Au temps pour moi - 1612 Azur - Horizon 1612 BRK - Top Boy, Vol. 1 - 1612 BUHI - Interlude 1612 Double Zulu x Just Music Beats - ROAD TO HUSTLEMANIA - 1612 FXLL - UNTEL - 1612 Hayce Lemsi - Électron Libre 3 1612 Huntrill - SKIIPACK 1612 Kader Diaby 4real - PROTOTYPE 1612 LaCraps Akim Beats - Enfoiré - 1612 menace Santana - Into The Dark - 1612 Norsacce - Propaganda 1612 RCKNSQT - PP - 1612 Serane - Seranezie - 1612 Vald - VV5 - 1612 Youri - Un peu damour beaucoup de haine - 2112 So La Lune Amine Farsi - Nomades - 2312 Gouap - Santa Gouapo 2k22 2312 Insa - Noir Clair - 2412 DEELEE S LV la prudence - RED ALERT - 2512 Malo - NO L - 2612 Implaccable - Pour Yis 3 - 2812 Kay The Prodigy Mezzo Millo - Eastern Wind - 3012 Tedax Max - Hors d'Oeuvre13</t>
+          <t>Mr. So, ombre et lumière C'est chaud dans la ville, Boulogne Square Pont d'Sèvres, Pharman, les projets avancent Eh B.R, aujourd'hui c'est moi demain c'est toi fréro Ve-Ve, Tony my nigga A.S.K Clik J'veux mon tête à tête avec un Ouzbek Pirate anarchiste comme Poutine Pirate anarchiste comme Poutine Ça fait longtemps qu'la hagra est abolie J'affronte tous mes démons au uzi Kalachnikov dans tes mains négro vas-y Garde tes discours pour un concours de beauté J'ai la mentale et les armes de Tony Oui Tony mon négro, oui Tony mon négro 2016 on va niquer des mères Ils font les voyous mais wAllah vont rien faire J'me pavane à poil dans l'salon de leur mère Au-dessus d'la normale comme un drone dans les airs D'ici peu j'arrêterai des carrières Vos rappeurs, vos rappeurs préférés Plus tôt qu'prévu seront sexagénaires Force et honneur, ombre et lumière On arrive où personne n'nous attend Si seulement vous saviez Tout l'mal que je traîne depuis ma sombre enfance Négro paraît qu'j'suis mort, négro paraît qu'j'suis mort Surtout n'écoutez pas les on dit Surtout n'écoutez pas les on dit Car c'seront les mêmes qui me suceront la bite, So x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi Fuck tes principes, négro fuck J'vise le million, j'vise ma Porsche J'suis jamais sans mon Glock Revends ta drogue fuck les porcs Revends ta drogue fuck les porcs Si jamais tu ber-tom, faut qu'tu coffres Oh my God J'ai du charbonner pour m'habiller Chaque matin Braki qui m'appelait Ma devise j'ai l'million, t'as l'millier, faut qu'on coffre Tu parles de moi comme si tu m'connais J'suis venu, j'ai vu, j'vais les niquer Capitaliste comme Rothschild j'vais les fumer x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi1</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Freestyle de l’Ombre (#2016 Follow Me)</t>
+          <t>Freestyle Indépendant</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J'veux la tête du roi négro, fuck la fève Noël ou pas, sale pute on t'feras ta fête Enchanté, moi c'est Monsieur So Inacceptable que nos têtes soient wanted sur tous les murs des comicos Sur nos côtes y'a la brigade des stups' J'ferais du sale jusqu'à c'qu'ils comprennent que Mr Elh Kmer c'est en majuscule Rien à foutre du game j'suis solo Euro, Dollar donc tôt on arrête nos études Fils de pute, va fan culo, arrivage de drogue par l'Espagne donc faisons nos thunes Sur Boulbi j'suis en terrain conquis Fils de harki veut m'apprendre la vie mais il se prend pour qui ? J'côtoie les mêmes khos depuis tout p'tit Vesti, Braki, Tony, 2016 on niquera des mères même dans l'illicite Braki follow me Vesti follow me Tony my nigga follow me J'suis pas là pour vous plaire allez niquer vos mères les putes Gros j'suis en colère la putain d'vos rs' Vesti va tous vous quer-cho Tu fais le mais renoi tu gagnes que mille euros J'suis en mode kickage tous mes frelons me disent Va-y mollo Paire de Nike Air, cette tasse-pé veut mon pubis Un conseil met pas tes dents, sinon j't'arrache tous tes chicos J'ai frappe d'ici à la rage j'te met ça et le coup d'boule du voisin à On les baise tous ces fils de putes qui jactent sur le trio Si tu m'vois pas c'est qu'j'suis dans l'four j'prépare du lourd pour toi ouais amigo Brigade anti-suceuses c'est comme quoi qu'on nous voit merci les pélos Viens dans mon quartier on est plein Free Badem, Free 2Lat, Free Youston fuego Oh putain les vils-ci veulent me choper j'suis dans le Dans le Sud j'ai caché les cs-tru dans le Renault dans le nord Elle croit me michtonne, comme on dit Trop bonne trop conne Ouais sachez d'la bonne va y viens que j't'en donne Direction sur les quais si tu fais le bonhomme, badaboum, j'te rafale tu pleures comme une folle 2.3.7 Camer' si tu sais dans la schnek de la petite Nicole Hé wAllah on a trop faim les frères Hé cousin on arrive pour tout baiser Hé dis leur B.R, hé mon gars, c'est chaud dans la ville ou quoi ? Braki follow me Vesti follow me Tony my nigga follow me Encore un fils de pute qui veut pas payer j'vais devoir aller le traquer Ça m'invitait pas à leur soirées parce qu'ils savaient que j'allais tout claquer Dans un traquenard négro tu est tombé, ne te caches plus on t'as localisé Audacieux, jeune et fougueux, tous ces fils de sont des envieux Joue le jeu, j'paye le tel-hô, j'veux tout compris va-y suce moi la queue Quand j'me fais péter par les re-schta, j'deviens amnésique dans tous les cas Amnésique dans tous les cas, ouvre ta gueule et c'est là Ils sont pétés, j'vais pas les savourer, j'vais les grailles d-spee comme j'avale Avec Ombre et Lumière croit moi sur parole j'vais niquer des mères Tu n'es que locataire, moi j'investis pour être propriétaire Je suis frais-ais, oui je suis prêt-êt, sur mon futal y'a mon arme de guerre J'suis déte-er, si tu me cher-erche, avant d'te descendre je vais monter ta mère Braki follow me Vesti follow me Tony my nigga follow me</t>
+          <t>Rolala, le projet est sale c'est en indépendant J'vais niquer des daronnes en indépendant Baiser ta reu-seu en indépendant Ouh, la vie noire, Ombre Lumière, OL ! Gangst Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas Mon choix de vie est vite fait Pourquoi taffer pour un 1200 ? Si un gramme de coc' te fait 80 Un kilo vaudrait 5 années de SMIC Rolala j'suis refait sur Paris pas très loin de Rivalis Macha'Allah mon fils grandis de jour en jour c'est ma plus belle uvre accomplis Fuck la BST de Bobigny, faut les enterrer Les conflits dintérêts profitent aux salopes de la cité Sous le porche ça rabat des clients pour des 10 balles La honte à 30 piges tu ne devrais plus vendre en détail Quelques frérots m'épaulent si tu cherches un truc J'rajoute mon grain de sel comme le boucher Turc J'ai perdu un frère du temps et pas mal de thune 2017 j'annonce j'récupère mon dû Sucer des bites gros ça paye pas Même sur le rain-té paye en PayPal Mauvais payeur donc t'étonne pas Si 2 balles se logent dans ta cabeza Brrrh, brrrh, une balle peut se perdre mais pas la deuxième Brrrh, brrrh, brrrh, une rafale arrosera ton équipage</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Freestyle De L’ombre (Audi)</t>
+          <t>FUPM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mr. So, ombre et lumière C'est chaud dans la ville, Boulogne Square Pont d'Sèvres, Pharman, les projets avancent Eh B.R, aujourd'hui c'est moi demain c'est toi fréro Ve-Ve, Tony my nigga A.S.K Clik J'veux mon tête à tête avec un Ouzbek Pirate anarchiste comme Poutine Pirate anarchiste comme Poutine Ça fait longtemps qu'la hagra est abolie J'affronte tous mes démons au uzi Kalachnikov dans tes mains négro vas-y Garde tes discours pour un concours de beauté J'ai la mentale et les armes de Tony Oui Tony mon négro, oui Tony mon négro 2016 on va niquer des mères Ils font les voyous mais wAllah vont rien faire J'me pavane à poil dans l'salon de leur mère Au-dessus d'la normale comme un drone dans les airs D'ici peu j'arrêterai des carrières Vos rappeurs, vos rappeurs préférés Plus tôt qu'prévu seront sexagénaires Force et honneur, ombre et lumière On arrive où personne n'nous attend Si seulement vous saviez Tout l'mal que je traîne depuis ma sombre enfance Négro paraît qu'j'suis mort, négro paraît qu'j'suis mort Surtout n'écoutez pas les on dit Surtout n'écoutez pas les on dit Car c'seront les mêmes qui me suceront la bite, So x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi Fuck tes principes, négro fuck J'vise le million, j'vise ma Porsche J'suis jamais sans mon Glock Revends ta drogue fuck les porcs Revends ta drogue fuck les porcs Si jamais tu ber-tom, faut qu'tu coffres Oh my God J'ai du charbonner pour m'habiller Chaque matin Braki qui m'appelait Ma devise j'ai l'million, t'as l'millier, faut qu'on coffre Tu parles de moi comme si tu m'connais J'suis venu, j'ai vu, j'vais les niquer Capitaliste comme Rothschild j'vais les fumer x2 J'ai vendu des grammes en effet Mais hier appartient au passé Demain je ferai des lovés Ombre et lumière en orbite ça va chier Négro O.G dans l'Audi J'suis un O.G dans l'Audi J'suis un O.G dans l'Audi Négro j'suis un O.G dans l'Audi1</t>
+          <t>O.L Ombre et lumière Yeah, yeah, yeah, yeah Sosa O.L Fuck U Pay Me Enfoiré J'côtoie les mêmes depuis petit Vesti, Braki, Tony, Nassim La vie nous a enlevé le re-frè Marlich, n'est que partie remise Les rappeurs français sont tous consanguins Ils s'la mettent entre eux pires que des tapins Fuck U Pay Me, j'suis pas ton frangin T'attends ton SMIC pour le claquer chez Philipp Plein Monsieur l'Agent, dites à Hollande si ça vend d'la coc' c'est pour quitter le bando Fuck la misère, j'préfère finir au cachot Ya Rabbi s'il te plait j'veux l'salaire d'Eto'o César, ouvre ta te-por, j'veux des lingots d'or On est imprévisibles comme en Tchétchénie Ouvre ta te-cha y a pas de mi amor Ton pare-balles n'arrêtera que des confettis J'suis plus Lumumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? J'suis plus Mulumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah , c'est pas moi Petit fils de pute, j'suis dans mon D, j'suis à Mia' Fais pas l'blindé, igo, t'as zéro, t'as nada La peufra, elle vient tout droit d'Gwada Midi, minuit, ça vend négro pour la 'lle-ma J'te baise ta mère si tu fais des manières, renoi J'suis Ciro, Gennaro, hassoul, j'suis Gomorra Le kilo' est gé-char comme les sses-fe de rie-Ma Vesti déboule dans l'game à la rez-Mah Tu suces ? Tu peux t'assoir à notre ble-ta Lovés que ça, que ça dans mon ne-crâ Les derniers seront les premiers m'a dit Karaba J'te pull up ton rap, renoi, t'es un peu On a teinturisé la te-tê pour l'España Big up à mes reufs Kmer, Braki et Brigade anti suceuses, c'est comme ça qu'on nous voit Ombre et lumière envahit nos vies comme dans Sosa On a gé-char le glock pour leur faire la re-gue Mes 'lles-cou sont nes-plei Qui veut tester Veve mon pote, j'peux t'faire les deux Si tu touches à la famille, balle dans tes bes-j' Ma belle y a pas d'amour, vas-y suce moi la queue Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah J'rentre dans la cabine, j'assassine, j'fais du sale Tu me critiques petit pd, t'oses dire que Braki n'est pas validé Dans 40K tu m'as vu chanter donc tu t'es dis là-cui' est fragilisé Garçon t'as pas idée, tu sais pas c'qu'il s'passe dans ma te-tê J'suis électrisé, B.R.A Kakashi sensei, je vais tous vous foudroyer J'vais te baiser, te baiser, t'vas saigner Tu vas croire que c'est tes gles-rè Ma monnaie, ma monnaie, demande à ta mère la monnaie, la monnaie J'suis un nègre indomptable pourtant congolais 243, Kinshasa, ma patrie, ma terremère hey na lingi yé Pour avoir du ffe-bi j'ai dû faire le me-cri Au plus profond de elle, elle a senti ma bite Tu sais très bien qui j'suis fait pas blehni tu nies Mon équipe que des vrais, la tienne que des victimes Dans la cité T'as perdu la vie Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Freestyle Indépendant</t>
+          <t>Glacier</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rolala, le projet est sale c'est en indépendant J'vais niquer des daronnes en indépendant Baiser ta reu-seu en indépendant Ouh, la vie noire, Ombre Lumière, OL ! Gangst Faisons du biff fréro Allo Ma'ms pélo Qu'est que tu racontes dans ta ne-zo ? Beh rien de nouveau j'sors mon jet-pro Indépendant il sappellera, caillera comme d'hab pas de zumba J'regarde le ciel j'm'en remets pas Numéro 10 on t'oublie pas Mon choix de vie est vite fait Pourquoi taffer pour un 1200 ? Si un gramme de coc' te fait 80 Un kilo vaudrait 5 années de SMIC Rolala j'suis refait sur Paris pas très loin de Rivalis Macha'Allah mon fils grandis de jour en jour c'est ma plus belle uvre accomplis Fuck la BST de Bobigny, faut les enterrer Les conflits dintérêts profitent aux salopes de la cité Sous le porche ça rabat des clients pour des 10 balles La honte à 30 piges tu ne devrais plus vendre en détail Quelques frérots m'épaulent si tu cherches un truc J'rajoute mon grain de sel comme le boucher Turc J'ai perdu un frère du temps et pas mal de thune 2017 j'annonce j'récupère mon dû Sucer des bites gros ça paye pas Même sur le rain-té paye en PayPal Mauvais payeur donc t'étonne pas Si 2 balles se logent dans ta cabeza Brrrh, brrrh, une balle peut se perdre mais pas la deuxième Brrrh, brrrh, brrrh, une rafale arrosera ton équipage</t>
+          <t>He-hey Yo, j'voudrai plus Is that Traplysse De pourcentages, j'voudrai plus J'me refais le film, j'aurai pu mieux faire, est-ce que j'aurai voulu So, hey Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius So Et dans nos têtes c'est le froid ice, à l'horizon c'est le brouillard, je ressens plus mes doigts never Han, dieu merci on a un toit, le vent qui tourne, le chasseur qui deviendra la proie Allo maman, Allo papa J'suis quelque part dans ce monde où les humains n'ont pas l'air heureux La symphonie des balles qui les fera tous valser poh Elle veut briser la glace, plus épais qu'un glacier wohh, aurevoir De l'autre côté c'est plus pareil, si jeune pour tuer et pour mourir J'suis ? , ennemis en ville, je vais brader les prix de la han Je bosse ? j'suis dehors comme un hé oh J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison c'est pas une maison non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius VVS carat, j'ai pas de mentors, pas de garants En face du froid nordique, le troisième de il de Gaara Fils, et ma boy deux-cent carats deux-cent carats Faut du bazin pour la dote, faut des chèvres hehehe La transition est folle, faut aimer cette musique V comme Valkyrie, comme Vivaldi, V comme Valhalla J'avoue, j'y laisse un peu de ma santé, sans lumière du jour on devient fou Mes proches m'appellent akhy, trop souvent j'suis pas là On récolte ce qu'on a semé, t'as de la chance, un cran d'arrêt Le seul chemin duquel on revient pas c'est celui de la mort J'suis à 10K d'un chiffre rond, moi, j'ai pas de syndicat En effet ouh, c'est nous les visages floutés à la télé hein hein J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison non non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité J'suis à l'extrême nord pour ma story, VVS carat, fait moins quarante degrés Celsius So1</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FUPM</t>
+          <t>Grosse folle</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O.L Ombre et lumière Yeah, yeah, yeah, yeah Sosa O.L Fuck U Pay Me Enfoiré J'côtoie les mêmes depuis petit Vesti, Braki, Tony, Nassim La vie nous a enlevé le re-frè Marlich, n'est que partie remise Les rappeurs français sont tous consanguins Ils s'la mettent entre eux pires que des tapins Fuck U Pay Me, j'suis pas ton frangin T'attends ton SMIC pour le claquer chez Philipp Plein Monsieur l'Agent, dites à Hollande si ça vend d'la coc' c'est pour quitter le bando Fuck la misère, j'préfère finir au cachot Ya Rabbi s'il te plait j'veux l'salaire d'Eto'o César, ouvre ta te-por, j'veux des lingots d'or On est imprévisibles comme en Tchétchénie Ouvre ta te-cha y a pas de mi amor Ton pare-balles n'arrêtera que des confettis J'suis plus Lumumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? J'suis plus Mulumba négro que Charlie Plus Kadhafi que Sarkozy Plus sale négro que sale Bounty Mon peuple mérite-t-il c'qu'il a subi ? Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah , c'est pas moi Petit fils de pute, j'suis dans mon D, j'suis à Mia' Fais pas l'blindé, igo, t'as zéro, t'as nada La peufra, elle vient tout droit d'Gwada Midi, minuit, ça vend négro pour la 'lle-ma J'te baise ta mère si tu fais des manières, renoi J'suis Ciro, Gennaro, hassoul, j'suis Gomorra Le kilo' est gé-char comme les sses-fe de rie-Ma Vesti déboule dans l'game à la rez-Mah Tu suces ? Tu peux t'assoir à notre ble-ta Lovés que ça, que ça dans mon ne-crâ Les derniers seront les premiers m'a dit Karaba J'te pull up ton rap, renoi, t'es un peu On a teinturisé la te-tê pour l'España Big up à mes reufs Kmer, Braki et Brigade anti suceuses, c'est comme ça qu'on nous voit Ombre et lumière envahit nos vies comme dans Sosa On a gé-char le glock pour leur faire la re-gue Mes 'lles-cou sont nes-plei Qui veut tester Veve mon pote, j'peux t'faire les deux Si tu touches à la famille, balle dans tes bes-j' Ma belle y a pas d'amour, vas-y suce moi la queue Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah J'rentre dans la cabine, j'assassine, j'fais du sale Tu me critiques petit pd, t'oses dire que Braki n'est pas validé Dans 40K tu m'as vu chanter donc tu t'es dis là-cui' est fragilisé Garçon t'as pas idée, tu sais pas c'qu'il s'passe dans ma te-tê J'suis électrisé, B.R.A Kakashi sensei, je vais tous vous foudroyer J'vais te baiser, te baiser, t'vas saigner Tu vas croire que c'est tes gles-rè Ma monnaie, ma monnaie, demande à ta mère la monnaie, la monnaie J'suis un nègre indomptable pourtant congolais 243, Kinshasa, ma patrie, ma terremère hey na lingi yé Pour avoir du ffe-bi j'ai dû faire le me-cri Au plus profond de elle, elle a senti ma bite Tu sais très bien qui j'suis fait pas blehni tu nies Mon équipe que des vrais, la tienne que des victimes Dans la cité T'as perdu la vie Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me Fuck U Pay Me, Fuck U Pay Me J'suis dans le block en attendant mes ients-cli Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah</t>
+          <t>Wesh, tu veux qu'on mette du son ou quoi ? Vas-y Okay Grosse Folle Audi Kmer Land Bitch Grosse Folle Bitch Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking ma money, ma money Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle, où sont tes pines-co ? On veut des belles gosses, j'ai ramené des gringos Milles cinq cents la 'teille gros même si j'tise as-p Elles veulent des grosses sommes, des grosses caisses mais ken as-p Audi Audi get la fe-meu c'est d'la folie Charismatique comme une cainri, obliger d'sévir J'suis Maradona soir-ce mes mains vont ssé-gli Paris by night, Monsieur Sosa est d'la partie ! Au fond du club, Veve fait sa mala Deux, trois grosses folles autours Monsieur s'prend pour Sosa Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Hé, mes objectifs n'ont pas changé ! J'traine toujours dans le block avec mes 100g Hé ! Un million, j'serais dans l'immobilier Fuck faux négro ! J'suis le meilleur y'a pas à douter ! J'suis pas un rappeur, mais un artiste Factices, sont vos armes bande de fils de harki On veut la belle vie, la carrière à Stanfield Elle veulent des Louboutins au pieds, s'casser d'ici Dans l'barrio on ouais j'fait des aigris Minimum trois milles E, si j'suis de la partie Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! x3 Grosse folle veut le million d'euros De la Bentley dans son parking Hein ?! Grosse folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Veut la Bentley dans son parking Grosses fesses, grosses caisses, bref c'est une grosse folle ! Ah laisse tomber Sosa Elles m'prennent la tête les grosses folles Mais c'est pas grave, on les aime bien On les aime bien,</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glacier</t>
+          <t>Grünt d’Or #29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>He-hey Yo, j'voudrai plus Is that Traplysse De pourcentages, j'voudrai plus J'me refais le film, j'aurai pu mieux faire, est-ce que j'aurai voulu So, hey Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius So Et dans nos têtes c'est le froid ice, à l'horizon c'est le brouillard, je ressens plus mes doigts never Han, dieu merci on a un toit, le vent qui tourne, le chasseur qui deviendra la proie Allo maman, Allo papa J'suis quelque part dans ce monde où les humains n'ont pas l'air heureux La symphonie des balles qui les fera tous valser poh Elle veut briser la glace, plus épais qu'un glacier wohh, aurevoir De l'autre côté c'est plus pareil, si jeune pour tuer et pour mourir J'suis ? , ennemis en ville, je vais brader les prix de la han Je bosse ? j'suis dehors comme un hé oh J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison c'est pas une maison non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité jamais J'suis à l'extrême nord pour ma story, VVS carat ouh fait moins quarante degrés Celsius VVS carat, j'ai pas de mentors, pas de garants En face du froid nordique, le troisième de il de Gaara Fils, et ma boy deux-cent carats deux-cent carats Faut du bazin pour la dote, faut des chèvres hehehe La transition est folle, faut aimer cette musique V comme Valkyrie, comme Vivaldi, V comme Valhalla J'avoue, j'y laisse un peu de ma santé, sans lumière du jour on devient fou Mes proches m'appellent akhy, trop souvent j'suis pas là On récolte ce qu'on a semé, t'as de la chance, un cran d'arrêt Le seul chemin duquel on revient pas c'est celui de la mort J'suis à 10K d'un chiffre rond, moi, j'ai pas de syndicat En effet ouh, c'est nous les visages floutés à la télé hein hein J'suis avec Zaza, elle veut savoir le prix du ? avec Zaza Maison d'arrêt, c'est pas une maison non non Depuis gamin, elles m'prennent pour un ? Depuis mino han Maybach Phantom ouh j'suis perdu dans le vaisseau, je me retrouve Place Vendôme hehe Ma baby fait des caresses, veut savoir ce qu'il m'plait heyy On a perdu dans le champ de bataille des amis très proches ouh Au crépuscule, j'suis sur un yacht, le ciel nous fait des siennes on acquéris pas dans la facilité J'suis à l'extrême nord pour ma story, VVS carat, fait moins quarante degrés Celsius So1</t>
+          <t>J'aperçois le bout du tunnel On reprend tout c'qu'ils ont pris sale Le prix c'est l'prix salope Hey, dans l'bat y'a beaucoup d'zombies J'pense qu'à remplir le frigo oui J'creuserai jusqu'à c'qu'y ait plus d'or Oh baby, c'est nous on l'fait mieux la rime ouais allô Oh baby, j'veux rider dans une Bentley Merci pour tout, le bendo ouais Merci pour tout, j'oublierai pas quand c'était sale sa mère Quitter la rue, mais on y laissera un peu de nous Ma peine parle, je sais ça paie pas J'fais des tours dans la city Lame sous l'béret tah Peaky La suite j'verrai c'est Tsuki Les jours s'répètent, la routine Alcool, sexe, drogue et broutilles Mais j'sais ça paie pas 60 soleils Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Mise en orbite réussie Début de l'opération chemin de vie J'suis venu d'en bas C'est Tsuki lala mon vieux C'est comment mon vieux ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois tu vois On est bien loin de Monaco J'les écoute pas quand ils moralisent Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est inné J'cours sur chemin miné Mon verre se vide, j'vois plus les gens Encore une nuit sur ri-pas Mon verre se vide, ouah J'vois plus les gens, ouah J'vois plus les démons, les anges et les humains hey Ça m'fait plus rien, ni la potion, ni l'venin hein Elle est plus très jeune donc j'ai peur de demain Elle est plus très jeune, vide J'dois ramener le trésor, j'vis J'meurs pour le trésor trésor J'me demande pas si c'est une salope J'me demande c'est une salope de quel genre Tsuki, il t'manque vraiment une case Tu fais quoi si ça vire au drame ? Tu sais quoi ? C'est rarement une phase D'exprimer son malheur dans des phrases Ouais, ouais, ouais, ouais Mais c'est tout l'temps la même On fait semblant d'y croire J'suis dans l'fond ça dit quoi ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois On est bien loin de Monaco oui J'les écoute pas quand ils moralisent oui Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est iné J'cours sur chemin miné Allô la Terre ? Ouais allô ? C'est l'double saut là 4 saisons Mais moi j'suis une galère Mais moi j'suis une galère J'suis toujours coffré dans ma tanière Futurista sur la bannière Et nous on l'fait pas pour la hype Reviens on va t'apprendre le rap J'garde le trésor tu peux prendre le reste Depuis l'temps j'aurais pu y rester J'y vais que s'il y a de l'espèce Depuis l'temps on s'est perdus ouais allô Perdus dans l'averse Amnésique mais j'm'en rappelle De nos moments à deux Ton âme, non je n'en veux plus, tu l'as vendue au diable Pour si peu on s'fâche Faudrait qu'on coffre avant que l'on parte Virement instantané on prend c'est comment mon vieux ? Négro virement instantané on prend oui Trop faim d'sous, même si l'plan a foiré on r'tente J'ai brulé mes pétales On l'fait, on t'avait prévenu mais ça t'étonne Un rêve est né dans la lumière on l'éteint Nous on était déjà niqués à l'école Ça coule de source On l'fait depuis qu'on est minots On s'cache pas derrière les rideaux Jamais trahir la honda Pour si peu j'te vois en bizarre Comme Madara J'ai les kata', j'enchaine les cadavres J'suis dans l'bendo avec mes homies 5000 pétales de fleurs ont fané Instantané on prend J'entends parler les gens J'peux pas parler au grand J'l'ai vu parler au banc À contre sens du vent Faut des couilles et du cran Faut du clair et du temps Y'a d'quoi sauter du pont Y'a d'quoi sauter du 45 Dans ma tête on est 45 Mais la go elle suce pour du Balanciaga Y'a les bleus, tout un fourgon d'chaga Hey, ma pétasse veut du Gucci Jamais on s'lèvera à midi Business plan j'ai bien établi Bientôt j'pète la 'rarri Garde tes promesses j'suis pas naïf Garde tes promesses j'suis pas naïf J'fais semblant de vivre OCB, on s'enfume comme des porcs on smoke C'qui nous tuera c'est nos regrets, nos remords J'ai l'feu, j'ai le 45 en or Ma daronne veut une belle vie Ma pétasse veut un Birkin Mais demain c'est si long On attend quoi ? Fuyons J'tends pas l'oreille à l'aboiement des chiots Ma vie en VO Réduit sous célo' Hello, 22 ça s'passe comme aux JO On a fait tout l'hiver tu l'sais Mais toi tu vis pour les autres tu l'sais Ici tu connais c'est toujours la même Mais ça fait longtemps qu'on rappe plus pour le fun bah ouais J'ai la vision comme un Uchiwa Au-dessus comme un Hokage Elle croit qu'on va se fiancer, là Mais l'argent je dois financer, hey Mais toi t'es bizarre T'attends qu'le vent te guide han Hennessy, bas-résilles Parisien comme Verratti J'ai la haine en haut débit tout l'temps Trop de grammes parce que beaucoup de drames Mais j'connais trop les dames pour qu'j'l'appelle baby Mes démons sont réveillés Très souvent obstinés Toute l'année sous amné' J'ai jamais fait semblant L'espoir est né le 26 octobre d'une sombre année Négro c'est tout l'temps pareil tout l'temps On passe en coup d'vent et ça y est J'viens pas à ta fête, j'viendrai à tes obsèques J'veux l'salaire de Offset Khalis m'obsède Ta pute est obscène Fréro on vient d'une autre sphères Boulogne, Haute-Seine La routine les cops J'suis dedans comme Frank Nitti Comme Frank Nitti Salopes nous observent On réessaie Ouais, 200 Attention, prêts ? Ok, rechargez, on recommence Mettez-le sous intra-veineuse Moi j'peux pas changer pour une Tchaga j'peux pas changer pour une Tchaga Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow ouais Boire la concu' comme du Pago Pago Les faire descendre de leur sabots Faire rentrer des kichtas d'sablés Ouais, j't'ai dit Ouais, ça dit quoi gros ? J't'ai dit, han On sourit tout l'temps mais c'est pas drôle Charbon, gros débit C'est la fissure qui précède les débris Tard la nuit dans la ville le diable s'déguise Weighty, weighty, elles s'croisent sur un paquebot Ouais, j't'ai dit Ouais, ça dit quoi gros ? sorcier On touche au but c'est bandant Moi tu m'verras pas faire la mala sorcier Tu m'verras même pas faire la maille ouais Tu verras c'que j'veux que tu voies sorcier La p'tite a fini en tendances C'est la plus technique des nanas Elle fait after dans des manoirs Et elle sait comment les rendre malades Hey, regarde nous bien car bientôt on sera loin Gros, peu d'répit On l'a fait pour la paix et les palaces T'as l'air super méchant dans tes pe-cli Mais c'est comment quand il est fini l'pe-cli ? Ça taffe dur tous les jours depuis petit Donc moi j'peux pas changer pour une Tchaga Moi j'peux pas changer pour une Tchaga ok Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow J'ai fait le tour, ouho nana J'le faisait déjà dans la cour, ouho J'y vois clair même quand c'est noir Si t'y vas pas j'y vais pas, c'est mort Il voulait faire attaquant sur l'terrain Il a fini dans l'milieu carcéral Pendant la nuit L'diable nous analyse ouais allô Danse devant la rive J'fonce et rien ne m'arrêtera Et j'm'allume Ils disent que mon heure arrive ouais C'est ma vie Yoho envoie une Radio futurista C'est comment mon vieux ? C'est la Grünt d'or C'est nous baby Radio Futurista Ouais allô So lala Hey Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle La vie c'est la mort donc prend tout c'qu'il faut Y'a des mélodies qui ressortent du fond La drogue et le vice font parti d'nos vies C'est c'qui y'a dans nos têtes, qui nous rendent si fous J'pourrais aiguiser les sabres woah J'pourrais l'enterrer dans l'sable woah VRSA, La Lune, c'est le sang hey Le combat des mots j'ai les armes moi hey Je erre dans la ville le soir, j'écris, je massoit J'fête quand la nuit se meurt, quand la vie saccroît Tant qu'y a ma pli' j'm'en sors, je parle aux étoiles Essaie de compter tous les curs qui s'accrochent Main sur l'guidon, j'm'arrête que si j'vois le trésor J'roule le bison, j'suis dans la ville j'me sens vivant Dans mon bigo, j'ai d'quoi mettre à l'abri tout l'monde Nous toujours au fourneau Mais c'est les proies qui saignent Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Toute l'année Salut, salut C'est encore moi, La Lune Ils m'voient comme un alien Y'aura pas d'pourparlers Mais négro pourquoi Quand ça parle de biftons Les gens ils sont bizarres ? les gens ils sont bizarres J'vais quitter la zone Coffrer chez la vieille Futurista infernal Si je mens, comment faire ? Après j'suis sur la Terre mais On s'revoit pour la dernière La lutte éternelle On s'détruit de l'intérieur J'sais pas J'sais plus J'm'éloigne, heya Pardonne-moi J'm'éloigne, heya, heya Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon han Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Sans lui, sans elle So lala Ceci n'est pas un test À tous les habitants Veuillez évacuer la zone Ceci n'est pas un test Tsuki lala 60 soleils ça brille pareil Lala deux fois Tsuki quatre fois J'suis c'qu'ils appellent un produit d'en Parle moi de tout, parle moi d'la vie Ouais J'suis c'qu'ils appellent un produit d'en bas qui pimp Malheur m'a pas produit De force on s'introduit Te cambre pas, c'est comme ça qu'on s'fait baiser dans la vie C'est comme ça qu'on l'fait Tsuki tsunami J't'ai déjà raconté Nos problèmes nos manies Tu tapes sur la piste noire Tout va bien tant qu'on m'piste pas Et ton rappeur c'est un fils de lâche sorcier, sorcier 60 soleils, 40 étoiles Ça veut vivre dans 40 hectares oui T'es pas serein quand y'a une bécane Ba-baw, braquage à l'UZI Ils allaient quand même pas t'laisser brasser ouais C'est bizarre le milieu d'la musique c'est bizarre C'est bizarre c'est pas comme dans l'movie c'est bizarre C'est bizarre les gens J'ai un cur toit ouvrant yeah J'ai la tête pas ici yeah J'ai le foie grave en feu Le feu grave enfoui J'croyais grave en toi yeah C'est comme ça qu'on s'fait baiser dans la vie han C'est comme ça qu'on l'fait Tsuki tsunami okok La dure c'est facile d'accès sur Paris okok L'amour c'est facile d'accès sur Bali han Si on finit premier c'est chaud On était vraiment les derniers Et j'écoute plus quand ça part en promesses Et toi j't'aime encore moins que tes collègues La patrouille est elle bonne qu'à s'faire berner Mais négro, si j'fume pas mes yeux vont pas s'fermer Y'a que quand t'es p'tit que la cité c'est chan-mé Y'a que quand t'es p'tit que tu t'contentes de 100e Y'a que quand j'écris que j'suis moi Y'a que quand j'les plie que j'suis bien Faudrait p't'être que je prie car c'est noir Faudrait p't'être que je trie car c'est louche Faudrait p't'être que je pense à la chasser, ma chance Jamais changer de sens, j'en vois beaucoup du sang Y'en a bien plus des faux Tu vas t'y perdre à trop cacher des choses Elle cambre tellement bien qu'j'ai l'impression que son boule il lévite Si tu croises la rue faut qu'tu l'évites ouais Si tu croises la juge faut qu'tu résistes ouais Si tu t'sens chez toi faut qu'tu résides Demain peut-être sera plus paisible J'aurai p't'être ma maison au Brésil Ouais ouais C'est comment mon vieux ?</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Grosse folle</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wesh, tu veux qu'on mette du son ou quoi ? Vas-y Okay Grosse Folle Audi Kmer Land Bitch Grosse Folle Bitch Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking ma money, ma money Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle, où sont tes pines-co ? On veut des belles gosses, j'ai ramené des gringos Milles cinq cents la 'teille gros même si j'tise as-p Elles veulent des grosses sommes, des grosses caisses mais ken as-p Audi Audi get la fe-meu c'est d'la folie Charismatique comme une cainri, obliger d'sévir J'suis Maradona soir-ce mes mains vont ssé-gli Paris by night, Monsieur Sosa est d'la partie ! Au fond du club, Veve fait sa mala Deux, trois grosses folles autours Monsieur s'prend pour Sosa Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Grosse Folle veut le million d'euros De la Bentley dans son parking Hein?! Grosse Folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Hé, mes objectifs n'ont pas changé ! J'traine toujours dans le block avec mes 100g Hé ! Un million, j'serais dans l'immobilier Fuck faux négro ! J'suis le meilleur y'a pas à douter ! J'suis pas un rappeur, mais un artiste Factices, sont vos armes bande de fils de harki On veut la belle vie, la carrière à Stanfield Elle veulent des Louboutins au pieds, s'casser d'ici Dans l'barrio on ouais j'fait des aigris Minimum trois milles E, si j'suis de la partie Où sont mes négros ? Hein, où sont mes négros ? Où sont mes négros ? Babtou et roloto Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! x3 Grosse folle veut le million d'euros De la Bentley dans son parking Hein ?! Grosse folle veut des grosses liasses, grosses fesses, grosses caisses, bref c'est une grosse folle ! Wesh Grosse Folle Grosse Folle We-Wesh Grosse Folle C'est quoi les plans pour ce soir ? J'suis opé ! Veut la Bentley dans son parking Grosses fesses, grosses caisses, bref c'est une grosse folle ! Ah laisse tomber Sosa Elles m'prennent la tête les grosses folles Mais c'est pas grave, on les aime bien On les aime bien,</t>
+          <t>G.U.S.T.A.V.O Kalashé comme Gustavo Medellín Hey, ma génération pue sa grand-mère la pute Que faire de plus si c'n'est tous les fumer Fort possible que tu m'croises dans le fond du binks Sans lacet car je sors de GÀV Dans ma matrix, négro, je les baise La mentale, celle de Kunta Kinte Faire semblant d'm'affaiblir pour te quen' Fils de pute, si j'recule c'est pour mieux t'enculer Kalashé comme personne, on blague ap' GÀV à Versailles, on parle pas Des frères ont pris des piges mais ne flanchent pas 2-2 convict, gardez la pêche Comme d'hab', soldat, j'suis en 4x4 Hümmel dans le block Le salaire d'un keuf dans l'froc Le pouvoir s'achète, sale con Nombre de victimes que t'ai raison ou tort Silencieux comme sniper, j'attends mon heure La suite de l'histoire rime avec horreur T'as pas donné d'blase, t'auras tous mes honneurs Dans l'cas contraire, une équipe te lève à 6h Allô le R, quelles sont les nouvelles ? Quel rappeur de merde doit finir en civière ? L'objectif tout niquer en indépendant Remplir les caisses Sacem et encaisser ce chèque G.U.S.T.A.V.O Kalashé comme Gustavo, me-ar dans la boîte à gant La guerre, on l'a fait si t'es chaud Négro, c'est chaud dans la ville Boulbi Square c'est Medellín Enchanté c'est Mr So J'me présente plus, j'suis l'anarchiste Mr So On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo Nique sa mère le Maire et toutes ses réformes Les shlags c'est eux, la rue c'est nous On vi-ser d'la frappe au fils de la juge Mais sans scrupules, elle nous met au trou Il est bientôt minuit, les frérots ont soif 10 balles d'essence, on passe chez l'hanout Se recharger en clopes, feuilles, Poliakov La soirée sera un cocktail Molotov AK dans le Clio, on est khabat La rue a fait de nous des génies à part On fait tomber la neige sous quarante degrés Akha, y a les feus-keu sa mère Poucaves et pointeurs mangent à la même table Désormais les tits-pe n'ont plus d'cartables Ça bibi de la cess' et faut débiter milliers d'euros Euros, dollars, dinars, pesos sous le matelas Génération nueve cinco On s'fait la bise comme les sistes-gros Le patrimoine d'Pascal Obispo métro, boulot, dodo Merco Benz, j'veux une Merco Benz Foutre la de-mer dans les rues du bled V'là les folasses dans le périmètre J't'éclate la te-cha jusqu'au périnée, jusqu'au périnée On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Grünt d’Or #29</t>
+          <t>Haussmannien</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'aperçois le bout du tunnel On reprend tout c'qu'ils ont pris sale Le prix c'est l'prix salope Hey, dans l'bat y'a beaucoup d'zombies J'pense qu'à remplir le frigo oui J'creuserai jusqu'à c'qu'y ait plus d'or Oh baby, c'est nous on l'fait mieux la rime ouais allô Oh baby, j'veux rider dans une Bentley Merci pour tout, le bendo ouais Merci pour tout, j'oublierai pas quand c'était sale sa mère Quitter la rue, mais on y laissera un peu de nous Ma peine parle, je sais ça paie pas J'fais des tours dans la city Lame sous l'béret tah Peaky La suite j'verrai c'est Tsuki Les jours s'répètent, la routine Alcool, sexe, drogue et broutilles Mais j'sais ça paie pas 60 soleils Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Cicatrices sur la peau, Albator Albator À la fin, y'a un mort, Gladiateur Fleur du mal, l'autre côté, Anakin ouais allô Parano, casanier, caramel ouais Mise en orbite réussie Début de l'opération chemin de vie J'suis venu d'en bas C'est Tsuki lala mon vieux C'est comment mon vieux ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois tu vois On est bien loin de Monaco J'les écoute pas quand ils moralisent Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est inné J'cours sur chemin miné Mon verre se vide, j'vois plus les gens Encore une nuit sur ri-pas Mon verre se vide, ouah J'vois plus les gens, ouah J'vois plus les démons, les anges et les humains hey Ça m'fait plus rien, ni la potion, ni l'venin hein Elle est plus très jeune donc j'ai peur de demain Elle est plus très jeune, vide J'dois ramener le trésor, j'vis J'meurs pour le trésor trésor J'me demande pas si c'est une salope J'me demande c'est une salope de quel genre Tsuki, il t'manque vraiment une case Tu fais quoi si ça vire au drame ? Tu sais quoi ? C'est rarement une phase D'exprimer son malheur dans des phrases Ouais, ouais, ouais, ouais Mais c'est tout l'temps la même On fait semblant d'y croire J'suis dans l'fond ça dit quoi ? Ah bon ? Maintenant tu veux qu'on parle ? Maintenant tu veux qu'on s'voie ? Maintenant qu'j'suis plus au point mort Ah bon ? Les beaux gestes ça s'compte pas ? Faut bouger, d'ça qu'on parle Et comme Cassius ça tourne pas rond Tu vois On est bien loin de Monaco oui J'les écoute pas quand ils moralisent oui Je roule un teuh, ceux qui neutralisent C'est ça comme, c'est iné J'cours sur chemin miné Allô la Terre ? Ouais allô ? C'est l'double saut là 4 saisons Mais moi j'suis une galère Mais moi j'suis une galère J'suis toujours coffré dans ma tanière Futurista sur la bannière Et nous on l'fait pas pour la hype Reviens on va t'apprendre le rap J'garde le trésor tu peux prendre le reste Depuis l'temps j'aurais pu y rester J'y vais que s'il y a de l'espèce Depuis l'temps on s'est perdus ouais allô Perdus dans l'averse Amnésique mais j'm'en rappelle De nos moments à deux Ton âme, non je n'en veux plus, tu l'as vendue au diable Pour si peu on s'fâche Faudrait qu'on coffre avant que l'on parte Virement instantané on prend c'est comment mon vieux ? Négro virement instantané on prend oui Trop faim d'sous, même si l'plan a foiré on r'tente J'ai brulé mes pétales On l'fait, on t'avait prévenu mais ça t'étonne Un rêve est né dans la lumière on l'éteint Nous on était déjà niqués à l'école Ça coule de source On l'fait depuis qu'on est minots On s'cache pas derrière les rideaux Jamais trahir la honda Pour si peu j'te vois en bizarre Comme Madara J'ai les kata', j'enchaine les cadavres J'suis dans l'bendo avec mes homies 5000 pétales de fleurs ont fané Instantané on prend J'entends parler les gens J'peux pas parler au grand J'l'ai vu parler au banc À contre sens du vent Faut des couilles et du cran Faut du clair et du temps Y'a d'quoi sauter du pont Y'a d'quoi sauter du 45 Dans ma tête on est 45 Mais la go elle suce pour du Balanciaga Y'a les bleus, tout un fourgon d'chaga Hey, ma pétasse veut du Gucci Jamais on s'lèvera à midi Business plan j'ai bien établi Bientôt j'pète la 'rarri Garde tes promesses j'suis pas naïf Garde tes promesses j'suis pas naïf J'fais semblant de vivre OCB, on s'enfume comme des porcs on smoke C'qui nous tuera c'est nos regrets, nos remords J'ai l'feu, j'ai le 45 en or Ma daronne veut une belle vie Ma pétasse veut un Birkin Mais demain c'est si long On attend quoi ? Fuyons J'tends pas l'oreille à l'aboiement des chiots Ma vie en VO Réduit sous célo' Hello, 22 ça s'passe comme aux JO On a fait tout l'hiver tu l'sais Mais toi tu vis pour les autres tu l'sais Ici tu connais c'est toujours la même Mais ça fait longtemps qu'on rappe plus pour le fun bah ouais J'ai la vision comme un Uchiwa Au-dessus comme un Hokage Elle croit qu'on va se fiancer, là Mais l'argent je dois financer, hey Mais toi t'es bizarre T'attends qu'le vent te guide han Hennessy, bas-résilles Parisien comme Verratti J'ai la haine en haut débit tout l'temps Trop de grammes parce que beaucoup de drames Mais j'connais trop les dames pour qu'j'l'appelle baby Mes démons sont réveillés Très souvent obstinés Toute l'année sous amné' J'ai jamais fait semblant L'espoir est né le 26 octobre d'une sombre année Négro c'est tout l'temps pareil tout l'temps On passe en coup d'vent et ça y est J'viens pas à ta fête, j'viendrai à tes obsèques J'veux l'salaire de Offset Khalis m'obsède Ta pute est obscène Fréro on vient d'une autre sphères Boulogne, Haute-Seine La routine les cops J'suis dedans comme Frank Nitti Comme Frank Nitti Salopes nous observent On réessaie Ouais, 200 Attention, prêts ? Ok, rechargez, on recommence Mettez-le sous intra-veineuse Moi j'peux pas changer pour une Tchaga j'peux pas changer pour une Tchaga Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow ouais Boire la concu' comme du Pago Pago Les faire descendre de leur sabots Faire rentrer des kichtas d'sablés Ouais, j't'ai dit Ouais, ça dit quoi gros ? J't'ai dit, han On sourit tout l'temps mais c'est pas drôle Charbon, gros débit C'est la fissure qui précède les débris Tard la nuit dans la ville le diable s'déguise Weighty, weighty, elles s'croisent sur un paquebot Ouais, j't'ai dit Ouais, ça dit quoi gros ? sorcier On touche au but c'est bandant Moi tu m'verras pas faire la mala sorcier Tu m'verras même pas faire la maille ouais Tu verras c'que j'veux que tu voies sorcier La p'tite a fini en tendances C'est la plus technique des nanas Elle fait after dans des manoirs Et elle sait comment les rendre malades Hey, regarde nous bien car bientôt on sera loin Gros, peu d'répit On l'a fait pour la paix et les palaces T'as l'air super méchant dans tes pe-cli Mais c'est comment quand il est fini l'pe-cli ? Ça taffe dur tous les jours depuis petit Donc moi j'peux pas changer pour une Tchaga Moi j'peux pas changer pour une Tchaga ok Ils ont dit noir c'est noir, t'es Sonic j'suis Shadow J'ai fait le tour, ouho nana J'le faisait déjà dans la cour, ouho J'y vois clair même quand c'est noir Si t'y vas pas j'y vais pas, c'est mort Il voulait faire attaquant sur l'terrain Il a fini dans l'milieu carcéral Pendant la nuit L'diable nous analyse ouais allô Danse devant la rive J'fonce et rien ne m'arrêtera Et j'm'allume Ils disent que mon heure arrive ouais C'est ma vie Yoho envoie une Radio futurista C'est comment mon vieux ? C'est la Grünt d'or C'est nous baby Radio Futurista Ouais allô So lala Hey Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle La vie c'est la mort donc prend tout c'qu'il faut Y'a des mélodies qui ressortent du fond La drogue et le vice font parti d'nos vies C'est c'qui y'a dans nos têtes, qui nous rendent si fous J'pourrais aiguiser les sabres woah J'pourrais l'enterrer dans l'sable woah VRSA, La Lune, c'est le sang hey Le combat des mots j'ai les armes moi hey Je erre dans la ville le soir, j'écris, je massoit J'fête quand la nuit se meurt, quand la vie saccroît Tant qu'y a ma pli' j'm'en sors, je parle aux étoiles Essaie de compter tous les curs qui s'accrochent Main sur l'guidon, j'm'arrête que si j'vois le trésor J'roule le bison, j'suis dans la ville j'me sens vivant Dans mon bigo, j'ai d'quoi mettre à l'abri tout l'monde Nous toujours au fourneau Mais c'est les proies qui saignent Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Toute l'année Salut, salut C'est encore moi, La Lune Ils m'voient comme un alien Y'aura pas d'pourparlers Mais négro pourquoi Quand ça parle de biftons Les gens ils sont bizarres ? les gens ils sont bizarres J'vais quitter la zone Coffrer chez la vieille Futurista infernal Si je mens, comment faire ? Après j'suis sur la Terre mais On s'revoit pour la dernière La lutte éternelle On s'détruit de l'intérieur J'sais pas J'sais plus J'm'éloigne, heya Pardonne-moi J'm'éloigne, heya, heya Billy, Billy han Le ciel nous bénit le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon han Toi t'es pas l'sang d'la veine J'ai perdu l'sens d'la fête J'me prépare sans arrêt J'm'enfuis, j'm'en vais Billy, Billy han Le ciel nous bénit Regarde par l'balcon regarde par l'balcon J'suis sur un dragon J'suis d'vant l'but faut qu'la mette La concu' faut qu'la wet J'attends plus, j'trace ma route Sans lui, sans elle Sans lui, sans elle So lala Ceci n'est pas un test À tous les habitants Veuillez évacuer la zone Ceci n'est pas un test Tsuki lala 60 soleils ça brille pareil Lala deux fois Tsuki quatre fois J'suis c'qu'ils appellent un produit d'en Parle moi de tout, parle moi d'la vie Ouais J'suis c'qu'ils appellent un produit d'en bas qui pimp Malheur m'a pas produit De force on s'introduit Te cambre pas, c'est comme ça qu'on s'fait baiser dans la vie C'est comme ça qu'on l'fait Tsuki tsunami J't'ai déjà raconté Nos problèmes nos manies Tu tapes sur la piste noire Tout va bien tant qu'on m'piste pas Et ton rappeur c'est un fils de lâche sorcier, sorcier 60 soleils, 40 étoiles Ça veut vivre dans 40 hectares oui T'es pas serein quand y'a une bécane Ba-baw, braquage à l'UZI Ils allaient quand même pas t'laisser brasser ouais C'est bizarre le milieu d'la musique c'est bizarre C'est bizarre c'est pas comme dans l'movie c'est bizarre C'est bizarre les gens J'ai un cur toit ouvrant yeah J'ai la tête pas ici yeah J'ai le foie grave en feu Le feu grave enfoui J'croyais grave en toi yeah C'est comme ça qu'on s'fait baiser dans la vie han C'est comme ça qu'on l'fait Tsuki tsunami okok La dure c'est facile d'accès sur Paris okok L'amour c'est facile d'accès sur Bali han Si on finit premier c'est chaud On était vraiment les derniers Et j'écoute plus quand ça part en promesses Et toi j't'aime encore moins que tes collègues La patrouille est elle bonne qu'à s'faire berner Mais négro, si j'fume pas mes yeux vont pas s'fermer Y'a que quand t'es p'tit que la cité c'est chan-mé Y'a que quand t'es p'tit que tu t'contentes de 100e Y'a que quand j'écris que j'suis moi Y'a que quand j'les plie que j'suis bien Faudrait p't'être que je prie car c'est noir Faudrait p't'être que je trie car c'est louche Faudrait p't'être que je pense à la chasser, ma chance Jamais changer de sens, j'en vois beaucoup du sang Y'en a bien plus des faux Tu vas t'y perdre à trop cacher des choses Elle cambre tellement bien qu'j'ai l'impression que son boule il lévite Si tu croises la rue faut qu'tu l'évites ouais Si tu croises la juge faut qu'tu résistes ouais Si tu t'sens chez toi faut qu'tu résides Demain peut-être sera plus paisible J'aurai p't'être ma maison au Brésil Ouais ouais C'est comment mon vieux ?</t>
+          <t>Tu veux faire la bringue Hey C'est vrai qu'on est vrai, hein Hey VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ?, hein Et ma baby, elle aime quand j'paye Tout l'temps, on va frimer comme Gucci Mane Gucci Dans la valise, j'veux cinq-cents lles-m Bah ouais, dans son fessier, j'mets cinq-cents grammes Ouh Tout l'temps dans des virées, tout l'temps Tout l'temps, casqué, comme le shooter, ganté Pah, pah Cuir noir comma la Faucheuse hantée Ah, on va brider les prix de différents marchés Ice, ice Hey, j'rentre pas à la maison, bébé s'inquiète et elle a raison C'est noir Tu connais la mission, dans quatre saisons, j'paye la maison Vivaldi Remplis le sac Eastpak, on arrive à plusieurs en balle Ouh Remplis le sac Eastpak, shooter sur la gauche de la vitre Poh, poh, poh VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs Hey J'mange un grec sur la rue des Batignolles, la rue a ses raisons que le rap ignore Sous la marée des alligators, ma Russe derrière-moi sur l'Raptor C'est la street, mon pote Trois bigos sur la table dans la villa, trop de liquide pour lécher la vitrine Ils ont traqué la SEAT noire comme des vilains Général, général, général Une coupe de campagne quand j'achète mes habits Général, général, général Où sont mes vaillants ? Les voyelles ont prit la ville, ils ont pris la vie J'ai pris le dernier vol Oui, oui, souterraine économie à la surface du sol Parce qu'ils ont fait du sale et non, c'est pas des LOL, au paradis, on va te couper les ailes Général, général, général Trop d'soucis dans la tête Hey, j'ai mon ventre qui se tort Hey Des petits qui se perdent T'as vu ? car ils ont trop le mort Général, général, général Ils ont r'trouvés des empreintes dans la crosse, de la charclée dans la presse Mmh Elh Kmer est dans le Ghost Poh, poh, on se rejoint près du coche VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs C'est la street, mon pote VHR, comptant, j'paye Oh, baby, hologramme sur la veste Oh, baby AMG, gros fer noir, tu parles allemand ? Nous aussi Bah oui VHR, comptant, j'paye Oh, baby, AMG, gros fer noir Parisien Tu parles allemand ? Nous aussi Bah oui, tu parles allemand ? Nous aussi Hey</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Heure du crime</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G.U.S.T.A.V.O Kalashé comme Gustavo Medellín Hey, ma génération pue sa grand-mère la pute Que faire de plus si c'n'est tous les fumer Fort possible que tu m'croises dans le fond du binks Sans lacet car je sors de GÀV Dans ma matrix, négro, je les baise La mentale, celle de Kunta Kinte Faire semblant d'm'affaiblir pour te quen' Fils de pute, si j'recule c'est pour mieux t'enculer Kalashé comme personne, on blague ap' GÀV à Versailles, on parle pas Des frères ont pris des piges mais ne flanchent pas 2-2 convict, gardez la pêche Comme d'hab', soldat, j'suis en 4x4 Hümmel dans le block Le salaire d'un keuf dans l'froc Le pouvoir s'achète, sale con Nombre de victimes que t'ai raison ou tort Silencieux comme sniper, j'attends mon heure La suite de l'histoire rime avec horreur T'as pas donné d'blase, t'auras tous mes honneurs Dans l'cas contraire, une équipe te lève à 6h Allô le R, quelles sont les nouvelles ? Quel rappeur de merde doit finir en civière ? L'objectif tout niquer en indépendant Remplir les caisses Sacem et encaisser ce chèque G.U.S.T.A.V.O Kalashé comme Gustavo, me-ar dans la boîte à gant La guerre, on l'a fait si t'es chaud Négro, c'est chaud dans la ville Boulbi Square c'est Medellín Enchanté c'est Mr So J'me présente plus, j'suis l'anarchiste Mr So On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo Nique sa mère le Maire et toutes ses réformes Les shlags c'est eux, la rue c'est nous On vi-ser d'la frappe au fils de la juge Mais sans scrupules, elle nous met au trou Il est bientôt minuit, les frérots ont soif 10 balles d'essence, on passe chez l'hanout Se recharger en clopes, feuilles, Poliakov La soirée sera un cocktail Molotov AK dans le Clio, on est khabat La rue a fait de nous des génies à part On fait tomber la neige sous quarante degrés Akha, y a les feus-keu sa mère Poucaves et pointeurs mangent à la même table Désormais les tits-pe n'ont plus d'cartables Ça bibi de la cess' et faut débiter milliers d'euros Euros, dollars, dinars, pesos sous le matelas Génération nueve cinco On s'fait la bise comme les sistes-gros Le patrimoine d'Pascal Obispo métro, boulot, dodo Merco Benz, j'veux une Merco Benz Foutre la de-mer dans les rues du bled V'là les folasses dans le périmètre J't'éclate la te-cha jusqu'au périnée, jusqu'au périnée On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non On est des bandits yeah, yeah, yeah Pas des poucaves non, non, non Fais pas le bandit yeah, yeah, yeah Si t'es une poucave non, non, non Fais pas le bandit si t'es une poucave G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo G.U.S.T.A.V.O De Paris à Medellín G.U.S.T.A.V.O Traficanté, Gustavo</t>
+          <t>L'instru m'a sonné gros, fuck ton horloge, 40000 gang L'heure du crime a sonné Pas de pitié pour les traîtres, Elh Kmer défouraille-les Tu parles de guerre, es-tu broliqué ? Force tranquille jamais paniquer, j'entends une voix qui m'dit Boma yé Dans mon cartable je n'ai pas de fourniture Quelques liasses et quelques billets, Madame la prof je ne suis pas écolier La force des miens qui vient m'épauler Ces fils de putes se mettent à couvert, ils savent très bien que ça va canarder Sortez les armes c'est la guerre comme en Irak Click click paw, je t'encule comme Chirac Peur de Dieu, j'ai peur de sonne-per Tu parles beaucoup j't'encule ta mère devant ton beau-père Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand on est de mauvaise humeur Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand il est est de mauvaise humeur Darki, Vesti, E.L.H, la prod' est trop dangereuse Niquez tous vos mères pour nous le rap n'est pas un jeu Oh merde tu vois flou S.K.S.A, Mams, 2.2, le reste on s'en fout Sortez tous kalashés je vous préviens pas de pitié 40000 G, S.D.H.S, 92i, je t'ai dit gros faut pas rajouter Ferme ta gueule fais tes dièses en masqué et agis pas pour plaire La putain d'mixtape 40000 ouais Boulbi est magique L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné, allons chercher les lovés Biatch j'ai les crocs, soir-ce tel-ho on va pas s'ennuyer J'aime bien les rottes-ca, ces putains de criquets Sang d'escroc j'suis un putain de Bamiléké R.E.K oh mon gars dis-leur Armés de la tête au pied renoi, on va canarder 40000 G, 92i, t'inquiètes pas la relève est assurée Tata Touré s'il te plait un plat de mafé Joints à l'infini, pour ces jaloux c'est fini, trop nombreux comme à raq-Chi Rate-pi faut qu'on pète le milli, WAllaye bibi' c'est la gueri' ÜKT on est izi, charognards comme mes rates-pi, D-A, E.L.H mes deux homies AK-47 tu vas recevoir des missiles L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne1</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Haussmannien</t>
+          <t>Hinata</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tu veux faire la bringue Hey C'est vrai qu'on est vrai, hein Hey VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ?, hein Et ma baby, elle aime quand j'paye Tout l'temps, on va frimer comme Gucci Mane Gucci Dans la valise, j'veux cinq-cents lles-m Bah ouais, dans son fessier, j'mets cinq-cents grammes Ouh Tout l'temps dans des virées, tout l'temps Tout l'temps, casqué, comme le shooter, ganté Pah, pah Cuir noir comma la Faucheuse hantée Ah, on va brider les prix de différents marchés Ice, ice Hey, j'rentre pas à la maison, bébé s'inquiète et elle a raison C'est noir Tu connais la mission, dans quatre saisons, j'paye la maison Vivaldi Remplis le sac Eastpak, on arrive à plusieurs en balle Ouh Remplis le sac Eastpak, shooter sur la gauche de la vitre Poh, poh, poh VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs Hey J'mange un grec sur la rue des Batignolles, la rue a ses raisons que le rap ignore Sous la marée des alligators, ma Russe derrière-moi sur l'Raptor C'est la street, mon pote Trois bigos sur la table dans la villa, trop de liquide pour lécher la vitrine Ils ont traqué la SEAT noire comme des vilains Général, général, général Une coupe de campagne quand j'achète mes habits Général, général, général Où sont mes vaillants ? Les voyelles ont prit la ville, ils ont pris la vie J'ai pris le dernier vol Oui, oui, souterraine économie à la surface du sol Parce qu'ils ont fait du sale et non, c'est pas des LOL, au paradis, on va te couper les ailes Général, général, général Trop d'soucis dans la tête Hey, j'ai mon ventre qui se tort Hey Des petits qui se perdent T'as vu ? car ils ont trop le mort Général, général, général Ils ont r'trouvés des empreintes dans la crosse, de la charclée dans la presse Mmh Elh Kmer est dans le Ghost Poh, poh, on se rejoint près du coche VHR, comptant, j'paye Bah oui, hologramme sur la veste Pah AMG, gros fer noir Poh, poh, poh, tu parles allemand ? Nous aussi T'as vu ? VHR, comptant, j'paye Ouh, AMG, gros fer noir Vroum Tu parles allemand ? Nous aussi Pah, tu parles allemand ? Nous aussi T'as vu ? Ma baby est mannequin Oh, baby, Parisien, Haussmannien Oh, baby J'fais la bringue pour un rien Poh, poh, poh, tu peux le voir sur les Champs Ouh Ma baby est mannequin Oh, baby, Parisien, Haussmannien Parisien J'fais la bringue pour un rien Bah oui, tu peux le voir sur les Champs C'est la street, mon pote VHR, comptant, j'paye Oh, baby, hologramme sur la veste Oh, baby AMG, gros fer noir, tu parles allemand ? Nous aussi Bah oui VHR, comptant, j'paye Oh, baby, AMG, gros fer noir Parisien Tu parles allemand ? Nous aussi Bah oui, tu parles allemand ? Nous aussi Hey</t>
+          <t>Hina', Hina', Balenciaga, Hinata Victory Hina', Hina', Balenciaga, Hinata, Hina' Hina', Hina' Elle ressent les secousses d'en bas D'en bas, la famille, le métal d'abord La famille J'élabore nouveau plavon, j'compte lui voler son petit cur Petit cur Audemars c'est ma définition Audemars de la liberté, all eyes on me Oh non J'ai pas failli à ma mission Ah, j'ai très peu d'amis, d'ennemis beaucoup Beaucoup Trois pièces, paradis, ça l'fait Ça l'fait, c'est violent, c'est pas du solfège Ah Natation synchro', j'brasse J'brasse, fais nous voir c'que tu vaux Fais nous voir c'que tu vaux J'suis dans un mauvais rêve, ffet papillon s'est volatilisé J'suis dans un mauvais rêve, c'st vrai, c'est vrai, effet papillon Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata J'ai le mannequin d'la soirée, ma baby mannequin comme Naomi Campbell Nan J'te ferais visiter toutes les parcelles de moi Toutes, oh, Dieu merci, j'ai un toit On se prend pas au sérieux, c'est le haut du tableau, c'est pas Séville C'est pas Séville J'ai le métal, le fer Le métal, prie Dieu pour que jamais j'm'en sers Près du précipice, ne chance pas d'avis Oh-oh, eh, eh, eh Après l'automne, j'vais chanter Vivaldi Après l'automne, après l'automne, eh, eh Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo Baby boy, baby boy Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1270,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Heure du crime</t>
+          <t>Hiver</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>L'instru m'a sonné gros, fuck ton horloge, 40000 gang L'heure du crime a sonné Pas de pitié pour les traîtres, Elh Kmer défouraille-les Tu parles de guerre, es-tu broliqué ? Force tranquille jamais paniquer, j'entends une voix qui m'dit Boma yé Dans mon cartable je n'ai pas de fourniture Quelques liasses et quelques billets, Madame la prof je ne suis pas écolier La force des miens qui vient m'épauler Ces fils de putes se mettent à couvert, ils savent très bien que ça va canarder Sortez les armes c'est la guerre comme en Irak Click click paw, je t'encule comme Chirac Peur de Dieu, j'ai peur de sonne-per Tu parles beaucoup j't'encule ta mère devant ton beau-père Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' Kalash, Famas, à toi de voir lequel tu préfères Sale pédale reste à couvert mes rates-pi sont déter' L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand on est de mauvaise humeur Cours, crie, pleure, négro fais c'que tu veux Si le Sheitan te poursuit il te rattrape en deux-deux L'heure c'est l'heure, malheur si tu crimes avant l'heure Belek, Freezer devient fou quand il est est de mauvaise humeur Darki, Vesti, E.L.H, la prod' est trop dangereuse Niquez tous vos mères pour nous le rap n'est pas un jeu Oh merde tu vois flou S.K.S.A, Mams, 2.2, le reste on s'en fout Sortez tous kalashés je vous préviens pas de pitié 40000 G, S.D.H.S, 92i, je t'ai dit gros faut pas rajouter Ferme ta gueule fais tes dièses en masqué et agis pas pour plaire La putain d'mixtape 40000 ouais Boulbi est magique L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné, allons chercher les lovés Biatch j'ai les crocs, soir-ce tel-ho on va pas s'ennuyer J'aime bien les rottes-ca, ces putains de criquets Sang d'escroc j'suis un putain de Bamiléké R.E.K oh mon gars dis-leur Armés de la tête au pied renoi, on va canarder 40000 G, 92i, t'inquiètes pas la relève est assurée Tata Touré s'il te plait un plat de mafé Joints à l'infini, pour ces jaloux c'est fini, trop nombreux comme à raq-Chi Rate-pi faut qu'on pète le milli, WAllaye bibi' c'est la gueri' ÜKT on est izi, charognards comme mes rates-pi, D-A, E.L.H mes deux homies AK-47 tu vas recevoir des missiles L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne L'heure du crime a sonné nigga Rate-pi sort le canon scié L'heure du crime a sonné nigga T'enflammes pas, on va t'allumer Kilos, grammes, shit, beuh SQR on a d'la ppe-fra 40000, shoot boy Quand on tire on vise la lucarne1</t>
+          <t>J'ai souvent peur dfinir seul Jolly Roger J'ai souvent peur d'finir seul, seul Jai souvent peur d'finir seul Ouh J'ai souvent peur d'être seul mais jamais peur d'finir seul J'écris des lignes, toi t'en prends la nuit, tout paraît plus beau la nuit Tu finiras sans doute solo, mon reuf, si tu penses qu'elles sont toutes des De loin, jai réglé la lunette, cest sûr premier qui bouge, je l'éteins Tas vu ? Enfant du binks, j'veux la Ciudad, j'vois pas mon avenir dans l'trafic Jai fait le tour de mes souvenirs, des anciens amis, obligé d'capituler J'arrive d'en bas comme Ethereum, nan, toi t'y croyais pas, c'est trop tard Le médecin dit que j'ai le cur abîmé, à c'qui p', j'ai le cur abîmé On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait Nos vies sont plus les mêmes, gros Nos vies sont plus les mêmes, gros On a squatté les mêmes halls On a squatté les mêmes halls Nos vies sont plus les mêmes, y a fort longtemps qu'on rêve de quitter le bendo Paraplégique est mon cur, j'ai vu, j'ai souffert mais jamais j'ai bu J'ai vu des amis s'noyer dedans Dedans, j'ai vu des amis mettre des gants Mes démons m'obéissent, tu l'sais Ouh, démons m'obéissent, tu l'sais J'ai craché ma haine dans l'son, au fond, j'suis pas mauvais mais j'suis habitué Mauvaise mentalité, laud-sa un rituel Affamé, j'ai mis les gants, titulaire, pas sur le banc, nan, pas sur l'banc Jamais J'suis tombé, j'me suis relevé, pour gagner une guerre, faut du temps, gros, il faut du temps T'as vu ? J't'attends à la sortie du périph' Vroum, le cur est noir mais Dieu m'a béni Oui J'ai promis un palace à celle qui m'a donné la vie, j'veux pas de leur intérim J'regarde le ciel, le ciel, je compte plus les étoiles, parmi elles, un frérot au ciel L'arc-en-ciel, c'est pas l'marais, nan On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hinata</t>
+          <t>Imparfait</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hina', Hina', Balenciaga, Hinata Victory Hina', Hina', Balenciaga, Hinata, Hina' Hina', Hina' Elle ressent les secousses d'en bas D'en bas, la famille, le métal d'abord La famille J'élabore nouveau plavon, j'compte lui voler son petit cur Petit cur Audemars c'est ma définition Audemars de la liberté, all eyes on me Oh non J'ai pas failli à ma mission Ah, j'ai très peu d'amis, d'ennemis beaucoup Beaucoup Trois pièces, paradis, ça l'fait Ça l'fait, c'est violent, c'est pas du solfège Ah Natation synchro', j'brasse J'brasse, fais nous voir c'que tu vaux Fais nous voir c'que tu vaux J'suis dans un mauvais rêve, ffet papillon s'est volatilisé J'suis dans un mauvais rêve, c'st vrai, c'est vrai, effet papillon Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Hey, hey, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata J'ai le mannequin d'la soirée, ma baby mannequin comme Naomi Campbell Nan J'te ferais visiter toutes les parcelles de moi Toutes, oh, Dieu merci, j'ai un toit On se prend pas au sérieux, c'est le haut du tableau, c'est pas Séville C'est pas Séville J'ai le métal, le fer Le métal, prie Dieu pour que jamais j'm'en sers Près du précipice, ne chance pas d'avis Oh-oh, eh, eh, eh Après l'automne, j'vais chanter Vivaldi Après l'automne, après l'automne, eh, eh Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo Baby boy, baby boy Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hina' Hina', Hina', Hina', Hina', Hina', Hina', Balenciaga, Hinata Balenciaga, Balenciaga, Balenciaga, Balenciaga Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata Baby boy, je suis son mauvais djo Mauvais djo, mauvais djo Baby boy, je suis son mauvais djo, Hina', Hina', Balenciaga, Hinata</t>
+          <t>Wesh Heavy, amène le scooter, le sin-c' Jactus made this sound Oh-oh Grandi près d'la rivière, j'me suis noyé Noyé, vingt-deux carats, bébé veut juste briller Briller J'ai voulu voir de plus près, j'me suis brûlé, enfant de la Ciudad, depuis l'doré, dés sont pipés Ils diront qu'ils m'ont eu Qu'ils m'ont eu, ils nous ont eu C'est faux Si j'veux, j'finis la course avant eux, mon bébé, j'suis dans la Benz La Benz quand ça rer-ti Rer-ti Quand ça rer-ti, y a des daronnes en pleur Y a des daronnes en pleur, y a des mythos qui parlent de ce qu'ils n'ont jamais fait pour amuser la galerie J'suis aux galeries Lafayette, mon terrain a fait faillite Ils ont que dalle dans les poches, ils sont bons qu'à dire J'ai failli Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre Sèche tes larmes, on s'verra p't-être si c'est notre destin Au bout du fil Au bout du fil, j'ressens ta peine, je ressens toutes tes larmes T'as vu ? C'est comme si j't'avais dit des vraies choses Comme si C'est comme si mon cur se rappelle de nos mots Comme si À côté d'mes pompes, j'étais un long moment Je revis un moment, j'me rappelle ma maman J'ai grandi ainsi, j'ai souvent la boule au ventre Et derrière mon cur, j'en ai un autre kabout Tu m'diras qu'c'est vrai, j'te dirais que c'est faux J'vais prendre mes distances juste au cas où Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large</t>
         </is>
       </c>
     </row>
@@ -1304,12 +1304,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hiver</t>
+          <t>Interlude Enda</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'ai souvent peur dfinir seul Jolly Roger J'ai souvent peur d'finir seul, seul Jai souvent peur d'finir seul Ouh J'ai souvent peur d'être seul mais jamais peur d'finir seul J'écris des lignes, toi t'en prends la nuit, tout paraît plus beau la nuit Tu finiras sans doute solo, mon reuf, si tu penses qu'elles sont toutes des De loin, jai réglé la lunette, cest sûr premier qui bouge, je l'éteins Tas vu ? Enfant du binks, j'veux la Ciudad, j'vois pas mon avenir dans l'trafic Jai fait le tour de mes souvenirs, des anciens amis, obligé d'capituler J'arrive d'en bas comme Ethereum, nan, toi t'y croyais pas, c'est trop tard Le médecin dit que j'ai le cur abîmé, à c'qui p', j'ai le cur abîmé On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait Nos vies sont plus les mêmes, gros Nos vies sont plus les mêmes, gros On a squatté les mêmes halls On a squatté les mêmes halls Nos vies sont plus les mêmes, y a fort longtemps qu'on rêve de quitter le bendo Paraplégique est mon cur, j'ai vu, j'ai souffert mais jamais j'ai bu J'ai vu des amis s'noyer dedans Dedans, j'ai vu des amis mettre des gants Mes démons m'obéissent, tu l'sais Ouh, démons m'obéissent, tu l'sais J'ai craché ma haine dans l'son, au fond, j'suis pas mauvais mais j'suis habitué Mauvaise mentalité, laud-sa un rituel Affamé, j'ai mis les gants, titulaire, pas sur le banc, nan, pas sur l'banc Jamais J'suis tombé, j'me suis relevé, pour gagner une guerre, faut du temps, gros, il faut du temps T'as vu ? J't'attends à la sortie du périph' Vroum, le cur est noir mais Dieu m'a béni Oui J'ai promis un palace à celle qui m'a donné la vie, j'veux pas de leur intérim J'regarde le ciel, le ciel, je compte plus les étoiles, parmi elles, un frérot au ciel L'arc-en-ciel, c'est pas l'marais, nan On t'pull up, on t'braque, on t'baise, on t'pull up, on t'braque, on t'baise, 'esh Quelques kilos dans l'tieks, la drogue enfume toute la pièce, hun Les gros d'la meilleure espèce, on cherche nos démons, l'espèce, ouh L'hiver approche, j'ai fait l'biff, Balenciaga, Triple S J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait J'ai pris les devants, j'ai fait l'biff, mes démons m'obéissent On raconte ce que l'on fait, on raconte ce que l'on sait J'ai promis un palace à la mif', j'suis vini, j'dois vici On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait On raconte ce que l'on fait, on raconte ce que l'on sait</t>
+          <t>He-hey Un cours d'eau, un sable noir, un semblant de paradis Ils nous ont menti du début à la fin J'aurai pu suivre le plus grand nombre, mais ça m'aurait perdu Les débris parlent d'eux-mêmes Vivre chaque instant car demain est incertain Je dois me laisser du temps pour guérir de mes plaies Les dernières pages d'un livre, comme les dernières croutes d'une plaie Enda</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Imparfait</t>
+          <t>Interlude Jökul 23.06</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wesh Heavy, amène le scooter, le sin-c' Jactus made this sound Oh-oh Grandi près d'la rivière, j'me suis noyé Noyé, vingt-deux carats, bébé veut juste briller Briller J'ai voulu voir de plus près, j'me suis brûlé, enfant de la Ciudad, depuis l'doré, dés sont pipés Ils diront qu'ils m'ont eu Qu'ils m'ont eu, ils nous ont eu C'est faux Si j'veux, j'finis la course avant eux, mon bébé, j'suis dans la Benz La Benz quand ça rer-ti Rer-ti Quand ça rer-ti, y a des daronnes en pleur Y a des daronnes en pleur, y a des mythos qui parlent de ce qu'ils n'ont jamais fait pour amuser la galerie J'suis aux galeries Lafayette, mon terrain a fait faillite Ils ont que dalle dans les poches, ils sont bons qu'à dire J'ai failli Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre Sèche tes larmes, on s'verra p't-être si c'est notre destin Au bout du fil Au bout du fil, j'ressens ta peine, je ressens toutes tes larmes T'as vu ? C'est comme si j't'avais dit des vraies choses Comme si C'est comme si mon cur se rappelle de nos mots Comme si À côté d'mes pompes, j'étais un long moment Je revis un moment, j'me rappelle ma maman J'ai grandi ainsi, j'ai souvent la boule au ventre Et derrière mon cur, j'en ai un autre kabout Tu m'diras qu'c'est vrai, j'te dirais que c'est faux J'vais prendre mes distances juste au cas où Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Habitué au doute, habitué aux larmes, habitué au bruit du canon qui tou-touh Tou-touh, tou-tou-touh, j'aime la mélo' du battement de son cur Le son du canon Tou-touh, tou-tou-touh Brr, brr, je m'en vais quand y a plus rien à prendre Et le bruit du canon Tou-touh, tou-tou-touh T'as vu ?, j'aime la mélo' du battement de son cur Cur Tou-touh, tou-tou-touh Ouh, quand y a plus rien à prendre À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large À l'imparfait, j'ai conjugué ton blase Vue panoramique, j'ai dû prendre le large</t>
+          <t>J'ai l'impression d'avoir pris goût a toute cette détresse L'impression d'aimer le goût de mes larmes, car au fond, je n'ai connu qu'elle J'aurai aimé que les vagues emportent avec elles nos remords Que le soleil éclair nos pardons et la glace gèle encore plus nos sentiments afin de ne plus vivre la séparation de ce que l'on aime Au fond du cur, tu sais que j'ai bobo mais apparmment les hommes n pleurent pas dans le cur tu sais que j'ai bobo mais apparemment les hommes ne pleurent pas Jökul</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Interlude Enda</t>
+          <t>Interlude Vatna 26.05</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>He-hey Un cours d'eau, un sable noir, un semblant de paradis Ils nous ont menti du début à la fin J'aurai pu suivre le plus grand nombre, mais ça m'aurait perdu Les débris parlent d'eux-mêmes Vivre chaque instant car demain est incertain Je dois me laisser du temps pour guérir de mes plaies Les dernières pages d'un livre, comme les dernières croutes d'une plaie Enda</t>
+          <t>Hey, hey. Vivaldi c'est l'histoire d'un gamin qui voyait le monde brûler sous ses yeux. Un gamin qui aurait aimer sauver celui-ci. Protéger le plus grand nom des flammes en vain, la tâche paraissait quasi impossible. Spectateur, jamais acteur, la détresse dans l'regard de l'humanité fût l'élément déclencheur, pour s'offrir de nouvelle map. Vatna</t>
         </is>
       </c>
     </row>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Interlude Jökul 23.06</t>
+          <t>Interlude Vík 21.07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>J'ai l'impression d'avoir pris goût a toute cette détresse L'impression d'aimer le goût de mes larmes, car au fond, je n'ai connu qu'elle J'aurai aimé que les vagues emportent avec elles nos remords Que le soleil éclair nos pardons et la glace gèle encore plus nos sentiments afin de ne plus vivre la séparation de ce que l'on aime Au fond du cur, tu sais que j'ai bobo mais apparmment les hommes n pleurent pas dans le cur tu sais que j'ai bobo mais apparemment les hommes ne pleurent pas Jökul</t>
+          <t>L'obscurité est peut-être l'élément qui me correspond le mieux, j'ai essayé de fuir mon destin en vain, crier ma peine acquis, la chanter a vous la nation. J'ai réalisé ce chapitre de ma vie dans les quatre coins d'une terre viking, en Islande. Il n'est jamais trop tard pour ouvrir un livre, jamais trop tard pour me streamer. Vík</t>
         </is>
       </c>
     </row>
@@ -1372,12 +1372,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Interlude Vatna 26.05</t>
+          <t>Italique</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hey, hey. Vivaldi c'est l'histoire d'un gamin qui voyait le monde brûler sous ses yeux. Un gamin qui aurait aimer sauver celui-ci. Protéger le plus grand nom des flammes en vain, la tâche paraissait quasi impossible. Spectateur, jamais acteur, la détresse dans l'regard de l'humanité fût l'élément déclencheur, pour s'offrir de nouvelle map. Vatna</t>
+          <t>He-hey Plus trop de montant, j'ai pas de la Yo J'lui paie trop de montants, j'suis pas esclave Is that Traplysse, hey J'rappe ma vie en mieux, c'est plus les mêmes kalash J'décolle sur un coup de tête, je vais pas m'étaler Tellement de flashbacks, j'ai pas trop de mémoire Elle dit que j'suis un bâtard mais un bel étalon Beaucoup de vols à l'étalage, on se rachète une conduite, c'est plus les mêmes raisons qui m'animent Les plus anciens vont nous maudire parce qu'on a pas su transmettre notre héritage Sur un coup de tête j'réveille les démons, j'ai le mode d'emploi pour la démonter Le polo est taché, la dignité est intacte, faut un gilet pare-balles pour les impacts T'as voulu voir de plus près, tu t'es niqué, j'avais plus de cinq chiffres sur un compte Nickel Ils bâtissent tes rêves sur des bateaux instables, ils disent que c'est l'il des gens pour se rassurer L'inspecteur des fraudes, j'lui dis que t'as été full up de traître Ils attendent que je pop pour s'inviter J'rappe pas pour plaire un tel ou un autre, j'suis impliqué dans tout ce qui fructifie mon bénef Je dois investir beaucoup de mon temps, la sueur a le goût du sang En vrai y'a pas de magie, j'répète la même toutes les saisons, j'fais augmenter l'auditoire Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Eh Tellement de séquelles dans l'dos, on se méfie de nous-même On partage le trésor qu'avec ceux qui le méritent Dieu m'a pas zappé, il a donné à Trolo, j'ai pas envié Trolo, il m'a donné deux fois plus J'ai aimé une femme qui en aimer une autre, la trahison ne concerne pas que les apôtres Je dois couper la coco plusieurs fois pour le bénef, une fois passé la frontière ça coûte plus cher à Genève J'veux le plan qui ramène le trésor, mon personnage préféré dans GTA c'est Trevor T'as tout d'un bolosse, tu t'es mis à la gonflette, on prenait ton goûter tu disais pas un mot On sait gérer la pharmacie, c'est très méchant comme Figo à l'époque des Galactiques Y'a rien de nouveau, ça tire sur toi, tu feras gonfler que les statistiques statistiques Très méchant, elle veut savoir où j'habite ouh On a fait le tour, y'a personne qui rivalise on a fait le tour, hein Très méchant, elle veut savoir où j'habite ouh J't'emmènerai en Italie, écrit en italique hein Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise en Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Heinn1</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Interlude Vík 21.07</t>
+          <t>Izanagi</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L'obscurité est peut-être l'élément qui me correspond le mieux, j'ai essayé de fuir mon destin en vain, crier ma peine acquis, la chanter a vous la nation. J'ai réalisé ce chapitre de ma vie dans les quatre coins d'une terre viking, en Islande. Il n'est jamais trop tard pour ouvrir un livre, jamais trop tard pour me streamer. Vík</t>
+          <t>Eh, c'est tout pour la famille, rien pour les pétasses J'suis avec H, on parle de liquide La valeur du djé on connait, j'ai péta V2 pour m'acheter des ppes-sa Eh, ne fais pas la mafia Sicilienne, , t'es souvent en PR Parait qu'la misère est plus belle au soleil et ta mère la pute est plus bonne en levrette J'suis dans les gradins eh, hein, ouh, ouh J'suis dans les gradins j'suis dans les putains d'gradins Comme la daronne à Rabiot J'suis dans les gradins, trois fois eh Il pull up pour somme à six chiffres J'suis dans les gradins cher, cher, cher, hein Arsène Wenger J'suis dans les gradins, plus sur le terrain J'revends la drogue que tes darons smoke Vingt-cinq piges, j'ai fait deux fois l'double J'suis au départ du go, à la levée du corps Six cents ch'vaux sur la Côte d'Azur On s'en tape si l'prix du baril est en hausse On dégaine en premier, le premier qui s'oppose hey On découpe comme Z, Z, Z comme Zorro woah Comment tu parles, mon garçon ? Vingt-cinq bougies, je mors plus à l'hameçon eh-eh, eh J'connais mes d'voirs, mes leçons J'répète les gammes la veille, j'gère la pression eh La vérité on la connait tous, j'ai passé , j'me suis pas mis à genoux Ton marabout a floppé, j'ai les blindages, j'suis blindé, gros eh, eh, eh, eh, eh, comme les portes du fourgon woah Mes catas j'les connais, mes récits j'les vomis comme si j'étais boulimique c'est réel Trois fois, trois fois, pull up pour la somme à six chiffres t'as vu J'rentre dedans comme Mahrez, j'ressors balle au pied comme Marco Verratti c'est propre Eh, on va t'cribler de balles comme 50 Cent grrr, woah, woah Eh, le ciel m'a privé d'une enfance radieuse, ouais, le ciel nous a punit Le jour du festin, j'partage avec Benny, Thauvin l'partage sera équitable 5050 Jamais acquitté non, même preuve à l'appui car la juge est mal baisée J'suis avec les requins, dans les eaux profondes eh, eh, eh, eh, eh Libére mes partners, libérez mes bandits Eh, renard comme Inzaghi, ouais Izanagi pour refaire l'histoire J'ai la trique à trique, j'ai la maitrise du truc Si la courbe est montante, j'mets deux fois la mise Y a pas photo, eux et nous non, non On l'a banni du clan, c'était louche c'était louche J'suis toujours à l'heure pour l'djé pour le saké T'est toujours en retard, comme les keufs, hein? 22, 22, 22 J'ai le Susano'o Full option, j'ai dans l'quatre anneaux J'me rappelle d'hier, quand y avait rien à graille, qu'on pensait qu'à survivre, pas au goût eh, eh Métal froid, j'fais le tour du périph', j'cherche la proie J'me rappelle d'hier, quand y avait rien à graille, on volait au riche, on volait au riche Trois fois Izanagi on a refait l'histoire, eh Refait, refait, refait, refait, refait, refait Les démons m'obéissent T'as vu, t'as vu? Yeah1</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Italique</t>
+          <t>Izanami</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>He-hey Plus trop de montant, j'ai pas de la Yo J'lui paie trop de montants, j'suis pas esclave Is that Traplysse, hey J'rappe ma vie en mieux, c'est plus les mêmes kalash J'décolle sur un coup de tête, je vais pas m'étaler Tellement de flashbacks, j'ai pas trop de mémoire Elle dit que j'suis un bâtard mais un bel étalon Beaucoup de vols à l'étalage, on se rachète une conduite, c'est plus les mêmes raisons qui m'animent Les plus anciens vont nous maudire parce qu'on a pas su transmettre notre héritage Sur un coup de tête j'réveille les démons, j'ai le mode d'emploi pour la démonter Le polo est taché, la dignité est intacte, faut un gilet pare-balles pour les impacts T'as voulu voir de plus près, tu t'es niqué, j'avais plus de cinq chiffres sur un compte Nickel Ils bâtissent tes rêves sur des bateaux instables, ils disent que c'est l'il des gens pour se rassurer L'inspecteur des fraudes, j'lui dis que t'as été full up de traître Ils attendent que je pop pour s'inviter J'rappe pas pour plaire un tel ou un autre, j'suis impliqué dans tout ce qui fructifie mon bénef Je dois investir beaucoup de mon temps, la sueur a le goût du sang En vrai y'a pas de magie, j'répète la même toutes les saisons, j'fais augmenter l'auditoire Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Eh Tellement de séquelles dans l'dos, on se méfie de nous-même On partage le trésor qu'avec ceux qui le méritent Dieu m'a pas zappé, il a donné à Trolo, j'ai pas envié Trolo, il m'a donné deux fois plus J'ai aimé une femme qui en aimer une autre, la trahison ne concerne pas que les apôtres Je dois couper la coco plusieurs fois pour le bénef, une fois passé la frontière ça coûte plus cher à Genève J'veux le plan qui ramène le trésor, mon personnage préféré dans GTA c'est Trevor T'as tout d'un bolosse, tu t'es mis à la gonflette, on prenait ton goûter tu disais pas un mot On sait gérer la pharmacie, c'est très méchant comme Figo à l'époque des Galactiques Y'a rien de nouveau, ça tire sur toi, tu feras gonfler que les statistiques statistiques Très méchant, elle veut savoir où j'habite ouh On a fait le tour, y'a personne qui rivalise on a fait le tour, hein Très méchant, elle veut savoir où j'habite ouh J't'emmènerai en Italie, écrit en italique hein Hein Un peu d'amour pour ceux qui en veulent pour ceux qui en veulent Sers-toi de ma haine, j'en mets trop dans mes chansons sers-toi Elle veut faire un peu de bateau, naviguer à Venise en Italie J'te dédie un poème, j'l'écris en italique en italique Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu J'ai tellement merdé, elle pense que je la mérite pas je la mérite pas Le ciel nous tombe dessus, on n'a pas eu dix-mille chances on a pas eu Faut du sang comme héritage, faut laisser un héritage Heinn1</t>
+          <t>Nanji Eh, t'attends que ça parle pour me faire du lèche J'rappe pas pour les médias hype jamais, j'suis trop crâmé, wouh T'attends que ça parle pour me faire du lèche hein J'rappe pas pour les médias hype hein Au dessus d'la normale comme une antenne 5G Antoine m'appelle pour une livraison d'colis allô Ici on aime pas trop la police, mon fiston m'écoute, donc je resterais poli 2021, l'esclavage pas aboli bah, bah J'suis trop Adama pour une manif' pacifiste, eh bah, bah J'monte sur un plavon à 40k, c'est pas l'argent d'la SACEM ouh Nique sa mère à tout ceux qui blasphème Nique leurs grands-mères à tout les fans de Bassem nique, nique, hein J'ai full up dans l'BM, 4Matic, j'remonte toutes sortes de pentes 4Matic, j'remonte toutes sortes de bords J'entends deux fois Allô, c'est sûrement une CR La taille de la kichta te fait bugger On communique avec des talkies wouh La rue s'apprend pas sur des tutos, le poto est libérable, il m'dit qu'c'est celebrate eh Et toi t'es un faux, j'ai prit mes distances bien avant le Covid stop Deux éléments qui nous divisent, l'argent, les putes, putes, putes, putes 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël On transmet le savoir aux nes-jeu fort Ça découpe en balles et ça bibi coupe, coupe j'refais les boutiques, coup d'scam de Paris à London scam, scam J'ai pas rêvé d'être connu, j'suis dans l'bando avec des crapules bando Aller-retour, Paris-Rotter', c'est 8h30 pétantes, j''m'arrête pour pisser J'suis la racaille du label, moi, j'leur ai dit j'rappes pas pour les bobos jamais VHR, t'es pas dans l'Viano eh J'ai la guitarre qui grr, grr eh, eh, eh, eh, pas de piano baow, baow J'récupères en USD, j'évite les MST, revends la LSD J'suis dans la cabine, comme Socrates, j'm'occupe de ton cas 2021, tout dans l'USB 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël Izana, mi T'as vu? Trois fois, eh, eh, eh1</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Izanagi</t>
+          <t>Jacques a dit</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Eh, c'est tout pour la famille, rien pour les pétasses J'suis avec H, on parle de liquide La valeur du djé on connait, j'ai péta V2 pour m'acheter des ppes-sa Eh, ne fais pas la mafia Sicilienne, , t'es souvent en PR Parait qu'la misère est plus belle au soleil et ta mère la pute est plus bonne en levrette J'suis dans les gradins eh, hein, ouh, ouh J'suis dans les gradins j'suis dans les putains d'gradins Comme la daronne à Rabiot J'suis dans les gradins, trois fois eh Il pull up pour somme à six chiffres J'suis dans les gradins cher, cher, cher, hein Arsène Wenger J'suis dans les gradins, plus sur le terrain J'revends la drogue que tes darons smoke Vingt-cinq piges, j'ai fait deux fois l'double J'suis au départ du go, à la levée du corps Six cents ch'vaux sur la Côte d'Azur On s'en tape si l'prix du baril est en hausse On dégaine en premier, le premier qui s'oppose hey On découpe comme Z, Z, Z comme Zorro woah Comment tu parles, mon garçon ? Vingt-cinq bougies, je mors plus à l'hameçon eh-eh, eh J'connais mes d'voirs, mes leçons J'répète les gammes la veille, j'gère la pression eh La vérité on la connait tous, j'ai passé , j'me suis pas mis à genoux Ton marabout a floppé, j'ai les blindages, j'suis blindé, gros eh, eh, eh, eh, eh, comme les portes du fourgon woah Mes catas j'les connais, mes récits j'les vomis comme si j'étais boulimique c'est réel Trois fois, trois fois, pull up pour la somme à six chiffres t'as vu J'rentre dedans comme Mahrez, j'ressors balle au pied comme Marco Verratti c'est propre Eh, on va t'cribler de balles comme 50 Cent grrr, woah, woah Eh, le ciel m'a privé d'une enfance radieuse, ouais, le ciel nous a punit Le jour du festin, j'partage avec Benny, Thauvin l'partage sera équitable 5050 Jamais acquitté non, même preuve à l'appui car la juge est mal baisée J'suis avec les requins, dans les eaux profondes eh, eh, eh, eh, eh Libére mes partners, libérez mes bandits Eh, renard comme Inzaghi, ouais Izanagi pour refaire l'histoire J'ai la trique à trique, j'ai la maitrise du truc Si la courbe est montante, j'mets deux fois la mise Y a pas photo, eux et nous non, non On l'a banni du clan, c'était louche c'était louche J'suis toujours à l'heure pour l'djé pour le saké T'est toujours en retard, comme les keufs, hein? 22, 22, 22 J'ai le Susano'o Full option, j'ai dans l'quatre anneaux J'me rappelle d'hier, quand y avait rien à graille, qu'on pensait qu'à survivre, pas au goût eh, eh Métal froid, j'fais le tour du périph', j'cherche la proie J'me rappelle d'hier, quand y avait rien à graille, on volait au riche, on volait au riche Trois fois Izanagi on a refait l'histoire, eh Refait, refait, refait, refait, refait, refait Les démons m'obéissent T'as vu, t'as vu? Yeah1</t>
+          <t>Jacques a, Jacques a dit, parlons cash, parlons walli J'veux du benef plein les valises Faut du benef plein les valises J'veux du benef plein les valises Faut du benef plein les valises Jacques a, Jacques a dit parlons cash parlons walli J'suis descendu d'chez moi j'ai attaché mon XXX J'vais faire un tour de vélo Chanter des mélis des mélos Tourner comme ce-ba en action XXX les kryptons Y a cette putain de chienne de guerre Qui me fait du pied Mais Jacques a dit non Qu'elle connaissait tous les filons Quelques garçons voudraient postuler dites leur de s'présenter au K.R.L.O Ya hajah té-mon sur la moto Ou va chercher l'poto dans l'buisson A c'qui parait on est bourré de flow Ca c'est Jack Da qui l'a dit Tu mérites même pas qu'on te touche Jacques a dit lachez les pitts Quoi qu'il en soit si y a des affaires bah c'est l'jour et la nuit On fait du gras, entasse les liasses on s'casse d'ici Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Frérot mon avenir j'ai put l'imaginer J'en ai marre de m'dire ça ira J'ai souffert comme un talibé Qui m'aime me retienne car ma femme me tuera Tu m'aimes pas gros c'est réciproque J'n'ai aucun remord comme si proc était mort On galère tous en bas du block En attendant qu'un frérot monte J'ai pouvoir d'achat grâce au bédo Tellement d'amour pour mes négros Des heures passées à ne rien faire, à rêver d'une vie qu'on aura pas de si tôt Ma patience atteint ses limites Faudrait le million pour qu'ma mère soit paisible Vue sur mer ouais sur une île, des cocotiers à l'infini Mais, le million c'est d'la merde Jacques a dit faut l'milliard pour ta mère Le mal que j'traine est pire que tout Faudrait que j'm'en aille pour rejoindre mon frère Mais, Tony où es tu frérot ? nahé Tony où es tu frérot ? hmm nahé Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah yeah yeah yeah</t>
         </is>
       </c>
     </row>
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Izanami</t>
+          <t>Jardin</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nanji Eh, t'attends que ça parle pour me faire du lèche J'rappe pas pour les médias hype jamais, j'suis trop crâmé, wouh T'attends que ça parle pour me faire du lèche hein J'rappe pas pour les médias hype hein Au dessus d'la normale comme une antenne 5G Antoine m'appelle pour une livraison d'colis allô Ici on aime pas trop la police, mon fiston m'écoute, donc je resterais poli 2021, l'esclavage pas aboli bah, bah J'suis trop Adama pour une manif' pacifiste, eh bah, bah J'monte sur un plavon à 40k, c'est pas l'argent d'la SACEM ouh Nique sa mère à tout ceux qui blasphème Nique leurs grands-mères à tout les fans de Bassem nique, nique, hein J'ai full up dans l'BM, 4Matic, j'remonte toutes sortes de pentes 4Matic, j'remonte toutes sortes de bords J'entends deux fois Allô, c'est sûrement une CR La taille de la kichta te fait bugger On communique avec des talkies wouh La rue s'apprend pas sur des tutos, le poto est libérable, il m'dit qu'c'est celebrate eh Et toi t'es un faux, j'ai prit mes distances bien avant le Covid stop Deux éléments qui nous divisent, l'argent, les putes, putes, putes, putes 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël On transmet le savoir aux nes-jeu fort Ça découpe en balles et ça bibi coupe, coupe j'refais les boutiques, coup d'scam de Paris à London scam, scam J'ai pas rêvé d'être connu, j'suis dans l'bando avec des crapules bando Aller-retour, Paris-Rotter', c'est 8h30 pétantes, j''m'arrête pour pisser J'suis la racaille du label, moi, j'leur ai dit j'rappes pas pour les bobos jamais VHR, t'es pas dans l'Viano eh J'ai la guitarre qui grr, grr eh, eh, eh, eh, pas de piano baow, baow J'récupères en USD, j'évite les MST, revends la LSD J'suis dans la cabine, comme Socrates, j'm'occupe de ton cas 2021, tout dans l'USB 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko On fait tomber la neige, on fait tomber les flocons eh 20k par mois sinon j'suis un flocko, 20k par mois sinon j'suis un flocko wouh On fait tomber la neige, eh, c'est nous les pères noël Izana, mi T'as vu? Trois fois, eh, eh, eh1</t>
+          <t>Ouais, han Ouais, ouais G.S got the sauce J'étais tout seul dans la room Dans la room Et ça m'a prit longtemps avant d'voir qu'ils voulaient m'faire les roues Pour l'cash, j'attends pas le 30, allô ? Malheur au tél' J'pète une un peu trop girly, j'ai du mal à dormir Et j'suis plus trop dehors, avant d'dead faut qu'j'fasse encore, encore Dans la 'teille, j'ai d'quoi faire tomber trois-cents corps Toute ma vie mettre la lulu, pourquoi personne regarde ? Dans la rue, j'sors plus tard, t'façon ils ont un train d'retard J'joue pas pour l'maintien, pour l'billet J'ai sorti mon plus beau pinceau pour dessinr un S.O.S Le plan A trouver un plan sous, je pnse qu'à ça et fuck le reste J'avais des failles, j'en ai fait une trilogie parce que c'est la city qu'a prit nos vies J'avais du mal donc j'vais plus revenir J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum J'abrite des des secrets en moi, dans l'fond, j'attends le retour du dieu Ils me vendraient si j'avais un prix Et combien Les jours de fête, j'repense quand il manquait à boire J'repense quand il manquait à boire J'aurai voulu que s'arrête le monde Ils m'ont pas cru quand j'ai dénoncé leurs méfaits Quand j'ai dénoncé leurs méfaits Si t'as rien fait, c'est comme cautionner Yes sir, j'ai fait des emplettes Ice J'achète tout ce dont je manquais Tout Oh, mama, y a plus d'oiseaux vivants, c'est donc ça la vie Oh, baba, je contrôle mes finances, pourvu qu'tu sois en vie Avant qu'j'finisse le château en ruine, avant qu'arrive le dernier souffle Avant qu's'éteigne la putain d'flamme, avant que coule la dernière larme J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum KJU J'ai caché mes peines dans un jardin secret J'me rappelle plus de leurs visages</t>
         </is>
       </c>
     </row>
@@ -1457,12 +1457,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jacques a dit</t>
+          <t>K2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jacques a, Jacques a dit, parlons cash, parlons walli J'veux du benef plein les valises Faut du benef plein les valises J'veux du benef plein les valises Faut du benef plein les valises Jacques a, Jacques a dit parlons cash parlons walli J'suis descendu d'chez moi j'ai attaché mon XXX J'vais faire un tour de vélo Chanter des mélis des mélos Tourner comme ce-ba en action XXX les kryptons Y a cette putain de chienne de guerre Qui me fait du pied Mais Jacques a dit non Qu'elle connaissait tous les filons Quelques garçons voudraient postuler dites leur de s'présenter au K.R.L.O Ya hajah té-mon sur la moto Ou va chercher l'poto dans l'buisson A c'qui parait on est bourré de flow Ca c'est Jack Da qui l'a dit Tu mérites même pas qu'on te touche Jacques a dit lachez les pitts Quoi qu'il en soit si y a des affaires bah c'est l'jour et la nuit On fait du gras, entasse les liasses on s'casse d'ici Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Frérot mon avenir j'ai put l'imaginer J'en ai marre de m'dire ça ira J'ai souffert comme un talibé Qui m'aime me retienne car ma femme me tuera Tu m'aimes pas gros c'est réciproque J'n'ai aucun remord comme si proc était mort On galère tous en bas du block En attendant qu'un frérot monte J'ai pouvoir d'achat grâce au bédo Tellement d'amour pour mes négros Des heures passées à ne rien faire, à rêver d'une vie qu'on aura pas de si tôt Ma patience atteint ses limites Faudrait le million pour qu'ma mère soit paisible Vue sur mer ouais sur une île, des cocotiers à l'infini Mais, le million c'est d'la merde Jacques a dit faut l'milliard pour ta mère Le mal que j'traine est pire que tout Faudrait que j'm'en aille pour rejoindre mon frère Mais, Tony où es tu frérot ? nahé Tony où es tu frérot ? hmm nahé Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit yeah yeah yeah Jacques a, Jacques a, Jacques a dit Jacques a dit fais des lovés Jacques a dit fais des lovés Quitte à finir en taule Sors pas les gros gamos Car sur toi il feront du sroll Il s'rait temps d'péter le million Car maman a mal au dos La guerre est un choix de vie Dont les victimes sont les plus pauvres Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah yeah yeah yeah</t>
+          <t>Nekkat on the track J'suis au sommet du K2, des comme moi, y en a pas deux J'dégaine au Long Riffle 22 et j'appellerai jamais les 22, hey C'est d'la frappe qu'on vend, pas de S.A.V, on est sûr d'la came On connaît le produit On divise par quatre, même les chiffres impairs, par de prise de tête Piouh, piouh, piouh En file indienne sur l'avenue Montaigne, on a tout les montants Vroum, vroum Recto, verso, recto, j'remplis le dossir comme un prêteur Scam, scam C'est fatal tout l'tmps, l'espérance de vie n'est pas si haute Pah Je digère à peine l'entrée, le majordome me serre une entrecôte Arigato On duplique Hein ? les donnés Hein ?, je donne pas à tout bout d'champ Jamais T'as beau refaire mais t'es une réplique, faut qu'on s'applique Fake, t'as vu ? VVS, tout l'temps VVS Hey, rebeu, renoi comme Ilyes Hey Tu vas mourir d'une balle, pas de vieillesse Ice, pah, pah Dans les gradins comme Sarko' Quoi ?, le baveux entend, j'mens, stard-co Ouh Et dans la rue, on parle en narco Wesh, wesh, hey Au sommet du K2, j'ai vu les traîtres Hey Ça pue la flicaille, j'suis chez ma baby, y a plus d'étoile GTA Au sommet du K2, j'ai vu les traîtres T'attends que ça pop pour faire du lèche Ta mère la nympho' qui aime pas ton père Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Assourdissant comme le bruit des compét' Hein ? Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Hey Assourdissant comme le bruit des compét' Hein ? J'suis au sommet du K2 Ouais, des comme moi, y en a pas deux Nada J'dégaine au Long Riffle 22 Pouh et j'appellerai jamais les 22 Jamais, jamais On est plusieurs à faire, plusieurs à dire, plusieurs à vendre Un seul à shooter, plusieurs à table, chacun a son poste dans l'organigramme Wow, la street, c'est moche et réel C'est moche J'pense aux cinq chiffres dès l'réveil Tout l'temps, on va rafler la mise comme Israël Mazel Tov On dégaine en premier, pute Pouh, ça sera pas un prank T'as vu ? Business plan pour la banque, j'suis avec quatre bantous sur un tank Ouh Au sommet du K2, j'ai vu les traîtres Au sommet, au sommet, au sommet S, S, rajoute des S, S Rajoute 22, on blesse, craint comme la mafia napolitaine Eh, vouvoie-nous, bouffon là Attends, on va le prendre comme ça, hein ? Attends, attends, tu rappes pas dans les temps Ça m'saoule Nouvelle épée charcle comme Kisame Coupe, coupe, coupe Des eu', eu', j'convertis en francs Des euros, des eu', eu', j'convertis en francs J'passe la douane, ni vu, ni connu Tchi, on donne du taf aux keufs, au SAMU Bosse Elle fait rentrer une plaque au parlu Dans son cul, dix fois son taro si j'fais d'la plus-value Comme Sosa</t>
         </is>
       </c>
     </row>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jardin</t>
+          <t>Kapie</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ouais, han Ouais, ouais G.S got the sauce J'étais tout seul dans la room Dans la room Et ça m'a prit longtemps avant d'voir qu'ils voulaient m'faire les roues Pour l'cash, j'attends pas le 30, allô ? Malheur au tél' J'pète une un peu trop girly, j'ai du mal à dormir Et j'suis plus trop dehors, avant d'dead faut qu'j'fasse encore, encore Dans la 'teille, j'ai d'quoi faire tomber trois-cents corps Toute ma vie mettre la lulu, pourquoi personne regarde ? Dans la rue, j'sors plus tard, t'façon ils ont un train d'retard J'joue pas pour l'maintien, pour l'billet J'ai sorti mon plus beau pinceau pour dessinr un S.O.S Le plan A trouver un plan sous, je pnse qu'à ça et fuck le reste J'avais des failles, j'en ai fait une trilogie parce que c'est la city qu'a prit nos vies J'avais du mal donc j'vais plus revenir J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum J'abrite des des secrets en moi, dans l'fond, j'attends le retour du dieu Ils me vendraient si j'avais un prix Et combien Les jours de fête, j'repense quand il manquait à boire J'repense quand il manquait à boire J'aurai voulu que s'arrête le monde Ils m'ont pas cru quand j'ai dénoncé leurs méfaits Quand j'ai dénoncé leurs méfaits Si t'as rien fait, c'est comme cautionner Yes sir, j'ai fait des emplettes Ice J'achète tout ce dont je manquais Tout Oh, mama, y a plus d'oiseaux vivants, c'est donc ça la vie Oh, baba, je contrôle mes finances, pourvu qu'tu sois en vie Avant qu'j'finisse le château en ruine, avant qu'arrive le dernier souffle Avant qu's'éteigne la putain d'flamme, avant que coule la dernière larme J'ai caché mes peines dans un jardin secret J'ai caché mes plaies J'me rappelle plus de leurs visages J'me rappelle plus Tu m'as donné ton cur, c'était irrationnel J'ai tenté d'en faire bon usage Tenté C'est pas facile mais j'fais de mon mieux Pour un bout de terre Ice, ils ont volé l'innocence des gosses Oh C'est pas vrai mais j'ai pas nié C'est pas vrai Et quoi qu'ils fassent, ils auront du sang sur les mains Boum, boum KJU J'ai caché mes peines dans un jardin secret J'me rappelle plus de leurs visages</t>
+          <t>mieszy mnie to co nazywacie trapem Kilka butelek i typów na chacie Poow ycia na gap Dzisiaj trzy razy podnosz papugi wypat Dawaj t szklane, nie pytaj czy kapie Zawi t blet, nie pytaj czy kopie Zamykaj szyb, ucieka THC Znowu skocz dzisiaj z czerwonym okiem Duo papieru, a to nie umowy Duo jest gestów , chocia nie ma mowy Due dziury w systemie podatkowym be-beng Due sumy, due fury i domy be-beng Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie wowo</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>KJU</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nekkat on the track J'suis au sommet du K2, des comme moi, y en a pas deux J'dégaine au Long Riffle 22 et j'appellerai jamais les 22, hey C'est d'la frappe qu'on vend, pas de S.A.V, on est sûr d'la came On connaît le produit On divise par quatre, même les chiffres impairs, par de prise de tête Piouh, piouh, piouh En file indienne sur l'avenue Montaigne, on a tout les montants Vroum, vroum Recto, verso, recto, j'remplis le dossir comme un prêteur Scam, scam C'est fatal tout l'tmps, l'espérance de vie n'est pas si haute Pah Je digère à peine l'entrée, le majordome me serre une entrecôte Arigato On duplique Hein ? les donnés Hein ?, je donne pas à tout bout d'champ Jamais T'as beau refaire mais t'es une réplique, faut qu'on s'applique Fake, t'as vu ? VVS, tout l'temps VVS Hey, rebeu, renoi comme Ilyes Hey Tu vas mourir d'une balle, pas de vieillesse Ice, pah, pah Dans les gradins comme Sarko' Quoi ?, le baveux entend, j'mens, stard-co Ouh Et dans la rue, on parle en narco Wesh, wesh, hey Au sommet du K2, j'ai vu les traîtres Hey Ça pue la flicaille, j'suis chez ma baby, y a plus d'étoile GTA Au sommet du K2, j'ai vu les traîtres T'attends que ça pop pour faire du lèche Ta mère la nympho' qui aime pas ton père Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Assourdissant comme le bruit des compét' Hein ? Espèce, rajoute des S et parle au pluriel Après l'orage, on ira aux Seychelles Hey Assourdissant comme le bruit des compét' Hein ? J'suis au sommet du K2 Ouais, des comme moi, y en a pas deux Nada J'dégaine au Long Riffle 22 Pouh et j'appellerai jamais les 22 Jamais, jamais On est plusieurs à faire, plusieurs à dire, plusieurs à vendre Un seul à shooter, plusieurs à table, chacun a son poste dans l'organigramme Wow, la street, c'est moche et réel C'est moche J'pense aux cinq chiffres dès l'réveil Tout l'temps, on va rafler la mise comme Israël Mazel Tov On dégaine en premier, pute Pouh, ça sera pas un prank T'as vu ? Business plan pour la banque, j'suis avec quatre bantous sur un tank Ouh Au sommet du K2, j'ai vu les traîtres Au sommet, au sommet, au sommet S, S, rajoute des S, S Rajoute 22, on blesse, craint comme la mafia napolitaine Eh, vouvoie-nous, bouffon là Attends, on va le prendre comme ça, hein ? Attends, attends, tu rappes pas dans les temps Ça m'saoule Nouvelle épée charcle comme Kisame Coupe, coupe, coupe Des eu', eu', j'convertis en francs Des euros, des eu', eu', j'convertis en francs J'passe la douane, ni vu, ni connu Tchi, on donne du taf aux keufs, au SAMU Bosse Elle fait rentrer une plaque au parlu Dans son cul, dix fois son taro si j'fais d'la plus-value Comme Sosa</t>
+          <t>En mode dictature Yo, Traplysse ? Hey, han Guez Les p'tits ont grandi Ok, hey Les p'tits ont grandi Franchi les étapes et gravi Ici, couleur du ciel est gris Quand y'a du soleil, c'est sûr qu'on est ravi Ah bon ? Petit, j'étais gourmand J'ai toujours laissé un peu d'pourboire J'achète un bijou à madame C'est sûrement de l'or, elle aime bien les gourmettes Elle aime bien les gourm' T'aurais dû patienter Pourquoi la plupart ont douté ? Pourquoi ? BTC, j'regarde les courbes Big H, j'regarde ses formes Heuss, heuss Ici, c'est le foutoir KJU, je mets de l'ordre J'ai pas oublié les mecs au bled J'dois faire un transfert de quelques francs CFA Au pays Ici, y a pas d'goudron Terre battue comme Roland Garros Kalashnikov qui fait grr pendant le sommeil C'est vrai, j'ai l'habitude La tête Il faut de l'attitude Sinon, t'es mort, sinon, c'est fichu Commerçant d'produits illicites Faut pas se louper sur les différentes doses Pourquoi eux, ils titubent ? Yo C'est la vie qui est si dure Oh Le bitume abîme, faut pas se mentir, faut aller étudier Ah no Je connais mon sujet Je connais mes sujets Ils vont pas te louper, s'ils n'ont pas à manger, c'est les règles dans la jungle J'ai le cur abîmé C'est noir comme au Congo, la Crimée KJU, l'effet d'un boum J'essaie un nouveau jouet, j'vais les cribler De balles Petit, j'étais gourmand J'volais l'argent à la kermesse J'voulais l'argent de la caissière J'volais le goûter des enfants les plus aisés Le projet a turni J'enfile mon armure, ma tunique KJU, l'effet d'un boum C'est la troisième guerre, faut choisir ses alliés Stop, attends, je raconte Attends Pour voir si t'as pas, fais un trou Y a de l'or, des bijoux dans la grotte, mais les plus feignants n'auront pas un sou Hey, hey Le matelas c'est l'Mont Blanc Le stylo BIC, c'est sûrement Mont Blanc J'fais du ski sûrement au Mont Blanc J'ai vu un ami parler au banc J'sais pas si on s'aide Peu importe, je dois faire des concerts Le bunker rempli de conserves Bientôt la fin de ce monde KJU Les petits ont grandi Hey Petit, j'étais gourmand Il nous faut des gourmettes VVS, carat, des gourmettes Petit, j'étais gourmand Déso', mais j'ai grandi Désormais, j'ai grandi VVS, carat, des gourmettes Ok</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kapie</t>
+          <t>KN-24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>mieszy mnie to co nazywacie trapem Kilka butelek i typów na chacie Poow ycia na gap Dzisiaj trzy razy podnosz papugi wypat Dawaj t szklane, nie pytaj czy kapie Zawi t blet, nie pytaj czy kopie Zamykaj szyb, ucieka THC Znowu skocz dzisiaj z czerwonym okiem Duo papieru, a to nie umowy Duo jest gestów , chocia nie ma mowy Due dziury w systemie podatkowym be-beng Due sumy, due fury i domy be-beng Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie Patek, AP Pierwszy cartier Dotknij, iced out, cieknie, kapie Hotel, shopping, pierwszy bankiet Prada, euro, cieknie, kapie wowo</t>
+          <t>Elh Kmer 24, Opinel 12, 4 fois 4, plaque diplomatique 28 bougies je souffle, j'suis dans la courbe d'après les statistiques On peut s'faire entendre que par la force C'est pas du love si c'est radioactif chimique J'ai la pratique, la théorie les 10 milles heures, donc je l'applique On pouvait s'associer mais t'as pas les plugs J'ai différents montants dans différents logs On pouvait s'associer, mais t'as pas les codes J'aurais fini entre 4 murs, enfermé comme ? En dessous des radars comme sous-marin, spécial coureur de fond comme Eliud Phare éteint comme ?, phare éteint comme ? Au sommet de la tour c'est bestial, rare comme ? Dans la défense comme Paolo Maldini, comme Rio Ferdinand Après le festin faut faire la vaisselle Nouvelle IP, j'vais capter au Tchad T'as 0 buzz donc 0 leaks, après la bombe c'est fantomatique KN-24, légendaire numéro 23 Brouiller les radars en 20k 237 raisons d'finir dans le top 3 Tu vas mourir d'une balle dans la tête Headshot Le pouvoir c'est pas un jeu Comme Compaoré, t'es un traître Au dessus de l'homme, j'ai mon métal et Dieu Fuck ta juridiction J'suis au-d'ssus, plaque diplomatique quand j'drive ? Dans les abysses, y aura sûrement George Bush Dans une feuille, j'mets différents genres d'kush On est en titu', ils cirent le banc d'touche banc d'touche Concurrence cryogénie Chaque phrase, moi-même j'crie au génie crie au génie Osirus Jack, sur mon cou, rien rien Le Frozen, il sort de mon courrier J'l'attends, j'suis sur l'canapé, j'chill Là si y a une kich' à la clé fils, découpe comme six Anakin J'déambule fons', j'veux le salaire de Haaland ou Jude, 6.6.7, Marathon-jeu science, révise ton karaté jeune Tsar Noir, KGB, dictature comme K.J.U Kim Thomas NKono, Kameni, so tous mes ancêtres tah le Nil Si on élimine, c'est par mille J'fais six tehs, Paris-Lille, killu' jusqu'au Maryland 3 points, swish, Larry Bird, mets trois g d'Cali' pure Haha, 2.3.7, j'ai la mental' Quatre-vingt-dixième minute, j'les vois rater l'immanquable</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KJU</t>
+          <t>La vie est belle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>En mode dictature Yo, Traplysse ? Hey, han Guez Les p'tits ont grandi Ok, hey Les p'tits ont grandi Franchi les étapes et gravi Ici, couleur du ciel est gris Quand y'a du soleil, c'est sûr qu'on est ravi Ah bon ? Petit, j'étais gourmand J'ai toujours laissé un peu d'pourboire J'achète un bijou à madame C'est sûrement de l'or, elle aime bien les gourmettes Elle aime bien les gourm' T'aurais dû patienter Pourquoi la plupart ont douté ? Pourquoi ? BTC, j'regarde les courbes Big H, j'regarde ses formes Heuss, heuss Ici, c'est le foutoir KJU, je mets de l'ordre J'ai pas oublié les mecs au bled J'dois faire un transfert de quelques francs CFA Au pays Ici, y a pas d'goudron Terre battue comme Roland Garros Kalashnikov qui fait grr pendant le sommeil C'est vrai, j'ai l'habitude La tête Il faut de l'attitude Sinon, t'es mort, sinon, c'est fichu Commerçant d'produits illicites Faut pas se louper sur les différentes doses Pourquoi eux, ils titubent ? Yo C'est la vie qui est si dure Oh Le bitume abîme, faut pas se mentir, faut aller étudier Ah no Je connais mon sujet Je connais mes sujets Ils vont pas te louper, s'ils n'ont pas à manger, c'est les règles dans la jungle J'ai le cur abîmé C'est noir comme au Congo, la Crimée KJU, l'effet d'un boum J'essaie un nouveau jouet, j'vais les cribler De balles Petit, j'étais gourmand J'volais l'argent à la kermesse J'voulais l'argent de la caissière J'volais le goûter des enfants les plus aisés Le projet a turni J'enfile mon armure, ma tunique KJU, l'effet d'un boum C'est la troisième guerre, faut choisir ses alliés Stop, attends, je raconte Attends Pour voir si t'as pas, fais un trou Y a de l'or, des bijoux dans la grotte, mais les plus feignants n'auront pas un sou Hey, hey Le matelas c'est l'Mont Blanc Le stylo BIC, c'est sûrement Mont Blanc J'fais du ski sûrement au Mont Blanc J'ai vu un ami parler au banc J'sais pas si on s'aide Peu importe, je dois faire des concerts Le bunker rempli de conserves Bientôt la fin de ce monde KJU Les petits ont grandi Hey Petit, j'étais gourmand Il nous faut des gourmettes VVS, carat, des gourmettes Petit, j'étais gourmand Déso', mais j'ai grandi Désormais, j'ai grandi VVS, carat, des gourmettes Ok</t>
+          <t>La Vie Est Belle X4 COUPLET 1 J'ai tant donner pour t'avoir près de moi car tu vaut 100 fois plus qu'une silliconé Le coeur à ces raisons que la raison XXX XXX Le mal que j'tai fait bébé m'en veut pas si j'trainais tard dehors c'était pour dealé Enfile ton armure , j'enfile mon pare-balle et Cupidon s'fera enculer XXX XXXX XXXX XXXXX XXXXX XXXXXX XXXX J'ai perdu mon frère il s'appelait Tony Ma money c'est mon ami 1 Millions Cash ne vaut pas sa vie J'suis plus proche d'un mec que d'la terre promise J'dois niquer des mères en toutes gallanteries</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KN-24</t>
+          <t>Level Up</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Elh Kmer 24, Opinel 12, 4 fois 4, plaque diplomatique 28 bougies je souffle, j'suis dans la courbe d'après les statistiques On peut s'faire entendre que par la force C'est pas du love si c'est radioactif chimique J'ai la pratique, la théorie les 10 milles heures, donc je l'applique On pouvait s'associer mais t'as pas les plugs J'ai différents montants dans différents logs On pouvait s'associer, mais t'as pas les codes J'aurais fini entre 4 murs, enfermé comme ? En dessous des radars comme sous-marin, spécial coureur de fond comme Eliud Phare éteint comme ?, phare éteint comme ? Au sommet de la tour c'est bestial, rare comme ? Dans la défense comme Paolo Maldini, comme Rio Ferdinand Après le festin faut faire la vaisselle Nouvelle IP, j'vais capter au Tchad T'as 0 buzz donc 0 leaks, après la bombe c'est fantomatique KN-24, légendaire numéro 23 Brouiller les radars en 20k 237 raisons d'finir dans le top 3 Tu vas mourir d'une balle dans la tête Headshot Le pouvoir c'est pas un jeu Comme Compaoré, t'es un traître Au dessus de l'homme, j'ai mon métal et Dieu Fuck ta juridiction J'suis au-d'ssus, plaque diplomatique quand j'drive ? Dans les abysses, y aura sûrement George Bush Dans une feuille, j'mets différents genres d'kush On est en titu', ils cirent le banc d'touche banc d'touche Concurrence cryogénie Chaque phrase, moi-même j'crie au génie crie au génie Osirus Jack, sur mon cou, rien rien Le Frozen, il sort de mon courrier J'l'attends, j'suis sur l'canapé, j'chill Là si y a une kich' à la clé fils, découpe comme six Anakin J'déambule fons', j'veux le salaire de Haaland ou Jude, 6.6.7, Marathon-jeu science, révise ton karaté jeune Tsar Noir, KGB, dictature comme K.J.U Kim Thomas NKono, Kameni, so tous mes ancêtres tah le Nil Si on élimine, c'est par mille J'fais six tehs, Paris-Lille, killu' jusqu'au Maryland 3 points, swish, Larry Bird, mets trois g d'Cali' pure Haha, 2.3.7, j'ai la mental' Quatre-vingt-dixième minute, j'les vois rater l'immanquable</t>
+          <t>Fred, what the fuck, bro? Hey, hey Le démon m'appaise Ayo SV, this was still Le putain de démon, le putain de démon Wouh Hey, jfais grossir l'enveloppe Woah Hey J'fais grossir lenveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les , j'suis dans les comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comm un mec de London Hey, hy-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais quune seule parole Mais qu'une seule parole Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui J'ai passé la douane, renoi Woah La VV t'éblouies, renoi Bling Dieu merci, on manque de rien, mon destin est tracé, renoi Mon destin est tracé Ton boomer a floppé fort Fort On achète tout c'qui coûte cher Cher Tu tagites trop, tu bavardes trop, Opinel te Wah, wah, wah Ça fait, brr, AK rafale, brr, AK, tu connais la musique Sauvé par l'gong, salope, fuck les cops, le 17, j'aime que le brr On fait des dégâts, hey Hey Les vendeurs nous connaissent, hey Woah Mes démons m'obéissent, ton frère m'obéit, ta salope m'obéit fort Hey, hey J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Merci mon destin, merci mon destin Thanks AP, c'est l'heure du festin Bling J'suis dans la gova, les phares sont éteints T'as vu J'la doggy, y a zéros témoins Boom, boom J'maitrise les kata comme Baki j'suis atteint La bagarre Opinel, je refais ton portrait J'ai pas d'grands, moi j'ai pas d'idole, eh J'me suis fais solo dans l'bendo Ça fait vroom AMG 6.3, j'aime bien le bruit, wagwan C'est l'son d'la victoire, mon bébé Bébé Tu sais où on ira cet été Un, dos, tres, quatro Puntos J'entends les gyros, hélico La guardia civile en bateaux La guardia Ça remonte du bled comme les clandos, eh On prend entrée plat et dessert Et l'argent du crime, on sait c'que ça coûte On va générer un max de cash, investir au bled comme Kémi Seba Tou, dou, dou Au dessus d'eux comme un kipa Tout tes renois, fuck une vie d'esclave Palestinien comme d'hab' Woah Palestinien comme d'hab' Woah, d'hab', d'hab', d'hab' J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui1</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>La vie est belle</t>
+          <t>Lewandowski</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>La Vie Est Belle X4 COUPLET 1 J'ai tant donner pour t'avoir près de moi car tu vaut 100 fois plus qu'une silliconé Le coeur à ces raisons que la raison XXX XXX Le mal que j'tai fait bébé m'en veut pas si j'trainais tard dehors c'était pour dealé Enfile ton armure , j'enfile mon pare-balle et Cupidon s'fera enculer XXX XXXX XXXX XXXXX XXXXX XXXXXX XXXX J'ai perdu mon frère il s'appelait Tony Ma money c'est mon ami 1 Millions Cash ne vaut pas sa vie J'suis plus proche d'un mec que d'la terre promise J'dois niquer des mères en toutes gallanteries</t>
+          <t>Nanji Nanji Hey, woah, hey Grosse vroum, vroum, hey, hey, hey Grosse, grosse, grosse, grosse Grosse folle, grosse 'tasse, grosse liasse T'as pas un dix balles, grosse folle ? T'as pas un dix balles, grosse folle ? Ouh, tas vu, eh Grosse folle, grosse conne, si j'm'arrache de ta vie, t'es raide morte Chien aboie quand la caravane passe, ça débat sur nous, ça rage fort Comme Ace Hood, j'suis une tête cramé, j'suis l'meilleur du gang à ce qu lon dit J'les vois d'un il comme Kakashi-sensei, j'suis KM7, j'suis Rashford Je suis dans la cabine, hey, hey dans la cabine, hey, la cabine, ça s'passe bien Mes démons m'obéissent sept sur sept, le public m'acclame comme à Old Trafford Ma seule faiblesse, c'est ma descendance t'as vu, han, espèce, j'prends les chèques Ouais, espèce, j'prends les chèques, je doogy la prod', j'laisse un héritage Moteur allemand comme d'hab' moteur Sapes italiennes comme d'hab' sapes Des drames et bougies comme d'hab' des drames J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine routine Rouge comme la semelle, comme Munich rouge T'es bonne ni en cuisine, ni au lit sheesh Cicatrisé, je suis comme Luffy cica' Foule de rappeurs à mon menu foule Entrée, plat, dessert, je suis gourmand hey, hey, hey, hey Encore violent, c'est ta fête, le cour de la street cest comme en Sicile Hat trick, jenchaîne, Lewandowski, F26, j'fais les boutiques Palettes au volant, j'donne la cadence, brr, machine à billets SAS débite, j'ai glow up, ta carte est plafonnée, t'as glow down Grosse pute, grosse tchoin, tu racontes ta vie, on t'écoute pas J'ai pas d'grands, pas d'mentor, personne m'a poussé un kil', nan Mon fils dort, parles moins fort, on impose les taros du marché J'suis instable comme le Dutch Coin, j'suis dans la Tesla comme Elon Musk woah, woah, woah Mon fils dort, parles moins fort, ouais, grosse conne, j'ai brr-brr Tu disparaîtras comme Pop Smoke, mes démons et moi en osmose Brr-brr, seize tales seize, gros cul, grosse conne Jai tous les filons pour l'trois fois filtré t'as vu, fuck Oxford Grosses pièces, grosses liasses, j'suis Mbappé, j'suis Rashford J'arrache tout comme Raptor, YZ, on gué-lar les porcs C'est l'patron qui parle et l'homme s'tait cash, le plein de 95 On niera les faits, même preuves à l'appui preuves à l'appui Hat trick, Lewandowski hey, hey, hey Moteur allemand comme d'hab' Sapes italiennes comme d'hab' Des drames et bougies comme d'hab' J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine Rouge comme la semelle, comme Munich T'es bonne ni en cuisine, ni au lit</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Level Up</t>
+          <t>Liasse</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fred, what the fuck, bro? Hey, hey Le démon m'appaise Ayo SV, this was still Le putain de démon, le putain de démon Wouh Hey, jfais grossir l'enveloppe Woah Hey J'fais grossir lenveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les , j'suis dans les comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comm un mec de London Hey, hy-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais quune seule parole Mais qu'une seule parole Jai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui J'ai passé la douane, renoi Woah La VV t'éblouies, renoi Bling Dieu merci, on manque de rien, mon destin est tracé, renoi Mon destin est tracé Ton boomer a floppé fort Fort On achète tout c'qui coûte cher Cher Tu tagites trop, tu bavardes trop, Opinel te Wah, wah, wah Ça fait, brr, AK rafale, brr, AK, tu connais la musique Sauvé par l'gong, salope, fuck les cops, le 17, j'aime que le brr On fait des dégâts, hey Hey Les vendeurs nous connaissent, hey Woah Mes démons m'obéissent, ton frère m'obéit, ta salope m'obéit fort Hey, hey J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Merci mon destin, merci mon destin Thanks AP, c'est l'heure du festin Bling J'suis dans la gova, les phares sont éteints T'as vu J'la doggy, y a zéros témoins Boom, boom J'maitrise les kata comme Baki j'suis atteint La bagarre Opinel, je refais ton portrait J'ai pas d'grands, moi j'ai pas d'idole, eh J'me suis fais solo dans l'bendo Ça fait vroom AMG 6.3, j'aime bien le bruit, wagwan C'est l'son d'la victoire, mon bébé Bébé Tu sais où on ira cet été Un, dos, tres, quatro Puntos J'entends les gyros, hélico La guardia civile en bateaux La guardia Ça remonte du bled comme les clandos, eh On prend entrée plat et dessert Et l'argent du crime, on sait c'que ça coûte On va générer un max de cash, investir au bled comme Kémi Seba Tou, dou, dou Au dessus d'eux comme un kipa Tout tes renois, fuck une vie d'esclave Palestinien comme d'hab' Woah Palestinien comme d'hab' Woah, d'hab', d'hab', d'hab' J'fais grossir l'enveloppe Hey, hey Ma tasspé a level up Level up, level up J'suis dans les we, j'suis dans les we comme un mec de London Woah, woah J'fais grossir l'enveloppe Grossir la kichta Ma tasspé a level up Tasspé a level up, uh J'suis dans les we, j'suis dans les we comme un mec de London Hey, hey-hey-hey On a plusieurs visages Hey Mais qu'une seule parole Woah, woah J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui Hey, on a plusieurs visages Visages, visages Mais qu'une seule parole Mais qu'une seule parole J'ai pété Lesta, adieu le tier-quar, merci mon destin Oui, oui, oui, oui1</t>
+          <t>Ouais ouais C'est Kmer aka Mr So Kmer c'est fait solo Kmer n'a pas d'allié Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel Je suis dans la cabine pas pour RSA Ils racontent nos vies à croire qu'ils aiment ça Quelques kilos dans le RS4 Mon silence fait peur comme le RS6 A côté de la plaque est toute ton équipe On faisait du grammes même étant petit Etant donné qu'on a trop la dalle On prendra de force ce qu'ils nous ont pris gangz Violence verbale devant le procureur Jamais content car jamais d'humeur non On s'invite chez toi peu importe l'heure On t'arrache ta mère devant ta petite soeur Et ta mère la pute ouais, si t'as cassé tu payes Tu khalass, tu payes Ils attendent ma chute qui ?, me voir en échec Maman j'en suis fier j'ai euro dollar dans la boca ouais ouais J'ai visser la frappe de marocco Me barrer d'ici en hélico J'veux J'étais le meilleur du gang, je suis formel ouais En un seul couplet je les ai choqué Ils m'en veulent pourquoi ? Allahou a3lem Le temps nous dira sur qui compter Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lewandowski</t>
+          <t>Litty Remix</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nanji Nanji Hey, woah, hey Grosse vroum, vroum, hey, hey, hey Grosse, grosse, grosse, grosse Grosse folle, grosse 'tasse, grosse liasse T'as pas un dix balles, grosse folle ? T'as pas un dix balles, grosse folle ? Ouh, tas vu, eh Grosse folle, grosse conne, si j'm'arrache de ta vie, t'es raide morte Chien aboie quand la caravane passe, ça débat sur nous, ça rage fort Comme Ace Hood, j'suis une tête cramé, j'suis l'meilleur du gang à ce qu lon dit J'les vois d'un il comme Kakashi-sensei, j'suis KM7, j'suis Rashford Je suis dans la cabine, hey, hey dans la cabine, hey, la cabine, ça s'passe bien Mes démons m'obéissent sept sur sept, le public m'acclame comme à Old Trafford Ma seule faiblesse, c'est ma descendance t'as vu, han, espèce, j'prends les chèques Ouais, espèce, j'prends les chèques, je doogy la prod', j'laisse un héritage Moteur allemand comme d'hab' moteur Sapes italiennes comme d'hab' sapes Des drames et bougies comme d'hab' des drames J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine routine Rouge comme la semelle, comme Munich rouge T'es bonne ni en cuisine, ni au lit sheesh Cicatrisé, je suis comme Luffy cica' Foule de rappeurs à mon menu foule Entrée, plat, dessert, je suis gourmand hey, hey, hey, hey Encore violent, c'est ta fête, le cour de la street cest comme en Sicile Hat trick, jenchaîne, Lewandowski, F26, j'fais les boutiques Palettes au volant, j'donne la cadence, brr, machine à billets SAS débite, j'ai glow up, ta carte est plafonnée, t'as glow down Grosse pute, grosse tchoin, tu racontes ta vie, on t'écoute pas J'ai pas d'grands, pas d'mentor, personne m'a poussé un kil', nan Mon fils dort, parles moins fort, on impose les taros du marché J'suis instable comme le Dutch Coin, j'suis dans la Tesla comme Elon Musk woah, woah, woah Mon fils dort, parles moins fort, ouais, grosse conne, j'ai brr-brr Tu disparaîtras comme Pop Smoke, mes démons et moi en osmose Brr-brr, seize tales seize, gros cul, grosse conne Jai tous les filons pour l'trois fois filtré t'as vu, fuck Oxford Grosses pièces, grosses liasses, j'suis Mbappé, j'suis Rashford J'arrache tout comme Raptor, YZ, on gué-lar les porcs C'est l'patron qui parle et l'homme s'tait cash, le plein de 95 On niera les faits, même preuves à l'appui preuves à l'appui Hat trick, Lewandowski hey, hey, hey Moteur allemand comme d'hab' Sapes italiennes comme d'hab' Des drames et bougies comme d'hab' J'suis un lion, j'suis un félin Hey, all inclusive, c'est la routine Rouge comme la semelle, comme Munich T'es bonne ni en cuisine, ni au lit</t>
+          <t>Yeah J'ai perdu un frère, pour mon sourire ya Rabbi m'a donné un fils J'compte plus les défaites, les victoires, les coups de crasse m'ont rendu solide Pied au plancher j'accélère toute la nuit pour guer-lar mes soucis J'évacue ma haine sur une tain-p siliconée pas besoin d'un psy Homme de l'ombre fuck tes projecteurs Faisons du biff dan la discrétion Walli walli de toutes la couleurs Sombre négro j'suis pas trop d'humeur A part XXX Vos histoires de rap, crois moi y a bien pire A l'heure où j'te parle ça tire en Syrie Des frères XXX placards, Bois d'Ar ou Mérogis Ce mode de vie nan j'ai pas eu le choix On charbonne dur car faut nourrir la mif Du poids sur le dos comme le Dieu Chronos Chronométrés sur nos actes seront nous bénis Niquez vos mères, vos principes, vos valeurs Pour percer dois-je apprendre à sucer ? Fuck off négro Fuck off, j'suis d'la B.A.S J'préfère mourir en paix Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais Capuché dans le CLS Sourire moqueur devant CRS Pied au plancher j'ai plus le temps de nahess J'passe les rapports comme un YZ Ien-cli m'appelle gros j'dois m'en aller Fournir sa conso au bout de l'allée Ironie du sors tu te f'ras lever Par ton meilleur client, c'est lui le condé Kalashé, kalashé, kalashé Kalashé, kalashé L'ion indomptable, non j'n'ai qu'très peu d'amour j'ai l'coeur cadenassé Faut charbonné, charbonné, charbonné Charbonné, charbonné Le million d'euros viendra pas devant chez toi faut l'mériter Où sont mes négros Voleurs, dealeurs, braqueurs et tous mes escrocs Numéro 10 a.k.a XXX gros La mala c'est nous laisse ces bouffons jouer les ssiste-gro La mala c'est nous laisse ces bouffons jouer les ssiste-gro Numéro 10 XXX que j't'oublie pas nan Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais</t>
         </is>
       </c>
     </row>
@@ -1610,12 +1610,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Liasse</t>
+          <t>Maison Margiela</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ouais ouais C'est Kmer aka Mr So Kmer c'est fait solo Kmer n'a pas d'allié Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel Je suis dans la cabine pas pour RSA Ils racontent nos vies à croire qu'ils aiment ça Quelques kilos dans le RS4 Mon silence fait peur comme le RS6 A côté de la plaque est toute ton équipe On faisait du grammes même étant petit Etant donné qu'on a trop la dalle On prendra de force ce qu'ils nous ont pris gangz Violence verbale devant le procureur Jamais content car jamais d'humeur non On s'invite chez toi peu importe l'heure On t'arrache ta mère devant ta petite soeur Et ta mère la pute ouais, si t'as cassé tu payes Tu khalass, tu payes Ils attendent ma chute qui ?, me voir en échec Maman j'en suis fier j'ai euro dollar dans la boca ouais ouais J'ai visser la frappe de marocco Me barrer d'ici en hélico J'veux J'étais le meilleur du gang, je suis formel ouais En un seul couplet je les ai choqué Ils m'en veulent pourquoi ? Allahou a3lem Le temps nous dira sur qui compter Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Kmer c'est fait solo Kmer n'a pas d'allié Kmer ne donne pas son cul pour avoir du papier 4 sorties minimums on fera des envieux T'as beau jeter lil on fera ce qu'il faut Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, qui s'oppose à nous Rejoindra le ciel Je dois compter ma liasse, je dois compter ma liasse En fin de semaine en fin de semaine Ennemis en face, ennemis en face En perds le sommeil en perds le sommeil On doit prendre des risques, on doit prendre des risques Pour récolter le miel pour récolter le miel Qui s'oppose à nous, hummmm Rejoindra le ciel</t>
+          <t>J'ai toutes mes raisons J'ai toutes mes raisons, j'ai pas perdu la tête, nan La conscience tranquille quand j'suis dedans Quand j'suis dedans Hein, hein, hein Veste en cuir comme les Rolling Stones Rockstar, trop caille-ra pour être une icône J'leur mets plus d'dix points au score, c'est pas du loisir, c'est une mise à mort Let's get it Commissariat, on fait les sous 3.5, Qui j'suis pour toi ? elle m'dit là-celle Rajoute du parmesan dans les pates Mmh, lle m'appelle Doctur, j'ai soigné ses plaies Ses bobos La mission, j'la connais, c'est trois fois l'Arcelor, j'suis tellement un haineux que maman m'reconnaît pas Cambelo vite quand papa n'était pas là, j'te montre pas mon cur, il est dans un sale état Vol à l'étalage, j'ai volé à l'étage Hey, j'étale ma pano', c'est beaucoup de détails Ice Avenir en béton, l'évasion sera fiscale, j'ai du nouveau textile qui provient d'Italie T'as vu ? T'as vu ? T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier Pah, pah Beaucoup de papel, appelle Beaucoup, beaucoup de plata, évite leurs appels Beaucoup La lumière du gamos a fait son effet Vroum, j'ai vue imprenable sur la Tower Eiffel Skyboard En dénivelé, j'fais mes séquences, la fréquence cardiaque n'a pas bougé d'un poil Nos cardios s'mesurent à la taille de la kich', tu contrôles R, je contrôle mes finances Sale con, tu me trouveras pas à la tess, j'fais du golf à Marnes-la-Vallée J'fais des ice 20-22 on resserre l'étau, c'est fissa-fissa, j'suis pas Mère Thérèsa Ah bon ? J'vais m'raser le crâne, pas d'ADN, aller-retour, port de Rotterdam J'ai trop d'amis en CD, j'suis vêtu de CD, quitter l'bendo en vendant des CD T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier C'est pas un boulot</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1627,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Litty Remix</t>
+          <t>Maudit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Yeah J'ai perdu un frère, pour mon sourire ya Rabbi m'a donné un fils J'compte plus les défaites, les victoires, les coups de crasse m'ont rendu solide Pied au plancher j'accélère toute la nuit pour guer-lar mes soucis J'évacue ma haine sur une tain-p siliconée pas besoin d'un psy Homme de l'ombre fuck tes projecteurs Faisons du biff dan la discrétion Walli walli de toutes la couleurs Sombre négro j'suis pas trop d'humeur A part XXX Vos histoires de rap, crois moi y a bien pire A l'heure où j'te parle ça tire en Syrie Des frères XXX placards, Bois d'Ar ou Mérogis Ce mode de vie nan j'ai pas eu le choix On charbonne dur car faut nourrir la mif Du poids sur le dos comme le Dieu Chronos Chronométrés sur nos actes seront nous bénis Niquez vos mères, vos principes, vos valeurs Pour percer dois-je apprendre à sucer ? Fuck off négro Fuck off, j'suis d'la B.A.S J'préfère mourir en paix Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais Capuché dans le CLS Sourire moqueur devant CRS Pied au plancher j'ai plus le temps de nahess J'passe les rapports comme un YZ Ien-cli m'appelle gros j'dois m'en aller Fournir sa conso au bout de l'allée Ironie du sors tu te f'ras lever Par ton meilleur client, c'est lui le condé Kalashé, kalashé, kalashé Kalashé, kalashé L'ion indomptable, non j'n'ai qu'très peu d'amour j'ai l'coeur cadenassé Faut charbonné, charbonné, charbonné Charbonné, charbonné Le million d'euros viendra pas devant chez toi faut l'mériter Où sont mes négros Voleurs, dealeurs, braqueurs et tous mes escrocs Numéro 10 a.k.a XXX gros La mala c'est nous laisse ces bouffons jouer les ssiste-gro La mala c'est nous laisse ces bouffons jouer les ssiste-gro Numéro 10 XXX que j't'oublie pas nan Si t'as ni plan A ni plan B, bah gros vent la C Nos enfants mérites mieux que des chaussures sans lacets On charbonne du lundi au lundi pour sévader Les frérots sont atteints par le produits inhalé Bienvenue au square Ça bibi matin et soir Bienvenue chez nous miami La zone d'anarchie sans loi La vie noire, la vie noire A jamais la vie noire Vent la C, Vent la C La vie noire à jamais</t>
+          <t>Où tu veux, quand tu veux, quand tu veux, on l'fait Almess, c'est incroyable La douleur du bitume, la douleur La douleur du bitume, la douleur Eh La douleur du bitume, la douleur La douleur, la résine, j'm'en rappelle de l'odeur J'm'en rappelle Le préau, les boloss, les euros Les boloss, le préau, les boloss, les euros Les euros La douleur de maman, j'ai banni J'ai banni, le parlu, les appels, les perquises La police J'ai failli leur donner de l'amour J'ai failli, ces bâtards ne méritent que méprise Sur l'devant de la scène comme Johnny Comme Koffi, on manquait de tout étant minot Étant gamin Les lumières qui scintillent sur Bériz Sur Paname, j'ai plus la boule au ventre devant les gyros J'ai plus la même routine désormais Désormais, on éduque nos gamins, nos palais On éduque Le daron a fait ce qu'il voulait, la daronne a fait ce qu'elle pouvait J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis Où tu veux, où tu veux, quand tu veux on l'fait Nouvelle victoire, nouvelle célébration, pour nous voir, ils vont à l'affectif Eh L'inspecteur connaît bien mon nom d'famille Eh, t'es à la traîne si tu crois nous avoir Pouvoir d'achat élevé, j'ai la kich' Ouais, ouais, tête de réseau et bientôt, tête d'affiche Ouais, ouais Entouré de gens mauvais et des gens biens Mauvais, j'fais même plus la queue dans les magasins Ça a bien failli nous tuer, bien failli, le ghetto a rempli les corbillards Aucun réseau ne fût infaillible, aucune étoile ne brille toute la nuit AK-47, bobo Bobo, baby mama s'inquiète Han Je surveille ma ligne, j'suis à la diète J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits Où tu veux, où tu veux, quand tu veux on l'fait À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis, on a fait du mal donc on est maudits Où tu veux, quand tu veux, quand tu veux, on l'fait</t>
         </is>
       </c>
     </row>
@@ -1644,14 +1644,10 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Maison Margiela</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>J'ai toutes mes raisons J'ai toutes mes raisons, j'ai pas perdu la tête, nan La conscience tranquille quand j'suis dedans Quand j'suis dedans Hein, hein, hein Veste en cuir comme les Rolling Stones Rockstar, trop caille-ra pour être une icône J'leur mets plus d'dix points au score, c'est pas du loisir, c'est une mise à mort Let's get it Commissariat, on fait les sous 3.5, Qui j'suis pour toi ? elle m'dit là-celle Rajoute du parmesan dans les pates Mmh, lle m'appelle Doctur, j'ai soigné ses plaies Ses bobos La mission, j'la connais, c'est trois fois l'Arcelor, j'suis tellement un haineux que maman m'reconnaît pas Cambelo vite quand papa n'était pas là, j'te montre pas mon cur, il est dans un sale état Vol à l'étalage, j'ai volé à l'étage Hey, j'étale ma pano', c'est beaucoup de détails Ice Avenir en béton, l'évasion sera fiscale, j'ai du nouveau textile qui provient d'Italie T'as vu ? T'as vu ? T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier Pah, pah Beaucoup de papel, appelle Beaucoup, beaucoup de plata, évite leurs appels Beaucoup La lumière du gamos a fait son effet Vroum, j'ai vue imprenable sur la Tower Eiffel Skyboard En dénivelé, j'fais mes séquences, la fréquence cardiaque n'a pas bougé d'un poil Nos cardios s'mesurent à la taille de la kich', tu contrôles R, je contrôle mes finances Sale con, tu me trouveras pas à la tess, j'fais du golf à Marnes-la-Vallée J'fais des ice 20-22 on resserre l'étau, c'est fissa-fissa, j'suis pas Mère Thérèsa Ah bon ? J'vais m'raser le crâne, pas d'ADN, aller-retour, port de Rotterdam J'ai trop d'amis en CD, j'suis vêtu de CD, quitter l'bendo en vendant des CD T'as pas de quoi payer la rançon, ta valeur ne vaut que dalle en euros Zéro Évitons les donneurs de leçon, plus jamais d'la vie j'mordrais à l'hameçon Jamais Maison de droite, pas de retraite On mange, si t'as les chocottes, mets-toi en retrait Dehors C'est fissa-fissa pour mes partenaires, trente-trois virgule trois, c'est ma part du gâteau Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons d'contrôler la totalité du réseau Han Appelle le notaire pour notifier Appelle, appelle le notaire pour notifier Appelle Beaucoup de papel entrant, c'est gratifiant Ouh Gardien de la paix, c'est pas un métier Un boulot Maison d'arrêt, c'est pas une maison Maison, maison d'arrêt, c'est pas une maison Maison Margiela aux pieds, j'ai mes raisons Han d'contrôler la totalité du réseau Pah Appelle le notaire pour notifier Pah, pah, pah, appelle le notaire pour notifier T'as vu ? Beaucoup de papel entrant, c'est gratifiant Gardien de la paix, c'est pas un métier C'est pas un boulot</t>
-        </is>
-      </c>
+          <t>Mauvaise Idée</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1661,14 +1657,10 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Maudit</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Où tu veux, quand tu veux, quand tu veux, on l'fait Almess, c'est incroyable La douleur du bitume, la douleur La douleur du bitume, la douleur Eh La douleur du bitume, la douleur La douleur, la résine, j'm'en rappelle de l'odeur J'm'en rappelle Le préau, les boloss, les euros Les boloss, le préau, les boloss, les euros Les euros La douleur de maman, j'ai banni J'ai banni, le parlu, les appels, les perquises La police J'ai failli leur donner de l'amour J'ai failli, ces bâtards ne méritent que méprise Sur l'devant de la scène comme Johnny Comme Koffi, on manquait de tout étant minot Étant gamin Les lumières qui scintillent sur Bériz Sur Paname, j'ai plus la boule au ventre devant les gyros J'ai plus la même routine désormais Désormais, on éduque nos gamins, nos palais On éduque Le daron a fait ce qu'il voulait, la daronne a fait ce qu'elle pouvait J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis Où tu veux, où tu veux, quand tu veux on l'fait Nouvelle victoire, nouvelle célébration, pour nous voir, ils vont à l'affectif Eh L'inspecteur connaît bien mon nom d'famille Eh, t'es à la traîne si tu crois nous avoir Pouvoir d'achat élevé, j'ai la kich' Ouais, ouais, tête de réseau et bientôt, tête d'affiche Ouais, ouais Entouré de gens mauvais et des gens biens Mauvais, j'fais même plus la queue dans les magasins Ça a bien failli nous tuer, bien failli, le ghetto a rempli les corbillards Aucun réseau ne fût infaillible, aucune étoile ne brille toute la nuit AK-47, bobo Bobo, baby mama s'inquiète Han Je surveille ma ligne, j'suis à la diète J'ai failli y passer, j'ai failli J'ai failli, j'l'ai écrit au stylo indélébile Une virée de plus ou d'moins De moins, j'ai péché devant les anges Ouais Un parcours qui mérite un salut Salut mais derrière mon dos, ils m'ont salie Ils m'ont salie À la base, on était bénis Ouais, bénis Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Où tu veux, où tu veux, quand tu veux on l'fait Quand tu veux Pourquoi le ciel ne répond plus à mes appels ? Pourquoi le ciel ? Ton cur me ment, j'te connais comme si j't'avais fait J'avoue À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits À la base, on est bénis, on a fait du mal donc on est maudits On est maudits Où tu veux, où tu veux, quand tu veux on l'fait À la base, on est bénis, on a fait du mal donc on est maudits À la base, on est bénis, on a fait du mal donc on est maudits Où tu veux, quand tu veux, quand tu veux, on l'fait</t>
-        </is>
-      </c>
+          <t>Mea Culpa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1678,10 +1670,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mauvaise Idée</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Mélodie glorieuse</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ah oui el Mundo fais pas comme eux sois pas comme eux la vie Apprends à rapper dans les temps, quatre saisons, quatre saisons, tas vu Eh en noir et blanc jai vu ma vie, en noir et blanc jai créé un fils En noir et blanc des films et récits et peut être quun beau jour on s'arrêtera la nuit Tout ce qui naît finit par mourir tout ce qui est sain finit par pourrir Un matin dhiver jai créé léclipse mes ambitions nuisent à mes ennemis Et quand le ciel gronde gros ranges ton parapluie ranges ton parapluie souvnt je discute avec Bill Qu Dieu bénisse les miens que Dieu bénisse mon avenir Quand je veux je les éteins quand je veux je reste en double file Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais Cest vrai quon sen remet à Dieu et au armes qui font du bruit Univers parallèle les opposés sattirent à ce que lon dit Que deviendront nos fils, jen sais rien mais sûrement pas comme eux Que deviendront nos fils, meilleurs queux cest sûr Je dois noyer ma peine noyer ma peine incinérer mes peurs incinérer mes peurs Je devrais vendre des grammes, enrichir les miens nest ce pas lessentiel Ma question est pourquoi pourquoi le ciel ne répond pas, la monnaie, le pouvoir, pourquoi le ciel ne réponds pas Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1691,10 +1687,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mea Culpa</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Miracle</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Miami Ouais, mon ami Ehj Négro, j'fais une guerre que si j'suis rentable Faut rentabiliser le gilet pare-balles Cette vie d'merde l'a-t-on mérité ? Non À qui la faute ? Sûrement pas aux rents-pa À qui la faute si mineur j'étais broliqué ? À qui la faute si j'préfère voler plutôt qu'étudier ? À qui la faute si jeune nègre n'a pas d'quoi manger ? J'ai pas d'réponse et dans les rues, on finira tous kalashés J'regarde mon s-fil, j'envie son innocence Fils dors, ne regarde pas ce monde de lâche Fils dors, vois surtout pas ton père en larmes Car la paix se trouve dans bain de sang Anarchiste comme Arsène Lupin Moi, aussi j'veux ma part du gain Cette année, j'veux en faire plus d'un Je vise pas la relégation mais la montée en Ligue 1 Fatigué d'réver, négro, j'suis HS, HS, HS J'regrette pas le 40K mais SD, HS, HS H24 dans le mal, les démons font du charme à mes anges H24 dans le block, ma folie prend mon cur en otage Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos, nan Quel virage quel virage J'veux pas de cette vie, j'veux une villa j'veux une villa Elvira C'est triste, on tire, pour des pesos pour des pesos Miracle miracle Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos Quel miracle quel miracle</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mélodie glorieuse</t>
+          <t>Moi d’avant</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ah oui el Mundo fais pas comme eux sois pas comme eux la vie Apprends à rapper dans les temps, quatre saisons, quatre saisons, tas vu Eh en noir et blanc jai vu ma vie, en noir et blanc jai créé un fils En noir et blanc des films et récits et peut être quun beau jour on s'arrêtera la nuit Tout ce qui naît finit par mourir tout ce qui est sain finit par pourrir Un matin dhiver jai créé léclipse mes ambitions nuisent à mes ennemis Et quand le ciel gronde gros ranges ton parapluie ranges ton parapluie souvnt je discute avec Bill Qu Dieu bénisse les miens que Dieu bénisse mon avenir Quand je veux je les éteins quand je veux je reste en double file Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais Cest vrai quon sen remet à Dieu et au armes qui font du bruit Univers parallèle les opposés sattirent à ce que lon dit Que deviendront nos fils, jen sais rien mais sûrement pas comme eux Que deviendront nos fils, meilleurs queux cest sûr Je dois noyer ma peine noyer ma peine incinérer mes peurs incinérer mes peurs Je devrais vendre des grammes, enrichir les miens nest ce pas lessentiel Ma question est pourquoi pourquoi le ciel ne répond pas, la monnaie, le pouvoir, pourquoi le ciel ne réponds pas Cest beau la rue des humains en paix jeunot ruiné sans trouver la fève Conscient de tout le mal quon a fait on sarrêtera peut être Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Je nous voyais déjà au devant de la scène malheureusement le Sheitan divise Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, rouler à fond Mélodie glorieuse mélodie glorieuse Jai fait le tour, tourner en rond, peter un plomb, peter un plomb ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et je me rappelle tout petit on voulait voir le monde et quitter le tieks ouais Ouh ouh ouh ouh ouh ouh ouh ouh Et le ciel gronde gronde gronde gronde gronde ouais</t>
+          <t>Au moi d'avant je dirai plein de choses Plein de choses Yo Au moi d'avant je dirai fais attention Is that Traplysse Hein Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses 1, 2, 1, 1, 1, 9, 9, 5 Je viens au mond grâce à dieu et grâc à M.O.M mom Moins de peine dans le regard de ceux qu'j'aime, 50m c'est le prix à payer, fuck fuck Terre battue comme à Roland Garros, ruelle très étroite, j'ai grandis comme à Caracas hum Faut pas titiller mon côté sombre nan Marché de Mokolo, j'ai failli canner avec Saliou hum Gros câlin au doudou, le vendredi le outfit c'était un boubou La lumière s'éteint, les bougies s'allumaient, sûr de moi, j'étais fan du Barca, j'étais fan de Eto'o Samuel Regarde bien au loin, si l'image est floue c'est que la chaleur est au maximum Sois pas comme toi, , je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses Ils ont menti, ils ont rien dit de bien vrai ohh Pour nous faire croire que la fin est belle heinn J'ai semé un peu de ma haine en chemin hey Un fleuve tranquille qui est détruit par des humains ohh J'ai pris les armes, j'ai fait le tour de l'Atlas j'ai fait le tour J'suis pas mauvais, je suis à leur image c'est vrai Ils chantent des comptines aux enfants qui meurent Ils chantent des comptines aux enfants qui meurent Trouves-tu les réponses à tes M.A.U.X Faut vérifier, ce qu'ils ont dit m'a l'air F.A.U.X ouh Ces fils de lâches n'ont rien de nous nous Sombres sentiments, j'fais primer l'histoire à la rime fort, shadow Regarde bien au loin regarde, si l'image est floue c'est que la chaleur est au maximum mhff Sois pas comme toi, ?, je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses1</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Miracle</t>
+          <t>Nanga Boko</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Miami Ouais, mon ami Ehj Négro, j'fais une guerre que si j'suis rentable Faut rentabiliser le gilet pare-balles Cette vie d'merde l'a-t-on mérité ? Non À qui la faute ? Sûrement pas aux rents-pa À qui la faute si mineur j'étais broliqué ? À qui la faute si j'préfère voler plutôt qu'étudier ? À qui la faute si jeune nègre n'a pas d'quoi manger ? J'ai pas d'réponse et dans les rues, on finira tous kalashés J'regarde mon s-fil, j'envie son innocence Fils dors, ne regarde pas ce monde de lâche Fils dors, vois surtout pas ton père en larmes Car la paix se trouve dans bain de sang Anarchiste comme Arsène Lupin Moi, aussi j'veux ma part du gain Cette année, j'veux en faire plus d'un Je vise pas la relégation mais la montée en Ligue 1 Fatigué d'réver, négro, j'suis HS, HS, HS J'regrette pas le 40K mais SD, HS, HS H24 dans le mal, les démons font du charme à mes anges H24 dans le block, ma folie prend mon cur en otage Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos, nan Quel virage quel virage J'veux pas de cette vie, j'veux une villa j'veux une villa Elvira C'est triste, on tire, pour des pesos pour des pesos Miracle miracle Cette vie, cette vie, cette vie la J'veux pas de cette vie, j'veux une villa j'veux une villa C'est triste, on tire, pour des pesos pour des pesos Quel miracle quel miracle</t>
+          <t>Enfant d'la calle J'ai perdu mes cahiers Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Le tir est précis J'arrondis les fin d'mois Adepte de gros bolides J'voulais faire comme Schumacher Ne dis rien à maman, faut protéger son p'tit cur Le vent, il tourne, en bas les 4 saisons, j'ai vu la mort plus d'une fois S'il fallait le refaire j'le referais T'es parti prendre toutes tes affaires T'as vu la ice t'as regretté Au soleil levant je chante la vie J'me remémore le temps passé Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école T'étais ou ? J'avais pas 1 mais 2-3 ennemis L'obscurité on s'y fait, j'ai les yeux dans l'vide La ce-for du daron on l'a Tu peux tirer, y'a les blindages La boule au ventre j'fais des AR dans l'tieks tout l'temps Dans mon viseur y'a 2-3 traitres, dans mon viseur J'suis comme Freezer car pour m'abattre ils sont plusieurs Je ravive pas la flamme mon reuf, je pisse dessus Et pour nous voir 6 pieds sous terre, faudra y aller Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1738,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Moi d’avant</t>
+          <t>Nou Camp</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Au moi d'avant je dirai plein de choses Plein de choses Yo Au moi d'avant je dirai fais attention Is that Traplysse Hein Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses 1, 2, 1, 1, 1, 9, 9, 5 Je viens au mond grâce à dieu et grâc à M.O.M mom Moins de peine dans le regard de ceux qu'j'aime, 50m c'est le prix à payer, fuck fuck Terre battue comme à Roland Garros, ruelle très étroite, j'ai grandis comme à Caracas hum Faut pas titiller mon côté sombre nan Marché de Mokolo, j'ai failli canner avec Saliou hum Gros câlin au doudou, le vendredi le outfit c'était un boubou La lumière s'éteint, les bougies s'allumaient, sûr de moi, j'étais fan du Barca, j'étais fan de Eto'o Samuel Regarde bien au loin, si l'image est floue c'est que la chaleur est au maximum Sois pas comme toi, , je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses Ils ont menti, ils ont rien dit de bien vrai ohh Pour nous faire croire que la fin est belle heinn J'ai semé un peu de ma haine en chemin hey Un fleuve tranquille qui est détruit par des humains ohh J'ai pris les armes, j'ai fait le tour de l'Atlas j'ai fait le tour J'suis pas mauvais, je suis à leur image c'est vrai Ils chantent des comptines aux enfants qui meurent Ils chantent des comptines aux enfants qui meurent Trouves-tu les réponses à tes M.A.U.X Faut vérifier, ce qu'ils ont dit m'a l'air F.A.U.X ouh Ces fils de lâches n'ont rien de nous nous Sombres sentiments, j'fais primer l'histoire à la rime fort, shadow Regarde bien au loin regarde, si l'image est floue c'est que la chaleur est au maximum mhff Sois pas comme toi, ?, je me fie à ma bonne étoile Méfie toi des pièges sur le chemin, la route sera bien longue Au moi d'avant je dirai plein de choses Au moi d'avant je dirai fais attention Demain c'est trop loin, arme-toi de patience, fais pas les choses pour plaire aux autres Il pleut des balles par ici, prévois un pare-balle car le monde est mauvais et méchant Par ici, au moi d'avant je dirai plein de choses1</t>
+          <t>Wesh Heavy Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Trop d'plaisirs Y a plus rien de marrant, j'suis solo dans la fusée Sur l'capot, c'est un hippodrome, pour payer, faut des lauriers, han La concurrence, c'est zéro, au lit, elle fait des folies, elle s'confie comme si j'suis l'curé, han Curé Le partenaire déferré, ma parole vaut de l'or, longtemps qu'j'suis dans mauvais virage Longtemps Trois quart, on aura qu'trois tiers du bâtiment, a fini dans le bâtiment, yeah Sntiments, ils nous auront plus par les sentimnts J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Ouh, ouh, j'ai mal, j'ai pas simulé, mes ennemis demandent la VAR Ouh, ouh, j'ai mal Et mon côté animal a pris le dessus sur moi, miroir d'illusions Ouh, ouh Où tu veux, on ira, j'ai des amis aux quatre coins, on s'en va à L.A On s'en va à L.A À Bériz, trop de pollution À L.A, pas bon pour la peau, bébé, on doit s'en aller Des res-frè ont cantiné, trop d'haine, on sait pas aimer, on est trix-ma On est matrixé Cur en miettes, effrité, ils ont fumé tout c'qui restait de ma naïveté Bébé, ils ont fumé Sentiments, ils nous auront plus par les sentiments J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Trop d'blessures qu'on t'raconte pas parce que t'es un fils de Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nanga Boko</t>
+          <t>Nouvelle Map</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Enfant d'la calle J'ai perdu mes cahiers Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Le tir est précis J'arrondis les fin d'mois Adepte de gros bolides J'voulais faire comme Schumacher Ne dis rien à maman, faut protéger son p'tit cur Le vent, il tourne, en bas les 4 saisons, j'ai vu la mort plus d'une fois S'il fallait le refaire j'le referais T'es parti prendre toutes tes affaires T'as vu la ice t'as regretté Au soleil levant je chante la vie J'me remémore le temps passé Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école T'étais ou ? J'avais pas 1 mais 2-3 ennemis L'obscurité on s'y fait, j'ai les yeux dans l'vide La ce-for du daron on l'a Tu peux tirer, y'a les blindages La boule au ventre j'fais des AR dans l'tieks tout l'temps Dans mon viseur y'a 2-3 traitres, dans mon viseur J'suis comme Freezer car pour m'abattre ils sont plusieurs Je ravive pas la flamme mon reuf, je pisse dessus Et pour nous voir 6 pieds sous terre, faudra y aller Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école Grandi salement, pas d'médicament Enfant d'la calle, j'ai perdu mes cahiers Le chemin d'l'école c'est loin, le chemin d'l'école c'est trop Le chemin d'l'école c'est loin, le chemin d'l'école</t>
+          <t>LaSource on beat Nouvelle map Yo, is that Traplysse ? Hey, perdu comme une balle, Hey, j'me suis retrouvé à faire le con Maman trouvait que je rentrais tard Tragique était ma story, t'as vu mon cur abimé, t'as rien fait T'as rien fait Nan, t'as vu mon cur abimé, t'as rien fait Hey, j'aurais voulu te donner tant de choses J'aurais voulu te donner Han, j'aurais aimé t'offrir une autre map C'est pas du cinéma, les choix ici sont restreints Les balles sont réelles, ils ont longé le plus gros, ils nous ont laissé leurs rests Han J'dois changer de décor, ell, elle trouve ça exotique Elle trouve ça marrant T'as changé de visage, c'est l'dernier virage de ma vie Dernière story T'as changé de map, tous les jours en vie, tous les jours on meurt Tous les jours, tous les jours, tous les jours, tous les jours Han, han Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place Han, y'a sûrement une place là-bas pour m'accueillir Oh Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place là-bas pour m'accueillir On veut plus la perdre, on veut gagner la finale On veut gagner la finale On aurait du naître tout près d'une île ouh, Tout près d'une île Un nouveau moteur, nouvelle virée Nouvelle virée Faut une nouvelle map, faut une nouvelle map aah, ah Une nouvelle map Comme les Rolling Stones comme les Rolling Comme les ouais Elle m'a mis sur un piédestal Elle m'a mis sur un pédestal C'est la haine qui prend le d'ssus C'est la haine qui prend le d'ssus Elle me dit Pourquoi t'es noir ? Pourquoi quand j' Ma voix, j'ai rien d'autre à offrir Nada C'est noir, c'est noir Oh oooh Pourquoi ils nous voient comme on était pas ? Ils nous voyaient comme on était pas Pourquoi ils nous toisaient ? Haan Un pare-balles, il faut un pare-balles Yeah Mon papa sera fier de moi Yeah Regarde-moi tout près des étoiles Yeah Enterre-moi tout près des étoiles Yeah Y'a sûrement une place là-bas pour m'accueillir Sûrement une place là-bas pour m'accueillir Han, y'a sûrement une place là-bas pour m'accueillir Un pare-balles, il faut un pare-balles Ouuh Mon papa sera fier de moi Naan Regarde-moi tout près des étoiles Ok Enterre-moi tout près des étoiles Aah ah Y'a sûrement une place là-bas pour m'accueillir Non, non Y'a sûrement une place là-bas pour m'accueillir Faut une nouvelle map</t>
         </is>
       </c>
     </row>
@@ -1772,12 +1772,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nou Camp</t>
+          <t>Nuage</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wesh Heavy Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Trop d'plaisirs Y a plus rien de marrant, j'suis solo dans la fusée Sur l'capot, c'est un hippodrome, pour payer, faut des lauriers, han La concurrence, c'est zéro, au lit, elle fait des folies, elle s'confie comme si j'suis l'curé, han Curé Le partenaire déferré, ma parole vaut de l'or, longtemps qu'j'suis dans mauvais virage Longtemps Trois quart, on aura qu'trois tiers du bâtiment, a fini dans le bâtiment, yeah Sntiments, ils nous auront plus par les sentimnts J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Ouh, ouh, j'ai mal, j'ai pas simulé, mes ennemis demandent la VAR Ouh, ouh, j'ai mal Et mon côté animal a pris le dessus sur moi, miroir d'illusions Ouh, ouh Où tu veux, on ira, j'ai des amis aux quatre coins, on s'en va à L.A On s'en va à L.A À Bériz, trop de pollution À L.A, pas bon pour la peau, bébé, on doit s'en aller Des res-frè ont cantiné, trop d'haine, on sait pas aimer, on est trix-ma On est matrixé Cur en miettes, effrité, ils ont fumé tout c'qui restait de ma naïveté Bébé, ils ont fumé Sentiments, ils nous auront plus par les sentiments J'voulais la villa Mauvais comportement, on atteindra jamais le Nirvana Jamais de la vie Et de l'autre côté du périphérique, han, c'est tellement noir qu'on doit tout planifier C'est tellement noir Du périphérique Du périphérique, c'est tellement noir qu'on doit tout planifier, han-han Trop d'blessures qu'on t'raconte pas parce que t'es un fils de, han-han Parce que t'es un fils de Y a pas d'issue, c'est la violence du dehors qui a pris l'dessus, han-han La violence de la calle Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Aussi vrai Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp Trop d'blessures qu'on t'raconte pas parce que t'es un fils de Tu dois changer de continent tout l'temps, on s'voyait finir star du ballon rond au Nou Camp Cur abîmé, j'ai les cinq sens, on s'voyait finir star du ballon rond au Nou Camp</t>
+          <t>On fait couler le sang, hey Bitume, AMG fait couler le sang vrouum Tout le temps on est au front, on verra peut être pas comment grandissent nos mioches jamais C'est pas un essai, si on le fait plus d'une fois c'est pas du hasard Zone 51 c'est pas un mythe, j'ai crashé la soucoupe dans le Nevada T'as l'air con, quand tu fais tout de bon cur t'as l'air con Tout le temps j'suis en weekend, tous les jours de la semaine on dirait que je fais le pont hey hey La rythmique est sal gros, j'aperçois la crête au large Ils ont voulu mangr sans nous On a ouvert des cuisines, désormais ils mangent chez nous ouh Sportback mais j'ai mal au fond OG On prend de l'âge, j'emmène la daronne en croisière la madre Sauvage, elle reveille mon instinct primaire ehhhr AMG Brabus, Sosa Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Hey Faut plus de chevaux fiscaux plus Plus de billets de cinq cents plus Pour mieux passer les portiques Tacchini et Tesla Tacchi Son petit cur est cassé bobo Je sais comment le soigner Frisons à la frontière hey En répandant le partage cash Itinéraire est tracé, visière est floutée let go Pas de commanditaire, j'suis mon propre shooter Ils ont menti aux gosses sur la valeur des choses Je dois marquer mon temps comme Federer Fati Funéraire marche on se remémora toutes nos promesses données dans le RER C Y'a fort longtemps qu'on a fédéré hein On lâche pas le steak comme les fédéraux jamais Comme Fidel Castro tu nous verra pas venir Relis bien toutes les mentions légales tout tout Igo C'est chaud dans la ville, il nous faut des parts dans différents domaines c'est chaud dans la ville J'vais ouvrir un commerce au nom de Moussa hein C'est plus tellement les même choses qui m'animent On s'est émancipés, j'le dis pas pour la rime J'ai un grand répertoire Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Tout au long de ma story J'ai perdu un peu de moi A l'intérieur du nuage Tout à l'air un peu flou Si je voulais voir, j'aurai vu Le parchemin pour m'y rendre Si j'connaissais l'épilogue Je n'aurais pas fait en mieux1</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nouvelle Map</t>
+          <t>Papillon</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LaSource on beat Nouvelle map Yo, is that Traplysse ? Hey, perdu comme une balle, Hey, j'me suis retrouvé à faire le con Maman trouvait que je rentrais tard Tragique était ma story, t'as vu mon cur abimé, t'as rien fait T'as rien fait Nan, t'as vu mon cur abimé, t'as rien fait Hey, j'aurais voulu te donner tant de choses J'aurais voulu te donner Han, j'aurais aimé t'offrir une autre map C'est pas du cinéma, les choix ici sont restreints Les balles sont réelles, ils ont longé le plus gros, ils nous ont laissé leurs rests Han J'dois changer de décor, ell, elle trouve ça exotique Elle trouve ça marrant T'as changé de visage, c'est l'dernier virage de ma vie Dernière story T'as changé de map, tous les jours en vie, tous les jours on meurt Tous les jours, tous les jours, tous les jours, tous les jours Han, han Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place Han, y'a sûrement une place là-bas pour m'accueillir Oh Un pare-balles, il faut un pare-balles Mon papa sera fier de moi Regarde-moi tout près des étoiles Enterre-moi tout près des étoiles Y'a sûrement une place là-bas pour m'accueillir Y'a sûrement une place là-bas pour m'accueillir On veut plus la perdre, on veut gagner la finale On veut gagner la finale On aurait du naître tout près d'une île ouh, Tout près d'une île Un nouveau moteur, nouvelle virée Nouvelle virée Faut une nouvelle map, faut une nouvelle map aah, ah Une nouvelle map Comme les Rolling Stones comme les Rolling Comme les ouais Elle m'a mis sur un piédestal Elle m'a mis sur un pédestal C'est la haine qui prend le d'ssus C'est la haine qui prend le d'ssus Elle me dit Pourquoi t'es noir ? Pourquoi quand j' Ma voix, j'ai rien d'autre à offrir Nada C'est noir, c'est noir Oh oooh Pourquoi ils nous voient comme on était pas ? Ils nous voyaient comme on était pas Pourquoi ils nous toisaient ? Haan Un pare-balles, il faut un pare-balles Yeah Mon papa sera fier de moi Yeah Regarde-moi tout près des étoiles Yeah Enterre-moi tout près des étoiles Yeah Y'a sûrement une place là-bas pour m'accueillir Sûrement une place là-bas pour m'accueillir Han, y'a sûrement une place là-bas pour m'accueillir Un pare-balles, il faut un pare-balles Ouuh Mon papa sera fier de moi Naan Regarde-moi tout près des étoiles Ok Enterre-moi tout près des étoiles Aah ah Y'a sûrement une place là-bas pour m'accueillir Non, non Y'a sûrement une place là-bas pour m'accueillir Faut une nouvelle map</t>
+          <t>Damn Ney, your keys are fire Nakah Nakah Hey Trop attendu la pénombre T'as vu Hey L'amour du risque a fait de nous des faux, j'compte pas m'arrêter d'chasser Jamais J'ai la vue sur un semblant de vie sur la côte, j'compte pas m'arrêter d'chanter Jamais C'est la loi du talion qui prônera d'abord si jamais y a désaccord Poh, poh, poh Revolver, pas de conflit d'intérêt, on trouve un accord, y a intérêt, hein Quatre sorties, minimum quatre sorties, tu rêves du million mais c'est si peu C'est pas beaucoup On s'voyait footeux, pas en D2, j'aperçois full up de traîtres sur le K2 Poh, poh, poh Agités, les p'tits font la une du JT, mineur, j'avais mon GTI Nion CDI, c'est la mort lente assurée, j'récup' une massa a Suresnes T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Hey, parabellum, j'ai la côte, je discute plus, je vise la glotte Hey, hey Infrarouge, j'ai toutes les visions, j'recompte la somme, j'ai un toc, fuck Bicrave à perte, c'est une perte de temps, j'suis avec dans un tank Hein J'suis bloqué tout près d'la ville du roi, j'ai chassé pour décompresser, hey Relis le contrat, fais pas le con Hey, instinct de survie, je sors le schlass Convivium, j'y suis avec des convives Mmh, j'm'y habitue bien au chant des mouettes J'me fie à mon instinct et au métal, elle refait pas l'monde, elle refait sa plastique Eh-eh-eh Revoie tes propriétés, j'gagne du temps, j'pense qu'à écrire, Haïti T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Ouverture papillon Ouverture Ma limite n'est pas le ciel N'est pas le ciel Je n'cherche pas ma Cendrillon Je n'cherche pas Juste money chaque fin du mois Ouais</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nuage</t>
+          <t>Pas des nôtres</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>On fait couler le sang, hey Bitume, AMG fait couler le sang vrouum Tout le temps on est au front, on verra peut être pas comment grandissent nos mioches jamais C'est pas un essai, si on le fait plus d'une fois c'est pas du hasard Zone 51 c'est pas un mythe, j'ai crashé la soucoupe dans le Nevada T'as l'air con, quand tu fais tout de bon cur t'as l'air con Tout le temps j'suis en weekend, tous les jours de la semaine on dirait que je fais le pont hey hey La rythmique est sal gros, j'aperçois la crête au large Ils ont voulu mangr sans nous On a ouvert des cuisines, désormais ils mangent chez nous ouh Sportback mais j'ai mal au fond OG On prend de l'âge, j'emmène la daronne en croisière la madre Sauvage, elle reveille mon instinct primaire ehhhr AMG Brabus, Sosa Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Hey Faut plus de chevaux fiscaux plus Plus de billets de cinq cents plus Pour mieux passer les portiques Tacchini et Tesla Tacchi Son petit cur est cassé bobo Je sais comment le soigner Frisons à la frontière hey En répandant le partage cash Itinéraire est tracé, visière est floutée let go Pas de commanditaire, j'suis mon propre shooter Ils ont menti aux gosses sur la valeur des choses Je dois marquer mon temps comme Federer Fati Funéraire marche on se remémora toutes nos promesses données dans le RER C Y'a fort longtemps qu'on a fédéré hein On lâche pas le steak comme les fédéraux jamais Comme Fidel Castro tu nous verra pas venir Relis bien toutes les mentions légales tout tout Igo C'est chaud dans la ville, il nous faut des parts dans différents domaines c'est chaud dans la ville J'vais ouvrir un commerce au nom de Moussa hein C'est plus tellement les même choses qui m'animent On s'est émancipés, j'le dis pas pour la rime J'ai un grand répertoire Tout au long de ma story tout au long de ma story hey J'ai perdu un peu de moi un peu de nous A l'intérieur du nuage à l'intérieur tout est gore Tout à l'air un peu flou noir noir noir Si je voulais voir, j'aurai vu si j'voulais voir j'aurai tout vu Le parchemin pour m'y rendre hein hey Si j'connaissais l'épilogue si j'connaissais Je n'aurais pas fait en mieux nan nan Tout au long de ma story J'ai perdu un peu de moi A l'intérieur du nuage Tout à l'air un peu flou Si je voulais voir, j'aurai vu Le parchemin pour m'y rendre Si j'connaissais l'épilogue Je n'aurais pas fait en mieux1</t>
+          <t>Le rap français, j'vais lui niquer Sa mère la pute jusqu'à ses ancêtres J'ai fais du biff, de toutes les couleurs Violet, vert bref j'en suis pas fier En réalité, la vie est une course Dès la naissance gros c'est l'top départ J'suis dans la rue, et c'est pour de vrai Après mon seize j'retourne à mes ffaire-sa Eh ferme ta gueule, les petits ont grandi Casque Araï direct ça défouraille En tête de réseau c'est la vida loca Normal c'bâtard ne crie pas akha Ma mère a souffert, tellement souffert Dix-sept piges à nettoyer leurs chiottes Elle s'est cassé le dos pour ces fils de porc Il m'faut la clé du succès sinon je casse les portes Gros j'fais des cauchemars eh j'fais des cauchemars J'en dors plus la nuit je leur souhaite le pire Une mort très lente ouais une mort très lente Décapiter leurs membres les envoyer à leurs fils Frérot j'ai trop la flemme pour un mea culpa Tout les jours de la semaine c'est un mardi gras Je répondrai d'mes actes au jugement dernier Et en attendant j'vous baise sur des mélodies grasses So! On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main Rendez-vous au trente six avenue de la Paix J'aurais AK47 comme seul traducteur Pourquoi t'as peur dis moi pourquoi t'as peur Ce ne sont que des balles voyons rien de méchant Rien de sincère si c'n'est l'amour d'ma mère Personne de sincère à part ya Rabi Rien de sincère si c'n'est l'amour d'mon fils Donc s'teuplait parle moi d'ton hypocrisie J'dois remplir la malette Trois points j'suis MVP Jeune nègre veut s'émanciper Veut voir l'monde jusqu'au Mississippi Les traquenards sont multiples frérot choisis ton camp Y'a ceux qui font la manche y'a ceux qui mettent les gants Y'a ceux qui feront tout pour être en maison de disques y'a ceux qui niquent des daronnes en indépendant Frérot j'veux la villa d'Sosa, caresser la copa On mérite même la hola, parcours mémorable La vie sans finesses à l'Etat français Me barrer en Air France, première classe business J'ai vu la mort plus rien n'm'effraie, j'suis en gardav' je nie les faits J'ai vu la mort plus rien n'm'effraie nan j'suis en gardav' je nie les faits On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Papillon</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Damn Ney, your keys are fire Nakah Nakah Hey Trop attendu la pénombre T'as vu Hey L'amour du risque a fait de nous des faux, j'compte pas m'arrêter d'chasser Jamais J'ai la vue sur un semblant de vie sur la côte, j'compte pas m'arrêter d'chanter Jamais C'est la loi du talion qui prônera d'abord si jamais y a désaccord Poh, poh, poh Revolver, pas de conflit d'intérêt, on trouve un accord, y a intérêt, hein Quatre sorties, minimum quatre sorties, tu rêves du million mais c'est si peu C'est pas beaucoup On s'voyait footeux, pas en D2, j'aperçois full up de traîtres sur le K2 Poh, poh, poh Agités, les p'tits font la une du JT, mineur, j'avais mon GTI Nion CDI, c'est la mort lente assurée, j'récup' une massa a Suresnes T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Hey, parabellum, j'ai la côte, je discute plus, je vise la glotte Hey, hey Infrarouge, j'ai toutes les visions, j'recompte la somme, j'ai un toc, fuck Bicrave à perte, c'est une perte de temps, j'suis avec dans un tank Hein J'suis bloqué tout près d'la ville du roi, j'ai chassé pour décompresser, hey Relis le contrat, fais pas le con Hey, instinct de survie, je sors le schlass Convivium, j'y suis avec des convives Mmh, j'm'y habitue bien au chant des mouettes J'me fie à mon instinct et au métal, elle refait pas l'monde, elle refait sa plastique Eh-eh-eh Revoie tes propriétés, j'gagne du temps, j'pense qu'à écrire, Haïti T'as vu Entrecôte à Maison d'l'Aubrac C'est vrai On discutera pourcentages Trois fois Comme des gitans, on s'laisse pas faire, tu capituleras sinon prise d'otages Petit, on rêvait d'la vie de Zizou, le plus dur, c'est de marquer dans les finales Cinq Et au final, il s'est barré sur un coup d'tête Ouverture papillon Ouverture, ma limite n'est pas le ciel Jamais Je n'cherche pas ma Cendrillon Nan, nan, juste money chaque fin du mois Le cash Pas la dégaine du salarié Pas la dégaine, mon boss se trouve dans l'miroir Mon boss J'suis un rat de la pire espèce, j'suis un rat de la pire espèce Coupures de cinquante, je fais les emplettes, y a rien de spécial Y a rien de spécial Elle me dit Sosa, de tous mes malheurs, t'es le plus précieux Le plus précieux La vie nous a menti, j'ai dû leur montrer mon côté bestial J'ai dû leur montrer Qui voudra nous tester ? Hun-hun, qui voudra nous tester ? Hun-hun Ouverture papillon Ouverture Ma limite n'est pas le ciel N'est pas le ciel Je n'cherche pas ma Cendrillon Je n'cherche pas Juste money chaque fin du mois Ouais</t>
+          <t>KJU Yo, is that Traplysse ? Ah J'suis à mon prime Prime, j'vais les ken Ken, arme offensive, shuriken Pour faire un feu d'bois, suffit d'un briquet, opinel en guise de cure Nan, faut des ices Ices, faut des diamants, des richesses, de l'or Ouh J'm'en fou si j'ai tort Han Le recul c'est de fermer sa bouche, la soumission c'est d'rester debout Han T'as du mal à joindre les deux bouts, j'l'ai serré si fort, j'lui ai cassé le cou Et le méchant est dans le miroir Ouh, j'suis sûr de moi Moi LOA, faut qu'j'en fasse plus de trois, le culte de la personnalité c'est moi J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil KJU T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mmh, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, hey Faut un permis A, prendre le large sur un Zodiac en mer Faut pas sourire aux intrus, ça ouvre des portes au manque de respect Jamais Je contrôle le flux Uh, tout c'qui rentre n'est pas sûr de sortir Fuck le muguet, fuck le 1er Mai, mes plantes préférées sont les orties Lucifer ce n'est pas mon ami Pas mon ami, pas mon ami Je connais mes srabs Je connais mes srabs J'ai grandi avec des mecs qui s'fâchent pour un malentendu qui peut s'régler à l'amiable Soviétique comme le TagAZ Aquila, Aurus Senat Le courage c'est de franchir la porte, casser le mythe qui a hanté tout l'village J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mm, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, ouais, ouais1</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pas des nôtres</t>
+          <t>Police Tue</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Le rap français, j'vais lui niquer Sa mère la pute jusqu'à ses ancêtres J'ai fais du biff, de toutes les couleurs Violet, vert bref j'en suis pas fier En réalité, la vie est une course Dès la naissance gros c'est l'top départ J'suis dans la rue, et c'est pour de vrai Après mon seize j'retourne à mes ffaire-sa Eh ferme ta gueule, les petits ont grandi Casque Araï direct ça défouraille En tête de réseau c'est la vida loca Normal c'bâtard ne crie pas akha Ma mère a souffert, tellement souffert Dix-sept piges à nettoyer leurs chiottes Elle s'est cassé le dos pour ces fils de porc Il m'faut la clé du succès sinon je casse les portes Gros j'fais des cauchemars eh j'fais des cauchemars J'en dors plus la nuit je leur souhaite le pire Une mort très lente ouais une mort très lente Décapiter leurs membres les envoyer à leurs fils Frérot j'ai trop la flemme pour un mea culpa Tout les jours de la semaine c'est un mardi gras Je répondrai d'mes actes au jugement dernier Et en attendant j'vous baise sur des mélodies grasses So! On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main Rendez-vous au trente six avenue de la Paix J'aurais AK47 comme seul traducteur Pourquoi t'as peur dis moi pourquoi t'as peur Ce ne sont que des balles voyons rien de méchant Rien de sincère si c'n'est l'amour d'ma mère Personne de sincère à part ya Rabi Rien de sincère si c'n'est l'amour d'mon fils Donc s'teuplait parle moi d'ton hypocrisie J'dois remplir la malette Trois points j'suis MVP Jeune nègre veut s'émanciper Veut voir l'monde jusqu'au Mississippi Les traquenards sont multiples frérot choisis ton camp Y'a ceux qui font la manche y'a ceux qui mettent les gants Y'a ceux qui feront tout pour être en maison de disques y'a ceux qui niquent des daronnes en indépendant Frérot j'veux la villa d'Sosa, caresser la copa On mérite même la hola, parcours mémorable La vie sans finesses à l'Etat français Me barrer en Air France, première classe business J'ai vu la mort plus rien n'm'effraie, j'suis en gardav' je nie les faits J'ai vu la mort plus rien n'm'effraie nan j'suis en gardav' je nie les faits On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin J'préfère crever tout seul dans mon coin On se connaît pas me tend pas la main Si t'es pas des nôtres me tend pas la main</t>
+          <t>Hey, hey J'veux des J'veux des parts à Total comme la fa J'veux des parts à Total, richissime comme les Rothschild, achat-revente, sur une boite, c'est la routine Plusieurs issues mais laquelle emprunter ? De mon vivant, j'prendrais jamais la tétine Jamais Glock aussi noir que l'intérieur du rocher, balle n'est pas perdue même après ricochet Grandi dans hall, taux de TH est élevé, ossement humain dans la cage, j'peux témoigner Après le gong, c'est bestial, Middleditch, j'sais pas qui pourrait m'affronter Qui ? Parfum de haine, j'ai la mental', le mental, faut compter de manière équitable De manière équitable On s'est toujours tue devant les faits, fuck le juge, monsieur l'greffier Fuck, fuck, fuck J'fais des allo' pour construire au bled, j'le fais pas pour remplir l'gosier Pour remplir l'gosier Mec du 9.2, nos anciens mettaient du rose, nous on plaisait au blondes On plaisait aux blondes J'allais au school pour mieux connaître mon histoire, pas la préhistoire Pas la préhistoire Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue Première sommation Un contrôle au faciès, go La police fait plus de victimes que l'cancer, j'ai la haine du bleu comme la plupart d'mes compères Je leur fout les chocottes, la frousse, un arbre qui tombe fait plus de bruit qu'une forêt qui pousse Y a plus d'amour, tout est cassé, j'prends deux fois, l'ami, je vous laisse jacasser Je vous laisse jacasser J'connais pas un mur infranchissable, j'connais pas un putain d'mec immortel J'connais mes skills et mes combos, ils font les aveugles comme au Congo Vont-ils m'enfermer pour mes propos si j'dis qu'l'état Français protège les pédo' ? Innocent comme la plupart au hebs Innocents, fuck Jacques et sa fille Fuck, fuck Fuck Jean-Marc Morandini et Cyril Hanouna, fuck tous leurs contrôles au faciès Fuck J'dirai pas à mon fils d'être keuf parce qu'il n'aime pas c'que représente sa chair Jamais Aime ton prochain comme il t'aime, ne tends pas ta main à celui qui te hais Jamais Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Ramène le briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue1</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Porte des étoiles</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>KJU Yo, is that Traplysse ? Ah J'suis à mon prime Prime, j'vais les ken Ken, arme offensive, shuriken Pour faire un feu d'bois, suffit d'un briquet, opinel en guise de cure Nan, faut des ices Ices, faut des diamants, des richesses, de l'or Ouh J'm'en fou si j'ai tort Han Le recul c'est de fermer sa bouche, la soumission c'est d'rester debout Han T'as du mal à joindre les deux bouts, j'l'ai serré si fort, j'lui ai cassé le cou Et le méchant est dans le miroir Ouh, j'suis sûr de moi Moi LOA, faut qu'j'en fasse plus de trois, le culte de la personnalité c'est moi J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil KJU T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mmh, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, hey Faut un permis A, prendre le large sur un Zodiac en mer Faut pas sourire aux intrus, ça ouvre des portes au manque de respect Jamais Je contrôle le flux Uh, tout c'qui rentre n'est pas sûr de sortir Fuck le muguet, fuck le 1er Mai, mes plantes préférées sont les orties Lucifer ce n'est pas mon ami Pas mon ami, pas mon ami Je connais mes srabs Je connais mes srabs J'ai grandi avec des mecs qui s'fâchent pour un malentendu qui peut s'régler à l'amiable Soviétique comme le TagAZ Aquila, Aurus Senat Le courage c'est de franchir la porte, casser le mythe qui a hanté tout l'village J'suis un brin autoritaire, faut qu'tu me caresses dans l'bon sens du poil T'as du bol, si j'te laisse de quoi manger dans la poêle La jungle sans lion, c'est un jardin J'suis dans les gradins avec les hauts placés d'ce monde Mulsuman et fier tout comme Kadyrov Kadyrov Pi, Pi, Pi, Pi Mm, j'vais pas leur laisser d'quoi manger à ses chiens Jamais Pi, Pi, Pi, Pi Ils mourront de faim et sûrement ignorants Woah Pi, Pi, Pi, Pi On va t'couper la tête si jamais tu résistes Fuck l'Armistice, ouais, ouais1</t>
+          <t>Porte des étoiles Yo Is that Traplysse Porte des étoiles Porte des étoiles Hann Au crépuscule j'suis dans la fusée dans la soucoupe Après tes promesses c'est le silence Plus de peur que de mal, on recommence on recommence Moins de nous sur les bancs d'accusés moins Un dernier virage pour la finale J'ai rangé le peu d'amour qui restait dans le tiroir mmh Parabellum j'fais la loi parabellum Ell veut savoir où j'habite J'ai cherché la port des étoiles porte des étoiles La porte des étoiles J'voulais, in your life J'voulais, in your life J'voulais une nouvelle vie une nouvelle De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah Pourquoi j'ai cherché la porte des étoiles en bas de chez moi Je me suis retrouvé dans quelques pépins en bas de chez moi En bas de chez moi, dans le bâtiment En bas de chez moi, ohh bâtiment La routine assombrie nos sentiments Bébé voudrait quitter le continent Entre nous y'aura pas de maladresses Y'a mieux à faire j'dois cracher ma peine seul J'ai pas tout fait en bien car nous deux on nous a trix-ma On s'perdra à vouloir gérer l'destin ohh Sombre festin, elle veut voir le lac d'Annecy Bénédiction, ils sont bons qu'a détester J'voulais une nouvelle vie vie De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh ouhh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah On est trop entêtés, eh C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto1</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Police Tue</t>
+          <t>Pouvoir des mots</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Hey, hey J'veux des J'veux des parts à Total comme la fa J'veux des parts à Total, richissime comme les Rothschild, achat-revente, sur une boite, c'est la routine Plusieurs issues mais laquelle emprunter ? De mon vivant, j'prendrais jamais la tétine Jamais Glock aussi noir que l'intérieur du rocher, balle n'est pas perdue même après ricochet Grandi dans hall, taux de TH est élevé, ossement humain dans la cage, j'peux témoigner Après le gong, c'est bestial, Middleditch, j'sais pas qui pourrait m'affronter Qui ? Parfum de haine, j'ai la mental', le mental, faut compter de manière équitable De manière équitable On s'est toujours tue devant les faits, fuck le juge, monsieur l'greffier Fuck, fuck, fuck J'fais des allo' pour construire au bled, j'le fais pas pour remplir l'gosier Pour remplir l'gosier Mec du 9.2, nos anciens mettaient du rose, nous on plaisait au blondes On plaisait aux blondes J'allais au school pour mieux connaître mon histoire, pas la préhistoire Pas la préhistoire Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue Première sommation Un contrôle au faciès, go La police fait plus de victimes que l'cancer, j'ai la haine du bleu comme la plupart d'mes compères Je leur fout les chocottes, la frousse, un arbre qui tombe fait plus de bruit qu'une forêt qui pousse Y a plus d'amour, tout est cassé, j'prends deux fois, l'ami, je vous laisse jacasser Je vous laisse jacasser J'connais pas un mur infranchissable, j'connais pas un putain d'mec immortel J'connais mes skills et mes combos, ils font les aveugles comme au Congo Vont-ils m'enfermer pour mes propos si j'dis qu'l'état Français protège les pédo' ? Innocent comme la plupart au hebs Innocents, fuck Jacques et sa fille Fuck, fuck Fuck Jean-Marc Morandini et Cyril Hanouna, fuck tous leurs contrôles au faciès Fuck J'dirai pas à mon fils d'être keuf parce qu'il n'aime pas c'que représente sa chair Jamais Aime ton prochain comme il t'aime, ne tends pas ta main à celui qui te hais Jamais Bavures policières, un jour ou l'autre ça va péter Un jour ou l'autre ça va péter Un chiffon qui dépasse d'la bouteille, prépare l'briquet Ramène le briquet Police tue Un jour au l'autre ça va péter, go Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Police tue Police tue, police tue Police tue Qui nous protège de la police ? La police tue La police tue Oh Oh La police tue La police tue1</t>
+          <t>Rires Switch Baby Rires La parole de l'homme vaut plus que des milliards, mais bon, on dirait que très peu le savent Le pouvoir des mots me fera voyager, avoir les deux pieds trempés dans le sable Le malheur des uns fait le bonheur des autres, tu meurs aussitôt, un autre te remplace J'ai perdu mon temps à demander ma route à des nomades qui faisaient du sur-place La nuit n'efface pas nos rancurs, au contraire, détrompe-toi J'suis dans l'mal quotidiennement, j'me sens bien en haut du toit On fait du mal à ceux que l'on aime, ceux qui nous aiment nous feront du bien Quoi qu'il arrive, nous serons bénis par nos daronnes peu importe le crime Loin des humains, j'me sens revivre, j'me sens revivre Si j'fumais, j'aurais pété une garette-ci Je vends la daube, je vends la weed à Miami Mais menotté au radiateur, j'suis amnésique, yeah Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Premier janvier, j'suis un miraculé, Ya Rabi m'offre une deuxième chance Ma mélancolie devient étouffante, cimetière vivant quand j'suis sur les Champs J'regarde le ciel, j'me pose la même question Pourquoi mon frérot, pourquoi pas moi ? J'respire un coup et je recommence, niquage des mères comme auparavant Euros, dollars, pesos, net, banks, zéro impôt sur ma came Prolétaire de père en fils, j'dois changer les murs, augmenter les grammes Méfie-toi de moi, négro, t'as raison, je change d'humeur à chaque saison J'suis confiné dans la maison, j'irai prendre l'air après la mousson Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère, gangs Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Pour faire l'amour, nous serons deux, mais pour la guerre, je serai seul J'irai sans toi, j'irai sans vous, j'irai sans eux, j'irai sans nous Perdu dans l'noir, j'ai le cur froid, du mal à voir des jours meilleurs J'commets des actes qui m'ressemblent pas, tous les jours, j'perds un peu d'ma foi, eh J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Porte des étoiles</t>
+          <t>Printemps</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Porte des étoiles Yo Is that Traplysse Porte des étoiles Porte des étoiles Hann Au crépuscule j'suis dans la fusée dans la soucoupe Après tes promesses c'est le silence Plus de peur que de mal, on recommence on recommence Moins de nous sur les bancs d'accusés moins Un dernier virage pour la finale J'ai rangé le peu d'amour qui restait dans le tiroir mmh Parabellum j'fais la loi parabellum Ell veut savoir où j'habite J'ai cherché la port des étoiles porte des étoiles La porte des étoiles J'voulais, in your life J'voulais, in your life J'voulais une nouvelle vie une nouvelle De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah Pourquoi j'ai cherché la porte des étoiles en bas de chez moi Je me suis retrouvé dans quelques pépins en bas de chez moi En bas de chez moi, dans le bâtiment En bas de chez moi, ohh bâtiment La routine assombrie nos sentiments Bébé voudrait quitter le continent Entre nous y'aura pas de maladresses Y'a mieux à faire j'dois cracher ma peine seul J'ai pas tout fait en bien car nous deux on nous a trix-ma On s'perdra à vouloir gérer l'destin ohh Sombre festin, elle veut voir le lac d'Annecy Bénédiction, ils sont bons qu'a détester J'voulais une nouvelle vie vie De nouveaux rêves, de nouveaux ice ice De nouveaux décors, avenir indécis J'voulais juste eh eh Aux portes des étoiles on s'y voyait on s'y voyait J'aime pas l'insigne, j'aime pas la couleur bleu bleu bleu Elle fait des rêves, je fais des cauchemars cauchemars Que Dieu me punisse si je ressemble à eux eux On est trop entêtés, eh ouhh C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah ah aah C'est la vie du ghetto, ah On est trop entêtés, eh C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto, ah C'est la vie du ghetto1</t>
+          <t>Grandi près du four Grandi près des fous, grandi près des Glock Près du four, près des fous Hey, hey Grandi près des fous Hey, grandi près du four Hey La bergerie est vide, autour, y a que des loups Ouh Souvent, j'suis indécis Le soir, des traces indélébiles Ice J'récupère quelques kilos d'frappe qu'on trouve dans les îles Vingt-quatre carats On connait, j'suis dans les parages Han Ça brille de tout-par, hier, tu riais Ice, aujourd'hui, j'fais rien On finira comme Tupac Amaru Eh en Subaru Ring On fait la bringue, mauvais virage Ouais comme Dupont-Moretti Hey La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, tout disparaît Tout disparaît Pendant l'averse Pendant l'averse, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais Ouais Quatre saisons, la putain d'ta mère la pute Oh J'attends l'arrivage de coke, on connaît bien les tarots des stup' On connaît, on connaît VVS, j'ai pas trop fait d'études VV, dernier au fond d'la classe, j'ai pris d'la valeur comme un grand cru Wow, AK-47, on défend nos intérêts, le prix de la pierre en chute, la mentalité en hausse J'ai pas trop le cur à faire la fête Nan, c'est réel, pas d'mise en scène C'est réel Et si j'vois, j'prends, j'récupère en PDF La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, la noche, tout disparaît Tout disparaît, comme des fantômes Pendant l'averse Pendant l'averse, pah, pah, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais 4.4.4.4 Et très souvent, j'ai mal au cur, on doit s'gaver, bien ballonner Trois fois Trois fois, hey Hey</t>
         </is>
       </c>
     </row>
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pouvoir des mots</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rires Switch Baby Rires La parole de l'homme vaut plus que des milliards, mais bon, on dirait que très peu le savent Le pouvoir des mots me fera voyager, avoir les deux pieds trempés dans le sable Le malheur des uns fait le bonheur des autres, tu meurs aussitôt, un autre te remplace J'ai perdu mon temps à demander ma route à des nomades qui faisaient du sur-place La nuit n'efface pas nos rancurs, au contraire, détrompe-toi J'suis dans l'mal quotidiennement, j'me sens bien en haut du toit On fait du mal à ceux que l'on aime, ceux qui nous aiment nous feront du bien Quoi qu'il arrive, nous serons bénis par nos daronnes peu importe le crime Loin des humains, j'me sens revivre, j'me sens revivre Si j'fumais, j'aurais pété une garette-ci Je vends la daube, je vends la weed à Miami Mais menotté au radiateur, j'suis amnésique, yeah Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Premier janvier, j'suis un miraculé, Ya Rabi m'offre une deuxième chance Ma mélancolie devient étouffante, cimetière vivant quand j'suis sur les Champs J'regarde le ciel, j'me pose la même question Pourquoi mon frérot, pourquoi pas moi ? J'respire un coup et je recommence, niquage des mères comme auparavant Euros, dollars, pesos, net, banks, zéro impôt sur ma came Prolétaire de père en fils, j'dois changer les murs, augmenter les grammes Méfie-toi de moi, négro, t'as raison, je change d'humeur à chaque saison J'suis confiné dans la maison, j'irai prendre l'air après la mousson Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère Siete ocho, j'suis dans l'périmètre, quelques amis font semblants de l'être Rafale de flow, t'es à découvert, j'emmerde ton courage, va niquer ta mère, gangs Voir le monde entier voir le monde entier, eh Grâce au pouvoir des mots grâce au pouvoir des mots, oh Parfois, j'oublie où j'suis né parfois, j'oublie où j'suis né, eh Mais jamais mon drapeau mais jamais mon drapeau, oh J'finirai médaillé, eh, je fume MC par milliers, eh J'suis pas d'humeur à fêter, eh, j'emmerde le premier janvier, eh Pour faire l'amour, nous serons deux, mais pour la guerre, je serai seul J'irai sans toi, j'irai sans vous, j'irai sans eux, j'irai sans nous Perdu dans l'noir, j'ai le cur froid, du mal à voir des jours meilleurs J'commets des actes qui m'ressemblent pas, tous les jours, j'perds un peu d'ma foi, eh J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie J'ai peur de qui, j'ai peur de quoi ? J'ai peur de Dieu, pas peur de toi J'emmerde l'État, j'emmerde la loi, la liberté, c'est l'anarchie Oh-oh-oh, oh-oh-oh Oh-oh-oh, oh-oh-oh</t>
+          <t>Puerto rico Ya ya ya, ya ya ya Ya ya ya, ya ya ya Yeah, on quittera lghetto pour un château, kalashé comme Pablo Garo sous la che-dou, l'impression qutout lmonde est chelou Laisser moi jsuis dans mon délire, jaccumule mes péchés Qui pourra mempêcher tfaire du sale et puis mredresser Laisse les parler sont des jaloux, qui ne savent que parler Parler parler parler sort le fer ils vont détaler Dans la rue y faut faire ldétaille, coka marijuana Un pied dans le djinn, un autre pied au Guatemala Cest la rue qui nous a fait Cest la rue qui nous défera Fait pas croire qutes mon fréro Nan, quand ya besoin tes plus la Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico Elle sdemande qui cest ce négro, attitude de sosa Jsuis pas dans le carré, jsuis dans ltieks avec mes lossa 1 gramme 2 grammes céllophaner, ma haine dans le sachet Toute les fleurs ont fanée range ton coeur je vais tle briser Baby pose pas trop de questions, le pourquoi du comment La juge veux menfermer pour des faits qui datent de 5 ans Jaccumule et jdeviens fou, jsuis perdu dans le trou Cette hiver sera chaud à 2 doigts de reprendre le four Jsuis dans ltieks avec Kayzer Jcompte le bénef de la veille Pour la concu un calvaire Aucun tieks na de barrières Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Printemps</t>
+          <t>Rançon</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Grandi près du four Grandi près des fous, grandi près des Glock Près du four, près des fous Hey, hey Grandi près des fous Hey, grandi près du four Hey La bergerie est vide, autour, y a que des loups Ouh Souvent, j'suis indécis Le soir, des traces indélébiles Ice J'récupère quelques kilos d'frappe qu'on trouve dans les îles Vingt-quatre carats On connait, j'suis dans les parages Han Ça brille de tout-par, hier, tu riais Ice, aujourd'hui, j'fais rien On finira comme Tupac Amaru Eh en Subaru Ring On fait la bringue, mauvais virage Ouais comme Dupont-Moretti Hey La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, tout disparaît Tout disparaît Pendant l'averse Pendant l'averse, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais Ouais Quatre saisons, la putain d'ta mère la pute Oh J'attends l'arrivage de coke, on connaît bien les tarots des stup' On connaît, on connaît VVS, j'ai pas trop fait d'études VV, dernier au fond d'la classe, j'ai pris d'la valeur comme un grand cru Wow, AK-47, on défend nos intérêts, le prix de la pierre en chute, la mentalité en hausse J'ai pas trop le cur à faire la fête Nan, c'est réel, pas d'mise en scène C'est réel Et si j'vois, j'prends, j'récupère en PDF La partition est folle, du sang dans l'creux d'la main Nos intérêts priment d'abord Trois fois, j'ferais monter les miens à bord VVS, on veut en prendre Intéressant Hey, on vient, on prend Hey comme des Colomb Hey Nouvelle réforme, après l'automne Pah Automne, hiver, été Automne, j'charbonne sans m'arrêter Toujours Perdu trop d'amitié Oh, j'me consolerai au printemps Pew Automne, hiver, été Oh, j'charbonne sans m'arrêter Oh J'ai perdu trop d'amitié, j'me consolerai au printemps Le jour, la nuit Le jour, la nuit, la noche, tout disparaît Tout disparaît, comme des fantômes Pendant l'averse Pendant l'averse, pah, pah, ça rer-ti en vrai Vrai, j'ai perdu mes rêves, ouais 4.4.4.4 Et très souvent, j'ai mal au cur, on doit s'gaver, bien ballonner Trois fois Trois fois, hey Hey</t>
+          <t>Ouais BLN J'fais tant de palabres, j'ai trouvé que dalle No, get out Gabbi J'ai trouvé walou J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi Le son du Beretta va causer des pertes, va causer des drames Ça m'dit C'est la merde, tout l'temps, c'est la même tout l'temps On chante nos vies dans nos chansons pour avoir des tales tout l'temps J'ai des res-frè au card-pla, des res-frè au trou Enfermés comme animal en cage, remise de peine, c'est pas pour nous J'vais chanter mes mélodies autotunées, j'ai l'air beaucoup moins triste En full Fendi, on fait la bringue, on cache nos peines On sèche nos larmes Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés Déguste des langoustes C'est pas marrant, la violence du terrain sans fin Hey Les requins ont graille, ils ont faim Hey C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta Le métal précieux nous protège des ennemis, j'suis dans la ville 3ami, que fais-tu dans la vie ? 3amo, j'suis avec des amis J'suis avec N.A.2S Ouais, Sadio, Kopp, c'est la routine Tout l'temps Champs-Élysées, on connaît les boutiques Tout droit, y a des litrons d'cess à écouler en de-s' J'suis dans la cabine, dans la kitchen J'suis dans la kitchen, là, j'fais des mélo' Eh-eh Sur le qui-vive car j'suis impliqué Car j'suis impliqué, elle dit qu'j'suis paro Il m'faut ma kichta tous les soirs Tout l'temps, un nouveau textile, nouvelle soie J'ai pas d'grands, pas fan des bavons qui grattent, investir au bled, j'veux mon pilotis Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés C'est pas marrant, la violence du terrain sans fin Bendo Les requins ont graille, ils ont faim Bendo C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Plus traîner en bas j'ai fait mon choix La rançon d'la vie j'connais le prix Au son du Beretta, tu détales</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1942,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Riquelme</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Puerto rico Ya ya ya, ya ya ya Ya ya ya, ya ya ya Yeah, on quittera lghetto pour un château, kalashé comme Pablo Garo sous la che-dou, l'impression qutout lmonde est chelou Laisser moi jsuis dans mon délire, jaccumule mes péchés Qui pourra mempêcher tfaire du sale et puis mredresser Laisse les parler sont des jaloux, qui ne savent que parler Parler parler parler sort le fer ils vont détaler Dans la rue y faut faire ldétaille, coka marijuana Un pied dans le djinn, un autre pied au Guatemala Cest la rue qui nous a fait Cest la rue qui nous défera Fait pas croire qutes mon fréro Nan, quand ya besoin tes plus la Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico Elle sdemande qui cest ce négro, attitude de sosa Jsuis pas dans le carré, jsuis dans ltieks avec mes lossa 1 gramme 2 grammes céllophaner, ma haine dans le sachet Toute les fleurs ont fanée range ton coeur je vais tle briser Baby pose pas trop de questions, le pourquoi du comment La juge veux menfermer pour des faits qui datent de 5 ans Jaccumule et jdeviens fou, jsuis perdu dans le trou Cette hiver sera chaud à 2 doigts de reprendre le four Jsuis dans ltieks avec Kayzer Jcompte le bénef de la veille Pour la concu un calvaire Aucun tieks na de barrières Jfait du sale que pour la mama Ne me demande pas si ça-va ? Jirais bien avec des millions Euros, dollars, pesos sous lmatelas On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo On quittera le ghetto pour un château Mais pour linstant jsuis dans le bendo Avec mes reufs on est Voir le sable fin de Puerto rico Avec mes reufs on est Voir le sable fin de Puerto rico</t>
+          <t>Rims à la prod', ma tête tu sais qu'c'est géré, hé hé Rims on the beat Hé Ouais T'es comme obèse Wouh, wouh, wouh, wouh Ouais, t'as vu Hé hé Gang Hé J'arrive allumer Hé Grenade j'dégoupille, ils s'embrouillent pour des broutilles mais sont pas là pour la cotis', c'est pas des sottises J'décale comme Gutti, j'mate encore le cul d'ta rouquine, des calibres tah Poutine Ne fais pas crari, j'sais qu't'as peur Quand y a grave des spectateurs on prend les choses à cur Et ça même si on a tort car chez nous y a pas d'acteurs, ouais ouais Une fois, pas dux, j'me répète, pas Jamais J'suis précis, malhonnête, planqué sur, l'toît Sur l'toît M'arrêtr, t'es trop bête, n'y pense, même pas N'y pense même pas Une instru Ouais, d'la boucherie Ouais obliga' Frérot fais-le vite-vite Sale, sale, sale Les-les teintés sur la vitre-vitre Ouais, de la zone aux quartiers chics Titulaire dans l'équipe type Toujours Ouais ouais frérot fais-le vite-vite Les-les teintés sur la vitre-vitre Vitre-vitre, de la zone aux quartiers chics Chics, chics Titulaire dans l'équipe type Ouais, ouais Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui J'suis dans le 4×4, au pays j'suis vu comme une star du foot Hé Tous les jours envoie du cash, le daron est fier il a fait les blindages, han J'ai pas d'appartenance, si t'as pas l' c'est l' qui t'auras, fort T'as vu J'suis meilleur sans Hé, askip j'aurais dû rester chez 92i Hé, hé, hé, han C'est marrant, c'est marrant quand j'y pense je rap comme si j'étais en chien Lourd Le chargeur est plus que plein, la météo annonce une averse de blll Piou, piou, piou, piou Derrière la vitre teintée Fort, très tôt l'argent facile nous a tenté Fort Les euros, les dollars, la vie qu'on veut Fort Les euros, les dollars, la vie qu'on veut J'ai payé le AirBnB Woh, j'la tue comme un acteur porno Woh J'ai full Givenchi dans l'dressing Woh, j'suis camer' comme Samuel Eto'o Woh Elle m'dit qu'elle m'aime, j'suis nonchalant comme Riquelme Han J'me casse à huit du mat' Ouais, sans le p'tit-dej' j'suis mal élevé Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rançon</t>
+          <t>Sale Affaire</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ouais BLN J'fais tant de palabres, j'ai trouvé que dalle No, get out Gabbi J'ai trouvé walou J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi J'fais l'tour de Paname, j'ai trouvé que dalle, j'ai trouvé tchi Le son du Beretta va causer des pertes, va causer des drames Ça m'dit C'est la merde, tout l'temps, c'est la même tout l'temps On chante nos vies dans nos chansons pour avoir des tales tout l'temps J'ai des res-frè au card-pla, des res-frè au trou Enfermés comme animal en cage, remise de peine, c'est pas pour nous J'vais chanter mes mélodies autotunées, j'ai l'air beaucoup moins triste En full Fendi, on fait la bringue, on cache nos peines On sèche nos larmes Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés Déguste des langoustes C'est pas marrant, la violence du terrain sans fin Hey Les requins ont graille, ils ont faim Hey C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta Le métal précieux nous protège des ennemis, j'suis dans la ville 3ami, que fais-tu dans la vie ? 3amo, j'suis avec des amis J'suis avec N.A.2S Ouais, Sadio, Kopp, c'est la routine Tout l'temps Champs-Élysées, on connaît les boutiques Tout droit, y a des litrons d'cess à écouler en de-s' J'suis dans la cabine, dans la kitchen J'suis dans la kitchen, là, j'fais des mélo' Eh-eh Sur le qui-vive car j'suis impliqué Car j'suis impliqué, elle dit qu'j'suis paro Il m'faut ma kichta tous les soirs Tout l'temps, un nouveau textile, nouvelle soie J'ai pas d'grands, pas fan des bavons qui grattent, investir au bled, j'veux mon pilotis Il est trop tard si tu veux savoir c'que j'cache Si tu veux savoir J'suis sur la côte, je déguste des crustacés C'est pas marrant, la violence du terrain sans fin Bendo Les requins ont graille, ils ont faim Bendo C'est donc ça la vie, c'est donc ça la vie Vida J'hésite entre la bicrave et la chanson Entre la bicrave et la musique Plus traîner en bas j'ai fait mon choix Plus traîner en bas, plus traîner en bas La rançon d'la vie j'connais le prix Le taro d'la vida, la vida Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Entre la violence, j'suis dehors Plus traîner en bas j'ai fait mon choix Plus traîner en bas, j'ai fait mon choix La rançon d'la vie j'connais le prix Le taro d'la vida, j'connais le taro Au son du Beretta, tu détales Au son du Beretta J'hésite entre la bicrave et la chanson Plus traîner en bas j'ai fait mon choix La rançon d'la vie j'connais le prix Au son du Beretta, tu détales</t>
+          <t>Violence violence Violence violence Ouais Je suis dans le sale frère Dans les sales affaires Parlons de crime Doucement au phone-tel Elle parle d'amour mais J'ai pas que ça à faire Je suis dans le mal mec Le mal mène Je suis dans le mal frère Jenchaîne les crimes fort Je suis dans les faits divers pour le walli Je suis dans la fiesta ford Comment te dire que, t'aura pas de fleur pute T'es pas des nôtres, t'as donné ton cul, évitons les disputes 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale Evidemment que j'les baise tous Evidemment qu'ils sont faibles frères J'ai le bras long comme Debouze Grosse folle je suis pas ton bestfriend Je suis dans le labo à Pierrefitte Leur faire du sale un récit Tout est réel rien n'est factise J'veux pas la lettre mais la factrice Derrière la vitre teintée Dehors y'a les méchants Range ta cons, contrôle d'identité Relou je trace ma route Je fonce je fonce sur les Champs-Elysée Flow givenchysé, scalp en poche pour les traumatiser Font-ils réalisé ? yeah yeah 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale</t>
         </is>
       </c>
     </row>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Riquelme</t>
+          <t>Sentiments</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rims à la prod', ma tête tu sais qu'c'est géré, hé hé Rims on the beat Hé Ouais T'es comme obèse Wouh, wouh, wouh, wouh Ouais, t'as vu Hé hé Gang Hé J'arrive allumer Hé Grenade j'dégoupille, ils s'embrouillent pour des broutilles mais sont pas là pour la cotis', c'est pas des sottises J'décale comme Gutti, j'mate encore le cul d'ta rouquine, des calibres tah Poutine Ne fais pas crari, j'sais qu't'as peur Quand y a grave des spectateurs on prend les choses à cur Et ça même si on a tort car chez nous y a pas d'acteurs, ouais ouais Une fois, pas dux, j'me répète, pas Jamais J'suis précis, malhonnête, planqué sur, l'toît Sur l'toît M'arrêtr, t'es trop bête, n'y pense, même pas N'y pense même pas Une instru Ouais, d'la boucherie Ouais obliga' Frérot fais-le vite-vite Sale, sale, sale Les-les teintés sur la vitre-vitre Ouais, de la zone aux quartiers chics Titulaire dans l'équipe type Toujours Ouais ouais frérot fais-le vite-vite Les-les teintés sur la vitre-vitre Vitre-vitre, de la zone aux quartiers chics Chics, chics Titulaire dans l'équipe type Ouais, ouais Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui J'suis dans le 4×4, au pays j'suis vu comme une star du foot Hé Tous les jours envoie du cash, le daron est fier il a fait les blindages, han J'ai pas d'appartenance, si t'as pas l' c'est l' qui t'auras, fort T'as vu J'suis meilleur sans Hé, askip j'aurais dû rester chez 92i Hé, hé, hé, han C'est marrant, c'est marrant quand j'y pense je rap comme si j'étais en chien Lourd Le chargeur est plus que plein, la météo annonce une averse de blll Piou, piou, piou, piou Derrière la vitre teintée Fort, très tôt l'argent facile nous a tenté Fort Les euros, les dollars, la vie qu'on veut Fort Les euros, les dollars, la vie qu'on veut J'ai payé le AirBnB Woh, j'la tue comme un acteur porno Woh J'ai full Givenchi dans l'dressing Woh, j'suis camer' comme Samuel Eto'o Woh Elle m'dit qu'elle m'aime, j'suis nonchalant comme Riquelme Han J'me casse à huit du mat' Ouais, sans le p'tit-dej' j'suis mal élevé Ils vont tous respecter 'ter, 'ter Suspect suspect Décale, j'suis venu là juste pour becter Becter, fêter Fêter, prendre d'la kich' Woh Dans la cusine je coupe Je coupe, je pèse Je pèse, j'emballe Han Oui, que ça n'fasse aucune doute Hey Au feu trois fois tu snif la poudre Hey, hey, ouais, hey, hey, hey T'as vu T'as vu, han, l'produit la pe-fra, l' qu'elle met Woh Ta pétasse me dit qu'elle m'aime Han J'ai claqué ton salaire en libellé Han Et plus jamais d'ma vie je roule en loc' Jamais On s'réveille à six-o-clock Han J'enfile la capuche, pas d'salopes, Hé, oui</t>
+          <t>Eh Freddy K Très peu de sentiments, la couleur du ciel nous ment Sans même le vouloir, j'y vais, y a que la mort qui est réelle Complexe d'identité, sont pas nous, j'le vois Ton cur me ment, j'le sais, ta douleur résonne, j'l'entends Y a pas d'à-peu-près, pas d'demi-mesure J'y crois dur comme fer, métal est précieux Agite le drapeau, jeune prince était crapaud J'suis dans la surface, j'contrôle le ballon Le produit est néfaste, noir est le contraste wow Parle et on t'terrasse, eh J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey On t'pull up si c'est pour l'cash, rajoute le S après le VV On t'pull up si c'est pour l'hasch', j'suis dans la cuisine et j'fais de la musique Jamais d'la vie on donne un reuf pour sortir plus vite de GÀV jamais, jamais Cheveux au vent, j'suis avec ma lady dans un gros bolide Y a qu'dans leurs clips qu'ces bouffons charclent, savent même pas où s'trouvent les points vitaux hey Trop souvent, j'les domine, pas de temps faible, la presta' est niquel hey Il paraît qu'la vie est moche, on l'embellit du mieux qu'on peut AMG, vroum, roomservice, j'suis vers la Grèce, j'parle même pas grec J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sale Affaire</t>
+          <t>Shawty</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Violence violence Violence violence Ouais Je suis dans le sale frère Dans les sales affaires Parlons de crime Doucement au phone-tel Elle parle d'amour mais J'ai pas que ça à faire Je suis dans le mal mec Le mal mène Je suis dans le mal frère Jenchaîne les crimes fort Je suis dans les faits divers pour le walli Je suis dans la fiesta ford Comment te dire que, t'aura pas de fleur pute T'es pas des nôtres, t'as donné ton cul, évitons les disputes 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale Evidemment que j'les baise tous Evidemment qu'ils sont faibles frères J'ai le bras long comme Debouze Grosse folle je suis pas ton bestfriend Je suis dans le labo à Pierrefitte Leur faire du sale un récit Tout est réel rien n'est factise J'veux pas la lettre mais la factrice Derrière la vitre teintée Dehors y'a les méchants Range ta cons, contrôle d'identité Relou je trace ma route Je fonce je fonce sur les Champs-Elysée Flow givenchysé, scalp en poche pour les traumatiser Font-ils réalisé ? yeah yeah 200 de l'heure je suis dans le batiment J'ai vu la mort en face frôler sommes alléchantes J'souris pas au keuf négro je leur fait des oigt Je compte mon biff, mes lovés Même dans le crime je dois innover Force à ceux qu'ils me voyaient six pieds Sous terre ne verront que mes souliers Je suis là que pour faire du sale frère Elle me parle d'amour j'ai pas que ça à faire Je traine mon nez dans les sales affaires Tout les jours je suis dans le sale</t>
+          <t>J'suis tombé dans le piège de l'am... J'suis tombé dans le piège de l'amour Sorry Eh J'suis tombé dans le piège de l'amour Moi qui croyais que c'était pas vrai pas vrai Moi qui croyais que ça arrive aux autres C'est mon destin c'était écrit écrit Dans les vestiges il reste des larmes C'est un freestyle c'est un cauchemar cauchemar J'aurai pas dû baisser la garde Côté bestial repart en chasse en chasse Cur abimé sur une péninsule C'est pas fatal j'fais d'l'argent argent Et les dictons sont souvent vrais Tu m croirais pas si j'exposais les faits C'est la vi, ma mère t'as pas vu merci A vrai dire j'croyais pas la tienne merci Mes amis, mes habits sont chers Tu verras jamais l'or jalouser le plaqué On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sû Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors C'est le dehors qui nous a eu en vrai c'est le dehors On respire grâce au peu de souffle, qui reste J'me refais le film, au casting j'en prends une autre J'ai pas prévu de revoir nos photos Dans les flammes reste-t-il un peu de ton visage ? Mauvais présage Le vent souffle les démons fredonnent Si j'habitais, près de toi j'aurai fait pareil J'suis rancunier, comme mes frérots comme mon daddy T'aurais voulu, recoller tous les pots cassés C'est plus pareil, j'ai du love que pour ma famille Les piranhas c'est nous désormais A fleur de peau tu look ma story J'peux te spoiler la fin de ta vie Si j'te voulais j't'aurai pas perdu On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sûr Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors</t>
         </is>
       </c>
     </row>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sentiments</t>
+          <t>Shay</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eh Freddy K Très peu de sentiments, la couleur du ciel nous ment Sans même le vouloir, j'y vais, y a que la mort qui est réelle Complexe d'identité, sont pas nous, j'le vois Ton cur me ment, j'le sais, ta douleur résonne, j'l'entends Y a pas d'à-peu-près, pas d'demi-mesure J'y crois dur comme fer, métal est précieux Agite le drapeau, jeune prince était crapaud J'suis dans la surface, j'contrôle le ballon Le produit est néfaste, noir est le contraste wow Parle et on t'terrasse, eh J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey On t'pull up si c'est pour l'cash, rajoute le S après le VV On t'pull up si c'est pour l'hasch', j'suis dans la cuisine et j'fais de la musique Jamais d'la vie on donne un reuf pour sortir plus vite de GÀV jamais, jamais Cheveux au vent, j'suis avec ma lady dans un gros bolide Y a qu'dans leurs clips qu'ces bouffons charclent, savent même pas où s'trouvent les points vitaux hey Trop souvent, j'les domine, pas de temps faible, la presta' est niquel hey Il paraît qu'la vie est moche, on l'embellit du mieux qu'on peut AMG, vroum, roomservice, j'suis vers la Grèce, j'parle même pas grec J'ai dû terrasser mes peurs pour affronter le monde C'est donc ça la vida au fond, c'est la vida Maman me dit Fiston, c'est rien, prends pas les choses à cur Au fond, c'est la vida au fond, c'est la vida Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, baby, on t'pull up si c'est pour l'cash on t'pull up, on t'pull up, on t'pull up Baby, baby, vingt-quatre carats la A.P vingt-quatre carats la A.P, ice, ice, ice Baby, ouais, ma baby, on t'pull up si c'est pour l'cash hey, hey</t>
+          <t>Au fond du cur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Hein J'lai écris au stylo indélébile pour pas oublier On a grandi plus vite que c'que le temps aurait souhaité Au dessus d'la falaise, j'contemple les montagnes Les rivières qui suivent leur cours me ramènent à l'essentiel Trop tôt pour mourir, trop tard pour recommencer J'dois faire un pas vers mon avenir On est venu en paix, on repart torturés tou-tou Ma thérapie c'est de rendre heureux ceux que j'aime J't'offrirai des rosiers pour me faire pardonner De quoi ? J'sais pas mais au fond j'me sens coupable Intérieur en cuir, mais j'suis toujours pauvre broke J'voulais te voir une dernière fois C'est pas une victoire si je brille dans le stade vide c'est pas une victoire C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo que j'ai mal Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? J'dois signer un traiter de paix avec moi même avec moi-même Je t'aimais comme pas possible, faut qu'j'm'en remette Sombre parcours, nos émotions sont décuplées J'te revois dans mes rêves, je t'entends murmurer j'te vois La vie qui suit son cours, les feuilles qui tombent en automne Impossible que l'ont parte sans finir la mission J'dois bâtir la maison, me protéger d'l'orage Tout c'qui se cache dans l'regard d'une femme Et ma douleur et mon meilleur allié Sur une feuille blanche on reproduit le même schéma qu'avant Un peu de joie, une démarche chaloupée Égayent notre quotidien pas rose, pas très romancé C'est pas une victoire si je brille dans le stade vide C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ?</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Shawty</t>
+          <t>Soldats certifiés</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>J'suis tombé dans le piège de l'am... J'suis tombé dans le piège de l'amour Sorry Eh J'suis tombé dans le piège de l'amour Moi qui croyais que c'était pas vrai pas vrai Moi qui croyais que ça arrive aux autres C'est mon destin c'était écrit écrit Dans les vestiges il reste des larmes C'est un freestyle c'est un cauchemar cauchemar J'aurai pas dû baisser la garde Côté bestial repart en chasse en chasse Cur abimé sur une péninsule C'est pas fatal j'fais d'l'argent argent Et les dictons sont souvent vrais Tu m croirais pas si j'exposais les faits C'est la vi, ma mère t'as pas vu merci A vrai dire j'croyais pas la tienne merci Mes amis, mes habits sont chers Tu verras jamais l'or jalouser le plaqué On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sû Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors C'est le dehors qui nous a eu en vrai c'est le dehors On respire grâce au peu de souffle, qui reste J'me refais le film, au casting j'en prends une autre J'ai pas prévu de revoir nos photos Dans les flammes reste-t-il un peu de ton visage ? Mauvais présage Le vent souffle les démons fredonnent Si j'habitais, près de toi j'aurai fait pareil J'suis rancunier, comme mes frérots comme mon daddy T'aurais voulu, recoller tous les pots cassés C'est plus pareil, j'ai du love que pour ma famille Les piranhas c'est nous désormais A fleur de peau tu look ma story J'peux te spoiler la fin de ta vie Si j'te voulais j't'aurai pas perdu On l'a fait du mieux qu'on pouvait Moi j'suis plus rapide que le karma sûr Si j'te voulais j't'aurai pas perdu sûr On est ni bon ni mauvais, on est juste on est juste Les regrets appartiennent à qui adore, sorry sorry Je sais que tu la vois, ma story story Le dehors m'attriste, han Ma boussole c'est ma Rolly, han Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors Shawty, Shawty On n'se reverra pas Je n'pourrai plus te regarder plus jamais, nan Le temps passe, on va guérir Les lumières s'éteignent, c'est le dehors qui nous attriste c'est le dehors, c'est le dehors</t>
+          <t>En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler La concurrence sur les quais Négro j'ai un train d'avance J'dors dur comme si j'avais Des coups d'fouets de l'enfer dans ma lancée 9Mili dans le tiek's Broliqué en cas d'attaques Armes de l'est si tu perds le nord Yougo parlons cash ! Papa m'a dit, quand je suis mourant Men bat les couilles d'la mort tant qu'maman dors bien Tacle a la gorge, tu pars en courant Yougo, la mort t'attrape en dormant Même en courant Dale-pé tu pleurs, foire ton plan, représailles Négro fallait pas nous tester Si tu meurs qui sera la pour assurer ta mère ? Cest la question qu'on peut t'poser Poser, tes cojones sur la ble-ta C'est c'que tu ferais si y'a haja, hagra Paris, le A, ramène du liquide et ta mère va t'shooter comme Pogba ! Dans la tess' y'a du Kilos Dans nos poches y'a du liquide Dans l'équipe que des Négros Chargé comme le gros boule a Nicky Double S pour les frères Six Les gangsters ne parlent pas J'arrive droit d'une autre planète De Paris, au pare-balles Ients-cli vi-ser, ients-cli qui revient Parce qu'il y à d'la ppe-fra Ya draaahh, ya draaahh S.D.H.S En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler Soldats certifiés ! Soldats certifiés ! Je saurais sur qui compter x4 On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma Marche qu'avec des marabouts Tête mé-cra comme Abou Les personnes qui veulent s'mesurer à nous Aller, ils sont morts dans la série Bouse J'baise le game avec mes Youv' Trop de tapettes qui puent d'la shnoun S.D.H floqué sur les gros pecs Tu verras ça sur Abou Jaloux, j'encule ton arrière-grand-mère Demande au frelon Elh-Kamer Trop de rappeurs qui puent la de-mer Leurs flows tout droit sorti d'une poubelle Wallay jveux péter le million Mais pour l'instant rien que ça charbonne Gang-bang dans les chattes de vos re-soeu Garde la Che-pè, le frôle en 2.2 Phrase en sénégalais Billay le Rap game est a nous Charognard à la mort, avec le pack S Cojones certifié S.D.H.S Que des bonhommes dans mon tier-quar Viens surtout pas tester mon clan Ya drah, ya drah Y'a pas d'petits, y'a pas d'grands 1</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2044,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Shay</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Au fond du cur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Hein J'lai écris au stylo indélébile pour pas oublier On a grandi plus vite que c'que le temps aurait souhaité Au dessus d'la falaise, j'contemple les montagnes Les rivières qui suivent leur cours me ramènent à l'essentiel Trop tôt pour mourir, trop tard pour recommencer J'dois faire un pas vers mon avenir On est venu en paix, on repart torturés tou-tou Ma thérapie c'est de rendre heureux ceux que j'aime J't'offrirai des rosiers pour me faire pardonner De quoi ? J'sais pas mais au fond j'me sens coupable Intérieur en cuir, mais j'suis toujours pauvre broke J'voulais te voir une dernière fois C'est pas une victoire si je brille dans le stade vide c'est pas une victoire C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo que j'ai mal Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? J'dois signer un traiter de paix avec moi même avec moi-même Je t'aimais comme pas possible, faut qu'j'm'en remette Sombre parcours, nos émotions sont décuplées J'te revois dans mes rêves, je t'entends murmurer j'te vois La vie qui suit son cours, les feuilles qui tombent en automne Impossible que l'ont parte sans finir la mission J'dois bâtir la maison, me protéger d'l'orage Tout c'qui se cache dans l'regard d'une femme Et ma douleur et mon meilleur allié Sur une feuille blanche on reproduit le même schéma qu'avant Un peu de joie, une démarche chaloupée Égayent notre quotidien pas rose, pas très romancé C'est pas une victoire si je brille dans le stade vide C'est pas une victoire si tu m'vois pas d'là-haut Les absents ont toujours torts à c'que l'on dit M'entends-tu dans mes prières, me vois-tu de là-haut ? Shay, Shay, verras-tu son étoile si elle brille ? Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ? Au fond du coeur tu sais que j'ai bobo Mais apparemment les hommes ne pleurent pas Shay, Shay, verras-tu son étoile si elle brille ?</t>
+          <t>La vision du monde La vision du monde Hey Hey Go, go Go, go Ils m'ont jeté aux lions, j'suis devenu un fauve Ils savaient pas, miskine J'attendrai pas qu'tu m'baises pour savoir qu't'es un faux Jamais d'la vie Démarrage, Tesla, vitesse électrique Elon Musk, démarrage, Tesla, vitesse électrique Elon Musk J'démarre la caisse, la plus bonne elle monte Fort, j'vais changer ta vision du monde Fort On a grandi tout près des cafards, j'connais la valeur du tieb et caviar C'est vrai, c'est vrai On casse, on démonte, on répar, casse ton p'tit cur, je répare pas J'attnds pas le go pour le départ, j'suis dans les hauts gradins avec les hauts gradés Ouh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Dis-moi Je sais c'que veulent les plus p'tits, c'est fumer la daronne du gérant Go, go, go Et depuis la primaire, on bricole Pah, absent à toutes les heures de colle C'est vrai C'est pas demain la veille qu'tu nous verras quémander, la tata qu'j'préfère, c'est Nicole Merci Nicole Et toi, tu veux pas nous donner la balle, t'as perdu ta place, on sait faire les jongles Tu kleh, l'tour du monde, j'le fais comme R9 Nazario On commet des crimes tous les jours, si j'ai plus un, négro, j'irais voler QCM, j'remplis la case, le dossier Pah, pah, pah, pah, QCM, j'remplis la case Ma bite, mon couteau, j'fais le job Bah ouais, parti de rien, on prendra tout Bah ouais Belek au crochet et au jab Beh, ils m'ont jeté aux lions, j'deviens un fauve Erh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Jamais d'la vie Pah, pah, pah, pah On enchaîne les délits, on enchaîne Ouais, t'es piqué par une pute que je baise Ouais On va t'niquer jusqu'à l'agonie Nan, nouvelles pes-sa, nouvelles panoplies Oh Ici, on n'aime tellement pas la police qu'on préfère crever d'la vendetta Ouais Nouveaux jouets, j'suis comme un gamin, j'vais dégainer sur toi pour voir s'il marche Go, go, go, go Tellement mauvais qu'on est vrais J'avoue, j'ai grandi entouré de fauves Ice La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tellement mauvais qu'on est vrais, j'ai grandi entouré de fauves La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tesla, Tesla</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Soldats certifiés</t>
+          <t>Titulaire</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler La concurrence sur les quais Négro j'ai un train d'avance J'dors dur comme si j'avais Des coups d'fouets de l'enfer dans ma lancée 9Mili dans le tiek's Broliqué en cas d'attaques Armes de l'est si tu perds le nord Yougo parlons cash ! Papa m'a dit, quand je suis mourant Men bat les couilles d'la mort tant qu'maman dors bien Tacle a la gorge, tu pars en courant Yougo, la mort t'attrape en dormant Même en courant Dale-pé tu pleurs, foire ton plan, représailles Négro fallait pas nous tester Si tu meurs qui sera la pour assurer ta mère ? Cest la question qu'on peut t'poser Poser, tes cojones sur la ble-ta C'est c'que tu ferais si y'a haja, hagra Paris, le A, ramène du liquide et ta mère va t'shooter comme Pogba ! Dans la tess' y'a du Kilos Dans nos poches y'a du liquide Dans l'équipe que des Négros Chargé comme le gros boule a Nicky Double S pour les frères Six Les gangsters ne parlent pas J'arrive droit d'une autre planète De Paris, au pare-balles Ients-cli vi-ser, ients-cli qui revient Parce qu'il y à d'la ppe-fra Ya draaahh, ya draaahh S.D.H.S En cas d'galères je saurais sur qui compter La preuve en est, jusqu'ici j'ai fait qu'monter Un cur de pierre, normal qu'ils veulent me couler Les mêmes qui m'serrent la main, sont ceux qui veulent me couler Soldats certifiés ! Soldats certifiés ! Je saurais sur qui compter x4 On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma On se casse de la On se casse de la Les bâtards qui parlent beaucoup Ils sont tous dans le coma Marche qu'avec des marabouts Tête mé-cra comme Abou Les personnes qui veulent s'mesurer à nous Aller, ils sont morts dans la série Bouse J'baise le game avec mes Youv' Trop de tapettes qui puent d'la shnoun S.D.H floqué sur les gros pecs Tu verras ça sur Abou Jaloux, j'encule ton arrière-grand-mère Demande au frelon Elh-Kamer Trop de rappeurs qui puent la de-mer Leurs flows tout droit sorti d'une poubelle Wallay jveux péter le million Mais pour l'instant rien que ça charbonne Gang-bang dans les chattes de vos re-soeu Garde la Che-pè, le frôle en 2.2 Phrase en sénégalais Billay le Rap game est a nous Charognard à la mort, avec le pack S Cojones certifié S.D.H.S Que des bonhommes dans mon tier-quar Viens surtout pas tester mon clan Ya drah, ya drah Y'a pas d'petits, y'a pas d'grands 1</t>
+          <t>Beretta J'ai le cur dans sale état Yo, hey Traplysse Sale état Yeah Y a une seule place malgré c'que je fais Bah ouais, malgré c'que je vis Je sais qu'toi, t'es la seule Mmh qui m'aimera pour c'que j'suis C'est vrai J'vis d'un soi éternel C'est vrai, les autres, j'les cala as-p Ces tchoins Elles s'montrent sur Onlyfans, elles font les tains-p' sur Onlyfans Ouais Et tous les jours, je pense à nous, on s'imaginera sur la côte D'Azur J'appell pas trop la daronne, j'ai pris les mauvais côtés du daron Daddy Bien-bintôt, j'achète tous les hectares de ton cur Tout J'envoie tout, rien ne leak, t'es le plus précieux de mes ice Ice Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de J'ai même pas pop, j'fais plus d'argent qu'une star d'la pop Qu'une star d'la pop Antigone, elle veut qu'j'en achète deux, elle le vaut bien Ses cent G Derrière la vitre, y a plusieurs témoins, plusieurs boloss Plusieurs ients-cli Derrière les rideaux, on ne montre pas aux plus naïfs On ne montre pas Faut qu'je passe le cap, que j'aille voir celle qui la mise au monde Sa maman Des-des curs, j'en ai sept comme Méliodas, Seven Deadly Sins Hey J'meurs pas dans mon film Jamais, j'écris le scénar' Tarantino Une putain d'life, j'suis avec des loups au fond d'la prairie, eh-eh Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de Oh-oh-oh-oh Oh-oh-oh-oh</t>
         </is>
       </c>
     </row>
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Un doute</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>La vision du monde La vision du monde Hey Hey Go, go Go, go Ils m'ont jeté aux lions, j'suis devenu un fauve Ils savaient pas, miskine J'attendrai pas qu'tu m'baises pour savoir qu't'es un faux Jamais d'la vie Démarrage, Tesla, vitesse électrique Elon Musk, démarrage, Tesla, vitesse électrique Elon Musk J'démarre la caisse, la plus bonne elle monte Fort, j'vais changer ta vision du monde Fort On a grandi tout près des cafards, j'connais la valeur du tieb et caviar C'est vrai, c'est vrai On casse, on démonte, on répar, casse ton p'tit cur, je répare pas J'attnds pas le go pour le départ, j'suis dans les hauts gradins avec les hauts gradés Ouh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Dis-moi Je sais c'que veulent les plus p'tits, c'est fumer la daronne du gérant Go, go, go Et depuis la primaire, on bricole Pah, absent à toutes les heures de colle C'est vrai C'est pas demain la veille qu'tu nous verras quémander, la tata qu'j'préfère, c'est Nicole Merci Nicole Et toi, tu veux pas nous donner la balle, t'as perdu ta place, on sait faire les jongles Tu kleh, l'tour du monde, j'le fais comme R9 Nazario On commet des crimes tous les jours, si j'ai plus un, négro, j'irais voler QCM, j'remplis la case, le dossier Pah, pah, pah, pah, QCM, j'remplis la case Ma bite, mon couteau, j'fais le job Bah ouais, parti de rien, on prendra tout Bah ouais Belek au crochet et au jab Beh, ils m'ont jeté aux lions, j'deviens un fauve Erh Faut-il rapper cent temps pour avoir le salaire à Zlatan ? Jamais d'la vie Pah, pah, pah, pah On enchaîne les délits, on enchaîne Ouais, t'es piqué par une pute que je baise Ouais On va t'niquer jusqu'à l'agonie Nan, nouvelles pes-sa, nouvelles panoplies Oh Ici, on n'aime tellement pas la police qu'on préfère crever d'la vendetta Ouais Nouveaux jouets, j'suis comme un gamin, j'vais dégainer sur toi pour voir s'il marche Go, go, go, go Tellement mauvais qu'on est vrais J'avoue, j'ai grandi entouré de fauves Ice La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tellement mauvais qu'on est vrais, j'ai grandi entouré de fauves La violence du monde, je l'ai vu La violence, j'suis tombé, j'me suis relevé C'est vrai Le panorama est le même Le pano', le panorama est le même On perd une bataille, pas la guerre, on perd une bataille, pas la guerre Tesla, Tesla</t>
+          <t>J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ss souliers J'suis au studio, elle au shopping Loin d ma salope et bas resille Parisien ambitieux, j'suis pas un paresseux Elle me raconte ses blessures sous hennessy Maman me félicite, me plébiscite Je dois contrôler le réseau, le réseau J'parle à la lune avec So le Monde, avec So la Lune Tu m'diras c'que t'as dit à l'autre Je ferai semblant de te croire Je ferai semblant de te voir Le moteur est allemand, j'passe les rapports On verra le ciel et ses continents J'la oigte c'est élégant Gaulé comme éléphant Tranquillement j'bâtis empire et bâtiments Au ciel, le monde et tous ses éléments J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Yah, Yah J'ai comme un doute j'ai comme un doute Mais rien à foutre mais rien à foutre Le jour où tu fautes le jour où tu fautes T'iras te faire foutre Fume sur ma niaks fume sur ma niaks Sers toi dans ma liasse sers toi dans ma liasse Prends les clés d'la wouh Et va claquer ce cash J'suis au studio j'suis au studio Dans la cabine dans la cabine Sous gelato sous gela, hm Et grenadine eh, eh Tu fais quoi ce soir ? tu fais quoi ce soir ? Viens rejoins moi viens rejoins moi Ramène ton pét- hein, hein J'ai des idées noires oh J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping</t>
         </is>
       </c>
     </row>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Titulaire</t>
+          <t>Univers 7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Beretta J'ai le cur dans sale état Yo, hey Traplysse Sale état Yeah Y a une seule place malgré c'que je fais Bah ouais, malgré c'que je vis Je sais qu'toi, t'es la seule Mmh qui m'aimera pour c'que j'suis C'est vrai J'vis d'un soi éternel C'est vrai, les autres, j'les cala as-p Ces tchoins Elles s'montrent sur Onlyfans, elles font les tains-p' sur Onlyfans Ouais Et tous les jours, je pense à nous, on s'imaginera sur la côte D'Azur J'appell pas trop la daronne, j'ai pris les mauvais côtés du daron Daddy Bien-bintôt, j'achète tous les hectares de ton cur Tout J'envoie tout, rien ne leak, t'es le plus précieux de mes ice Ice Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de J'ai même pas pop, j'fais plus d'argent qu'une star d'la pop Qu'une star d'la pop Antigone, elle veut qu'j'en achète deux, elle le vaut bien Ses cent G Derrière la vitre, y a plusieurs témoins, plusieurs boloss Plusieurs ients-cli Derrière les rideaux, on ne montre pas aux plus naïfs On ne montre pas Faut qu'je passe le cap, que j'aille voir celle qui la mise au monde Sa maman Des-des curs, j'en ai sept comme Méliodas, Seven Deadly Sins Hey J'meurs pas dans mon film Jamais, j'écris le scénar' Tarantino Une putain d'life, j'suis avec des loups au fond d'la prairie, eh-eh Mais malgré c'que tu penses Malgré, j'te ferai pas Abidal Jamais Au-dessus de l'avion Avion, c'est pas du taf, c'est un don Un don On s'éloigne des abymes Loin, cur abîmé, nouvelles sapes Abîmé J'suis pas mauvais dans le fond En vrai, c'est pas du taf, c'est un don T'es ma titulaire T'es ma titulaire, rien ne bouge, les autres sont niés Ouais Souvent dans le jeu, les nuits d'été sont plus longues avec elle Brune comme Hinata, j'ai pris son cur, j'lui rends en bon état Oh J'nous perds dans l'algorithme J'ai pris son cur, j'lui rends en bon état Titulaire, elle joue à tous les matchs, c'est la meilleure buteuse d'la saison Pichichi C'est bouché à Paris, viens on y va, bronzer à Oya sur un yacht, fils de Oh-oh-oh-oh Oh-oh-oh-oh</t>
+          <t>Wesh Ils parlent tous d'bitcoin Pour eux c'est la hess à vie Miskine Profitez l'équipe, pour de vrai Mes démons m'obéissent J'ai liquidité comme un paki hey Plus jamais je n'me fait trahir hey J'suis dans la surface comme un renard Extérieur du pied, j'ai pas failli Esh Thierry Henry Fuck le plus fort de ta city fuck J'ai passé l'âge de faire la bagarre fuck Business illégaux, j'suis impliqué cash Hein ? Et pendant qu'Sarko baise Carla Et pendant qu'Sarko baise Carla Le pays va mal, d'ici peut le rain-té ouvre en carrelage Guette la perf', j'enchaine que des hat-tricks Précis, j'livre au gramme près Au délibéré, y'aura aucun suspense J'coupe et décale comme au pays J'fais rentrer l'argent comme un brouteur Ici c'est Paname c'est pas L.A Ici c'est chaud comme au hammam Mon nom affiché dans l'journal J'ai fouetté la Dans le dos j'ai Ocho, au tiekar j'fais des passes comme Iniesta Ouais, j'passe à table même si j'ai pas faim J'ai connu la hess, les jours difficiles, fait pas le difficile Hein ? puto 2021 c'est sûr que j'les choque J'connais ma ce-for, j'connais mon jab Plus jamais j'roule en loc' C'est nous les meilleurs du périmètre 92100 les autres c'est d'la merde J'suis d'Boulogne comme Salif, cousin Mais ??? n'est pas de chez nous J'cuisine fort comme A.J cookin' La gov' qui passe c'est un AMG-G JJ, ramène des tasspé, j'ai plusieurs fonctions, plusieurs casquettes Et celui qui casse il va casquer il va khalass Wow, Hein A l'ancienne t'es comme un Shamballah J'suis Sané toi t'es Zabaleta soupape Y'a pas wari igo j'suis pas là 24 Carats, 24 Carats j'veux fort ! Rolex, AP, j'achète, ensuite je détaxe Dans la tanière, y'a des serpents, y'a des serpents Python, full croco, j'fais la mala comme un boug antillais boug an mwen J'crois en Dieu, j'suis un musulman Le rap c'est haram mais j'dois manger Le rap c'est haram mais j'dois manger ouais, bigo A la base j'le fais pour passer l'temps J'ai plus l'âge de prouver à quelqu'un Igo j'dois manger J'récupère j'investis direct, j'multiplie par 3 pour avoir un salaire correct Les trader sont des fils de putes Les bouts-mara, des fils de pute Président, fils de pute J'opère la nuit de noir, vêtu La dalle comme à mes débuts, comme si j'étais en chien Fumer ton salaire à l'année J'ai même pas reçu mon avance j'attends rien du per-a J'ai voulu voir, j'ai vu J'ai voulu boire, j'ai bu J'ai voulu graille, j'ai graillé J'ai voulu ken, j'les ai ken hein Ils diront qu'c'est nous les faux Ils diront qu'c'est eux les vrais Vu qu'tout est relatif Igo c'est qui les vrais ? SOSA Mes démons m'obéissent C'tout c'que j'avais</t>
         </is>
       </c>
     </row>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Un doute</t>
+          <t>Un Peu Trop #QDLV2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ss souliers J'suis au studio, elle au shopping Loin d ma salope et bas resille Parisien ambitieux, j'suis pas un paresseux Elle me raconte ses blessures sous hennessy Maman me félicite, me plébiscite Je dois contrôler le réseau, le réseau J'parle à la lune avec So le Monde, avec So la Lune Tu m'diras c'que t'as dit à l'autre Je ferai semblant de te croire Je ferai semblant de te voir Le moteur est allemand, j'passe les rapports On verra le ciel et ses continents J'la oigte c'est élégant Gaulé comme éléphant Tranquillement j'bâtis empire et bâtiments Au ciel, le monde et tous ses éléments J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Yah, Yah J'ai comme un doute j'ai comme un doute Mais rien à foutre mais rien à foutre Le jour où tu fautes le jour où tu fautes T'iras te faire foutre Fume sur ma niaks fume sur ma niaks Sers toi dans ma liasse sers toi dans ma liasse Prends les clés d'la wouh Et va claquer ce cash J'suis au studio j'suis au studio Dans la cabine dans la cabine Sous gelato sous gela, hm Et grenadine eh, eh Tu fais quoi ce soir ? tu fais quoi ce soir ? Viens rejoins moi viens rejoins moi Ramène ton pét- hein, hein J'ai des idées noires oh J'ai comme un doute sur toi Mais tranquille je prends sur moi T'es juste moins une pute que l'autre Je pourrais me passer de toi Le soleil se lève une fois Je pense à nous deux souvent Le bonheur c'est nous sans eux Le malheur c'est toi sans moi Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping Ma veut du papier Du papier pour ses souliers J'suis au studio, elle au shopping</t>
+          <t>Trop nerveux pour l'Etat français Jeune africain dans les tranchés J'arrive bouillant dans ma lancée Vouloir nous teste c'est pas censé Semi-auto te fera danser Manigancées sont nos idées J't'ai vu venir comme un crochet Après minuit on est ganté Récidiviste mais pas teu-bé Les frérots sont blasés mais platrés Tu verras que la vie est belle, si t'as connu la hess tu ne pourras pas flamber J'suis au entre quatre tours, ça sent la perquisition je vais m'planquer Des aller-retours en détention, certains n'ont connu que la prison Renoi bre-som comme Chief Keef C'est donnant-donnant c'est kiff-kiff wesh Tout est réel rien n'est fictif C'est nous les méchants, vous les chics types Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Merci seigneur j'vais enfin m'venger De ceux qui m'voyaient manger Le reste de leur assiette j'suis pas venu sympathiser Nouvelle dégaine nouveaux souliers Ton meilleur shab a parlé Cassage de porte coup d'bélier 6 du mat' en train d'roupiller Ouais ma gueule fais pas la morale Nos grands frères sont dépassés Nos daronnes le sont aussi, majeur avant dix-huit balais Allô papa comment tu vas ? Un nouveau soucis d'famille Un et des CD j'm'en veux de pas être millionaire Un SMIC par jour j'ai le bon tempo Violent comme Crespo, j'suis dans la cabine j'veux RS4 jantes chromes, braqué place Vendôme Ils m'disaient c'est mort aujourd'hui j'les baise tous, aujourd'hui j'les baise tous J'ai vidé leur poche j'ai vidé ma cartouche, j'ai vidé ma cartouche Partouze ! Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Violence, Kmer a.k.a Monsieur So Commence à comprendre le délire là</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Univers 7</t>
+          <t>Violence #QDLV</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wesh Ils parlent tous d'bitcoin Pour eux c'est la hess à vie Miskine Profitez l'équipe, pour de vrai Mes démons m'obéissent J'ai liquidité comme un paki hey Plus jamais je n'me fait trahir hey J'suis dans la surface comme un renard Extérieur du pied, j'ai pas failli Esh Thierry Henry Fuck le plus fort de ta city fuck J'ai passé l'âge de faire la bagarre fuck Business illégaux, j'suis impliqué cash Hein ? Et pendant qu'Sarko baise Carla Et pendant qu'Sarko baise Carla Le pays va mal, d'ici peut le rain-té ouvre en carrelage Guette la perf', j'enchaine que des hat-tricks Précis, j'livre au gramme près Au délibéré, y'aura aucun suspense J'coupe et décale comme au pays J'fais rentrer l'argent comme un brouteur Ici c'est Paname c'est pas L.A Ici c'est chaud comme au hammam Mon nom affiché dans l'journal J'ai fouetté la Dans le dos j'ai Ocho, au tiekar j'fais des passes comme Iniesta Ouais, j'passe à table même si j'ai pas faim J'ai connu la hess, les jours difficiles, fait pas le difficile Hein ? puto 2021 c'est sûr que j'les choque J'connais ma ce-for, j'connais mon jab Plus jamais j'roule en loc' C'est nous les meilleurs du périmètre 92100 les autres c'est d'la merde J'suis d'Boulogne comme Salif, cousin Mais ??? n'est pas de chez nous J'cuisine fort comme A.J cookin' La gov' qui passe c'est un AMG-G JJ, ramène des tasspé, j'ai plusieurs fonctions, plusieurs casquettes Et celui qui casse il va casquer il va khalass Wow, Hein A l'ancienne t'es comme un Shamballah J'suis Sané toi t'es Zabaleta soupape Y'a pas wari igo j'suis pas là 24 Carats, 24 Carats j'veux fort ! Rolex, AP, j'achète, ensuite je détaxe Dans la tanière, y'a des serpents, y'a des serpents Python, full croco, j'fais la mala comme un boug antillais boug an mwen J'crois en Dieu, j'suis un musulman Le rap c'est haram mais j'dois manger Le rap c'est haram mais j'dois manger ouais, bigo A la base j'le fais pour passer l'temps J'ai plus l'âge de prouver à quelqu'un Igo j'dois manger J'récupère j'investis direct, j'multiplie par 3 pour avoir un salaire correct Les trader sont des fils de putes Les bouts-mara, des fils de pute Président, fils de pute J'opère la nuit de noir, vêtu La dalle comme à mes débuts, comme si j'étais en chien Fumer ton salaire à l'année J'ai même pas reçu mon avance j'attends rien du per-a J'ai voulu voir, j'ai vu J'ai voulu boire, j'ai bu J'ai voulu graille, j'ai graillé J'ai voulu ken, j'les ai ken hein Ils diront qu'c'est nous les faux Ils diront qu'c'est eux les vrais Vu qu'tout est relatif Igo c'est qui les vrais ? SOSA Mes démons m'obéissent C'tout c'que j'avais</t>
+          <t>Han, han, ouais, ouais, ouais, ouais Ouais, ouais, ouais Que de la violence C'est violant Ouais ouais ouais Eh Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Quelques kilos dans l'appartement Euros dollars dans le chargement Les voisins nous prennent pour des garnements On fait plus de sous que le Parlement Elle connaît la valeur du vêtement Tu crois nous aimer mais laisse faire le temps J'ai souris la veille du crime, le temps n'efface pas les séquelles de nos châtiments Je bibi la daube dans le binks' Un gramme, deux grammes dans les fesses En Vespa j'vais livrer dans l'sei-ze J'suis ravis frérot quand j'encai-sse Même en liberté j'me sens menotté Les salopes diront qu'ils nous ont aidé La plupart en pp sont endettés L'union fait la force des plus fatigués Les anciens du tié-kar sont épuisés La douleur est telle qu'elle me dit d'arrêter J'suis dans son vagin comme à la cité J'fais des va-et-viens pour me soulager Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Wesh ? OL sur le maillot BAS c'est la mentale On gère toutes sortes de créneaux J'suis partout où c'est rentable En temps de guerre pas de repos On fera la guerre à l'équipe d'en face J'ai grandi dans les ortilles Les blessures sont mon pare-balles Ces temps-ci mon bigo grésille La brigade financière à nos trousses Pour finir à Bois d'Ar' ou Fleury C'est ca d'être un loup parmi les loups Tu nous verras jamais à genou Qui prétend au règne reste debout Ta dégaine me dira qu't'es chelou On fait pas crédit comme les pakatou Ouais mon gars, tout est carré tout est sale Wesh, j'suis africain, rien à foutre des USA Ouais mon gars, tout est carré tout est sale Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Yeah... Yeah... Gangz!</t>
         </is>
       </c>
     </row>
@@ -2146,44 +2146,10 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Un Peu Trop #QDLV2</t>
+          <t>VVS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
-        <is>
-          <t>Trop nerveux pour l'Etat français Jeune africain dans les tranchés J'arrive bouillant dans ma lancée Vouloir nous teste c'est pas censé Semi-auto te fera danser Manigancées sont nos idées J't'ai vu venir comme un crochet Après minuit on est ganté Récidiviste mais pas teu-bé Les frérots sont blasés mais platrés Tu verras que la vie est belle, si t'as connu la hess tu ne pourras pas flamber J'suis au entre quatre tours, ça sent la perquisition je vais m'planquer Des aller-retours en détention, certains n'ont connu que la prison Renoi bre-som comme Chief Keef C'est donnant-donnant c'est kiff-kiff wesh Tout est réel rien n'est fictif C'est nous les méchants, vous les chics types Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Merci seigneur j'vais enfin m'venger De ceux qui m'voyaient manger Le reste de leur assiette j'suis pas venu sympathiser Nouvelle dégaine nouveaux souliers Ton meilleur shab a parlé Cassage de porte coup d'bélier 6 du mat' en train d'roupiller Ouais ma gueule fais pas la morale Nos grands frères sont dépassés Nos daronnes le sont aussi, majeur avant dix-huit balais Allô papa comment tu vas ? Un nouveau soucis d'famille Un et des CD j'm'en veux de pas être millionaire Un SMIC par jour j'ai le bon tempo Violent comme Crespo, j'suis dans la cabine j'veux RS4 jantes chromes, braqué place Vendôme Ils m'disaient c'est mort aujourd'hui j'les baise tous, aujourd'hui j'les baise tous J'ai vidé leur poche j'ai vidé ma cartouche, j'ai vidé ma cartouche Partouze ! Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on bicrave bien la dose, on bicrave bien la white Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux, on bicrave bien la white Un peu trop nerveux, depuis tout petit mon kho' Un peu trop nerveux, on s'fait du mal à nous-mêmes Un peu trop nerveux, j'ai le cur rempli de haine Un peu trop nerveux, Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Un peu trop nerveux Violence, Kmer a.k.a Monsieur So Commence à comprendre le délire là</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Elh Kmer</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Violence #QDLV</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Han, han, ouais, ouais, ouais, ouais Ouais, ouais, ouais Que de la violence C'est violant Ouais ouais ouais Eh Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Quelques kilos dans l'appartement Euros dollars dans le chargement Les voisins nous prennent pour des garnements On fait plus de sous que le Parlement Elle connaît la valeur du vêtement Tu crois nous aimer mais laisse faire le temps J'ai souris la veille du crime, le temps n'efface pas les séquelles de nos châtiments Je bibi la daube dans le binks' Un gramme, deux grammes dans les fesses En Vespa j'vais livrer dans l'sei-ze J'suis ravis frérot quand j'encai-sse Même en liberté j'me sens menotté Les salopes diront qu'ils nous ont aidé La plupart en pp sont endettés L'union fait la force des plus fatigués Les anciens du tié-kar sont épuisés La douleur est telle qu'elle me dit d'arrêter J'suis dans son vagin comme à la cité J'fais des va-et-viens pour me soulager Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Wesh ? OL sur le maillot BAS c'est la mentale On gère toutes sortes de créneaux J'suis partout où c'est rentable En temps de guerre pas de repos On fera la guerre à l'équipe d'en face J'ai grandi dans les ortilles Les blessures sont mon pare-balles Ces temps-ci mon bigo grésille La brigade financière à nos trousses Pour finir à Bois d'Ar' ou Fleury C'est ca d'être un loup parmi les loups Tu nous verras jamais à genou Qui prétend au règne reste debout Ta dégaine me dira qu't'es chelou On fait pas crédit comme les pakatou Ouais mon gars, tout est carré tout est sale Wesh, j'suis africain, rien à foutre des USA Ouais mon gars, tout est carré tout est sale Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent J'enfile la cagoule j'enfile les gants C'est élégant, hein ? Quelques kilos dans l'appartement Que d'la violence dans mon continent Le niquage de mère devient permanent Je tiens les murs de mon bâtiment, évidemment Yeah... Yeah... Gangz!</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Elh Kmer</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>VVS</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>T'as vu La faune, la flore, j'ai bibi tous mes rêves Dans l'hall, il fait noir On s'fie à l'odorat, le parfum de Tanger Eh, e flair, il est bon, j'ai trouvé la faille trouvé la faille, j'ai trouvé la faille trouvé la faille Ouais, ouais Terrain glissant pour les mômes, terrain glissant pour les mômes La plupart n'ont pas eu le bac nan, savent pas lire mais savent faire les comptes, ouais Plus rien à fêter depuis l'premier janvier, j'suis pas dans la bringue j'suis dans l'binks J'vais pas rapper jusqu'à mes 40 balais si ça marche pas j'vais taper un brinks Une cagoule un T-Max ca fait rla, tu payes pas dans ls temps tu verras ouais, ouais La gloire j'n veux pas j'me fais rare des années que je rappe mais je garde la même rage Eh, j'suis dans les wayes wayes, trois quarts du tie-quar finit incarcéré Pour trois quarts la raison c'est la précarité, paro' comme d'hab je me fie qu'à mes idées J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS Trau-le m'a tej' pour des mots, que j'pensais même pas, c'est d'la faute à nous deux Mon cri résonne dans la pénombre, vaincu ma haine dans les sonorités Il paraît qu'j'suis mauvais, qu'à faute avoué j'ai pardonné On a c'que l'on mérite c'est faux, proverbe qui nous aide à être moins malheureux Stop, mon cur j'te l'avais loué, t'en a fais c'que tu veux, m'le rends abîmé Grandi près du feu donc nos curs sont froids C'est ça moi j'continue à bibi la Plus parlé depuis longtemps ouais, plus parlé depuis longtemps, ça whippin', ça whippin' Un te-traî en cache p'tet un autre, un cauchemar en précède un autre Ca s'répète toute l'année Le soleil se lève sur la ville, il éclaire nos péchés en vain L'humain est si moche de près, Dieu créa la terre et l'Homme l'armé de poings J'ai mal au cur everyday, j'ai mal au cur everyday Quand j'pense à la ronne-da, ce pays lui a fait du mal, ce pays lui a fait du mal J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis J'ai mille mélodies j'ai mille mélodies Mon cur s'assombrit mon cur s'assombrit Je crains l'hiver quand l'soleil se couche arrivent les ennuis arrivent les ennuis VVS, VVS, VVS, VVS, VVS, VVS VVS, VVS, VVS, VVS, VVS, VVS</t>
         </is>
